--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -481,10 +481,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>237650353920</t>
-        </is>
+      <c r="A2" t="n">
+        <v>237650353920</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -520,10 +518,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>237650874464</t>
-        </is>
+      <c r="A3" t="n">
+        <v>237650874464</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -559,10 +555,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>237650934256</t>
-        </is>
+      <c r="A4" t="n">
+        <v>237650934256</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -598,10 +592,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>237650988697</t>
-        </is>
+      <c r="A5" t="n">
+        <v>237650988697</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -637,10 +629,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>237651213730</t>
-        </is>
+      <c r="A6" t="n">
+        <v>237651213730</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -676,10 +666,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>237651433330</t>
-        </is>
+      <c r="A7" t="n">
+        <v>237651433330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -715,10 +703,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>237651533411</t>
-        </is>
+      <c r="A8" t="n">
+        <v>237651533411</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -754,10 +740,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>237651809692</t>
-        </is>
+      <c r="A9" t="n">
+        <v>237651809692</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -793,10 +777,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>237651843112</t>
-        </is>
+      <c r="A10" t="n">
+        <v>237651843112</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -832,10 +814,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>237651927448</t>
-        </is>
+      <c r="A11" t="n">
+        <v>237651927448</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -871,10 +851,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>237651927707</t>
-        </is>
+      <c r="A12" t="n">
+        <v>237651927707</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -910,10 +888,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>237651937677</t>
-        </is>
+      <c r="A13" t="n">
+        <v>237651937677</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -949,10 +925,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>237652194260</t>
-        </is>
+      <c r="A14" t="n">
+        <v>237652194260</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -988,10 +962,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>237652194293</t>
-        </is>
+      <c r="A15" t="n">
+        <v>237652194293</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1027,10 +999,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>237652285489</t>
-        </is>
+      <c r="A16" t="n">
+        <v>237652285489</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1066,10 +1036,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>237652297747</t>
-        </is>
+      <c r="A17" t="n">
+        <v>237652297747</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1105,10 +1073,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>237652427111</t>
-        </is>
+      <c r="A18" t="n">
+        <v>237652427111</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1144,10 +1110,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>237652667691</t>
-        </is>
+      <c r="A19" t="n">
+        <v>237652667691</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1183,10 +1147,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>237652678854</t>
-        </is>
+      <c r="A20" t="n">
+        <v>237652678854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1222,10 +1184,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>237652807179</t>
-        </is>
+      <c r="A21" t="n">
+        <v>237652807179</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1261,10 +1221,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>237652927180</t>
-        </is>
+      <c r="A22" t="n">
+        <v>237652927180</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1300,10 +1258,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>237652940152</t>
-        </is>
+      <c r="A23" t="n">
+        <v>237652940152</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1339,10 +1295,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>237653294562</t>
-        </is>
+      <c r="A24" t="n">
+        <v>237653294562</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1378,10 +1332,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>237653316656</t>
-        </is>
+      <c r="A25" t="n">
+        <v>237653316656</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1417,10 +1369,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>237653321271</t>
-        </is>
+      <c r="A26" t="n">
+        <v>237653321271</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1456,10 +1406,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>237653430377</t>
-        </is>
+      <c r="A27" t="n">
+        <v>237653430377</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1495,10 +1443,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>237653650087</t>
-        </is>
+      <c r="A28" t="n">
+        <v>237653650087</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1534,10 +1480,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>237653854849</t>
-        </is>
+      <c r="A29" t="n">
+        <v>237653854849</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1573,10 +1517,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>237653901359</t>
-        </is>
+      <c r="A30" t="n">
+        <v>237653901359</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1612,10 +1554,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>237653946894</t>
-        </is>
+      <c r="A31" t="n">
+        <v>237653946894</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1651,10 +1591,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>237653959075</t>
-        </is>
+      <c r="A32" t="n">
+        <v>237653959075</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1690,10 +1628,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>237654137136</t>
-        </is>
+      <c r="A33" t="n">
+        <v>237654137136</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1729,10 +1665,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>237654150202</t>
-        </is>
+      <c r="A34" t="n">
+        <v>237654150202</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1768,10 +1702,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>237654164073</t>
-        </is>
+      <c r="A35" t="n">
+        <v>237654164073</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1807,10 +1739,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>237654247769</t>
-        </is>
+      <c r="A36" t="n">
+        <v>237654247769</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1846,10 +1776,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>237654261990</t>
-        </is>
+      <c r="A37" t="n">
+        <v>237654261990</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1885,10 +1813,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>237654270800</t>
-        </is>
+      <c r="A38" t="n">
+        <v>237654270800</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1924,10 +1850,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>237654355100</t>
-        </is>
+      <c r="A39" t="n">
+        <v>237654355100</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1963,10 +1887,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>237670097580</t>
-        </is>
+      <c r="A40" t="n">
+        <v>237670097580</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2002,10 +1924,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>237670174030</t>
-        </is>
+      <c r="A41" t="n">
+        <v>237670174030</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2041,10 +1961,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>237670806337</t>
-        </is>
+      <c r="A42" t="n">
+        <v>237670806337</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2080,10 +1998,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>237670904526</t>
-        </is>
+      <c r="A43" t="n">
+        <v>237670904526</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2119,10 +2035,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>237670905160</t>
-        </is>
+      <c r="A44" t="n">
+        <v>237670905160</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2158,10 +2072,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>237671105715</t>
-        </is>
+      <c r="A45" t="n">
+        <v>237671105715</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2197,10 +2109,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>237671290825</t>
-        </is>
+      <c r="A46" t="n">
+        <v>237671290825</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2236,10 +2146,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>237671351291</t>
-        </is>
+      <c r="A47" t="n">
+        <v>237671351291</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2275,10 +2183,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>237671432720</t>
-        </is>
+      <c r="A48" t="n">
+        <v>237671432720</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2314,10 +2220,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>237671605749</t>
-        </is>
+      <c r="A49" t="n">
+        <v>237671605749</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2353,10 +2257,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>237671631547</t>
-        </is>
+      <c r="A50" t="n">
+        <v>237671631547</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2392,10 +2294,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>237671645947</t>
-        </is>
+      <c r="A51" t="n">
+        <v>237671645947</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2431,10 +2331,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>237671646117</t>
-        </is>
+      <c r="A52" t="n">
+        <v>237671646117</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2470,10 +2368,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>237671664239</t>
-        </is>
+      <c r="A53" t="n">
+        <v>237671664239</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2509,10 +2405,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>237671694408</t>
-        </is>
+      <c r="A54" t="n">
+        <v>237671694408</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2548,10 +2442,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>237671823369</t>
-        </is>
+      <c r="A55" t="n">
+        <v>237671823369</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2587,10 +2479,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>237671823371</t>
-        </is>
+      <c r="A56" t="n">
+        <v>237671823371</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2626,10 +2516,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>237671825253</t>
-        </is>
+      <c r="A57" t="n">
+        <v>237671825253</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2665,10 +2553,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>237671838460</t>
-        </is>
+      <c r="A58" t="n">
+        <v>237671838460</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2704,10 +2590,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>237671892536</t>
-        </is>
+      <c r="A59" t="n">
+        <v>237671892536</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2743,10 +2627,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>237672029564</t>
-        </is>
+      <c r="A60" t="n">
+        <v>237672029564</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2782,10 +2664,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>237672064755</t>
-        </is>
+      <c r="A61" t="n">
+        <v>237672064755</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2821,10 +2701,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>237672128028</t>
-        </is>
+      <c r="A62" t="n">
+        <v>237672128028</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2860,10 +2738,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>237672276931</t>
-        </is>
+      <c r="A63" t="n">
+        <v>237672276931</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2899,10 +2775,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>237672777139</t>
-        </is>
+      <c r="A64" t="n">
+        <v>237672777139</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2938,10 +2812,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>237672920086</t>
-        </is>
+      <c r="A65" t="n">
+        <v>237672920086</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2977,10 +2849,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>237672956746</t>
-        </is>
+      <c r="A66" t="n">
+        <v>237672956746</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3016,10 +2886,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>237673018936</t>
-        </is>
+      <c r="A67" t="n">
+        <v>237673018936</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3055,10 +2923,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>237673220938</t>
-        </is>
+      <c r="A68" t="n">
+        <v>237673220938</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3094,10 +2960,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>237673560726</t>
-        </is>
+      <c r="A69" t="n">
+        <v>237673560726</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3133,10 +2997,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>237673718583</t>
-        </is>
+      <c r="A70" t="n">
+        <v>237673718583</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3172,10 +3034,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>237673816350</t>
-        </is>
+      <c r="A71" t="n">
+        <v>237673816350</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3211,10 +3071,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>237674000053</t>
-        </is>
+      <c r="A72" t="n">
+        <v>237674000053</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3250,10 +3108,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>237674062440</t>
-        </is>
+      <c r="A73" t="n">
+        <v>237674062440</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3289,10 +3145,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>237674069453</t>
-        </is>
+      <c r="A74" t="n">
+        <v>237674069453</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3328,10 +3182,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>237674240552</t>
-        </is>
+      <c r="A75" t="n">
+        <v>237674240552</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3367,10 +3219,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>237674248126</t>
-        </is>
+      <c r="A76" t="n">
+        <v>237674248126</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3406,10 +3256,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>237674435926</t>
-        </is>
+      <c r="A77" t="n">
+        <v>237674435926</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3445,10 +3293,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>237674437082</t>
-        </is>
+      <c r="A78" t="n">
+        <v>237674437082</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3484,10 +3330,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>237674450580</t>
-        </is>
+      <c r="A79" t="n">
+        <v>237674450580</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3523,10 +3367,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>237674466307</t>
-        </is>
+      <c r="A80" t="n">
+        <v>237674466307</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3562,10 +3404,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>237674580187</t>
-        </is>
+      <c r="A81" t="n">
+        <v>237674580187</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3601,10 +3441,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>237674629681</t>
-        </is>
+      <c r="A82" t="n">
+        <v>237674629681</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3640,10 +3478,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>237674673359</t>
-        </is>
+      <c r="A83" t="n">
+        <v>237674673359</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3679,10 +3515,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>237674841555</t>
-        </is>
+      <c r="A84" t="n">
+        <v>237674841555</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3718,10 +3552,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>237674853971</t>
-        </is>
+      <c r="A85" t="n">
+        <v>237674853971</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3757,10 +3589,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>237674884831</t>
-        </is>
+      <c r="A86" t="n">
+        <v>237674884831</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3796,10 +3626,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>237674884916</t>
-        </is>
+      <c r="A87" t="n">
+        <v>237674884916</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3835,10 +3663,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>237674890653</t>
-        </is>
+      <c r="A88" t="n">
+        <v>237674890653</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3874,10 +3700,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>237674892352</t>
-        </is>
+      <c r="A89" t="n">
+        <v>237674892352</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3913,10 +3737,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>237674895078</t>
-        </is>
+      <c r="A90" t="n">
+        <v>237674895078</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -3952,10 +3774,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>237674895309</t>
-        </is>
+      <c r="A91" t="n">
+        <v>237674895309</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -3991,10 +3811,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>237674895389</t>
-        </is>
+      <c r="A92" t="n">
+        <v>237674895389</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -4030,10 +3848,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>237674895877</t>
-        </is>
+      <c r="A93" t="n">
+        <v>237674895877</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4069,10 +3885,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>237674899678</t>
-        </is>
+      <c r="A94" t="n">
+        <v>237674899678</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -4108,10 +3922,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>237674929391</t>
-        </is>
+      <c r="A95" t="n">
+        <v>237674929391</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4147,10 +3959,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>237674933048</t>
-        </is>
+      <c r="A96" t="n">
+        <v>237674933048</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4186,10 +3996,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>237674956331</t>
-        </is>
+      <c r="A97" t="n">
+        <v>237674956331</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4225,10 +4033,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>237674979451</t>
-        </is>
+      <c r="A98" t="n">
+        <v>237674979451</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4264,10 +4070,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>237675239360</t>
-        </is>
+      <c r="A99" t="n">
+        <v>237675239360</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4303,10 +4107,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>237675396752</t>
-        </is>
+      <c r="A100" t="n">
+        <v>237675396752</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4342,10 +4144,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>237675432472</t>
-        </is>
+      <c r="A101" t="n">
+        <v>237675432472</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4381,10 +4181,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>237675443028</t>
-        </is>
+      <c r="A102" t="n">
+        <v>237675443028</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4420,10 +4218,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>237675457527</t>
-        </is>
+      <c r="A103" t="n">
+        <v>237675457527</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4459,10 +4255,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>237675621967</t>
-        </is>
+      <c r="A104" t="n">
+        <v>237675621967</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4498,10 +4292,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>237675641522</t>
-        </is>
+      <c r="A105" t="n">
+        <v>237675641522</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4537,10 +4329,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>237675779272</t>
-        </is>
+      <c r="A106" t="n">
+        <v>237675779272</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4576,10 +4366,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>237675788721</t>
-        </is>
+      <c r="A107" t="n">
+        <v>237675788721</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4615,10 +4403,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>237675831509</t>
-        </is>
+      <c r="A108" t="n">
+        <v>237675831509</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4654,10 +4440,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>237675944533</t>
-        </is>
+      <c r="A109" t="n">
+        <v>237675944533</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4693,10 +4477,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>237675986754</t>
-        </is>
+      <c r="A110" t="n">
+        <v>237675986754</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -4732,10 +4514,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>237676036869</t>
-        </is>
+      <c r="A111" t="n">
+        <v>237676036869</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4771,10 +4551,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>237676076193</t>
-        </is>
+      <c r="A112" t="n">
+        <v>237676076193</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4810,10 +4588,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>237676286294</t>
-        </is>
+      <c r="A113" t="n">
+        <v>237676286294</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4849,10 +4625,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>237676301061</t>
-        </is>
+      <c r="A114" t="n">
+        <v>237676301061</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4888,10 +4662,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>237676391673</t>
-        </is>
+      <c r="A115" t="n">
+        <v>237676391673</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4927,10 +4699,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>237676439452</t>
-        </is>
+      <c r="A116" t="n">
+        <v>237676439452</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -4966,10 +4736,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>237676575053</t>
-        </is>
+      <c r="A117" t="n">
+        <v>237676575053</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5005,10 +4773,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>237676695935</t>
-        </is>
+      <c r="A118" t="n">
+        <v>237676695935</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5044,10 +4810,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>237676770192</t>
-        </is>
+      <c r="A119" t="n">
+        <v>237676770192</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5083,10 +4847,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>237677178575</t>
-        </is>
+      <c r="A120" t="n">
+        <v>237677178575</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5122,10 +4884,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>237677304210</t>
-        </is>
+      <c r="A121" t="n">
+        <v>237677304210</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5161,10 +4921,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>237677313421</t>
-        </is>
+      <c r="A122" t="n">
+        <v>237677313421</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5200,10 +4958,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>237677316351</t>
-        </is>
+      <c r="A123" t="n">
+        <v>237677316351</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5239,10 +4995,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>237677525770</t>
-        </is>
+      <c r="A124" t="n">
+        <v>237677525770</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5278,10 +5032,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>237677567788</t>
-        </is>
+      <c r="A125" t="n">
+        <v>237677567788</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5317,10 +5069,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>237677833877</t>
-        </is>
+      <c r="A126" t="n">
+        <v>237677833877</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5356,10 +5106,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>237677880357</t>
-        </is>
+      <c r="A127" t="n">
+        <v>237677880357</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5395,10 +5143,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>237678046498</t>
-        </is>
+      <c r="A128" t="n">
+        <v>237678046498</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5434,10 +5180,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>237678319711</t>
-        </is>
+      <c r="A129" t="n">
+        <v>237678319711</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5473,10 +5217,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>237678370615</t>
-        </is>
+      <c r="A130" t="n">
+        <v>237678370615</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5512,10 +5254,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>237678384388</t>
-        </is>
+      <c r="A131" t="n">
+        <v>237678384388</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -5551,10 +5291,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>237678530662</t>
-        </is>
+      <c r="A132" t="n">
+        <v>237678530662</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5590,10 +5328,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>237678559161</t>
-        </is>
+      <c r="A133" t="n">
+        <v>237678559161</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -5629,10 +5365,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>237678623874</t>
-        </is>
+      <c r="A134" t="n">
+        <v>237678623874</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5668,10 +5402,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>237678637179</t>
-        </is>
+      <c r="A135" t="n">
+        <v>237678637179</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5707,10 +5439,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>237678836319</t>
-        </is>
+      <c r="A136" t="n">
+        <v>237678836319</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5746,10 +5476,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>237678854978</t>
-        </is>
+      <c r="A137" t="n">
+        <v>237678854978</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5785,10 +5513,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>237678872943</t>
-        </is>
+      <c r="A138" t="n">
+        <v>237678872943</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -5824,10 +5550,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>237678965562</t>
-        </is>
+      <c r="A139" t="n">
+        <v>237678965562</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5863,10 +5587,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>237679038720</t>
-        </is>
+      <c r="A140" t="n">
+        <v>237679038720</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5902,10 +5624,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>237679068456</t>
-        </is>
+      <c r="A141" t="n">
+        <v>237679068456</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -5941,10 +5661,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>237679071551</t>
-        </is>
+      <c r="A142" t="n">
+        <v>237679071551</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -5980,10 +5698,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>237679087694</t>
-        </is>
+      <c r="A143" t="n">
+        <v>237679087694</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6019,10 +5735,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>237679111075</t>
-        </is>
+      <c r="A144" t="n">
+        <v>237679111075</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6058,10 +5772,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>237679428698</t>
-        </is>
+      <c r="A145" t="n">
+        <v>237679428698</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6097,10 +5809,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>237679551262</t>
-        </is>
+      <c r="A146" t="n">
+        <v>237679551262</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6136,10 +5846,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>237679553674</t>
-        </is>
+      <c r="A147" t="n">
+        <v>237679553674</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6175,10 +5883,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>237679580678</t>
-        </is>
+      <c r="A148" t="n">
+        <v>237679580678</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6214,10 +5920,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>237679808809</t>
-        </is>
+      <c r="A149" t="n">
+        <v>237679808809</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6253,10 +5957,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>237679884264</t>
-        </is>
+      <c r="A150" t="n">
+        <v>237679884264</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6292,10 +5994,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>237680116452</t>
-        </is>
+      <c r="A151" t="n">
+        <v>237680116452</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6331,10 +6031,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>237680119435</t>
-        </is>
+      <c r="A152" t="n">
+        <v>237680119435</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6370,10 +6068,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>237680144977</t>
-        </is>
+      <c r="A153" t="n">
+        <v>237680144977</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6409,10 +6105,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>237680435802</t>
-        </is>
+      <c r="A154" t="n">
+        <v>237680435802</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -6448,10 +6142,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>237680472978</t>
-        </is>
+      <c r="A155" t="n">
+        <v>237680472978</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6487,10 +6179,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>237680574202</t>
-        </is>
+      <c r="A156" t="n">
+        <v>237680574202</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6526,10 +6216,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>237680670799</t>
-        </is>
+      <c r="A157" t="n">
+        <v>237680670799</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6565,10 +6253,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>237680857383</t>
-        </is>
+      <c r="A158" t="n">
+        <v>237680857383</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6604,10 +6290,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>237680943213</t>
-        </is>
+      <c r="A159" t="n">
+        <v>237680943213</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6643,10 +6327,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>237681019523</t>
-        </is>
+      <c r="A160" t="n">
+        <v>237681019523</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6682,10 +6364,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>237681114247</t>
-        </is>
+      <c r="A161" t="n">
+        <v>237681114247</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -6721,10 +6401,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>237681118330</t>
-        </is>
+      <c r="A162" t="n">
+        <v>237681118330</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6760,10 +6438,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>237681299829</t>
-        </is>
+      <c r="A163" t="n">
+        <v>237681299829</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6799,10 +6475,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>237681602244</t>
-        </is>
+      <c r="A164" t="n">
+        <v>237681602244</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6838,10 +6512,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>237681603496</t>
-        </is>
+      <c r="A165" t="n">
+        <v>237681603496</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6877,10 +6549,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>237681655241</t>
-        </is>
+      <c r="A166" t="n">
+        <v>237681655241</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -6916,10 +6586,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>237681657614</t>
-        </is>
+      <c r="A167" t="n">
+        <v>237681657614</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -6955,10 +6623,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>237681657939</t>
-        </is>
+      <c r="A168" t="n">
+        <v>237681657939</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -6994,10 +6660,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>237681662596</t>
-        </is>
+      <c r="A169" t="n">
+        <v>237681662596</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -7033,10 +6697,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>237681662606</t>
-        </is>
+      <c r="A170" t="n">
+        <v>237681662606</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7072,10 +6734,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>237681662680</t>
-        </is>
+      <c r="A171" t="n">
+        <v>237681662680</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7111,10 +6771,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>237681678622</t>
-        </is>
+      <c r="A172" t="n">
+        <v>237681678622</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -7150,10 +6808,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>237681679096</t>
-        </is>
+      <c r="A173" t="n">
+        <v>237681679096</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7189,10 +6845,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>237681862876</t>
-        </is>
+      <c r="A174" t="n">
+        <v>237681862876</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7228,10 +6882,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>237682117915</t>
-        </is>
+      <c r="A175" t="n">
+        <v>237682117915</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -7267,10 +6919,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>237682154553</t>
-        </is>
+      <c r="A176" t="n">
+        <v>237682154553</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7306,10 +6956,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>237682238745</t>
-        </is>
+      <c r="A177" t="n">
+        <v>237682238745</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -7345,10 +6993,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>237682316602</t>
-        </is>
+      <c r="A178" t="n">
+        <v>237682316602</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -7384,10 +7030,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>237682368679</t>
-        </is>
+      <c r="A179" t="n">
+        <v>237682368679</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7423,10 +7067,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>237682370358</t>
-        </is>
+      <c r="A180" t="n">
+        <v>237682370358</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7462,10 +7104,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>237682480811</t>
-        </is>
+      <c r="A181" t="n">
+        <v>237682480811</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -7501,10 +7141,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>237682612277</t>
-        </is>
+      <c r="A182" t="n">
+        <v>237682612277</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7540,10 +7178,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>237682639044</t>
-        </is>
+      <c r="A183" t="n">
+        <v>237682639044</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7579,10 +7215,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>237683023087</t>
-        </is>
+      <c r="A184" t="n">
+        <v>237683023087</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7618,10 +7252,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>237683368985</t>
-        </is>
+      <c r="A185" t="n">
+        <v>237683368985</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7657,10 +7289,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>237683379070</t>
-        </is>
+      <c r="A186" t="n">
+        <v>237683379070</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7696,10 +7326,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>237683379155</t>
-        </is>
+      <c r="A187" t="n">
+        <v>237683379155</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7735,10 +7363,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>237683386020</t>
-        </is>
+      <c r="A188" t="n">
+        <v>237683386020</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7774,10 +7400,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>237683396173</t>
-        </is>
+      <c r="A189" t="n">
+        <v>237683396173</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -7813,10 +7437,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>237683400719</t>
-        </is>
+      <c r="A190" t="n">
+        <v>237683400719</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -7852,10 +7474,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>237683408221</t>
-        </is>
+      <c r="A191" t="n">
+        <v>237683408221</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -7891,10 +7511,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>237683555873</t>
-        </is>
+      <c r="A192" t="n">
+        <v>237683555873</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -7930,10 +7548,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>237683730580</t>
-        </is>
+      <c r="A193" t="n">
+        <v>237683730580</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,13 +503,13 @@
         <v>218865</v>
       </c>
       <c r="F2" t="n">
-        <v>965420</v>
+        <v>1069463</v>
       </c>
       <c r="G2" t="n">
-        <v>746555</v>
+        <v>850598</v>
       </c>
       <c r="H2" t="n">
-        <v>4.411029630137299</v>
+        <v>4.886404861444269</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -519,71 +519,71 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>237650353920</v>
+        <v>237650651854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rte_4</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Socaver Ndongbong</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>218865</v>
+        <v>173354.6</v>
       </c>
       <c r="F3" t="n">
-        <v>965420</v>
+        <v>270213</v>
       </c>
       <c r="G3" t="n">
-        <v>746555</v>
+        <v>96858.39999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>4.411029630137299</v>
+        <v>1.558729909676467</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>237651433330</v>
+        <v>237650874464</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RAOUL TCHANGA TCHUALEU</t>
+          <t>ANGE ASTRIDE VIAZIE DJOMBI NYADJO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rte_7</t>
+          <t>Rte_4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Makepe Conquete</t>
+          <t>Pk8</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59904.58333333334</v>
+        <v>189390.9090909091</v>
       </c>
       <c r="F4" t="n">
-        <v>4682</v>
+        <v>108281</v>
       </c>
       <c r="G4" t="n">
-        <v>-55222.58333333334</v>
+        <v>-81109.90909090906</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07815762566859798</v>
+        <v>0.5717328277252437</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         <v>21660</v>
       </c>
       <c r="F5" t="n">
-        <v>172110</v>
+        <v>128932</v>
       </c>
       <c r="G5" t="n">
-        <v>150450</v>
+        <v>107272</v>
       </c>
       <c r="H5" t="n">
-        <v>7.945983379501385</v>
+        <v>5.952539242843952</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -630,34 +630,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>237654037914</v>
+        <v>237650988697</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POLYCARPE NGOUBEU</t>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ndogbong Guiness</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20483.33333333333</v>
+        <v>112810</v>
       </c>
       <c r="F6" t="n">
-        <v>52528</v>
+        <v>183700</v>
       </c>
       <c r="G6" t="n">
-        <v>32044.66666666667</v>
+        <v>70890</v>
       </c>
       <c r="H6" t="n">
-        <v>2.564426362896664</v>
+        <v>1.628401737434625</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -667,182 +667,182 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>237651346686</v>
+        <v>237651213730</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+          <t>HORTENSE WEKAM MOUAFO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rte_3</t>
+          <t>Rte_8</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Douala University</t>
+          <t>Ndokoti Carrefour</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>47969.93333333333</v>
+        <v>16900</v>
       </c>
       <c r="F7" t="n">
-        <v>100199</v>
+        <v>136702</v>
       </c>
       <c r="G7" t="n">
-        <v>52229.06666666667</v>
+        <v>119802</v>
       </c>
       <c r="H7" t="n">
-        <v>2.088787559985491</v>
+        <v>8.088875739644971</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>237654137136</v>
+        <v>237651346686</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rte_8</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ndokoti Carrefour</t>
+          <t>Douala University</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>72100</v>
+        <v>47969.93333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>228280</v>
+        <v>10195</v>
       </c>
       <c r="G8" t="n">
-        <v>156180</v>
+        <v>-37774.93333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166158113730929</v>
+        <v>0.2125289591118882</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>237653816480</v>
+        <v>237651433330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rte_3</t>
+          <t>Rte_7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mobil Guiness</t>
+          <t>Makepe Conquete</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>259886.1111111111</v>
+        <v>59904.58333333334</v>
       </c>
       <c r="F9" t="n">
-        <v>930441</v>
+        <v>33608</v>
       </c>
       <c r="G9" t="n">
-        <v>670554.8888888889</v>
+        <v>-26296.58333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>3.580187475282977</v>
+        <v>0.5610255197501582</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>237671378136</v>
+        <v>237651533411</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rte_6</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Makepe Conquete</t>
+          <t>Makepe Maturite</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>54416.5</v>
+        <v>56092.85714285714</v>
       </c>
       <c r="F10" t="n">
-        <v>39721</v>
+        <v>9432</v>
       </c>
       <c r="G10" t="n">
-        <v>-14695.5</v>
+        <v>-46660.85714285714</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7299440427076347</v>
+        <v>0.1681497516872533</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>237671358082</v>
+        <v>237651809692</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VALERY MBAH FOLAPNEH</t>
+          <t>AUREL KAMTA TEUMEN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rte_3</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43130</v>
+        <v>140210</v>
       </c>
       <c r="F11" t="n">
-        <v>316769</v>
+        <v>492343</v>
       </c>
       <c r="G11" t="n">
-        <v>273639</v>
+        <v>352133</v>
       </c>
       <c r="H11" t="n">
-        <v>7.344516577788083</v>
+        <v>3.511468511518437</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -852,34 +852,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>237674243367</v>
+        <v>237651843112</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+          <t>JEANNE ROSY MODJO TCHUENTE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ndogbong Guiness</t>
+          <t>Makepe Maturite</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6760</v>
+        <v>61570</v>
       </c>
       <c r="F12" t="n">
-        <v>693</v>
+        <v>80900</v>
       </c>
       <c r="G12" t="n">
-        <v>-6067</v>
+        <v>19330</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1025147928994083</v>
+        <v>1.3139515998051</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -889,34 +889,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>237673018936</v>
+        <v>237651927448</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>NORMAND DJOMO YOUDOM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rte_6</t>
+          <t>Rte_4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ndogbong-Citadelle</t>
+          <t>Socaver Ndongbong</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41164</v>
+        <v>128653.3333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>24028</v>
+        <v>300271</v>
       </c>
       <c r="G13" t="n">
-        <v>-17136</v>
+        <v>171617.6666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5837139247886503</v>
+        <v>2.333954295781947</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -926,270 +926,270 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>237674929348</v>
+        <v>237651927707</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GLORY SHIMINYI</t>
+          <t>BERNARD DONFACK</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rte_3</t>
+          <t>Rte_4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Agape Ocm</t>
+          <t>Esg Building</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>38878.39000000001</v>
+        <v>22100</v>
       </c>
       <c r="F14" t="n">
-        <v>135147</v>
+        <v>223923</v>
       </c>
       <c r="G14" t="n">
-        <v>96268.60999999999</v>
+        <v>201823</v>
       </c>
       <c r="H14" t="n">
-        <v>3.476147031808673</v>
+        <v>10.13226244343891</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>237674895078</v>
+        <v>237651937677</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+          <t>TAYONG UFUFEI ODILIA ETS TCHATCHAOUNG PAUL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rte_4</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Esg Building</t>
+          <t>Bp Cite Ocm</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>105020</v>
+        <v>195936.25</v>
       </c>
       <c r="F15" t="n">
-        <v>5380</v>
+        <v>416548</v>
       </c>
       <c r="G15" t="n">
-        <v>-99640</v>
+        <v>220611.75</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05122833745953152</v>
+        <v>2.125936369610014</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>237676439452</v>
+        <v>237651988929</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rte_5</t>
+          <t>Rte_0</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hopital General Douala</t>
+          <t>Cite Sic Stade Marion Ocm</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>87377.35000000001</v>
+        <v>15997.69230769231</v>
       </c>
       <c r="F16" t="n">
-        <v>280147</v>
+        <v>126756</v>
       </c>
       <c r="G16" t="n">
-        <v>192769.65</v>
+        <v>110758.3076923077</v>
       </c>
       <c r="H16" t="n">
-        <v>3.206174140094658</v>
+        <v>7.923392797038034</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>237675831509</v>
+        <v>237652049507</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>Rte_0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Makepe Maturite</t>
+          <t>Ndogbong 2</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>143623.8461538462</v>
+        <v>9268.888888888889</v>
       </c>
       <c r="F17" t="n">
-        <v>42521</v>
+        <v>71570</v>
       </c>
       <c r="G17" t="n">
-        <v>-101102.8461538462</v>
+        <v>62301.11111111111</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2960580790633653</v>
+        <v>7.721529609206425</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>237678559161</v>
+        <v>237652071114</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N A VALENTINE KUM KANG</t>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Douala University</t>
+          <t>Ndokoti Carrefour</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>54767.77777777778</v>
+        <v>81600</v>
       </c>
       <c r="F18" t="n">
-        <v>627943</v>
+        <v>501400</v>
       </c>
       <c r="G18" t="n">
-        <v>573175.2222222222</v>
+        <v>419800</v>
       </c>
       <c r="H18" t="n">
-        <v>11.46555557809742</v>
+        <v>6.144607843137255</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>237678559161</v>
+        <v>237652194260</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>N A VALENTINE KUM KANG</t>
+          <t>CRISTELLE DIANE TCHAHANE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>Rte_6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Douala University</t>
+          <t>Ndogbong-Citadelle</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>54767.77777777778</v>
+        <v>85074</v>
       </c>
       <c r="F19" t="n">
-        <v>627943</v>
+        <v>563468</v>
       </c>
       <c r="G19" t="n">
-        <v>573175.2222222222</v>
+        <v>478394</v>
       </c>
       <c r="H19" t="n">
-        <v>11.46555557809742</v>
+        <v>6.623269153913064</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>237679732169</v>
+        <v>237652194293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HILAIRE EBWANGA FOTSO</t>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_6</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cite Bassa</t>
+          <t>Ndogbong</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>328228.8</v>
+        <v>126730</v>
       </c>
       <c r="F20" t="n">
-        <v>991479</v>
+        <v>603442</v>
       </c>
       <c r="G20" t="n">
-        <v>663250.2</v>
+        <v>476712</v>
       </c>
       <c r="H20" t="n">
-        <v>3.020694710519003</v>
+        <v>4.76163497198769</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>237679550294</v>
+        <v>237652275301</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+          <t>GEORGES DURAND TEMBI BILIOK</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1199,20 +1199,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>New Ndogbong Plateau</t>
+          <t>Ndogbong Iut Ocm</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14649.6</v>
+        <v>6380</v>
       </c>
       <c r="F21" t="n">
-        <v>36786</v>
+        <v>9644</v>
       </c>
       <c r="G21" t="n">
-        <v>22136.4</v>
+        <v>3264</v>
       </c>
       <c r="H21" t="n">
-        <v>2.511058322411533</v>
+        <v>1.511598746081505</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1222,145 +1222,145 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>237681657939</v>
+        <v>237652285489</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+          <t>joseline kenne</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>Rte_8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Makepe Maturite</t>
+          <t>Ndokoti Carrefour</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22932.52727272727</v>
+        <v>97864.375</v>
       </c>
       <c r="F22" t="n">
-        <v>28507</v>
+        <v>108039</v>
       </c>
       <c r="G22" t="n">
-        <v>5574.472727272729</v>
+        <v>10174.625</v>
       </c>
       <c r="H22" t="n">
-        <v>1.24308148251511</v>
+        <v>1.103966586411041</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>237679567513</v>
+        <v>237652297747</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GOLDA DOUANLA DJOZANG</t>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Esg Building</t>
+          <t>Makepe Maturite</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7700</v>
+        <v>24830</v>
       </c>
       <c r="F23" t="n">
-        <v>3982</v>
+        <v>85757</v>
       </c>
       <c r="G23" t="n">
-        <v>-3718</v>
+        <v>60927</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5171428571428571</v>
+        <v>3.453765606121627</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>237679580678</v>
+        <v>237652356041</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ngo Ndjeng Marie Pauline</t>
+          <t>JULES ROSTAND DJALEU</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rte_8</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ndokoti Carrefour</t>
+          <t>Mobil Guiness</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12426.66666666667</v>
+        <v>121240</v>
       </c>
       <c r="F24" t="n">
-        <v>26</v>
+        <v>400803</v>
       </c>
       <c r="G24" t="n">
-        <v>-12400.66666666667</v>
+        <v>279563</v>
       </c>
       <c r="H24" t="n">
-        <v>0.002092274678111588</v>
+        <v>3.305864401187727</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>237681662761</v>
+        <v>237652386684</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ETS AMOUR DE DIEU SERVICES LTDLA_CBOX_R1_MBOCK NICOLE RUTH</t>
+          <t>MARTIALE IDA NGAKAM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Total Ndokotti</t>
+          <t>Ndogbong</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29783.82</v>
+        <v>282184.9</v>
       </c>
       <c r="F25" t="n">
-        <v>18537</v>
+        <v>584833</v>
       </c>
       <c r="G25" t="n">
-        <v>-11246.82</v>
+        <v>302648.1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6223849056299696</v>
+        <v>2.072516991518681</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1370,159 +1370,159 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>237681662606</v>
+        <v>237652427111</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GAEL PHALENNE NANA POUASSI</t>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>Rte_6</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Douala University</t>
+          <t>Ndogbong Iut Ocm</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62600.7090909091</v>
+        <v>30760</v>
       </c>
       <c r="F26" t="n">
-        <v>32256</v>
+        <v>49413</v>
       </c>
       <c r="G26" t="n">
-        <v>-30344.7090909091</v>
+        <v>18653</v>
       </c>
       <c r="H26" t="n">
-        <v>0.515265728909838</v>
+        <v>1.606404421326398</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>237683394976</v>
+        <v>237652579681</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DIALLO MAMADOU OURY</t>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ndogbong Iut Ocm</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5000</v>
+        <v>55020</v>
       </c>
       <c r="F27" t="n">
-        <v>14674</v>
+        <v>100741</v>
       </c>
       <c r="G27" t="n">
-        <v>9674</v>
+        <v>45721</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9348</v>
+        <v>1.830988731370411</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>237683323481</v>
+        <v>237652667691</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JUICE CABREL MBIAKOP MBIAKOP</t>
+          <t>CHLOE NJAMBE ALEJANDRA</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cite Sic Stade Marion Ocm</t>
+          <t>Ndogbong-Citadelle</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25924</v>
+        <v>47476.36363636364</v>
       </c>
       <c r="F28" t="n">
-        <v>578895</v>
+        <v>15279</v>
       </c>
       <c r="G28" t="n">
-        <v>552971</v>
+        <v>-32197.36363636364</v>
       </c>
       <c r="H28" t="n">
-        <v>22.33046597747261</v>
+        <v>0.3218232996323529</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>237683353137</v>
+        <v>237652678854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>LA NEGRESSE SARL MATADON DORALICE FLORE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ndokoti Carrefour</t>
+          <t>Bp Cite Ocm</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34730</v>
+        <v>136459.0909090909</v>
       </c>
       <c r="F29" t="n">
-        <v>50891</v>
+        <v>642511</v>
       </c>
       <c r="G29" t="n">
-        <v>16161</v>
+        <v>506051.9090909091</v>
       </c>
       <c r="H29" t="n">
-        <v>1.465332565505327</v>
+        <v>4.708451417341195</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>237683356603</v>
+        <v>237652724076</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MFS MATCHINDA SENDRINE</t>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1532,34 +1532,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ndogbong Iut Ocm</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>70031.92</v>
+        <v>22670</v>
       </c>
       <c r="F30" t="n">
-        <v>86337</v>
+        <v>308498</v>
       </c>
       <c r="G30" t="n">
-        <v>16305.08</v>
+        <v>285828</v>
       </c>
       <c r="H30" t="n">
-        <v>1.232823546748397</v>
+        <v>13.60820467578297</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>237683356768</v>
+        <v>237652817931</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>stephane donfack atemzem</t>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1569,20 +1569,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Agape Ocm</t>
+          <t>Mobil Guiness</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35537.4</v>
+        <v>30820</v>
       </c>
       <c r="F31" t="n">
-        <v>151488</v>
+        <v>498143</v>
       </c>
       <c r="G31" t="n">
-        <v>115950.6</v>
+        <v>467323</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2627766803424</v>
+        <v>16.1629785853342</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1592,11 +1592,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>237683360459</v>
+        <v>237652899422</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+          <t>STEVE ADAM AUDREY DIBAMEGNI MABI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1606,39 +1606,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Essec</t>
+          <t>Hopital General Douala</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5000</v>
+        <v>68881.36363636363</v>
       </c>
       <c r="F32" t="n">
-        <v>940</v>
+        <v>197663</v>
       </c>
       <c r="G32" t="n">
-        <v>-4060</v>
+        <v>128781.6363636364</v>
       </c>
       <c r="H32" t="n">
-        <v>0.188</v>
+        <v>2.869615082586001</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>237683366333</v>
+        <v>237652927180</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_4</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1647,16 +1647,16 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13525</v>
+        <v>72520.45454545454</v>
       </c>
       <c r="F33" t="n">
-        <v>90628</v>
+        <v>34516</v>
       </c>
       <c r="G33" t="n">
-        <v>77103</v>
+        <v>-38004.45454545454</v>
       </c>
       <c r="H33" t="n">
-        <v>6.700776340110906</v>
+        <v>0.4759484784856937</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1666,182 +1666,182 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>237683368985</v>
+        <v>237652940152</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MFS BELL HENRIE BERNARD</t>
+          <t>GISAWO AIME LE CONTENT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rte_1</t>
+          <t>Rte_8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cite Sic Stade Marion Ocm</t>
+          <t>Ndokoti Carrefour</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51230</v>
+        <v>30684</v>
       </c>
       <c r="F34" t="n">
-        <v>371362</v>
+        <v>160081</v>
       </c>
       <c r="G34" t="n">
-        <v>320132</v>
+        <v>129397</v>
       </c>
       <c r="H34" t="n">
-        <v>7.248916650400156</v>
+        <v>5.217083822187459</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>237683379070</v>
+        <v>237652958984</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SERGE TAKOUTSOP TCHINDA</t>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rte_7</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ndogbong-Citadelle</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>400185</v>
+        <v>46742.5</v>
       </c>
       <c r="F35" t="n">
-        <v>2299073</v>
+        <v>125228</v>
       </c>
       <c r="G35" t="n">
-        <v>1898888</v>
+        <v>78485.5</v>
       </c>
       <c r="H35" t="n">
-        <v>5.745025425740595</v>
+        <v>2.679103599507942</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>237683379155</v>
+        <v>237653190282</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NGUEUGANG ALLIANCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>EDOUARD ROMAIN NDINDA BIDIAS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rte_5</t>
+          <t>Rte_0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic Stade Marion Ocm</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>102412.5</v>
+        <v>28041.81818181818</v>
       </c>
       <c r="F36" t="n">
-        <v>327302</v>
+        <v>203186</v>
       </c>
       <c r="G36" t="n">
-        <v>224889.5</v>
+        <v>175144.1818181818</v>
       </c>
       <c r="H36" t="n">
-        <v>3.195918466984011</v>
+        <v>7.245821176165467</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>237683379207</v>
+        <v>237653239050</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>STEPHALIN YANNICK KETCHA MBIAKOP</t>
+          <t>ARMAND KAMTA KUITSA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19690</v>
+        <v>344672.7272727273</v>
       </c>
       <c r="F37" t="n">
-        <v>119408</v>
+        <v>522611</v>
       </c>
       <c r="G37" t="n">
-        <v>99718</v>
+        <v>177938.2727272727</v>
       </c>
       <c r="H37" t="n">
-        <v>6.064398171660741</v>
+        <v>1.516252835364245</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>237683386020</v>
+        <v>237653294562</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rte_4</t>
+          <t>Rte_5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Esg Building</t>
+          <t>Socaver Ndongbong</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27588.26086956522</v>
+        <v>126220</v>
       </c>
       <c r="F38" t="n">
-        <v>14612</v>
+        <v>450743</v>
       </c>
       <c r="G38" t="n">
-        <v>-12976.26086956522</v>
+        <v>324523</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5296455644335177</v>
+        <v>3.571090160038029</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1851,196 +1851,196 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>237683394976</v>
+        <v>237653316656</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIALLO MAMADOU OURY</t>
+          <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ndogbong Iut Ocm</t>
+          <t>Makepe Maturite</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5000</v>
+        <v>39103.33333333334</v>
       </c>
       <c r="F39" t="n">
-        <v>14674</v>
+        <v>336645</v>
       </c>
       <c r="G39" t="n">
-        <v>9674</v>
+        <v>297541.6666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>2.9348</v>
+        <v>8.609112607620833</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>237683395123</v>
+        <v>237653321271</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+          <t>GOUETH ANNE MARIE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Rte_3</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ndogbong Iut Ocm</t>
+          <t>Cite Bassa</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>61358.0625</v>
+        <v>90695</v>
       </c>
       <c r="F40" t="n">
-        <v>101402</v>
+        <v>188256</v>
       </c>
       <c r="G40" t="n">
-        <v>40043.9375</v>
+        <v>97561</v>
       </c>
       <c r="H40" t="n">
-        <v>1.65262715066989</v>
+        <v>2.075704283587849</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>237683396173</v>
+        <v>237653423810</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Rte_8</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ndokoti Carrefour</t>
+          <t>Cite Sic</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46180</v>
+        <v>29820</v>
       </c>
       <c r="F41" t="n">
-        <v>189389</v>
+        <v>66574</v>
       </c>
       <c r="G41" t="n">
-        <v>143209</v>
+        <v>36754</v>
       </c>
       <c r="H41" t="n">
-        <v>4.10110437418796</v>
+        <v>2.23252850435949</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>237683400719</v>
+        <v>237653430377</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHANCELINE LAGMAGO</t>
+          <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rte_2</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Missoke-Universite</t>
+          <t>Cite Sic</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>39019.8</v>
+        <v>145105</v>
       </c>
       <c r="F42" t="n">
-        <v>16448</v>
+        <v>94331</v>
       </c>
       <c r="G42" t="n">
-        <v>-22571.8</v>
+        <v>-50774</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4215295824171318</v>
+        <v>0.6500878674063609</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>237683408221</v>
+        <v>237653472620</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAYRA MOICHE DENKA</t>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rte_4</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Esg Building</t>
+          <t>Essec</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>104380</v>
+        <v>61570</v>
       </c>
       <c r="F43" t="n">
-        <v>166732</v>
+        <v>395145</v>
       </c>
       <c r="G43" t="n">
-        <v>62352</v>
+        <v>333575</v>
       </c>
       <c r="H43" t="n">
-        <v>1.597355815290286</v>
+        <v>6.417817118726653</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>237683432110</v>
+        <v>237653626798</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ERODINE TOUMENI</t>
+          <t>PAGLAN BIKOND SIMONE ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2050,20 +2050,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cite Sic Stade Marion Ocm</t>
+          <t>Agape Ocm</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>15600</v>
+        <v>19150</v>
       </c>
       <c r="F44" t="n">
-        <v>782820</v>
+        <v>36896</v>
       </c>
       <c r="G44" t="n">
-        <v>767220</v>
+        <v>17746</v>
       </c>
       <c r="H44" t="n">
-        <v>50.18076923076923</v>
+        <v>1.92668407310705</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -2073,71 +2073,71 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>237683454059</v>
+        <v>237653650087</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RTS BELLE HOLLANDAISE</t>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rte_1</t>
+          <t>Rte_6</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cite Bassa</t>
+          <t>Ndogbong</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>114838.4615384615</v>
+        <v>321083.2625000001</v>
       </c>
       <c r="F45" t="n">
-        <v>215169</v>
+        <v>824185</v>
       </c>
       <c r="G45" t="n">
-        <v>100330.5384615385</v>
+        <v>503101.7374999999</v>
       </c>
       <c r="H45" t="n">
-        <v>1.873666688994575</v>
+        <v>2.566888705386815</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>237683454060</v>
+        <v>237653674387</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RTS BP CITÉ</t>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rte_1</t>
+          <t>Rte_0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bp Cite Ocm</t>
+          <t>Cite Sic Stade Marion Ocm</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>113235</v>
+        <v>14380</v>
       </c>
       <c r="F46" t="n">
-        <v>233165</v>
+        <v>167845</v>
       </c>
       <c r="G46" t="n">
-        <v>119930</v>
+        <v>153465</v>
       </c>
       <c r="H46" t="n">
-        <v>2.059124828895659</v>
+        <v>11.6721140472879</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2147,71 +2147,71 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>237683555873</v>
+        <v>237653816480</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rte_6</t>
+          <t>Rte_3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ndogbong 2</t>
+          <t>Mobil Guiness</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>297690</v>
+        <v>259886.1111111111</v>
       </c>
       <c r="F47" t="n">
-        <v>1535220</v>
+        <v>332979</v>
       </c>
       <c r="G47" t="n">
-        <v>1237530</v>
+        <v>73092.88888888888</v>
       </c>
       <c r="H47" t="n">
-        <v>5.157109745036784</v>
+        <v>1.281249692707276</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>237683557193</v>
+        <v>237653854849</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+          <t>TITTI GASTON CLEMENT TOP MOBIL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_4</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ndokoti Carrefour</t>
+          <t>Pk8</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9780</v>
+        <v>18363.75</v>
       </c>
       <c r="F48" t="n">
-        <v>3147</v>
+        <v>144</v>
       </c>
       <c r="G48" t="n">
-        <v>-6633</v>
+        <v>-18219.75</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3217791411042945</v>
+        <v>0.00784153563406167</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -2221,34 +2221,34 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>237683612202</v>
+        <v>237653901359</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>YANN NICEFORT ARTHUR TSAFACK</t>
+          <t>MFS KIOSK BP CITE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cite Sic</t>
+          <t>Bp Cite Ocm</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5000</v>
+        <v>159153.3333333333</v>
       </c>
       <c r="F49" t="n">
-        <v>2604</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>-2396</v>
+        <v>-159152.3333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5208</v>
+        <v>6.283248858543124e-06</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2258,53 +2258,53 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>237683730580</v>
+        <v>237653946894</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Rte_7</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ndogbong-Citadelle</t>
+          <t>Cite Sic Stade Marion Ocm</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>41930</v>
+        <v>12800</v>
       </c>
       <c r="F50" t="n">
-        <v>417577</v>
+        <v>55278</v>
       </c>
       <c r="G50" t="n">
-        <v>375647</v>
+        <v>42478</v>
       </c>
       <c r="H50" t="n">
-        <v>9.958907703315049</v>
+        <v>4.31859375</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Ndogbong</t>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>237683743490</v>
+        <v>237653959075</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ETS LE CONTENT NGAH MARIE</t>
+          <t>Wapet Clement ATB POINT COM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rte_0</t>
+          <t>Rte_1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7776.875</v>
+        <v>190430</v>
       </c>
       <c r="F51" t="n">
-        <v>1883</v>
+        <v>65053</v>
       </c>
       <c r="G51" t="n">
-        <v>-5893.875</v>
+        <v>-125377</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2421281041549466</v>
+        <v>0.3416110906894922</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2332,38 +2332,1814 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>237683815311</v>
+        <v>237654020285</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>68953.76000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>48363</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-20590.76000000001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.7013830717860779</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>237654037914</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Rte_0</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>20483.33333333333</v>
+      </c>
+      <c r="F53" t="n">
+        <v>35271</v>
+      </c>
+      <c r="G53" t="n">
+        <v>14787.66666666667</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.721936533767291</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F54" t="n">
+        <v>406717</v>
+      </c>
+      <c r="G54" t="n">
+        <v>352297</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7.473667769202499</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F55" t="n">
+        <v>271026</v>
+      </c>
+      <c r="G55" t="n">
+        <v>203611</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4.020262552844322</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>237654137136</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>72100</v>
+      </c>
+      <c r="F56" t="n">
+        <v>208256</v>
+      </c>
+      <c r="G56" t="n">
+        <v>136156</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.888432732316228</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>237654138873</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>OUMAR DIAKITE</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>5327.599999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7320</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1992.400000000001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.3739770253022</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>237654150202</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MBOU WILLY JUNIOR ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>27650</v>
+      </c>
+      <c r="F58" t="n">
+        <v>39685</v>
+      </c>
+      <c r="G58" t="n">
+        <v>12035</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.435262206148282</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>237654164073</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>30457.27272727273</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25162</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-5295.272727272728</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.826140942602155</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>237654168696</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Makepe Conquete</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>12728.89090909091</v>
-      </c>
-      <c r="F52" t="n">
-        <v>31185</v>
-      </c>
-      <c r="G52" t="n">
-        <v>18456.10909090909</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2.449938507818291</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Ndogbong</t>
+      <c r="E60" t="n">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F60" t="n">
+        <v>47681</v>
+      </c>
+      <c r="G60" t="n">
+        <v>39883.97142857143</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.115278347795496</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>237654247769</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LEKEAGNI DONTSOP ANNIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>176790</v>
+      </c>
+      <c r="F61" t="n">
+        <v>6696</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-170094</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.03787544544374682</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>237654261990</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DOUANLA NOUPONG LEOPOLDINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>58234.21052631579</v>
+      </c>
+      <c r="F62" t="n">
+        <v>181480</v>
+      </c>
+      <c r="G62" t="n">
+        <v>123245.7894736842</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.116381219214606</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F63" t="n">
+        <v>222367</v>
+      </c>
+      <c r="G63" t="n">
+        <v>148537</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.011878640119193</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>237654355100</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ALEX YANNICK NZIE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>112594</v>
+      </c>
+      <c r="F64" t="n">
+        <v>285379</v>
+      </c>
+      <c r="G64" t="n">
+        <v>172785</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.534584436115601</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>237654508603</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>107070</v>
+      </c>
+      <c r="F65" t="n">
+        <v>537720</v>
+      </c>
+      <c r="G65" t="n">
+        <v>430650</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.022135051835248</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>237670018166</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>108762.35</v>
+      </c>
+      <c r="F66" t="n">
+        <v>642532</v>
+      </c>
+      <c r="G66" t="n">
+        <v>533769.65</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.907669335942079</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>237670078170</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MARIA NGO KAMEN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8825</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3825</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>237670097580</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ALBERT FILS NYEMECK</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>242106.6666666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>416198</v>
+      </c>
+      <c r="G68" t="n">
+        <v>174091.3333333334</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.719068730036348</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>237670148911</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>9246.842105263158</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20553</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11306.15789473684</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2.222704764073083</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1780</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-40501.82352941176</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.04209846812216625</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>237670473852</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>68020</v>
+      </c>
+      <c r="F71" t="n">
+        <v>314640</v>
+      </c>
+      <c r="G71" t="n">
+        <v>246620</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.625698324022347</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>237670652138</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NGO BIYICK ELISE NATHALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>15660</v>
+      </c>
+      <c r="F72" t="n">
+        <v>517</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-15143</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.03301404853128991</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>237670709824</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>NAABI FINANCE PIERRE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>23150</v>
+      </c>
+      <c r="F73" t="n">
+        <v>94369</v>
+      </c>
+      <c r="G73" t="n">
+        <v>71219</v>
+      </c>
+      <c r="H73" t="n">
+        <v>4.076414686825054</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>237670799877</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Francis Oberlin Patrice Kamdem</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>23610</v>
+      </c>
+      <c r="F74" t="n">
+        <v>289096</v>
+      </c>
+      <c r="G74" t="n">
+        <v>265486</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12.24464210080474</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-100666.6666666667</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>237670808320</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 63</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>84390</v>
+      </c>
+      <c r="F76" t="n">
+        <v>19184</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-65206</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.2273255125014812</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>237670809154</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>67386.55</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100250</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32863.45</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.487685598980806</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F78" t="n">
+        <v>158538</v>
+      </c>
+      <c r="G78" t="n">
+        <v>115088</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3.648745684695052</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-352072.5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F80" t="n">
+        <v>64611</v>
+      </c>
+      <c r="G80" t="n">
+        <v>28981</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.813387594723548</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F81" t="n">
+        <v>6</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-112582.4615384615</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5.329142896184198e-05</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>237671105715</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>19923.33333333333</v>
+      </c>
+      <c r="F82" t="n">
+        <v>190607</v>
+      </c>
+      <c r="G82" t="n">
+        <v>170683.6666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>9.567023590429983</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>237671290825</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F83" t="n">
+        <v>470</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-15143.63636363636</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.0301018922852984</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>237671351291</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F84" t="n">
+        <v>8453</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-87416.86000000002</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.08817161097345921</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>237671357520</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>16806.66666666667</v>
+      </c>
+      <c r="F85" t="n">
+        <v>21010</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4203.333333333332</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.250099166997223</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>237671358082</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>43130</v>
+      </c>
+      <c r="F86" t="n">
+        <v>271163</v>
+      </c>
+      <c r="G86" t="n">
+        <v>228033</v>
+      </c>
+      <c r="H86" t="n">
+        <v>6.287108741015534</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237671378136</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>54416.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>23375</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-31041.5</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.4295572115075391</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>237671432720</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>PIERRE DJOH</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>28554.8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>123890</v>
+      </c>
+      <c r="G88" t="n">
+        <v>95335.2</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4.338675108913388</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>237671517964</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ROSINE FLORE YOTA NGOUO</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>15455</v>
+      </c>
+      <c r="F89" t="n">
+        <v>93273</v>
+      </c>
+      <c r="G89" t="n">
+        <v>77818</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.035134260757037</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>237671563291</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 221</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>20715.26153846153</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3030</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-17685.26153846153</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.1462689715200685</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>237671605749</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>107695</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1038227</v>
+      </c>
+      <c r="G91" t="n">
+        <v>930532</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9.640438274757416</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>237671615641</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Therese neukam</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19042</v>
+      </c>
+      <c r="G92" t="n">
+        <v>10340.33333333333</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.188316414479985</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>237671631547</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GERALDINE BIH</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>41870</v>
+      </c>
+      <c r="F93" t="n">
+        <v>154646</v>
+      </c>
+      <c r="G93" t="n">
+        <v>112776</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.693479818485789</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237671645947</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F94" t="n">
+        <v>34450</v>
+      </c>
+      <c r="G94" t="n">
+        <v>29110</v>
+      </c>
+      <c r="H94" t="n">
+        <v>6.451310861423221</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237671646117</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>51881.075</v>
+      </c>
+      <c r="F95" t="n">
+        <v>716338</v>
+      </c>
+      <c r="G95" t="n">
+        <v>664456.925</v>
+      </c>
+      <c r="H95" t="n">
+        <v>13.80730834894998</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237671661287</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>USMANU TATA SUNDZE</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>34912.72727272727</v>
+      </c>
+      <c r="F96" t="n">
+        <v>14215</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-20697.72727272727</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.4071581085303614</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237671664239</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ANEBEP ZEPHERINE MFS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>34610</v>
+      </c>
+      <c r="F97" t="n">
+        <v>459935</v>
+      </c>
+      <c r="G97" t="n">
+        <v>425325</v>
+      </c>
+      <c r="H97" t="n">
+        <v>13.28907830106906</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237671694408</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TSAPONG EDWIGE FLORE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>48509.8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>183142</v>
+      </c>
+      <c r="G98" t="n">
+        <v>134632.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.775360854920037</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237671734324</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DONGMO TEMGOUA VANESSA LADOUCE STYLE.COM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>96559.8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>352608</v>
+      </c>
+      <c r="G99" t="n">
+        <v>256048.2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.651705989449025</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>468872</v>
+      </c>
+      <c r="G100" t="n">
+        <v>279086.2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.470532568822325</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4143,6 +4143,3669 @@
         </is>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237671823371</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-6870</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.2668089647812166</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237671825253</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>MAFFO YEMDJI CHIMENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>129030</v>
+      </c>
+      <c r="F102" t="n">
+        <v>206742</v>
+      </c>
+      <c r="G102" t="n">
+        <v>77712</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.602278539874448</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237671838460</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F103" t="n">
+        <v>104606</v>
+      </c>
+      <c r="G103" t="n">
+        <v>35106</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.505122302158273</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237671892536</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>AYUNWI MEME FUH</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>260865</v>
+      </c>
+      <c r="F104" t="n">
+        <v>492971</v>
+      </c>
+      <c r="G104" t="n">
+        <v>232106</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.889755237383321</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237672029564</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>NANGA BENOIT STYLE. COM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>235988.3333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14611</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-221377.3333333334</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0619140776733313</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237672064755</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1088984</v>
+      </c>
+      <c r="G106" t="n">
+        <v>950084</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7.840057595392369</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F107" t="n">
+        <v>48963</v>
+      </c>
+      <c r="G107" t="n">
+        <v>23933</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.956172592888534</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237672276931</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>74960</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5512</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-69448</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.07353255069370331</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1100121</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1073871</v>
+      </c>
+      <c r="H109" t="n">
+        <v>41.90937142857143</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237672279571</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>169789.1333333333</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1182587</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1012797.866666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>6.965033490561037</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237672587687</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>43904.9</v>
+      </c>
+      <c r="F111" t="n">
+        <v>171600</v>
+      </c>
+      <c r="G111" t="n">
+        <v>127695.1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.908447576466408</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237672695037</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>95127.82000000002</v>
+      </c>
+      <c r="F112" t="n">
+        <v>467398</v>
+      </c>
+      <c r="G112" t="n">
+        <v>372270.18</v>
+      </c>
+      <c r="H112" t="n">
+        <v>4.913368139835433</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237672731004</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3617</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1383</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.7234</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237672777139</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>kabirou Yanou Issa Mohamadou</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>23040</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21118</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-1922</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9165798611111111</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237672777369</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>WANDJI OBI RUSSEL_ MFS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F115" t="n">
+        <v>16724</v>
+      </c>
+      <c r="G115" t="n">
+        <v>9604</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2.348876404494382</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237672838535</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MANISHKA SYBELLE NDEDI NGAKO</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>28141.53846153846</v>
+      </c>
+      <c r="F116" t="n">
+        <v>24835</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3306.538461538461</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.8825032801224579</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237672869396</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MOUSTAFA DJIKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>39758.21666666667</v>
+      </c>
+      <c r="F117" t="n">
+        <v>696</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-39062.21666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.01750581535976001</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F118" t="n">
+        <v>25902</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1075.846153846152</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.043335192414947</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F119" t="n">
+        <v>44736</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-69004</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.3933180938983647</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237672956746</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>MERLINE CHRISTILE TEZEMBONG SONGOU</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>137539.8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>350722</v>
+      </c>
+      <c r="G120" t="n">
+        <v>213182.2</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2.549967354903817</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237673018936</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>41164</v>
+      </c>
+      <c r="F121" t="n">
+        <v>38228</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2936</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.928675541735497</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237673144978</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO MAMADOU LAMARANA</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>38670</v>
+      </c>
+      <c r="F122" t="n">
+        <v>95947</v>
+      </c>
+      <c r="G122" t="n">
+        <v>57277</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.481174036720972</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237673180671</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SITECK NDJO SALOMON SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>46826</v>
+      </c>
+      <c r="F123" t="n">
+        <v>34507</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-12319</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.7369196600179387</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237673220938</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>159090</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3534</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-155556</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.02221384122194984</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237673492083</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MALAMA SIMON ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>14676.42857142857</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6750</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-7926.428571428571</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4599211563731932</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237673560726</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>AMELIE MEKEU EPSE LELE</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>64035.83333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>69409</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5373.166666666664</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1.083908749007717</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237673718583</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>98315.45454545454</v>
+      </c>
+      <c r="F127" t="n">
+        <v>983490</v>
+      </c>
+      <c r="G127" t="n">
+        <v>885174.5454545454</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10.0034120225249</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237673739931</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>21375</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4819</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-16556</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.2254502923976608</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237673816350</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>vanelle lea ngnintcheyi</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>145740</v>
+      </c>
+      <c r="F129" t="n">
+        <v>56428</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-89312</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.3871826540414436</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F130" t="n">
+        <v>181735</v>
+      </c>
+      <c r="G130" t="n">
+        <v>125190</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3.213988858431338</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237674062440</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>12128.57142857143</v>
+      </c>
+      <c r="F131" t="n">
+        <v>112</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-12016.57142857143</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.009234393404004712</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F132" t="n">
+        <v>118407</v>
+      </c>
+      <c r="G132" t="n">
+        <v>44477</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.601609630731773</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237674240552</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>HELENE EBELE EPSE NKOTH</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>20270</v>
+      </c>
+      <c r="F133" t="n">
+        <v>52491</v>
+      </c>
+      <c r="G133" t="n">
+        <v>32221</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.589590527873705</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237674243367</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>6760</v>
+      </c>
+      <c r="F134" t="n">
+        <v>229</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-6531</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.03387573964497041</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237674248126</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>28740.76923076923</v>
+      </c>
+      <c r="F135" t="n">
+        <v>31493</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2752.23076923077</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.09576051173621</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F136" t="n">
+        <v>162426</v>
+      </c>
+      <c r="G136" t="n">
+        <v>117321</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.601064183571666</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237674323650</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>JEAN BOYOMO BOYOMO</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>75599.88333333333</v>
+      </c>
+      <c r="F137" t="n">
+        <v>118270</v>
+      </c>
+      <c r="G137" t="n">
+        <v>42670.11666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.564420403647008</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>AUROLE ELSA DOMEZA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1229260</v>
+      </c>
+      <c r="G138" t="n">
+        <v>804780</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.895919713531851</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237674435926</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LILIANE CEPHORA DEUMEGNI</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>19273.33333333333</v>
+      </c>
+      <c r="F139" t="n">
+        <v>43695</v>
+      </c>
+      <c r="G139" t="n">
+        <v>24421.66666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.26712210307852</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237674437082</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>42678.57142857143</v>
+      </c>
+      <c r="F140" t="n">
+        <v>14947</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-27731.57142857143</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.3502225941422594</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237674440808</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4636</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-364</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.9272</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237674446293</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NIWUBAGHA PEACE DZE</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>5994.285714285715</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3736</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2258.285714285715</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.6232602478551</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237674450580</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>137758.1818181818</v>
+      </c>
+      <c r="F143" t="n">
+        <v>111856</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-25902.18181818182</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8119735504903189</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237674450898</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CBOX R2 NGO DIBE HERMINE</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>13250</v>
+      </c>
+      <c r="F144" t="n">
+        <v>118</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-13132</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.008905660377358491</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237674466307</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>119626.6666666667</v>
+      </c>
+      <c r="F145" t="n">
+        <v>59015</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-60611.66666666669</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.4933264600980828</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237674484736</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MAMADOU ALPHA DIALLO</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>31576.24</v>
+      </c>
+      <c r="F146" t="n">
+        <v>264610</v>
+      </c>
+      <c r="G146" t="n">
+        <v>233033.76</v>
+      </c>
+      <c r="H146" t="n">
+        <v>8.380035115010527</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237674580187</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ALEX STEPHAN SOUOP TAGNE</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F147" t="n">
+        <v>24185</v>
+      </c>
+      <c r="G147" t="n">
+        <v>13345</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2.231088560885609</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237674629681</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F148" t="n">
+        <v>504434</v>
+      </c>
+      <c r="G148" t="n">
+        <v>418754</v>
+      </c>
+      <c r="H148" t="n">
+        <v>5.887418300653595</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237674673359</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>88189.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>252061</v>
+      </c>
+      <c r="G149" t="n">
+        <v>163871.5</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.858174726016136</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237674679432</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>18349.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>45989</v>
+      </c>
+      <c r="G150" t="n">
+        <v>27639.2</v>
+      </c>
+      <c r="H150" t="n">
+        <v>2.506239850025613</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237674701120</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ARMAND JEROME NDOUMBE SAMUEL</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>8935.719999999999</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12439</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3503.280000000001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.392053466312732</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237674769580</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>21040</v>
+      </c>
+      <c r="F152" t="n">
+        <v>63683</v>
+      </c>
+      <c r="G152" t="n">
+        <v>42643</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.02675855513308</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>50392</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-99987.60000000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.3350986436990124</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>434926</v>
+      </c>
+      <c r="G154" t="n">
+        <v>252756.3</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.387477171011425</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237674854630</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>NGANSOP JEAN</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>223404</v>
+      </c>
+      <c r="F155" t="n">
+        <v>242910</v>
+      </c>
+      <c r="G155" t="n">
+        <v>19506</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.087312671214481</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2774</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2226</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.5548</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237674884831</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1450401</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1409741</v>
+      </c>
+      <c r="H157" t="n">
+        <v>35.67144613871126</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237674884916</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R2 ALPHA OUMAR</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>5493.333333333333</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19401</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13907.66666666667</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.531735436893204</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237674890653</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R2 TSAFACK DONGMO ALAIN PATRIC</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>284192.6444444444</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1589512</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1305319.355555556</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5.593079311068259</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237674892352</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nguimdo Diane</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>113445.92</v>
+      </c>
+      <c r="F160" t="n">
+        <v>332807</v>
+      </c>
+      <c r="G160" t="n">
+        <v>219361.08</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2.933618062244989</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4082</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-100938</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.03886878689773376</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F162" t="n">
+        <v>356837</v>
+      </c>
+      <c r="G162" t="n">
+        <v>259017</v>
+      </c>
+      <c r="H162" t="n">
+        <v>3.647894091187896</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237674895389</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>238518.3333333334</v>
+      </c>
+      <c r="F163" t="n">
+        <v>331334</v>
+      </c>
+      <c r="G163" t="n">
+        <v>92815.66666666663</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.38913430833409</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237674895525</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>NFOR EPSE FOMUNGUM ASSUMPTA MUMBEB</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>54855.31111111111</v>
+      </c>
+      <c r="F164" t="n">
+        <v>184757</v>
+      </c>
+      <c r="G164" t="n">
+        <v>129901.6888888889</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.368078610032291</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237674895877</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>OSCAR STEPHANE MBENGALA</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>149630</v>
+      </c>
+      <c r="F165" t="n">
+        <v>328117</v>
+      </c>
+      <c r="G165" t="n">
+        <v>178487</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2.192855710753191</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4692</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-154343.175</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.02950290713988274</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237674908364</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL ZAGBA PIERRE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>7220</v>
+      </c>
+      <c r="F167" t="n">
+        <v>25179</v>
+      </c>
+      <c r="G167" t="n">
+        <v>17959</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.487396121883656</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237674908416</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>12543.75</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2396</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-10147.75</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.1910114598903837</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F169" t="n">
+        <v>199135</v>
+      </c>
+      <c r="G169" t="n">
+        <v>183525</v>
+      </c>
+      <c r="H169" t="n">
+        <v>12.7568866111467</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237674926472</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>10265.55</v>
+      </c>
+      <c r="F170" t="n">
+        <v>3246</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-7019.549999999999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.3162032234025454</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237674928987</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>110902.2222222222</v>
+      </c>
+      <c r="F171" t="n">
+        <v>204726</v>
+      </c>
+      <c r="G171" t="n">
+        <v>93823.77777777778</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.846004488438264</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237674929348</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>JEAN MARIE NKOLO</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>38878.39000000001</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6436</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-32442.39000000001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.1655418344226703</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237674929391</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>HERVE BASILE TSOBING</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>51638.88888888889</v>
+      </c>
+      <c r="F173" t="n">
+        <v>454930</v>
+      </c>
+      <c r="G173" t="n">
+        <v>403291.1111111111</v>
+      </c>
+      <c r="H173" t="n">
+        <v>8.809833243679398</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237674929417</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>12770</v>
+      </c>
+      <c r="F174" t="n">
+        <v>228866</v>
+      </c>
+      <c r="G174" t="n">
+        <v>216096</v>
+      </c>
+      <c r="H174" t="n">
+        <v>17.9221613155834</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237674933038</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>MFS MANDENG II PATIENT CESAR EITEL</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>7380.523076923077</v>
+      </c>
+      <c r="F175" t="n">
+        <v>284</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-7096.523076923077</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.03847965747685175</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237674933048</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>43872.3</v>
+      </c>
+      <c r="F176" t="n">
+        <v>28306</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-15566.3</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.6451907011941476</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237674956331</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MELANIE NONO TONKAM</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>209204</v>
+      </c>
+      <c r="F177" t="n">
+        <v>155153</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-54051</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.7416349591786008</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237674959564</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1126</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-3874</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.2252</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237674979451</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>99222</v>
+      </c>
+      <c r="F179" t="n">
+        <v>231013</v>
+      </c>
+      <c r="G179" t="n">
+        <v>131791</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.328243736268166</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237675207106</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>192880</v>
+      </c>
+      <c r="F180" t="n">
+        <v>518429</v>
+      </c>
+      <c r="G180" t="n">
+        <v>325549</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2.687831812525923</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237675208505</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>19527.86</v>
+      </c>
+      <c r="F181" t="n">
+        <v>16412</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-3115.859999999997</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.8404402735373975</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237675239360</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>NGO NKOT MARIE LOUISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>34469.9</v>
+      </c>
+      <c r="F182" t="n">
+        <v>56311</v>
+      </c>
+      <c r="G182" t="n">
+        <v>21841.1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.633628179948303</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237675329176</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>37210</v>
+      </c>
+      <c r="F183" t="n">
+        <v>148631</v>
+      </c>
+      <c r="G183" t="n">
+        <v>111421</v>
+      </c>
+      <c r="H183" t="n">
+        <v>3.994383230314432</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237675396752</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>34635</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12308</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-22327</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.3553630720369568</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4496</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-13934</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.2439500813890396</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237675443028</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>15820</v>
+      </c>
+      <c r="F186" t="n">
+        <v>45</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-15775</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.002844500632111252</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>FLORENT LOKO</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F187" t="n">
+        <v>69709</v>
+      </c>
+      <c r="G187" t="n">
+        <v>21269.19999999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.439085215050433</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237675457527</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TCHOUANKAP DJOMKAM ISMAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>30030</v>
+      </c>
+      <c r="F188" t="n">
+        <v>17433</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-12597</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.5805194805194805</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237675551814</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>PELAGIE AIMEE NTOUBA MPAKO</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>18795</v>
+      </c>
+      <c r="F189" t="n">
+        <v>47369</v>
+      </c>
+      <c r="G189" t="n">
+        <v>28574</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.520297951582868</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237675555508</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F190" t="n">
+        <v>11873</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-449.6090909090872</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9635134826080961</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237675556347</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CLARISSE MAKOLO</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>26419.66666666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>33973</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7553.333333333343</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.285898131442486</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237675557616</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>64010</v>
+      </c>
+      <c r="F192" t="n">
+        <v>137913</v>
+      </c>
+      <c r="G192" t="n">
+        <v>73903</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2.154553975941259</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237675579920</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>239424</v>
+      </c>
+      <c r="F193" t="n">
+        <v>152</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-239272</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.0006348569901095964</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237675621967</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>21365.77647058823</v>
+      </c>
+      <c r="F194" t="n">
+        <v>61600</v>
+      </c>
+      <c r="G194" t="n">
+        <v>40234.22352941177</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2.883115438598618</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237675626141</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>DIAMANCE ELVIA FEUDJIO</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>24500</v>
+      </c>
+      <c r="F195" t="n">
+        <v>221373</v>
+      </c>
+      <c r="G195" t="n">
+        <v>196873</v>
+      </c>
+      <c r="H195" t="n">
+        <v>9.035632653061224</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F196" t="n">
+        <v>128278</v>
+      </c>
+      <c r="G196" t="n">
+        <v>41658</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1.48092819210344</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F197" t="n">
+        <v>857</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-183305.0370370371</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.004653510646320923</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237675788721</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>145306.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>18076</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-127230.5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.1243991149742097</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F199" t="n">
+        <v>60864</v>
+      </c>
+      <c r="G199" t="n">
+        <v>20099</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.493045504722188</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7806,6 +7806,3669 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237675831509</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F200" t="n">
+        <v>41021</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-102602.8461538462</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.2856141309296185</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237675889982</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>25530.58181818182</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4997</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-20533.58181818182</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.1957260526057163</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237675944533</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>28080.71428571429</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26359</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1721.714285714286</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.9386869483376999</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237675950748</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>110079.8</v>
+      </c>
+      <c r="F203" t="n">
+        <v>362153</v>
+      </c>
+      <c r="G203" t="n">
+        <v>252073.2</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.289913317429719</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237675986754</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F204" t="n">
+        <v>19864</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-7089.636363636364</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.7369692063813282</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237676036869</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>154416.5</v>
+      </c>
+      <c r="F205" t="n">
+        <v>643408</v>
+      </c>
+      <c r="G205" t="n">
+        <v>488991.5</v>
+      </c>
+      <c r="H205" t="n">
+        <v>4.16670498295195</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237676036914</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FRIDA ESUNG AJANG</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>29860</v>
+      </c>
+      <c r="F206" t="n">
+        <v>304409</v>
+      </c>
+      <c r="G206" t="n">
+        <v>274549</v>
+      </c>
+      <c r="H206" t="n">
+        <v>10.19454119223041</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237676076193</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>78364.4181818182</v>
+      </c>
+      <c r="F207" t="n">
+        <v>172424</v>
+      </c>
+      <c r="G207" t="n">
+        <v>94059.5818181818</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.200284312708713</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6892</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-29838</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.1876395317179417</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>JEAN PIERRE KAMAYOU</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F209" t="n">
+        <v>265250</v>
+      </c>
+      <c r="G209" t="n">
+        <v>221380</v>
+      </c>
+      <c r="H209" t="n">
+        <v>6.046273079553226</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237676301061</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FRANCIS BERTRAND BOGNING NGOUNE</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>67109.59999999999</v>
+      </c>
+      <c r="F210" t="n">
+        <v>181104</v>
+      </c>
+      <c r="G210" t="n">
+        <v>113994.4</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2.698630300284907</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237676391673</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>GUEWADA HERVE MONIQUE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>74657.14285714286</v>
+      </c>
+      <c r="F211" t="n">
+        <v>206078</v>
+      </c>
+      <c r="G211" t="n">
+        <v>131420.8571428572</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.760325296593953</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F212" t="n">
+        <v>191904</v>
+      </c>
+      <c r="G212" t="n">
+        <v>104526.65</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.196267110412481</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237676575053</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>79250</v>
+      </c>
+      <c r="F213" t="n">
+        <v>278649</v>
+      </c>
+      <c r="G213" t="n">
+        <v>199399</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.51607570977918</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237676664056</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>140200</v>
+      </c>
+      <c r="F214" t="n">
+        <v>316616</v>
+      </c>
+      <c r="G214" t="n">
+        <v>176416</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.258316690442225</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F215" t="n">
+        <v>581483</v>
+      </c>
+      <c r="G215" t="n">
+        <v>493038</v>
+      </c>
+      <c r="H215" t="n">
+        <v>6.574515235457064</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237676770192</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>NADIA NANCY MEZOH PROGRESS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>21759.975</v>
+      </c>
+      <c r="F216" t="n">
+        <v>248889</v>
+      </c>
+      <c r="G216" t="n">
+        <v>227129.025</v>
+      </c>
+      <c r="H216" t="n">
+        <v>11.43792674394157</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237676840777</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>471586.4666666666</v>
+      </c>
+      <c r="F217" t="n">
+        <v>518927</v>
+      </c>
+      <c r="G217" t="n">
+        <v>47340.53333333338</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1.100385691022799</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237676974240</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FRANCK DEUTOU NGAMENI</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>157580</v>
+      </c>
+      <c r="F218" t="n">
+        <v>423090</v>
+      </c>
+      <c r="G218" t="n">
+        <v>265510</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2.684921944409189</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237677178575</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>10599.825</v>
+      </c>
+      <c r="F219" t="n">
+        <v>85957</v>
+      </c>
+      <c r="G219" t="n">
+        <v>75357.175</v>
+      </c>
+      <c r="H219" t="n">
+        <v>8.109284823098495</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>257800</v>
+      </c>
+      <c r="G220" t="n">
+        <v>196606.6666666667</v>
+      </c>
+      <c r="H220" t="n">
+        <v>4.212877219740712</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>WALTER OJONG EBANGHA</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3522511</v>
+      </c>
+      <c r="G221" t="n">
+        <v>3289406.4</v>
+      </c>
+      <c r="H221" t="n">
+        <v>15.11128909511009</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237677316351</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>JOSUE TCHAKO</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>74625</v>
+      </c>
+      <c r="F222" t="n">
+        <v>36269</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-38356</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.4860167504187605</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F223" t="n">
+        <v>47861</v>
+      </c>
+      <c r="G223" t="n">
+        <v>32581</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3.132264397905759</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237677567788</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>NGOKAP TONKAM EMILLIE NADEGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>135148.75</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38215</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-96933.75</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.2827625116769485</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F225" t="n">
+        <v>240311</v>
+      </c>
+      <c r="G225" t="n">
+        <v>216871.4</v>
+      </c>
+      <c r="H225" t="n">
+        <v>10.25235072270858</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237677831340</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>17225</v>
+      </c>
+      <c r="G226" t="n">
+        <v>12225</v>
+      </c>
+      <c r="H226" t="n">
+        <v>3.445</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237677833877</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>38396.7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>83168</v>
+      </c>
+      <c r="G227" t="n">
+        <v>44771.3</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.166019475632021</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1089990</v>
+      </c>
+      <c r="G228" t="n">
+        <v>940343.3333333333</v>
+      </c>
+      <c r="H228" t="n">
+        <v>7.283757294961464</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237677939039</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>11484.78260869565</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1972</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-9512.782608695652</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.1717054703766799</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237678046498</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>41943.17</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1561</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-40382.17</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.03721702484576154</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237678183211</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>7435.454545454545</v>
+      </c>
+      <c r="F231" t="n">
+        <v>32283</v>
+      </c>
+      <c r="G231" t="n">
+        <v>24847.54545454546</v>
+      </c>
+      <c r="H231" t="n">
+        <v>4.341765497004524</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1187880</v>
+      </c>
+      <c r="G232" t="n">
+        <v>687880</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2.37576</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237678225987</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>LEOPOLD KUATE</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>37403.93</v>
+      </c>
+      <c r="F233" t="n">
+        <v>71541</v>
+      </c>
+      <c r="G233" t="n">
+        <v>34137.07</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.912659979847037</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>20391</v>
+      </c>
+      <c r="G234" t="n">
+        <v>8030.066666666664</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1.649632713818805</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237678319711</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>63790</v>
+      </c>
+      <c r="F236" t="n">
+        <v>105786</v>
+      </c>
+      <c r="G236" t="n">
+        <v>41996</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1.658347703401787</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F237" t="n">
+        <v>14585</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-85644.8</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.1455156051393897</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237678384388</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>45439.84</v>
+      </c>
+      <c r="F238" t="n">
+        <v>10226</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-35213.84</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.2250448064957975</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237678530662</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>KEUDEM SONTSA GYSLAIN BERNY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>48162</v>
+      </c>
+      <c r="F239" t="n">
+        <v>212064</v>
+      </c>
+      <c r="G239" t="n">
+        <v>163902</v>
+      </c>
+      <c r="H239" t="n">
+        <v>4.40313940450978</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237678559161</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F240" t="n">
+        <v>627843</v>
+      </c>
+      <c r="G240" t="n">
+        <v>573075.2222222222</v>
+      </c>
+      <c r="H240" t="n">
+        <v>11.46372968696111</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F241" t="n">
+        <v>39427</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-54673</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.418990435706695</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237678637179</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>169880</v>
+      </c>
+      <c r="F242" t="n">
+        <v>338895</v>
+      </c>
+      <c r="G242" t="n">
+        <v>169015</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.994908170473275</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237678722616</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>53283.10769230768</v>
+      </c>
+      <c r="F243" t="n">
+        <v>804</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-52479.10769230768</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.01508920997331526</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237678746317</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>EMMANUEL NWAE A BIEHE</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>39192.5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>339177</v>
+      </c>
+      <c r="G244" t="n">
+        <v>299984.5</v>
+      </c>
+      <c r="H244" t="n">
+        <v>8.654130254512982</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237678796497</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MANIGANG NDALLOKA MARIE JOSIANE ALBARKA GN SARL</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>41275.71428571428</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1011</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-40264.71428571428</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.02449382203301838</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F246" t="n">
+        <v>48114</v>
+      </c>
+      <c r="G246" t="n">
+        <v>22494.90909090909</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1.878052588623541</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237678839078</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>TEWA TCHIFFO LANDRY MERVEIL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>333240</v>
+      </c>
+      <c r="F247" t="n">
+        <v>521335</v>
+      </c>
+      <c r="G247" t="n">
+        <v>188095</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1.564443044052335</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237678843959</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>5471.111111111111</v>
+      </c>
+      <c r="F248" t="n">
+        <v>5122</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-349.1111111111113</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9361900893582453</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237678854978</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>40520</v>
+      </c>
+      <c r="F249" t="n">
+        <v>355531</v>
+      </c>
+      <c r="G249" t="n">
+        <v>315011</v>
+      </c>
+      <c r="H249" t="n">
+        <v>8.774210266535045</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237678872943</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F250" t="n">
+        <v>210974</v>
+      </c>
+      <c r="G250" t="n">
+        <v>130055.07</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2.607226763873422</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F251" t="n">
+        <v>565162</v>
+      </c>
+      <c r="G251" t="n">
+        <v>508942</v>
+      </c>
+      <c r="H251" t="n">
+        <v>10.05268587691213</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237679038720</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>52406.36</v>
+      </c>
+      <c r="F252" t="n">
+        <v>168477</v>
+      </c>
+      <c r="G252" t="n">
+        <v>116070.64</v>
+      </c>
+      <c r="H252" t="n">
+        <v>3.214819727987214</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237679068456</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>NDATSE EPSE NANWO ANGELE SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>23430</v>
+      </c>
+      <c r="F253" t="n">
+        <v>241647</v>
+      </c>
+      <c r="G253" t="n">
+        <v>218217</v>
+      </c>
+      <c r="H253" t="n">
+        <v>10.31357234314981</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F254" t="n">
+        <v>106378</v>
+      </c>
+      <c r="G254" t="n">
+        <v>43238</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1.684795692112765</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237679085953</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>MADELEINE NKOUADJIO</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>8950</v>
+      </c>
+      <c r="F255" t="n">
+        <v>67003</v>
+      </c>
+      <c r="G255" t="n">
+        <v>58053</v>
+      </c>
+      <c r="H255" t="n">
+        <v>7.486368715083799</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237679087694</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>26039.6</v>
+      </c>
+      <c r="F256" t="n">
+        <v>123199</v>
+      </c>
+      <c r="G256" t="n">
+        <v>97159.39999999999</v>
+      </c>
+      <c r="H256" t="n">
+        <v>4.731217069386627</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237679093371</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ADAMA SARRE</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>30923.33333333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>257575</v>
+      </c>
+      <c r="G257" t="n">
+        <v>226651.6666666667</v>
+      </c>
+      <c r="H257" t="n">
+        <v>8.329470734073514</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237679097028</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SIDOUENE ALLIANCE TCHOUAMEN</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>62720</v>
+      </c>
+      <c r="F258" t="n">
+        <v>360779</v>
+      </c>
+      <c r="G258" t="n">
+        <v>298059</v>
+      </c>
+      <c r="H258" t="n">
+        <v>5.752216198979592</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237679111075</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>166666.5333333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>546983</v>
+      </c>
+      <c r="G259" t="n">
+        <v>380316.4666666667</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3.2819006255205</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237679127464</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>16950</v>
+      </c>
+      <c r="F260" t="n">
+        <v>4698</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-12252</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.2771681415929204</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237679209479</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>86783.84615384616</v>
+      </c>
+      <c r="F261" t="n">
+        <v>571</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-86212.84615384616</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.006579565498719187</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237679244994</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F262" t="n">
+        <v>5872271</v>
+      </c>
+      <c r="G262" t="n">
+        <v>5372271</v>
+      </c>
+      <c r="H262" t="n">
+        <v>11.744542</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237679338102</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>BLAISE TABE ETAH</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>118868</v>
+      </c>
+      <c r="F263" t="n">
+        <v>361034</v>
+      </c>
+      <c r="G263" t="n">
+        <v>242166</v>
+      </c>
+      <c r="H263" t="n">
+        <v>3.037268230305886</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237679422176</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F264" t="n">
+        <v>35</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-499965</v>
+      </c>
+      <c r="H264" t="n">
+        <v>6.999999999999999e-05</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237679422291</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-101597.1428571429</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>237679422591</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>141149.8</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-137249.8</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.02763021980902559</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>237679428698</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>161427.5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>29</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-161398.5</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.0001796472100478543</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>237679508295</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>60430</v>
+      </c>
+      <c r="F268" t="n">
+        <v>229535</v>
+      </c>
+      <c r="G268" t="n">
+        <v>169105</v>
+      </c>
+      <c r="H268" t="n">
+        <v>3.79836174085719</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>237679548340</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>400114.9</v>
+      </c>
+      <c r="F269" t="n">
+        <v>553455</v>
+      </c>
+      <c r="G269" t="n">
+        <v>153340.1</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1.383240164262815</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>237679550294</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>14649.6</v>
+      </c>
+      <c r="F270" t="n">
+        <v>44163</v>
+      </c>
+      <c r="G270" t="n">
+        <v>29513.4</v>
+      </c>
+      <c r="H270" t="n">
+        <v>3.014621559633027</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>237679551262</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>JEAN JULES KALIA</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>65595</v>
+      </c>
+      <c r="F271" t="n">
+        <v>50746</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-14849</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.773626038570013</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>237679553674</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>56618.88</v>
+      </c>
+      <c r="F272" t="n">
+        <v>36748</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-19870.88</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.6490414504843613</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>237679567513</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F273" t="n">
+        <v>5032</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-2668</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0.6535064935064935</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>237679580678</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>12426.66666666667</v>
+      </c>
+      <c r="F274" t="n">
+        <v>84</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-12342.66666666667</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.006759656652360516</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>237679604574</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>10309.09090909091</v>
+      </c>
+      <c r="F275" t="n">
+        <v>35289</v>
+      </c>
+      <c r="G275" t="n">
+        <v>24979.90909090909</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3.423095238095238</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>237679607838</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>AUBIN CYRIAQUE DEUGOUE FITCHEU</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>65518.75</v>
+      </c>
+      <c r="F276" t="n">
+        <v>60748</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-4770.75</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.9271849661356482</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>237679654555</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F277" t="n">
+        <v>126163</v>
+      </c>
+      <c r="G277" t="n">
+        <v>89534.57894736843</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3.444401816248527</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>237679732169</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>328228.8</v>
+      </c>
+      <c r="F278" t="n">
+        <v>176311</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-151917.8</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.5371588355439864</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>237679789713</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>78170</v>
+      </c>
+      <c r="F279" t="n">
+        <v>22</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-78148</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.000281437891774338</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>237679791269</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>85360</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-85360</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>237679793647</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>198218.4615384615</v>
+      </c>
+      <c r="F281" t="n">
+        <v>43</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-198175.4615384615</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.0002169323667748095</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>237679808809</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>ANNETTE JASMINE EKOTTO</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F282" t="n">
+        <v>126721</v>
+      </c>
+      <c r="G282" t="n">
+        <v>99701</v>
+      </c>
+      <c r="H282" t="n">
+        <v>4.689896373056995</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>237679869809</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>81035</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5725</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-75310</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.07064848522243475</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>237679882190</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL POUGA LOUISE MARGOT</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>38170</v>
+      </c>
+      <c r="F284" t="n">
+        <v>283026</v>
+      </c>
+      <c r="G284" t="n">
+        <v>244856</v>
+      </c>
+      <c r="H284" t="n">
+        <v>7.414880796436992</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F285" t="n">
+        <v>77963</v>
+      </c>
+      <c r="G285" t="n">
+        <v>18353</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1.307884583123637</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F286" t="n">
+        <v>19527</v>
+      </c>
+      <c r="G286" t="n">
+        <v>14527</v>
+      </c>
+      <c r="H286" t="n">
+        <v>3.9054</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>237680116452</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NDE HENRI</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>80862.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>81419</v>
+      </c>
+      <c r="G287" t="n">
+        <v>556.5</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1.006882052867522</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>237680119435</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>N A BARRY ADJARA</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>88440</v>
+      </c>
+      <c r="F288" t="n">
+        <v>454845</v>
+      </c>
+      <c r="G288" t="n">
+        <v>366405</v>
+      </c>
+      <c r="H288" t="n">
+        <v>5.14297829036635</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>237680144977</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>37653.33333333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-35413.33333333334</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.05949008498583569</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>237680415220</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>9787.859999999995</v>
+      </c>
+      <c r="F290" t="n">
+        <v>6126</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-3661.859999999995</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.625877362365216</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>237680435802</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>234470</v>
+      </c>
+      <c r="F291" t="n">
+        <v>467488</v>
+      </c>
+      <c r="G291" t="n">
+        <v>233018</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1.993807310103638</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>EDITH NOPELBA</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>34710</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-18996.66666666666</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.6462884806355512</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>237680574202</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F293" t="n">
+        <v>303967</v>
+      </c>
+      <c r="G293" t="n">
+        <v>217347</v>
+      </c>
+      <c r="H293" t="n">
+        <v>3.509201108289079</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>237680670799</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>52604.73684210526</v>
+      </c>
+      <c r="F294" t="n">
+        <v>5281</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-47323.73684210526</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.1003901990014908</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>237680857383</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>46555</v>
+      </c>
+      <c r="F295" t="n">
+        <v>406091</v>
+      </c>
+      <c r="G295" t="n">
+        <v>359536</v>
+      </c>
+      <c r="H295" t="n">
+        <v>8.722822468048545</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>237680887643</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>VICTOR ANI ANI</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>84126.25</v>
+      </c>
+      <c r="F296" t="n">
+        <v>55817</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-28309.25</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.6634908842364898</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>237680950910</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>30157.33333333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-24757.33333333334</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.1790609249270492</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F298" t="n">
+        <v>201096</v>
+      </c>
+      <c r="G298" t="n">
+        <v>143290.2857142857</v>
+      </c>
+      <c r="H298" t="n">
+        <v>3.4788256227758</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11469,6 +11469,3077 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>CLARION MENKE BAKARI</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F299" t="n">
+        <v>79120</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-5049.800000000003</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.9400046097293804</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>237681114247</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>17519.8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-16505.8</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.05787737302937249</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1847</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-14851.33333333333</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.1106098413015271</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>237681118330</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>152199.5714285714</v>
+      </c>
+      <c r="F302" t="n">
+        <v>408039</v>
+      </c>
+      <c r="G302" t="n">
+        <v>255839.4285714286</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2.680947102347763</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F303" t="n">
+        <v>137219</v>
+      </c>
+      <c r="G303" t="n">
+        <v>89405.25</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2.869864840134898</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>237681180496</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>7225.555555555556</v>
+      </c>
+      <c r="F304" t="n">
+        <v>9944</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2718.444444444444</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1.37622635706597</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2947</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-4491.090909090909</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.3962038157396204</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>237681299829</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>56419.76190476191</v>
+      </c>
+      <c r="F306" t="n">
+        <v>698</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-55721.76190476191</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.01237155167684406</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>237681446273</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>CHRISTIANE MARTINE ALEXANDRINE NSANG EPSE ESSAKA EBOUMBOU</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F307" t="n">
+        <v>43120</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-456880</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.08624</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MOISE LONTCHI</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F308" t="n">
+        <v>7460</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-18456.63076923077</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.2878460578624595</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>237681589841</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F309" t="n">
+        <v>70456</v>
+      </c>
+      <c r="G309" t="n">
+        <v>44602.66666666667</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2.725219185146983</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>237681602244</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>260660</v>
+      </c>
+      <c r="F310" t="n">
+        <v>62339</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-198321</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.239158290493363</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>237681603496</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ADVINE STEPHANIE NGOUNGO WABEU</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>57131.66666666666</v>
+      </c>
+      <c r="F311" t="n">
+        <v>295896</v>
+      </c>
+      <c r="G311" t="n">
+        <v>238764.3333333333</v>
+      </c>
+      <c r="H311" t="n">
+        <v>5.179194258875697</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>237681606646</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>DERRICK SONWA LONTIO</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>66756</v>
+      </c>
+      <c r="F312" t="n">
+        <v>114713</v>
+      </c>
+      <c r="G312" t="n">
+        <v>47957</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1.718392354245311</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>237681611433</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>18655</v>
+      </c>
+      <c r="F313" t="n">
+        <v>79704</v>
+      </c>
+      <c r="G313" t="n">
+        <v>61049</v>
+      </c>
+      <c r="H313" t="n">
+        <v>4.272527472527472</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F314" t="n">
+        <v>46613</v>
+      </c>
+      <c r="G314" t="n">
+        <v>37813</v>
+      </c>
+      <c r="H314" t="n">
+        <v>5.296931818181818</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>237681655241</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>107078.4615384615</v>
+      </c>
+      <c r="F315" t="n">
+        <v>18433</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-88645.46153846153</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.1721447967701614</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>237681656314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>63475</v>
+      </c>
+      <c r="F316" t="n">
+        <v>481905</v>
+      </c>
+      <c r="G316" t="n">
+        <v>418430</v>
+      </c>
+      <c r="H316" t="n">
+        <v>7.592044111855061</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>237681657461</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>86929.8</v>
+      </c>
+      <c r="F317" t="n">
+        <v>215288</v>
+      </c>
+      <c r="G317" t="n">
+        <v>128358.2</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2.476573050898541</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>237681657562</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>137844.9629629629</v>
+      </c>
+      <c r="F318" t="n">
+        <v>81593</v>
+      </c>
+      <c r="G318" t="n">
+        <v>-56251.96296296295</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.5919186181791998</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>237681657939</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>22932.52727272727</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>-22931.52727272727</v>
+      </c>
+      <c r="H319" t="n">
+        <v>4.360618383257129e-05</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>237681658403</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>20060</v>
+      </c>
+      <c r="F320" t="n">
+        <v>31000</v>
+      </c>
+      <c r="G320" t="n">
+        <v>10940</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1.545363908275174</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>237681662596</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>110397.5</v>
+      </c>
+      <c r="F321" t="n">
+        <v>589452</v>
+      </c>
+      <c r="G321" t="n">
+        <v>479054.5</v>
+      </c>
+      <c r="H321" t="n">
+        <v>5.339360039855975</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F322" t="n">
+        <v>119513</v>
+      </c>
+      <c r="G322" t="n">
+        <v>56912.2909090909</v>
+      </c>
+      <c r="H322" t="n">
+        <v>1.909131729265919</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F323" t="n">
+        <v>112445</v>
+      </c>
+      <c r="G323" t="n">
+        <v>54375</v>
+      </c>
+      <c r="H323" t="n">
+        <v>1.936369898398485</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>237681662761</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>ETS AMOUR DE DIEU SERVICES LTDLA_CBOX_R1_MBOCK NICOLE RUTH</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>29783.82</v>
+      </c>
+      <c r="F324" t="n">
+        <v>61980</v>
+      </c>
+      <c r="G324" t="n">
+        <v>32196.18</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2.08099565468768</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>237681663743</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>103179.8</v>
+      </c>
+      <c r="F325" t="n">
+        <v>441531</v>
+      </c>
+      <c r="G325" t="n">
+        <v>338351.2</v>
+      </c>
+      <c r="H325" t="n">
+        <v>4.2792387657274</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>237681676445</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>51040</v>
+      </c>
+      <c r="F326" t="n">
+        <v>401091</v>
+      </c>
+      <c r="G326" t="n">
+        <v>350051</v>
+      </c>
+      <c r="H326" t="n">
+        <v>7.858365987460815</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>237681677617</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>17929.8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>79864</v>
+      </c>
+      <c r="G327" t="n">
+        <v>61934.2</v>
+      </c>
+      <c r="H327" t="n">
+        <v>4.454260504857834</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>237681678622</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>26740</v>
+      </c>
+      <c r="F328" t="n">
+        <v>122195</v>
+      </c>
+      <c r="G328" t="n">
+        <v>95455</v>
+      </c>
+      <c r="H328" t="n">
+        <v>4.569745699326851</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>237681679096</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>30203</v>
+      </c>
+      <c r="F329" t="n">
+        <v>124569</v>
+      </c>
+      <c r="G329" t="n">
+        <v>94366</v>
+      </c>
+      <c r="H329" t="n">
+        <v>4.124391616726816</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F330" t="n">
+        <v>26962</v>
+      </c>
+      <c r="G330" t="n">
+        <v>21962</v>
+      </c>
+      <c r="H330" t="n">
+        <v>5.3924</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>237681679310</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>31099.92727272727</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1929</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-29170.92727272727</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.06202586852000823</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>237681679880</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F332" t="n">
+        <v>18717</v>
+      </c>
+      <c r="G332" t="n">
+        <v>13717</v>
+      </c>
+      <c r="H332" t="n">
+        <v>3.7434</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>237681862876</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>26767.92</v>
+      </c>
+      <c r="F333" t="n">
+        <v>10280</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-16487.92</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0.3840417933107989</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>237682117915</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>123740</v>
+      </c>
+      <c r="F334" t="n">
+        <v>132271</v>
+      </c>
+      <c r="G334" t="n">
+        <v>8531</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1.068942944884435</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>237682154553</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>136800</v>
+      </c>
+      <c r="F335" t="n">
+        <v>20837</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-115963</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.1523172514619883</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>237682238745</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F336" t="n">
+        <v>734434</v>
+      </c>
+      <c r="G336" t="n">
+        <v>234434</v>
+      </c>
+      <c r="H336" t="n">
+        <v>1.468868</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>237682316602</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>44349.8</v>
+      </c>
+      <c r="F337" t="n">
+        <v>898713</v>
+      </c>
+      <c r="G337" t="n">
+        <v>854363.2</v>
+      </c>
+      <c r="H337" t="n">
+        <v>20.26419510347284</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>237682323406</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>81782.5</v>
+      </c>
+      <c r="F338" t="n">
+        <v>26</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-81756.5</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.000317916424662978</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F339" t="n">
+        <v>24203</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-195176.0363636363</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.1103250356149883</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>237682370358</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>CARINE SONKENG</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>24760</v>
+      </c>
+      <c r="F340" t="n">
+        <v>350161</v>
+      </c>
+      <c r="G340" t="n">
+        <v>325401</v>
+      </c>
+      <c r="H340" t="n">
+        <v>14.14220516962843</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>237682430965</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ELSA CABRELLE MAKOUNGANG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>11953.33333333333</v>
+      </c>
+      <c r="F341" t="n">
+        <v>57098</v>
+      </c>
+      <c r="G341" t="n">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="H341" t="n">
+        <v>4.776742889012827</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>237682480811</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>178497.5</v>
+      </c>
+      <c r="F342" t="n">
+        <v>597064</v>
+      </c>
+      <c r="G342" t="n">
+        <v>418566.5</v>
+      </c>
+      <c r="H342" t="n">
+        <v>3.344943206487486</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>237682511457</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>29396</v>
+      </c>
+      <c r="F343" t="n">
+        <v>55164</v>
+      </c>
+      <c r="G343" t="n">
+        <v>25768</v>
+      </c>
+      <c r="H343" t="n">
+        <v>1.876581847870459</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>237682520113</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>27383.33333333333</v>
+      </c>
+      <c r="F344" t="n">
+        <v>254361</v>
+      </c>
+      <c r="G344" t="n">
+        <v>226977.6666666667</v>
+      </c>
+      <c r="H344" t="n">
+        <v>9.288898356664639</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>237682639044</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>JOSEPH KAMGA</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>223294</v>
+      </c>
+      <c r="F345" t="n">
+        <v>53913</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-169381</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.2414440155131799</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>237682764368</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>23640</v>
+      </c>
+      <c r="F346" t="n">
+        <v>503106</v>
+      </c>
+      <c r="G346" t="n">
+        <v>479466</v>
+      </c>
+      <c r="H346" t="n">
+        <v>21.28197969543147</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>237682798275</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F347" t="n">
+        <v>8147</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-491853</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.016294</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>237682803277</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>59869.80000000002</v>
+      </c>
+      <c r="F348" t="n">
+        <v>17</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-59852.80000000002</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.0002839495037564848</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>237682814055</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F349" t="n">
+        <v>23560</v>
+      </c>
+      <c r="G349" t="n">
+        <v>16130</v>
+      </c>
+      <c r="H349" t="n">
+        <v>3.17092866756393</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>237682827350</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ALAIN GACIEN DOUANLA</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>174107.7777777778</v>
+      </c>
+      <c r="F350" t="n">
+        <v>441750</v>
+      </c>
+      <c r="G350" t="n">
+        <v>267642.2222222222</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2.537221516685067</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>237682975726</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>29809.16666666666</v>
+      </c>
+      <c r="F351" t="n">
+        <v>182156</v>
+      </c>
+      <c r="G351" t="n">
+        <v>152346.8333333333</v>
+      </c>
+      <c r="H351" t="n">
+        <v>6.110737748455453</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>237683023087</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>119280</v>
+      </c>
+      <c r="F352" t="n">
+        <v>580555</v>
+      </c>
+      <c r="G352" t="n">
+        <v>461275</v>
+      </c>
+      <c r="H352" t="n">
+        <v>4.867161301140174</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>237683075075</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>PARFAIT TEMOH DAH</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>173418.2</v>
+      </c>
+      <c r="F353" t="n">
+        <v>322352</v>
+      </c>
+      <c r="G353" t="n">
+        <v>148933.8</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1.858812973494132</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>237683079541</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>81326.66666666667</v>
+      </c>
+      <c r="F354" t="n">
+        <v>200040</v>
+      </c>
+      <c r="G354" t="n">
+        <v>118713.3333333333</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2.459709812279695</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>237683165199</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU LAMINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>6183.636363636364</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1756</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-4427.636363636364</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.2839753013819465</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>237683279255</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>39160</v>
+      </c>
+      <c r="F356" t="n">
+        <v>3269</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-35891</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.08347803881511746</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>237683323481</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>25924</v>
+      </c>
+      <c r="F357" t="n">
+        <v>576123</v>
+      </c>
+      <c r="G357" t="n">
+        <v>550199</v>
+      </c>
+      <c r="H357" t="n">
+        <v>22.22353803425397</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>237683353137</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>34730</v>
+      </c>
+      <c r="F358" t="n">
+        <v>238659</v>
+      </c>
+      <c r="G358" t="n">
+        <v>203929</v>
+      </c>
+      <c r="H358" t="n">
+        <v>6.87183990786064</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>237683356603</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>70031.92</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1099</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-68932.92</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.01569284406310722</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>237683356768</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>RUSSEL LECLER KOUTJEM</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>35537.4</v>
+      </c>
+      <c r="F360" t="n">
+        <v>219074</v>
+      </c>
+      <c r="G360" t="n">
+        <v>183536.6</v>
+      </c>
+      <c r="H360" t="n">
+        <v>6.164604050943513</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F361" t="n">
+        <v>326</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-4674</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>237683366333</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>13525</v>
+      </c>
+      <c r="F362" t="n">
+        <v>33240</v>
+      </c>
+      <c r="G362" t="n">
+        <v>19715</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2.457670979667283</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>237683368985</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>51230</v>
+      </c>
+      <c r="F363" t="n">
+        <v>240076</v>
+      </c>
+      <c r="G363" t="n">
+        <v>188846</v>
+      </c>
+      <c r="H363" t="n">
+        <v>4.686238532110091</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>237683379070</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>400185</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1309653</v>
+      </c>
+      <c r="G364" t="n">
+        <v>909468</v>
+      </c>
+      <c r="H364" t="n">
+        <v>3.272618913752389</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>237683379155</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>NIMBUNG EPSE BWEH ODETTE</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>102412.5</v>
+      </c>
+      <c r="F365" t="n">
+        <v>739806</v>
+      </c>
+      <c r="G365" t="n">
+        <v>637393.5</v>
+      </c>
+      <c r="H365" t="n">
+        <v>7.223786158916148</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>237683379207</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>19690</v>
+      </c>
+      <c r="F366" t="n">
+        <v>162662</v>
+      </c>
+      <c r="G366" t="n">
+        <v>142972</v>
+      </c>
+      <c r="H366" t="n">
+        <v>8.261147790756729</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>237683386020</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>27588.26086956522</v>
+      </c>
+      <c r="F367" t="n">
+        <v>8632</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-18956.26086956522</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.3128867035443557</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>237683394976</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F368" t="n">
+        <v>15860</v>
+      </c>
+      <c r="G368" t="n">
+        <v>10860</v>
+      </c>
+      <c r="H368" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>237683395123</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>61358.0625</v>
+      </c>
+      <c r="F369" t="n">
+        <v>87704</v>
+      </c>
+      <c r="G369" t="n">
+        <v>26345.9375</v>
+      </c>
+      <c r="H369" t="n">
+        <v>1.429380205739058</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>237683396173</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>46180</v>
+      </c>
+      <c r="F370" t="n">
+        <v>115623</v>
+      </c>
+      <c r="G370" t="n">
+        <v>69443</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2.503746210480728</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>237683400719</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>39019.8</v>
+      </c>
+      <c r="F371" t="n">
+        <v>169858</v>
+      </c>
+      <c r="G371" t="n">
+        <v>130838.2</v>
+      </c>
+      <c r="H371" t="n">
+        <v>4.353123286126531</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>237683408221</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>104380</v>
+      </c>
+      <c r="F372" t="n">
+        <v>69841</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-34539</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.669103276489749</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>237683432110</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ARNAUD GHISLAIN FOSSO</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F373" t="n">
+        <v>818170</v>
+      </c>
+      <c r="G373" t="n">
+        <v>802570</v>
+      </c>
+      <c r="H373" t="n">
+        <v>52.44679487179487</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>237683454059</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>ELISABETH MARIE ETIENNE ANZIN</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>114838.4615384615</v>
+      </c>
+      <c r="F374" t="n">
+        <v>59951</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-54887.46153846152</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.5220463527362852</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>237683454060</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>RTS BP CITÉ</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Bp Cite Ocm</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>113235</v>
+      </c>
+      <c r="F375" t="n">
+        <v>6635</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-106600</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.05859495738949971</v>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>237683555873</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>297690</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1291825</v>
+      </c>
+      <c r="G376" t="n">
+        <v>994135</v>
+      </c>
+      <c r="H376" t="n">
+        <v>4.339497463804629</v>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>237683557193</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F377" t="n">
+        <v>22845</v>
+      </c>
+      <c r="G377" t="n">
+        <v>13065</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2.335889570552147</v>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>237683612202</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>ALBERTINE TIBELLE DONGMO NANFACK</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F378" t="n">
+        <v>15004</v>
+      </c>
+      <c r="G378" t="n">
+        <v>10004</v>
+      </c>
+      <c r="H378" t="n">
+        <v>3.0008</v>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>237683730580</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>41930</v>
+      </c>
+      <c r="F379" t="n">
+        <v>330575</v>
+      </c>
+      <c r="G379" t="n">
+        <v>288645</v>
+      </c>
+      <c r="H379" t="n">
+        <v>7.883973288814691</v>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F380" t="n">
+        <v>10613</v>
+      </c>
+      <c r="G380" t="n">
+        <v>2836.125</v>
+      </c>
+      <c r="H380" t="n">
+        <v>1.364686972595033</v>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>237683815311</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F381" t="n">
+        <v>2759</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-9969.890909090913</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.2167510130854791</v>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3588,6 +3588,820 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>103700</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-86085.79999999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.5464054739606441</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DELVIN NDIFON BAH</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F87" t="n">
+        <v>64935</v>
+      </c>
+      <c r="G87" t="n">
+        <v>39905</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.594286855773072</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1100121</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1073871</v>
+      </c>
+      <c r="H88" t="n">
+        <v>41.90937142857143</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>379307</v>
+      </c>
+      <c r="G89" t="n">
+        <v>197137.3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2.082162950260114</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19074</v>
+      </c>
+      <c r="G90" t="n">
+        <v>14074</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.8148</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F91" t="n">
+        <v>137655</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-46507.03703703705</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7474667538148269</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>90031</v>
+      </c>
+      <c r="G92" t="n">
+        <v>28837.66666666666</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.471255038675237</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>123243</v>
+      </c>
+      <c r="G94" t="n">
+        <v>23013.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.229604369159671</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F95" t="n">
+        <v>109522</v>
+      </c>
+      <c r="G95" t="n">
+        <v>83902.90909090909</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.275015081083</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F96" t="n">
+        <v>563253</v>
+      </c>
+      <c r="G96" t="n">
+        <v>507033</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10.01872998932764</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F97" t="n">
+        <v>117365</v>
+      </c>
+      <c r="G97" t="n">
+        <v>57755</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.968881060224795</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F98" t="n">
+        <v>90676</v>
+      </c>
+      <c r="G98" t="n">
+        <v>32870.28571428571</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.568633847370502</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>EMILE MADELO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12821</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-34992.75</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.2681446236699694</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2959</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-4479.090909090909</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.3978171329397817</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237682117915</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>123740</v>
+      </c>
+      <c r="F101" t="n">
+        <v>23687</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-100053</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.1914255697430095</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237682154553</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>136800</v>
+      </c>
+      <c r="F102" t="n">
+        <v>31551</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-105249</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.2306359649122807</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237682803277</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>59869.80000000002</v>
+      </c>
+      <c r="F103" t="n">
+        <v>69625</v>
+      </c>
+      <c r="G103" t="n">
+        <v>9755.199999999983</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.162940247002662</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237683323481</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>25924</v>
+      </c>
+      <c r="F104" t="n">
+        <v>509243</v>
+      </c>
+      <c r="G104" t="n">
+        <v>483319</v>
+      </c>
+      <c r="H104" t="n">
+        <v>19.64368924548681</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237683368985</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>51230</v>
+      </c>
+      <c r="F105" t="n">
+        <v>232132</v>
+      </c>
+      <c r="G105" t="n">
+        <v>180902</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4.531173140737849</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237683432110</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F106" t="n">
+        <v>822255</v>
+      </c>
+      <c r="G106" t="n">
+        <v>806655</v>
+      </c>
+      <c r="H106" t="n">
+        <v>52.70865384615384</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4823</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-2953.875</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.6201719842481717</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,13 +651,13 @@
         <v>28141.53846153846</v>
       </c>
       <c r="F6" t="n">
-        <v>15019</v>
+        <v>12778</v>
       </c>
       <c r="G6" t="n">
-        <v>-13122.53846153846</v>
+        <v>-15363.53846153846</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5336950579488301</v>
+        <v>0.4540618849770391</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4399,6 +4399,2004 @@
       <c r="I107" t="inlineStr">
         <is>
           <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14665</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9665</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F109" t="n">
+        <v>39739</v>
+      </c>
+      <c r="G109" t="n">
+        <v>23040.66666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2.379818345144226</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7335</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-18581.63076923077</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.2830229000564532</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F111" t="n">
+        <v>38195</v>
+      </c>
+      <c r="G111" t="n">
+        <v>29395</v>
+      </c>
+      <c r="H111" t="n">
+        <v>4.34034090909091</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F112" t="n">
+        <v>51963</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-10637.7090909091</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.8300704697216615</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100639</v>
+      </c>
+      <c r="G113" t="n">
+        <v>42569</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.733063543998622</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F114" t="n">
+        <v>26962</v>
+      </c>
+      <c r="G114" t="n">
+        <v>21962</v>
+      </c>
+      <c r="H114" t="n">
+        <v>5.3924</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237651927707</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>LEONARD TATSINKOU DZONDA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F115" t="n">
+        <v>21017</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1083</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9509954751131222</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F116" t="n">
+        <v>331375</v>
+      </c>
+      <c r="G116" t="n">
+        <v>257545</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4.488351618583232</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F117" t="n">
+        <v>118407</v>
+      </c>
+      <c r="G117" t="n">
+        <v>44477</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.601609630731773</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F118" t="n">
+        <v>87492</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-17528</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.8330984574366788</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F119" t="n">
+        <v>174191</v>
+      </c>
+      <c r="G119" t="n">
+        <v>76371</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.780729912083419</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F120" t="n">
+        <v>200938</v>
+      </c>
+      <c r="G120" t="n">
+        <v>160173</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.929179443149761</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F121" t="n">
+        <v>236900</v>
+      </c>
+      <c r="G121" t="n">
+        <v>193030</v>
+      </c>
+      <c r="H121" t="n">
+        <v>5.400045589240939</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SOFT DEAL TRADING LIMITED ESG CAMPUS A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2612991</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2379886.4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>11.20952139082626</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F123" t="n">
+        <v>342694</v>
+      </c>
+      <c r="G123" t="n">
+        <v>193047.3333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.290020938210005</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3986182</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3486182</v>
+      </c>
+      <c r="H124" t="n">
+        <v>7.972364</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ANGELE FLAURE EDJAN EKANDJOUM</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>17317</v>
+      </c>
+      <c r="G125" t="n">
+        <v>4956.066666666664</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.400945991133355</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CHANCELVIE KAYI NGOGO</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F126" t="n">
+        <v>414220</v>
+      </c>
+      <c r="G126" t="n">
+        <v>320120</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.401912858660999</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237678637179</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>169880</v>
+      </c>
+      <c r="F127" t="n">
+        <v>959163</v>
+      </c>
+      <c r="G127" t="n">
+        <v>789283</v>
+      </c>
+      <c r="H127" t="n">
+        <v>5.646120791146692</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237679567513</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6732</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-968</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8742857142857143</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237680119435</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Beni Donnatien Mpeck</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>88440</v>
+      </c>
+      <c r="F129" t="n">
+        <v>526607</v>
+      </c>
+      <c r="G129" t="n">
+        <v>438167</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5.954398462234283</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237683386020</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>27588.26086956522</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5403</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-22185.26086956522</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.1958441681244386</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237683408221</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>104380</v>
+      </c>
+      <c r="F131" t="n">
+        <v>34491</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-69889</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.3304368652998659</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237650651854</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>173354.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>65353</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-108001.6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.3769902846535367</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237650988697</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>112810</v>
+      </c>
+      <c r="F133" t="n">
+        <v>242620</v>
+      </c>
+      <c r="G133" t="n">
+        <v>129810</v>
+      </c>
+      <c r="H133" t="n">
+        <v>2.150695860296073</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237651809692</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>140210</v>
+      </c>
+      <c r="F134" t="n">
+        <v>574287</v>
+      </c>
+      <c r="G134" t="n">
+        <v>434077</v>
+      </c>
+      <c r="H134" t="n">
+        <v>4.095906140788816</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237652579681</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>55020</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3727</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-51293</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.06773900399854599</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237652724076</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>22670</v>
+      </c>
+      <c r="F136" t="n">
+        <v>286398</v>
+      </c>
+      <c r="G136" t="n">
+        <v>263728</v>
+      </c>
+      <c r="H136" t="n">
+        <v>12.63334803705338</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237652958984</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>46742.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>124764</v>
+      </c>
+      <c r="G137" t="n">
+        <v>78021.5</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2.669176873295181</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237653239050</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F138" t="n">
+        <v>782783</v>
+      </c>
+      <c r="G138" t="n">
+        <v>438110.2727272727</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.271090626153927</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237653472620</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F139" t="n">
+        <v>373702</v>
+      </c>
+      <c r="G139" t="n">
+        <v>312132</v>
+      </c>
+      <c r="H139" t="n">
+        <v>6.069546857235666</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F140" t="n">
+        <v>143892</v>
+      </c>
+      <c r="G140" t="n">
+        <v>89472</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2.644101433296582</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F141" t="n">
+        <v>392100</v>
+      </c>
+      <c r="G141" t="n">
+        <v>324685</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5.816213008974264</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F142" t="n">
+        <v>50950</v>
+      </c>
+      <c r="G142" t="n">
+        <v>8668.176470588238</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1.20500952293504</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4330</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-96336.66666666669</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.04301324503311257</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F144" t="n">
+        <v>480142</v>
+      </c>
+      <c r="G144" t="n">
+        <v>436692</v>
+      </c>
+      <c r="H144" t="n">
+        <v>11.05044879171462</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F145" t="n">
+        <v>169952</v>
+      </c>
+      <c r="G145" t="n">
+        <v>134322</v>
+      </c>
+      <c r="H145" t="n">
+        <v>4.769912994667415</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237671364668</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>60745</v>
+      </c>
+      <c r="F146" t="n">
+        <v>113445</v>
+      </c>
+      <c r="G146" t="n">
+        <v>52700</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.867561116141246</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237671369692</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>27325.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>198191</v>
+      </c>
+      <c r="G147" t="n">
+        <v>170865.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>7.252968838630583</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BERIAUD NDADA TCHEUTCHOUA</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F148" t="n">
+        <v>675226</v>
+      </c>
+      <c r="G148" t="n">
+        <v>630121</v>
+      </c>
+      <c r="H148" t="n">
+        <v>14.97009200753797</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F149" t="n">
+        <v>444434</v>
+      </c>
+      <c r="G149" t="n">
+        <v>19954</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.04700810403317</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MATHIEU TAGNE TCHOUEDEM</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F150" t="n">
+        <v>212687</v>
+      </c>
+      <c r="G150" t="n">
+        <v>197077</v>
+      </c>
+      <c r="H150" t="n">
+        <v>13.62504804612428</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F151" t="n">
+        <v>75168</v>
+      </c>
+      <c r="G151" t="n">
+        <v>56738</v>
+      </c>
+      <c r="H151" t="n">
+        <v>4.078567552902876</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>94610</v>
+      </c>
+      <c r="G152" t="n">
+        <v>46170.19999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1.953145966746353</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F153" t="n">
+        <v>484778</v>
+      </c>
+      <c r="G153" t="n">
+        <v>398158</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5.596605864696375</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F154" t="n">
+        <v>129660</v>
+      </c>
+      <c r="G154" t="n">
+        <v>92930</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3.530084399673292</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F155" t="n">
+        <v>47861</v>
+      </c>
+      <c r="G155" t="n">
+        <v>32581</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.132264397905759</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F156" t="n">
+        <v>50620</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-12520</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.8017104846373139</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>57978</v>
+      </c>
+      <c r="G157" t="n">
+        <v>4271.333333333336</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.079530784508441</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>66892</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-17277.8</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.7947268497727213</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F159" t="n">
+        <v>79302</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-140077.0363636363</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.3614839472106683</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F160" t="n">
+        <v>326</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-4674</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237652899422</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>AUGUSTIN MERIMEE DJEMELE TSAFACK</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F161" t="n">
+        <v>436587</v>
+      </c>
+      <c r="G161" t="n">
+        <v>367705.6363636364</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6.338245600142538</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
         </is>
       </c>
     </row>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6400,6 +6400,3040 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-352072.5</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F163" t="n">
+        <v>26</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-112562.4615384615</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.0002309295255013153</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MCLEWIS ESEME NGOLE EKANE</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13654</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-11172.15384615385</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.5499845076532193</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F165" t="n">
+        <v>196942</v>
+      </c>
+      <c r="G165" t="n">
+        <v>83202</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.731510462458238</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F166" t="n">
+        <v>302000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>245455</v>
+      </c>
+      <c r="H166" t="n">
+        <v>5.340878945972235</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>327685</v>
+      </c>
+      <c r="G167" t="n">
+        <v>177305.4</v>
+      </c>
+      <c r="H167" t="n">
+        <v>2.179052211869163</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F168" t="n">
+        <v>88532</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-70503.17499999999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.5566818787101658</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MARINA MANANG GWAI</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F169" t="n">
+        <v>245162</v>
+      </c>
+      <c r="G169" t="n">
+        <v>157784.65</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.805784336558616</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F170" t="n">
+        <v>478493</v>
+      </c>
+      <c r="G170" t="n">
+        <v>390048</v>
+      </c>
+      <c r="H170" t="n">
+        <v>5.410062750862117</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MOUSSA ABOUBAKAR</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>272103</v>
+      </c>
+      <c r="G171" t="n">
+        <v>248663.4</v>
+      </c>
+      <c r="H171" t="n">
+        <v>11.6086878615676</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237679127464</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>16950</v>
+      </c>
+      <c r="F172" t="n">
+        <v>46316</v>
+      </c>
+      <c r="G172" t="n">
+        <v>29366</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2.732507374631268</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237679422291</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-101595.1428571429</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1.968559295818218e-05</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237651433330</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>59904.58333333334</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20936</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-38968.58333333334</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.3494891181114411</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237654168696</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F175" t="n">
+        <v>44417</v>
+      </c>
+      <c r="G175" t="n">
+        <v>36619.97142857143</v>
+      </c>
+      <c r="H175" t="n">
+        <v>5.696657334662288</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237670799877</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>23610</v>
+      </c>
+      <c r="F176" t="n">
+        <v>718737</v>
+      </c>
+      <c r="G176" t="n">
+        <v>695127</v>
+      </c>
+      <c r="H176" t="n">
+        <v>30.4420584498094</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237671351291</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>EVILORE PULCHERIE NGAKE MBOU</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F177" t="n">
+        <v>586709</v>
+      </c>
+      <c r="G177" t="n">
+        <v>490839.14</v>
+      </c>
+      <c r="H177" t="n">
+        <v>6.119848302688665</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237671378136</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>54416.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>154462</v>
+      </c>
+      <c r="G178" t="n">
+        <v>100045.5</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.838514053641818</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237671605749</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>107695</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1004585</v>
+      </c>
+      <c r="G179" t="n">
+        <v>896890</v>
+      </c>
+      <c r="H179" t="n">
+        <v>9.328056084312179</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237671615641</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36236</v>
+      </c>
+      <c r="G180" t="n">
+        <v>27534.33333333334</v>
+      </c>
+      <c r="H180" t="n">
+        <v>4.164259720360085</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237673739931</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>colette sergine nane</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>21375</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9081</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-12294</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.4248421052631579</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237674466307</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>119626.6666666667</v>
+      </c>
+      <c r="F182" t="n">
+        <v>46941</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-72685.66666666669</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.3923957868925546</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237674959564</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1136</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-3864</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.2272</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237675208505</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>19527.86</v>
+      </c>
+      <c r="F184" t="n">
+        <v>15734</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-3793.859999999997</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.8057206473213144</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237675555508</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1511</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-10811.60909090909</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.1226201357888346</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237675557616</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ALEXIS EYONG AGBOR</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>64010</v>
+      </c>
+      <c r="F186" t="n">
+        <v>100211</v>
+      </c>
+      <c r="G186" t="n">
+        <v>36201</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.565552257459772</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237676301061</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>67109.59999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>131597</v>
+      </c>
+      <c r="G187" t="n">
+        <v>64487.40000000001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.96092660364538</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237677939039</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>11484.78260869565</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1258</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-10226.78260869565</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.1095362483437441</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237678225987</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>REGINE NGAMBA</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>37403.93</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21398</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-16005.93</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.5720789232575294</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237679553674</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>56618.88</v>
+      </c>
+      <c r="F190" t="n">
+        <v>129711</v>
+      </c>
+      <c r="G190" t="n">
+        <v>73092.12</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2.290949591373054</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237679654555</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F191" t="n">
+        <v>217843</v>
+      </c>
+      <c r="G191" t="n">
+        <v>181214.5789473684</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.947376210592867</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237679789713</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>78170</v>
+      </c>
+      <c r="F192" t="n">
+        <v>12</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-78158</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.0001535115773314571</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237681589841</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F193" t="n">
+        <v>102572</v>
+      </c>
+      <c r="G193" t="n">
+        <v>76718.66666666667</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3.967457452294997</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237681676445</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>51040</v>
+      </c>
+      <c r="F194" t="n">
+        <v>368456</v>
+      </c>
+      <c r="G194" t="n">
+        <v>317416</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7.218965517241379</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237681678622</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ANTOINEMARTIN KEVIN LINDJECK</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>26740</v>
+      </c>
+      <c r="F195" t="n">
+        <v>107997</v>
+      </c>
+      <c r="G195" t="n">
+        <v>81257</v>
+      </c>
+      <c r="H195" t="n">
+        <v>4.038780852655198</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237683815311</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3759</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-8969.890909090913</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.295312453130959</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237651533411</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>NADINE FLORE MEKA EPS TCHENGA</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>56092.85714285714</v>
+      </c>
+      <c r="F197" t="n">
+        <v>87920</v>
+      </c>
+      <c r="G197" t="n">
+        <v>31827.14285714286</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.567400993250987</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237651843112</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>VICTOR HUGO NZODE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F198" t="n">
+        <v>60029</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1541</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9749715770667533</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237652297747</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>24830</v>
+      </c>
+      <c r="F199" t="n">
+        <v>80679</v>
+      </c>
+      <c r="G199" t="n">
+        <v>55849</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.249254933548127</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237653316656</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>THIERRY MARTIN TESSADJOU FONDONG</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>39103.33333333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>302788</v>
+      </c>
+      <c r="G200" t="n">
+        <v>263684.6666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>7.743278492882107</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237671290825</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>NJOUME DENISE EBOUDE</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2470</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-13143.63636363636</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.1581950509461426</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237672276931</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>74960</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4498</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-70462</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.06000533617929563</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237674580187</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24685</v>
+      </c>
+      <c r="G203" t="n">
+        <v>13845</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2.277214022140222</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237674673359</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>88189.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>213985</v>
+      </c>
+      <c r="G204" t="n">
+        <v>125795.5</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2.426422646686964</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237674769580</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>VAKSA BELLO</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>21040</v>
+      </c>
+      <c r="F205" t="n">
+        <v>72983</v>
+      </c>
+      <c r="G205" t="n">
+        <v>51943</v>
+      </c>
+      <c r="H205" t="n">
+        <v>3.468773764258555</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237674926472</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>10265.55</v>
+      </c>
+      <c r="F206" t="n">
+        <v>88012</v>
+      </c>
+      <c r="G206" t="n">
+        <v>77746.45</v>
+      </c>
+      <c r="H206" t="n">
+        <v>8.57352991315614</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237675831509</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F207" t="n">
+        <v>7507</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-136116.8461538462</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.05226847909335818</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237676770192</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>alexia duma densai</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>21759.975</v>
+      </c>
+      <c r="F208" t="n">
+        <v>443879</v>
+      </c>
+      <c r="G208" t="n">
+        <v>422119.025</v>
+      </c>
+      <c r="H208" t="n">
+        <v>20.39887453914814</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237680857383</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DOMINIK BEN BELL</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>46555</v>
+      </c>
+      <c r="F209" t="n">
+        <v>360193</v>
+      </c>
+      <c r="G209" t="n">
+        <v>313638</v>
+      </c>
+      <c r="H209" t="n">
+        <v>7.736934808291268</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237681180496</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>7225.555555555556</v>
+      </c>
+      <c r="F210" t="n">
+        <v>5310</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1915.555555555556</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.7348915884976165</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237681299829</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>PATRICIA NKASSA</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>56419.76190476191</v>
+      </c>
+      <c r="F211" t="n">
+        <v>64656</v>
+      </c>
+      <c r="G211" t="n">
+        <v>8236.238095238092</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1.145981440140444</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237681657939</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>22932.52727272727</v>
+      </c>
+      <c r="F212" t="n">
+        <v>9069</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-13863.52727272727</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.395464481177589</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237675944533</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>28080.71428571429</v>
+      </c>
+      <c r="F213" t="n">
+        <v>58906</v>
+      </c>
+      <c r="G213" t="n">
+        <v>30825.28571428571</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.097738661511459</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237678319711</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>63790</v>
+      </c>
+      <c r="F214" t="n">
+        <v>105786</v>
+      </c>
+      <c r="G214" t="n">
+        <v>41996</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.658347703401787</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237654261990</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>JEAN RODRIGUE KAMDEM</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>58234.21052631579</v>
+      </c>
+      <c r="F215" t="n">
+        <v>257110</v>
+      </c>
+      <c r="G215" t="n">
+        <v>198875.7894736842</v>
+      </c>
+      <c r="H215" t="n">
+        <v>4.41510235437661</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237670148911</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>9246.842105263158</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10102</v>
+      </c>
+      <c r="G216" t="n">
+        <v>855.1578947368416</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.092481074620069</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237671517964</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>15455</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1309</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-14146</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.08469750889679716</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237671823371</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-6870</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.2668089647812166</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237671838460</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F219" t="n">
+        <v>71698</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2198</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.031625899280576</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237674248126</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>28740.76923076923</v>
+      </c>
+      <c r="F220" t="n">
+        <v>110293</v>
+      </c>
+      <c r="G220" t="n">
+        <v>81552.23076923077</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3.837510371222868</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237674629681</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F221" t="n">
+        <v>481820</v>
+      </c>
+      <c r="G221" t="n">
+        <v>396140</v>
+      </c>
+      <c r="H221" t="n">
+        <v>5.623482726423902</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237674929391</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>51638.88888888889</v>
+      </c>
+      <c r="F222" t="n">
+        <v>323738</v>
+      </c>
+      <c r="G222" t="n">
+        <v>272099.1111111111</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.269267348036578</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237680670799</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>52604.73684210526</v>
+      </c>
+      <c r="F223" t="n">
+        <v>13121</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-39483.73684210526</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.2494262073657565</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237681679880</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F224" t="n">
+        <v>9827</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4827</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.9654</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237682827350</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>174107.7777777778</v>
+      </c>
+      <c r="F225" t="n">
+        <v>429704</v>
+      </c>
+      <c r="G225" t="n">
+        <v>255596.2222222222</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2.468034486939763</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237683400719</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>ROSIANE NADINE NGUEFO</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>39019.8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>249634</v>
+      </c>
+      <c r="G226" t="n">
+        <v>210614.2</v>
+      </c>
+      <c r="H226" t="n">
+        <v>6.397623770496004</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237652356041</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>AGNES EMILIENNE AZEBAZE DJOUAKA</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>121240</v>
+      </c>
+      <c r="F227" t="n">
+        <v>827397</v>
+      </c>
+      <c r="G227" t="n">
+        <v>706157</v>
+      </c>
+      <c r="H227" t="n">
+        <v>6.824455625206203</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237652817931</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>30820</v>
+      </c>
+      <c r="F228" t="n">
+        <v>496929</v>
+      </c>
+      <c r="G228" t="n">
+        <v>466109</v>
+      </c>
+      <c r="H228" t="n">
+        <v>16.12358857884491</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237653816480</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>259886.1111111111</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1243173</v>
+      </c>
+      <c r="G229" t="n">
+        <v>983286.8888888889</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.783529965048793</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237654020285</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>68953.76000000001</v>
+      </c>
+      <c r="F230" t="n">
+        <v>28115</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-40838.76000000001</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.4077370110056362</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237670809154</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>67386.55</v>
+      </c>
+      <c r="F231" t="n">
+        <v>193731</v>
+      </c>
+      <c r="G231" t="n">
+        <v>126344.45</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2.874920885547635</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237672695037</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LYNE ARIELLE KEMKUMING TSANANG</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>95127.82000000002</v>
+      </c>
+      <c r="F232" t="n">
+        <v>426648</v>
+      </c>
+      <c r="G232" t="n">
+        <v>331520.18</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4.484997133330712</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237674679432</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MAO STEPHANE LEUGA</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>18349.8</v>
+      </c>
+      <c r="F233" t="n">
+        <v>53225</v>
+      </c>
+      <c r="G233" t="n">
+        <v>34875.2</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2.900576573041668</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237674928987</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>110902.2222222222</v>
+      </c>
+      <c r="F234" t="n">
+        <v>328168</v>
+      </c>
+      <c r="G234" t="n">
+        <v>217265.7777777778</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2.959075061114896</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237676664056</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>140200</v>
+      </c>
+      <c r="F235" t="n">
+        <v>396142</v>
+      </c>
+      <c r="G235" t="n">
+        <v>255942</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.825549215406562</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237676974240</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FRANCK DEUTOU NGAMENI</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>157580</v>
+      </c>
+      <c r="F236" t="n">
+        <v>423090</v>
+      </c>
+      <c r="G236" t="n">
+        <v>265510</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2.684921944409189</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237679422176</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F237" t="n">
+        <v>18</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-499982</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3.6e-05</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237679607838</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>65518.75</v>
+      </c>
+      <c r="F238" t="n">
+        <v>119244</v>
+      </c>
+      <c r="G238" t="n">
+        <v>53725.25</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.819998092149194</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237680887643</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>84126.25</v>
+      </c>
+      <c r="F239" t="n">
+        <v>56117</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-28009.25</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.6670569530913359</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237680950910</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>GEORDAN DIBEL WAFFO MTOSSI</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>30157.33333333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>22400</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-7757.333333333336</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.7427712441418339</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237652194293</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>126730</v>
+      </c>
+      <c r="F241" t="n">
+        <v>627182</v>
+      </c>
+      <c r="G241" t="n">
+        <v>500452</v>
+      </c>
+      <c r="H241" t="n">
+        <v>4.948962360924801</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237652386684</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MARTIALE IDA NGAKAM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>282184.9</v>
+      </c>
+      <c r="F242" t="n">
+        <v>474267</v>
+      </c>
+      <c r="G242" t="n">
+        <v>192082.1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.680695884152554</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237652927180</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BRICE NKEMBIE NJIOMU</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>72520.45454545454</v>
+      </c>
+      <c r="F243" t="n">
+        <v>415196</v>
+      </c>
+      <c r="G243" t="n">
+        <v>342675.5454545455</v>
+      </c>
+      <c r="H243" t="n">
+        <v>5.725226111755304</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9434,6 +9434,43 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237679038720</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>52406.36</v>
+      </c>
+      <c r="F244" t="n">
+        <v>82844</v>
+      </c>
+      <c r="G244" t="n">
+        <v>30437.64</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.580800498260135</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9471,6 +9471,2263 @@
         </is>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237679087694</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>RODELPHA TANE TATSIDA</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>26039.6</v>
+      </c>
+      <c r="F245" t="n">
+        <v>82791</v>
+      </c>
+      <c r="G245" t="n">
+        <v>56751.4</v>
+      </c>
+      <c r="H245" t="n">
+        <v>3.179426719304444</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237679869809</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>81035</v>
+      </c>
+      <c r="F246" t="n">
+        <v>16393</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-64642</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.2022953044980564</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237680435802</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>234470</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1525642</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1291172</v>
+      </c>
+      <c r="H247" t="n">
+        <v>6.506768456518958</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237681114247</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>LIVIE CHRISTIANE NGOUFACK SONTIA</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>17519.8</v>
+      </c>
+      <c r="F248" t="n">
+        <v>85354</v>
+      </c>
+      <c r="G248" t="n">
+        <v>67834.20000000001</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4.871859267799862</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237681602244</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>260660</v>
+      </c>
+      <c r="F249" t="n">
+        <v>10339</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-250321</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.03966469730683649</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237681606646</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>66756</v>
+      </c>
+      <c r="F250" t="n">
+        <v>152371</v>
+      </c>
+      <c r="G250" t="n">
+        <v>85615</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2.282506441368566</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237681655241</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>107078.4615384615</v>
+      </c>
+      <c r="F251" t="n">
+        <v>38042</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-69036.46153846153</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.3552721943650235</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237681658403</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>20060</v>
+      </c>
+      <c r="F252" t="n">
+        <v>147230</v>
+      </c>
+      <c r="G252" t="n">
+        <v>127170</v>
+      </c>
+      <c r="H252" t="n">
+        <v>7.339481555333998</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237681862876</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>26767.92</v>
+      </c>
+      <c r="F253" t="n">
+        <v>12408</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-14359.92</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.4635399388521783</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237683555873</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>297690</v>
+      </c>
+      <c r="F254" t="n">
+        <v>658042</v>
+      </c>
+      <c r="G254" t="n">
+        <v>360352</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2.210494138197454</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237654037914</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>20483.33333333333</v>
+      </c>
+      <c r="F255" t="n">
+        <v>24303</v>
+      </c>
+      <c r="G255" t="n">
+        <v>3819.666666666668</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1.186476810414972</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237674243367</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>6760</v>
+      </c>
+      <c r="F256" t="n">
+        <v>229</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-6531</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.03387573964497041</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237681656314</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>63475</v>
+      </c>
+      <c r="F257" t="n">
+        <v>448279</v>
+      </c>
+      <c r="G257" t="n">
+        <v>384804</v>
+      </c>
+      <c r="H257" t="n">
+        <v>7.062292241039779</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237682511457</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>29396</v>
+      </c>
+      <c r="F258" t="n">
+        <v>80586</v>
+      </c>
+      <c r="G258" t="n">
+        <v>51190</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2.741393386855354</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237650934256</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F259" t="n">
+        <v>476</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-21184</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.02197599261311173</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237652275301</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>6380</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2792</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-3588</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.4376175548589342</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237652427111</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>30760</v>
+      </c>
+      <c r="F261" t="n">
+        <v>46749</v>
+      </c>
+      <c r="G261" t="n">
+        <v>15989</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.51979843953186</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237671645947</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F262" t="n">
+        <v>24776</v>
+      </c>
+      <c r="G262" t="n">
+        <v>19436</v>
+      </c>
+      <c r="H262" t="n">
+        <v>4.639700374531835</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237672064755</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1155719</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1016819</v>
+      </c>
+      <c r="H263" t="n">
+        <v>8.320511159107271</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237672956746</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>137539.8</v>
+      </c>
+      <c r="F264" t="n">
+        <v>140</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-137399.8</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.001017887186109039</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237673718583</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>98315.45454545454</v>
+      </c>
+      <c r="F265" t="n">
+        <v>250482</v>
+      </c>
+      <c r="G265" t="n">
+        <v>152166.5454545455</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2.547737801325973</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>237674933048</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>43872.3</v>
+      </c>
+      <c r="F266" t="n">
+        <v>868</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-43004.3</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.01978469330306366</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>237675950748</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>110079.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>222843</v>
+      </c>
+      <c r="G267" t="n">
+        <v>112763.2</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2.024376861149821</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>237682520113</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>27383.33333333333</v>
+      </c>
+      <c r="F268" t="n">
+        <v>205235</v>
+      </c>
+      <c r="G268" t="n">
+        <v>177851.6666666667</v>
+      </c>
+      <c r="H268" t="n">
+        <v>7.494887401095557</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>237683356603</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>70031.92</v>
+      </c>
+      <c r="F269" t="n">
+        <v>11827</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-58204.92</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.1688801335162594</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>237683394976</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F270" t="n">
+        <v>13786</v>
+      </c>
+      <c r="G270" t="n">
+        <v>8786</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2.7572</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>237683395123</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>61358.0625</v>
+      </c>
+      <c r="F271" t="n">
+        <v>105285</v>
+      </c>
+      <c r="G271" t="n">
+        <v>43926.9375</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1.715911417509313</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>237670174030</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>63071.53846153846</v>
+      </c>
+      <c r="F272" t="n">
+        <v>86097</v>
+      </c>
+      <c r="G272" t="n">
+        <v>23025.46153846154</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1.365068969302258</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>237679111075</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>166666.5333333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>289231</v>
+      </c>
+      <c r="G273" t="n">
+        <v>122564.4666666666</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.73538738830991</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>237681611433</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>18655</v>
+      </c>
+      <c r="F274" t="n">
+        <v>73806</v>
+      </c>
+      <c r="G274" t="n">
+        <v>55151</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3.956365585633878</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>237652194260</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>NADEGE MALEUTCHOUA</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>85074</v>
+      </c>
+      <c r="F275" t="n">
+        <v>739368</v>
+      </c>
+      <c r="G275" t="n">
+        <v>654294</v>
+      </c>
+      <c r="H275" t="n">
+        <v>8.690880880174907</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>237652667691</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>OLIVIA BI</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>47476.36363636364</v>
+      </c>
+      <c r="F276" t="n">
+        <v>36045</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-11431.36363636364</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.7592198988970588</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>237670473852</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>68020</v>
+      </c>
+      <c r="F277" t="n">
+        <v>387450</v>
+      </c>
+      <c r="G277" t="n">
+        <v>319430</v>
+      </c>
+      <c r="H277" t="n">
+        <v>5.69611878859159</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>237673018936</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>41164</v>
+      </c>
+      <c r="F278" t="n">
+        <v>51934</v>
+      </c>
+      <c r="G278" t="n">
+        <v>10770</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.261636381304052</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>237673560726</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MAGUELON NADERGE -CHIC MOBILE</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>64035.83333333334</v>
+      </c>
+      <c r="F279" t="n">
+        <v>9875</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-54160.83333333334</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.1542105331650248</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>237674450580</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>137758.1818181818</v>
+      </c>
+      <c r="F280" t="n">
+        <v>31259</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-106499.1818181818</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.2269121121332506</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>237674929417</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>12770</v>
+      </c>
+      <c r="F281" t="n">
+        <v>54522</v>
+      </c>
+      <c r="G281" t="n">
+        <v>41752</v>
+      </c>
+      <c r="H281" t="n">
+        <v>4.269537979639781</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>237677316351</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>74625</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3541</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-71084</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.04745058626465662</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>237677831340</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F283" t="n">
+        <v>27133</v>
+      </c>
+      <c r="G283" t="n">
+        <v>22133</v>
+      </c>
+      <c r="H283" t="n">
+        <v>5.4266</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>237678843959</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>5471.111111111111</v>
+      </c>
+      <c r="F284" t="n">
+        <v>35994</v>
+      </c>
+      <c r="G284" t="n">
+        <v>30522.88888888889</v>
+      </c>
+      <c r="H284" t="n">
+        <v>6.578919577579204</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>237679068456</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>NDATSE EPSE NANWO ANGELE SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>23430</v>
+      </c>
+      <c r="F285" t="n">
+        <v>228147</v>
+      </c>
+      <c r="G285" t="n">
+        <v>204717</v>
+      </c>
+      <c r="H285" t="n">
+        <v>9.737387964148528</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>237679793647</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>198218.4615384615</v>
+      </c>
+      <c r="F286" t="n">
+        <v>95</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-198123.4615384615</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.0004792691824094627</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>237682323406</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>81782.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>36</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-81746.5</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.0004401919726102772</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>237682764368</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>23640</v>
+      </c>
+      <c r="F288" t="n">
+        <v>755746</v>
+      </c>
+      <c r="G288" t="n">
+        <v>732106</v>
+      </c>
+      <c r="H288" t="n">
+        <v>31.96895093062606</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>237682814055</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SORELLE REINE MAKANKEU TENE</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F289" t="n">
+        <v>31910</v>
+      </c>
+      <c r="G289" t="n">
+        <v>24480</v>
+      </c>
+      <c r="H289" t="n">
+        <v>4.294751009421265</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>237683079541</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>81326.66666666667</v>
+      </c>
+      <c r="F290" t="n">
+        <v>243401</v>
+      </c>
+      <c r="G290" t="n">
+        <v>162074.3333333333</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2.992880563980654</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>237683379070</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>400185</v>
+      </c>
+      <c r="F291" t="n">
+        <v>806983</v>
+      </c>
+      <c r="G291" t="n">
+        <v>406798</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2.01652485725352</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>237683730580</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>DANIELLA KOMGUEP KOUAMO</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>41930</v>
+      </c>
+      <c r="F292" t="n">
+        <v>46349</v>
+      </c>
+      <c r="G292" t="n">
+        <v>4419</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1.105389935606964</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>237651213730</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>NZONDE GABRIEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F293" t="n">
+        <v>147892</v>
+      </c>
+      <c r="G293" t="n">
+        <v>130992</v>
+      </c>
+      <c r="H293" t="n">
+        <v>8.751005917159763</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>237652071114</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F294" t="n">
+        <v>145243</v>
+      </c>
+      <c r="G294" t="n">
+        <v>63643</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1.779938725490196</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>237652285489</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>joseline kenne</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>97864.375</v>
+      </c>
+      <c r="F295" t="n">
+        <v>108119</v>
+      </c>
+      <c r="G295" t="n">
+        <v>10254.625</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1.104784044244905</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>237652940152</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>30684</v>
+      </c>
+      <c r="F296" t="n">
+        <v>187901</v>
+      </c>
+      <c r="G296" t="n">
+        <v>157217</v>
+      </c>
+      <c r="H296" t="n">
+        <v>6.123745274410116</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>237654137136</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>72100</v>
+      </c>
+      <c r="F297" t="n">
+        <v>259628</v>
+      </c>
+      <c r="G297" t="n">
+        <v>187528</v>
+      </c>
+      <c r="H297" t="n">
+        <v>3.600943134535368</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>237671694408</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>LOUISE STEPHANIE ZEH</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>48509.8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>144302</v>
+      </c>
+      <c r="G298" t="n">
+        <v>95792.2</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2.974697896095222</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>237672279571</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>169789.1333333333</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1477567</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1307777.866666667</v>
+      </c>
+      <c r="H299" t="n">
+        <v>8.702364933444896</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>237672777139</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>23040</v>
+      </c>
+      <c r="F300" t="n">
+        <v>165980</v>
+      </c>
+      <c r="G300" t="n">
+        <v>142940</v>
+      </c>
+      <c r="H300" t="n">
+        <v>7.203993055555555</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>237673220938</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>159090</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3824</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-155266</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.02403670878119303</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>237674437082</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>42678.57142857143</v>
+      </c>
+      <c r="F302" t="n">
+        <v>55319</v>
+      </c>
+      <c r="G302" t="n">
+        <v>12640.42857142857</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1.296177405857741</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>237674895877</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>jeanne annie ngo mback</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>149630</v>
+      </c>
+      <c r="F303" t="n">
+        <v>365789</v>
+      </c>
+      <c r="G303" t="n">
+        <v>216159</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2.444623404397514</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>237674956331</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>ODETTE KUYUKEH</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>209204</v>
+      </c>
+      <c r="F304" t="n">
+        <v>256053</v>
+      </c>
+      <c r="G304" t="n">
+        <v>46849</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1.223939312823846</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>237674979451</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>99222</v>
+      </c>
+      <c r="F305" t="n">
+        <v>72051</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-27171</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.7261595210739554</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11728,6 +11728,635 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>237676840777</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>IVANS FANWOUM NOUPOUEH</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>471586.4666666666</v>
+      </c>
+      <c r="F306" t="n">
+        <v>193917</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-277669.4666666666</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.411201367525814</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>237677833877</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>38396.7</v>
+      </c>
+      <c r="F307" t="n">
+        <v>131184</v>
+      </c>
+      <c r="G307" t="n">
+        <v>92787.3</v>
+      </c>
+      <c r="H307" t="n">
+        <v>3.416543609216417</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>237678854978</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>40520</v>
+      </c>
+      <c r="F308" t="n">
+        <v>92731</v>
+      </c>
+      <c r="G308" t="n">
+        <v>52211</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2.288524185587364</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>237679422591</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>141149.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3900</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-137249.8</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0.02763021980902559</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>237650353920</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>218865</v>
+      </c>
+      <c r="F310" t="n">
+        <v>612128</v>
+      </c>
+      <c r="G310" t="n">
+        <v>393263</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2.796829095561191</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>237651927448</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ODETTE MABAKOU EPOUSE KENNE</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>128653.3333333333</v>
+      </c>
+      <c r="F311" t="n">
+        <v>172411</v>
+      </c>
+      <c r="G311" t="n">
+        <v>43757.66666666669</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1.340120737900301</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>237653294562</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>126220</v>
+      </c>
+      <c r="F312" t="n">
+        <v>847745</v>
+      </c>
+      <c r="G312" t="n">
+        <v>721525</v>
+      </c>
+      <c r="H312" t="n">
+        <v>6.716407859293297</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>237678046498</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>41943.17</v>
+      </c>
+      <c r="F313" t="n">
+        <v>6477</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-35466.17</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0.1544232350582944</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>237679428698</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>161427.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>42</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-161385.5</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.0002601787180003407</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>237679551262</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>65595</v>
+      </c>
+      <c r="F315" t="n">
+        <v>152434</v>
+      </c>
+      <c r="G315" t="n">
+        <v>86839</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2.323866148334477</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>237680574202</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F316" t="n">
+        <v>224117</v>
+      </c>
+      <c r="G316" t="n">
+        <v>137497</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2.587358577695682</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>237681118330</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>152199.5714285714</v>
+      </c>
+      <c r="F317" t="n">
+        <v>132896</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-19303.57142857142</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.8731693443852386</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>237674446293</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>ARSENE TITCHO KWAKEP</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>5994.285714285715</v>
+      </c>
+      <c r="F318" t="n">
+        <v>11136</v>
+      </c>
+      <c r="G318" t="n">
+        <v>5141.714285714285</v>
+      </c>
+      <c r="H318" t="n">
+        <v>1.857769304099142</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>237679085953</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>FERNANDEZ NJOFANG TCHIYADJE</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>8950</v>
+      </c>
+      <c r="F319" t="n">
+        <v>58169</v>
+      </c>
+      <c r="G319" t="n">
+        <v>49219</v>
+      </c>
+      <c r="H319" t="n">
+        <v>6.499329608938547</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>237681662761</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>ROLCHILE DJAMEN KOUDJOU</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>29783.82</v>
+      </c>
+      <c r="F320" t="n">
+        <v>8697</v>
+      </c>
+      <c r="G320" t="n">
+        <v>-21086.82</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.2920041821364755</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>237682975726</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>29809.16666666666</v>
+      </c>
+      <c r="F321" t="n">
+        <v>114072</v>
+      </c>
+      <c r="G321" t="n">
+        <v>84262.83333333334</v>
+      </c>
+      <c r="H321" t="n">
+        <v>3.826742333174919</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>237683075075</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>GLADYS LANG NGOINSEH</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>173418.2</v>
+      </c>
+      <c r="F322" t="n">
+        <v>134739</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-38679.19999999998</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.7769599730593445</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2293,6 +2293,1338 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>237679209479</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>86783.84615384616</v>
+      </c>
+      <c r="F51" t="n">
+        <v>571</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-86212.84615384616</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.006579565498719187</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>237679732169</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>328228.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>123586</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-204642.8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3765239369610466</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>237679791269</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>85360</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-85360</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>237681663743</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>103179.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>544540</v>
+      </c>
+      <c r="G54" t="n">
+        <v>441360.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.277583402952904</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>237682480811</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>178497.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>115972</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-62525.5</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.649712180842869</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>237682798275</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>76900</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-423100</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>237683165199</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU LAMINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>6183.636363636364</v>
+      </c>
+      <c r="F57" t="n">
+        <v>14234</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8050.363636363636</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.301881799470744</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>237683454059</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RTS BELLE HOLLANDAISE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>114838.4615384615</v>
+      </c>
+      <c r="F58" t="n">
+        <v>211783</v>
+      </c>
+      <c r="G58" t="n">
+        <v>96944.53846153848</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.844181793824101</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>237653423810</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>29820</v>
+      </c>
+      <c r="F59" t="n">
+        <v>151896</v>
+      </c>
+      <c r="G59" t="n">
+        <v>122076</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.093762575452716</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>237653430377</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>145105</v>
+      </c>
+      <c r="F60" t="n">
+        <v>490795</v>
+      </c>
+      <c r="G60" t="n">
+        <v>345690</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.382343819992419</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>237670097580</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ALBERT FILS NYEMECK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>242106.6666666666</v>
+      </c>
+      <c r="F61" t="n">
+        <v>779460</v>
+      </c>
+      <c r="G61" t="n">
+        <v>537353.3333333334</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.219490031941844</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>237670709824</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NAABI FINANCE PIERRE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>23150</v>
+      </c>
+      <c r="F62" t="n">
+        <v>117713</v>
+      </c>
+      <c r="G62" t="n">
+        <v>94563</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5.084794816414687</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>237671358082</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>43130</v>
+      </c>
+      <c r="F63" t="n">
+        <v>414447</v>
+      </c>
+      <c r="G63" t="n">
+        <v>371317</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9.609251101321586</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>237672777369</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NADINE ELIZABETH TOCKE EPOUPA</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F64" t="n">
+        <v>153732</v>
+      </c>
+      <c r="G64" t="n">
+        <v>146612</v>
+      </c>
+      <c r="H64" t="n">
+        <v>21.59157303370786</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>237674062440</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>12128.57142857143</v>
+      </c>
+      <c r="F65" t="n">
+        <v>45762</v>
+      </c>
+      <c r="G65" t="n">
+        <v>33633.42857142857</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.773074204946997</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>237674323650</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>OHANDZA CLOTILDE ANTOINETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>75599.88333333333</v>
+      </c>
+      <c r="F66" t="n">
+        <v>49324</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-26275.88333333333</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.6524348692777965</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>237675579920</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>239424</v>
+      </c>
+      <c r="F67" t="n">
+        <v>262</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-239162</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.001094292969794173</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>237676575053</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>79250</v>
+      </c>
+      <c r="F68" t="n">
+        <v>440341</v>
+      </c>
+      <c r="G68" t="n">
+        <v>361091</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5.556353312302839</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>237679338102</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>IKECHELI KEPSEU IFEOMA YANELL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>118868</v>
+      </c>
+      <c r="F69" t="n">
+        <v>131274</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12406</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.104367870242622</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>237681657562</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>137844.9629629629</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9597</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-128247.9629629629</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.06962169522711238</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>237683612202</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DANIEL RUDY ETONNO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>16804</v>
+      </c>
+      <c r="G71" t="n">
+        <v>11804</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.3608</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>237651988929</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>15997.69230769231</v>
+      </c>
+      <c r="F72" t="n">
+        <v>302</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-15695.69230769231</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.01887772274847333</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>237653190282</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>JANGMAN LIBA ERICA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>28041.81818181818</v>
+      </c>
+      <c r="F73" t="n">
+        <v>10092</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-17949.81818181818</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.3598910717759191</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>237653674387</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>14380</v>
+      </c>
+      <c r="F74" t="n">
+        <v>200757</v>
+      </c>
+      <c r="G74" t="n">
+        <v>186377</v>
+      </c>
+      <c r="H74" t="n">
+        <v>13.96084840055633</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>237653946894</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F75" t="n">
+        <v>46326</v>
+      </c>
+      <c r="G75" t="n">
+        <v>33526</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.61921875</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>237653959075</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JOUNEDOU NDOUKOUO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>190430</v>
+      </c>
+      <c r="F76" t="n">
+        <v>596211</v>
+      </c>
+      <c r="G76" t="n">
+        <v>405781</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3.130866985243922</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>237654138873</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>PRAISE NJI-FONJIA NGOASONG</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>5327.599999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6104</v>
+      </c>
+      <c r="G77" t="n">
+        <v>776.4000000000005</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.145731661536151</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>237654150202</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MOHAMED YAP POUAMOUN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>27650</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2235</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-25415</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.08083182640144665</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>237654355100</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>abdou arahime sundzeh</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>112594</v>
+      </c>
+      <c r="F79" t="n">
+        <v>125869</v>
+      </c>
+      <c r="G79" t="n">
+        <v>13275</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.117901486757731</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>237670018166</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>108762.35</v>
+      </c>
+      <c r="F80" t="n">
+        <v>266207</v>
+      </c>
+      <c r="G80" t="n">
+        <v>157444.65</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2.447602502152629</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>237671563291</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 221</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>20715.26153846153</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1242</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-19473.26153846153</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.05995579624683995</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>237671664239</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ANEBEP ZEPHERINE MFS</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>34610</v>
+      </c>
+      <c r="F82" t="n">
+        <v>206581</v>
+      </c>
+      <c r="G82" t="n">
+        <v>171971</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5.968824039295002</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F83" t="n">
+        <v>252447</v>
+      </c>
+      <c r="G83" t="n">
+        <v>62661.20000000001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.330168010462321</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F84" t="n">
+        <v>32871</v>
+      </c>
+      <c r="G84" t="n">
+        <v>7841</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.31326408310028</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F85" t="n">
+        <v>290996</v>
+      </c>
+      <c r="G85" t="n">
+        <v>264746</v>
+      </c>
+      <c r="H85" t="n">
+        <v>11.0855619047619</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16026</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-166143.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.08797291755983569</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3625,6 +3625,2929 @@
         </is>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>22426</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17426</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.4852</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F88" t="n">
+        <v>266355</v>
+      </c>
+      <c r="G88" t="n">
+        <v>82192.96296296295</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.44630785087609</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ANDRE MARIE NSIA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>57939</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3254.333333333336</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9468188255801285</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>496297</v>
+      </c>
+      <c r="G91" t="n">
+        <v>396067.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.951591243322844</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F92" t="n">
+        <v>161580</v>
+      </c>
+      <c r="G92" t="n">
+        <v>135960.9090909091</v>
+      </c>
+      <c r="H92" t="n">
+        <v>6.307015364962209</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F93" t="n">
+        <v>551417</v>
+      </c>
+      <c r="G93" t="n">
+        <v>495197</v>
+      </c>
+      <c r="H93" t="n">
+        <v>9.808199928850943</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F94" t="n">
+        <v>198287</v>
+      </c>
+      <c r="G94" t="n">
+        <v>138677</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.326404965609797</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F95" t="n">
+        <v>48476</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-9329.71428571429</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.838602214313958</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3791</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-44022.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.07928681603095344</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1031</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-6407.090909090909</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.1386108361138611</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237682117915</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>123740</v>
+      </c>
+      <c r="F98" t="n">
+        <v>114053</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-9687</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9217148860513981</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237682154553</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>136800</v>
+      </c>
+      <c r="F99" t="n">
+        <v>261921</v>
+      </c>
+      <c r="G99" t="n">
+        <v>125121</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.914627192982456</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237682803277</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>59869.80000000002</v>
+      </c>
+      <c r="F100" t="n">
+        <v>53395</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-6474.800000000017</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8918519854751474</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237683323481</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>25924</v>
+      </c>
+      <c r="F101" t="n">
+        <v>510837</v>
+      </c>
+      <c r="G101" t="n">
+        <v>484913</v>
+      </c>
+      <c r="H101" t="n">
+        <v>19.70517667026693</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237683368985</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BLESSING MUMBANG NSALAR</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>51230</v>
+      </c>
+      <c r="F102" t="n">
+        <v>76318</v>
+      </c>
+      <c r="G102" t="n">
+        <v>25088</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.489713058754636</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237683432110</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F103" t="n">
+        <v>657145</v>
+      </c>
+      <c r="G103" t="n">
+        <v>641545</v>
+      </c>
+      <c r="H103" t="n">
+        <v>42.12467948717948</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EMMANUEL JOSEPH KENFACK DJEUMENI</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5157</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2619.875</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.6631198264084224</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237651346686</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DANIEL BLAISE MOUCHIE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>47969.93333333333</v>
+      </c>
+      <c r="F105" t="n">
+        <v>143102</v>
+      </c>
+      <c r="G105" t="n">
+        <v>95132.06666666668</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.983160285123043</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237654508603</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>107070</v>
+      </c>
+      <c r="F106" t="n">
+        <v>567368</v>
+      </c>
+      <c r="G106" t="n">
+        <v>460298</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5.299038012515177</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237672731004</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>OLVIANE LISE HENDJIE YOUMBI EPOUSE NGEULASSI</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5789</v>
+      </c>
+      <c r="G107" t="n">
+        <v>789</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.1578</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237674884831</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F108" t="n">
+        <v>985235</v>
+      </c>
+      <c r="G108" t="n">
+        <v>944575</v>
+      </c>
+      <c r="H108" t="n">
+        <v>24.23106246925726</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237675986754</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13342</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-13611.63636363636</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.4949981449627306</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237678384388</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>45439.84</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10226</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-35213.84</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.2250448064957975</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237678559161</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5743</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-49024.77777777778</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.1048609279584508</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237678872943</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>62563</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-18355.93000000001</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.7731565407501062</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237679244994</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3923301</v>
+      </c>
+      <c r="G113" t="n">
+        <v>3423301</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7.846602</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237679508295</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>60430</v>
+      </c>
+      <c r="F114" t="n">
+        <v>17752</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-42678</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.2937613767996028</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237679808809</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F115" t="n">
+        <v>170803</v>
+      </c>
+      <c r="G115" t="n">
+        <v>143783</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.321354552183568</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20689</v>
+      </c>
+      <c r="G116" t="n">
+        <v>15689</v>
+      </c>
+      <c r="H116" t="n">
+        <v>4.1378</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F117" t="n">
+        <v>145</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-16553.33333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.008683501347439865</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F118" t="n">
+        <v>77491</v>
+      </c>
+      <c r="G118" t="n">
+        <v>51574.36923076923</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2.990010572361911</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>44713</v>
+      </c>
+      <c r="G119" t="n">
+        <v>35913</v>
+      </c>
+      <c r="H119" t="n">
+        <v>5.081022727272727</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F120" t="n">
+        <v>309755</v>
+      </c>
+      <c r="G120" t="n">
+        <v>247154.2909090909</v>
+      </c>
+      <c r="H120" t="n">
+        <v>4.948106890453462</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F121" t="n">
+        <v>234365</v>
+      </c>
+      <c r="G121" t="n">
+        <v>176295</v>
+      </c>
+      <c r="H121" t="n">
+        <v>4.035904942311004</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22572</v>
+      </c>
+      <c r="G122" t="n">
+        <v>17572</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4.5144</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237651927707</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ELVICE NGOH WONG</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F123" t="n">
+        <v>68939</v>
+      </c>
+      <c r="G123" t="n">
+        <v>46839</v>
+      </c>
+      <c r="H123" t="n">
+        <v>3.119411764705883</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F124" t="n">
+        <v>704541</v>
+      </c>
+      <c r="G124" t="n">
+        <v>630711</v>
+      </c>
+      <c r="H124" t="n">
+        <v>9.542746850873629</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F125" t="n">
+        <v>144307</v>
+      </c>
+      <c r="G125" t="n">
+        <v>70377</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.951941025294197</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3534</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-101486</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0336507331936774</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RAISSA MEGANE NDJONGUI NNANE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F127" t="n">
+        <v>359301</v>
+      </c>
+      <c r="G127" t="n">
+        <v>261481</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.673083214066653</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F128" t="n">
+        <v>100434</v>
+      </c>
+      <c r="G128" t="n">
+        <v>59669</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2.463731141910953</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F129" t="n">
+        <v>236900</v>
+      </c>
+      <c r="G129" t="n">
+        <v>193030</v>
+      </c>
+      <c r="H129" t="n">
+        <v>5.400045589240939</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>WALTER OJONG EBANGHA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3228841</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2995736.4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>13.85146839659106</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F131" t="n">
+        <v>245184</v>
+      </c>
+      <c r="G131" t="n">
+        <v>95537.33333333331</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.638419387891477</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>965961</v>
+      </c>
+      <c r="G132" t="n">
+        <v>465961</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.931922</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>EMMERIE SUISSE YOUSSEU DJOMALEU</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-9333.933333333336</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.2448844208096475</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F134" t="n">
+        <v>191120</v>
+      </c>
+      <c r="G134" t="n">
+        <v>97020</v>
+      </c>
+      <c r="H134" t="n">
+        <v>2.031030818278427</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237678637179</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ETS LAMARQUE PK8- ESG CAMPUS A 2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>169880</v>
+      </c>
+      <c r="F135" t="n">
+        <v>959113</v>
+      </c>
+      <c r="G135" t="n">
+        <v>789233</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5.645826465740523</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237679567513</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>KWATIEU BLANDINE ATELCOM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4132</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3568</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.5366233766233767</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237680119435</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Jospin Maurice wangue</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>88440</v>
+      </c>
+      <c r="F137" t="n">
+        <v>176787</v>
+      </c>
+      <c r="G137" t="n">
+        <v>88347</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.998948439620081</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237683386020</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>27588.26086956522</v>
+      </c>
+      <c r="F138" t="n">
+        <v>32361</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4772.739130434784</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.172998912580965</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237683408221</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>104380</v>
+      </c>
+      <c r="F139" t="n">
+        <v>257666</v>
+      </c>
+      <c r="G139" t="n">
+        <v>153286</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.46853803410615</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237650651854</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>173354.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>274793</v>
+      </c>
+      <c r="G140" t="n">
+        <v>101438.4</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1.585149745088968</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237650988697</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>112810</v>
+      </c>
+      <c r="F141" t="n">
+        <v>356070</v>
+      </c>
+      <c r="G141" t="n">
+        <v>243260</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3.156369116213102</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237651809692</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>140210</v>
+      </c>
+      <c r="F142" t="n">
+        <v>559669</v>
+      </c>
+      <c r="G142" t="n">
+        <v>419459</v>
+      </c>
+      <c r="H142" t="n">
+        <v>3.99164824192283</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237652579681</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>LAURENT BIFOU</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>55020</v>
+      </c>
+      <c r="F143" t="n">
+        <v>128777</v>
+      </c>
+      <c r="G143" t="n">
+        <v>73757</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.34054889131225</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237652724076</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>22670</v>
+      </c>
+      <c r="F144" t="n">
+        <v>285398</v>
+      </c>
+      <c r="G144" t="n">
+        <v>262728</v>
+      </c>
+      <c r="H144" t="n">
+        <v>12.58923687692986</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237652958984</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>46742.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>324514</v>
+      </c>
+      <c r="G145" t="n">
+        <v>277771.5</v>
+      </c>
+      <c r="H145" t="n">
+        <v>6.94258972027598</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237653239050</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1337</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-343335.7272727273</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.003879042042517276</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237653472620</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F147" t="n">
+        <v>349143</v>
+      </c>
+      <c r="G147" t="n">
+        <v>287573</v>
+      </c>
+      <c r="H147" t="n">
+        <v>5.670667532889394</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F148" t="n">
+        <v>208866</v>
+      </c>
+      <c r="G148" t="n">
+        <v>154446</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.838037486218302</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F149" t="n">
+        <v>86266</v>
+      </c>
+      <c r="G149" t="n">
+        <v>18851</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1.279626195950456</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F150" t="n">
+        <v>154456</v>
+      </c>
+      <c r="G150" t="n">
+        <v>112174.1764705882</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.653011793414219</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-100630.6666666667</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.000357615894039735</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>MADELEINE NGUETNIA</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10441</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-33009</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.2402991944764097</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F153" t="n">
+        <v>101180</v>
+      </c>
+      <c r="G153" t="n">
+        <v>65550</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2.839741790625877</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237671364668</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>60745</v>
+      </c>
+      <c r="F154" t="n">
+        <v>343731</v>
+      </c>
+      <c r="G154" t="n">
+        <v>282986</v>
+      </c>
+      <c r="H154" t="n">
+        <v>5.658589184295003</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237671369692</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ELVIS MBONGOO</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>27325.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>209173</v>
+      </c>
+      <c r="G155" t="n">
+        <v>181847.5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>7.654864503851714</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F156" t="n">
+        <v>316776</v>
+      </c>
+      <c r="G156" t="n">
+        <v>271671</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7.023079481210509</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2241081</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1816601</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5.279591500188466</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DELPHINE ENDAM SANDAG</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F158" t="n">
+        <v>240659</v>
+      </c>
+      <c r="G158" t="n">
+        <v>225049</v>
+      </c>
+      <c r="H158" t="n">
+        <v>15.41697629724536</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17738</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-692</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.9624525230602279</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>94610</v>
+      </c>
+      <c r="G160" t="n">
+        <v>46170.19999999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.953145966746353</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F161" t="n">
+        <v>279270</v>
+      </c>
+      <c r="G161" t="n">
+        <v>192650</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.224082198106673</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F162" t="n">
+        <v>35248</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1482</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9596515110264089</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F163" t="n">
+        <v>76760</v>
+      </c>
+      <c r="G163" t="n">
+        <v>61480</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5.023560209424084</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F164" t="n">
+        <v>169090</v>
+      </c>
+      <c r="G164" t="n">
+        <v>105950</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.678017104846373</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F165" t="n">
+        <v>174866</v>
+      </c>
+      <c r="G165" t="n">
+        <v>121159.3333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.255945878848064</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6548,6 +6548,3077 @@
         </is>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>57802</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-26367.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.6867308702171088</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7617</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-211762.0363636363</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.03472072868154221</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>326</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-4674</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237652899422</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F169" t="n">
+        <v>38059</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-30822.36363636363</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.5525297118233591</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>48379</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-303693.5</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.1374120387136172</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F171" t="n">
+        <v>42</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-112546.4615384615</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.0003730400027328939</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F172" t="n">
+        <v>14072</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-10754.15384615385</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.5668215901344735</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F173" t="n">
+        <v>105458</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-8282</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.9271848074556005</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F174" t="n">
+        <v>596273</v>
+      </c>
+      <c r="G174" t="n">
+        <v>539728</v>
+      </c>
+      <c r="H174" t="n">
+        <v>10.54510566805199</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F175" t="n">
+        <v>386599</v>
+      </c>
+      <c r="G175" t="n">
+        <v>236219.4</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2.570820776222307</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>WILFRIED NGNIPIEME NDE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F176" t="n">
+        <v>150171</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8864.174999999988</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9442628022385614</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ELIE HIBERT WANSI DJOMALEU</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>486609</v>
+      </c>
+      <c r="G177" t="n">
+        <v>399231.65</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5.569051933939401</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F178" t="n">
+        <v>671781</v>
+      </c>
+      <c r="G178" t="n">
+        <v>583336</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7.595466108881226</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F179" t="n">
+        <v>247953</v>
+      </c>
+      <c r="G179" t="n">
+        <v>224513.4</v>
+      </c>
+      <c r="H179" t="n">
+        <v>10.57838017713613</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237679127464</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>16950</v>
+      </c>
+      <c r="F180" t="n">
+        <v>15823</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1127</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.9335103244837758</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237679422291</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F181" t="n">
+        <v>100008</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1589.142857142855</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.9843583902809415</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237651433330</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>59904.58333333334</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5072</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-54832.58333333334</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.08466797893872895</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237654168696</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F183" t="n">
+        <v>14497</v>
+      </c>
+      <c r="G183" t="n">
+        <v>6699.971428571428</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.85929804760788</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237670799877</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>23610</v>
+      </c>
+      <c r="F184" t="n">
+        <v>714965</v>
+      </c>
+      <c r="G184" t="n">
+        <v>691355</v>
+      </c>
+      <c r="H184" t="n">
+        <v>30.28229563744176</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237671351291</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F185" t="n">
+        <v>329725</v>
+      </c>
+      <c r="G185" t="n">
+        <v>233855.14</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3.439297814766809</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237671378136</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>54416.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>173503</v>
+      </c>
+      <c r="G186" t="n">
+        <v>119086.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3.188426304521606</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237671605749</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>107695</v>
+      </c>
+      <c r="F187" t="n">
+        <v>291756</v>
+      </c>
+      <c r="G187" t="n">
+        <v>184061</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2.709095129764613</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237671615641</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>JOSEPH DJOUKTOUING AOTOUING</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>25338</v>
+      </c>
+      <c r="G188" t="n">
+        <v>16636.33333333334</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2.911855966289983</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237673739931</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>21375</v>
+      </c>
+      <c r="F189" t="n">
+        <v>48845</v>
+      </c>
+      <c r="G189" t="n">
+        <v>27470</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.285146198830409</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237674466307</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>119626.6666666667</v>
+      </c>
+      <c r="F190" t="n">
+        <v>144681</v>
+      </c>
+      <c r="G190" t="n">
+        <v>25054.33333333331</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.20943769505127</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237674959564</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5872</v>
+      </c>
+      <c r="G191" t="n">
+        <v>872</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.1744</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237675208505</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>MARIE SOLANGE TSAFACK TIOMO</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>19527.86</v>
+      </c>
+      <c r="F192" t="n">
+        <v>25334</v>
+      </c>
+      <c r="G192" t="n">
+        <v>5806.140000000003</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.297325974274703</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237675555508</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2191</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-10131.60909090909</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.1778032544760666</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237675557616</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SEDRIQUE PEKEKO SUEYEBO</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>64010</v>
+      </c>
+      <c r="F194" t="n">
+        <v>160747</v>
+      </c>
+      <c r="G194" t="n">
+        <v>96737</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2.511279487580066</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237676301061</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>eric Rodrigue djelo</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>67109.59999999999</v>
+      </c>
+      <c r="F195" t="n">
+        <v>149104</v>
+      </c>
+      <c r="G195" t="n">
+        <v>81994.40000000001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.221798371618964</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237677939039</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>11484.78260869565</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3906</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-7578.782608695652</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.3401022146507666</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237678225987</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>37403.93</v>
+      </c>
+      <c r="F197" t="n">
+        <v>82164</v>
+      </c>
+      <c r="G197" t="n">
+        <v>44760.07</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2.196667569423854</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237679553674</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>56618.88</v>
+      </c>
+      <c r="F198" t="n">
+        <v>60583</v>
+      </c>
+      <c r="G198" t="n">
+        <v>3964.119999999995</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.070014101303311</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237679654555</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F199" t="n">
+        <v>137161</v>
+      </c>
+      <c r="G199" t="n">
+        <v>100532.5789473684</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.744660459234991</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237679789713</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>78170</v>
+      </c>
+      <c r="F200" t="n">
+        <v>48</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-78122</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.0006140463093258283</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237681589841</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F201" t="n">
+        <v>184768</v>
+      </c>
+      <c r="G201" t="n">
+        <v>158914.6666666667</v>
+      </c>
+      <c r="H201" t="n">
+        <v>7.146776689014956</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237681676445</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>51040</v>
+      </c>
+      <c r="F202" t="n">
+        <v>325442</v>
+      </c>
+      <c r="G202" t="n">
+        <v>274402</v>
+      </c>
+      <c r="H202" t="n">
+        <v>6.376214733542319</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237681678622</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>26740</v>
+      </c>
+      <c r="F203" t="n">
+        <v>11921</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-14819</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.4458115183246073</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237683815311</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F204" t="n">
+        <v>803</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-11925.89090909091</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.06308483635652036</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237651533411</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>56092.85714285714</v>
+      </c>
+      <c r="F205" t="n">
+        <v>47771</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-8321.857142857145</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.8516414109257608</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237651843112</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F206" t="n">
+        <v>30029</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-31541</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.4877212928374208</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237652297747</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>24830</v>
+      </c>
+      <c r="F207" t="n">
+        <v>124405</v>
+      </c>
+      <c r="G207" t="n">
+        <v>99575</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5.010269834877165</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237653316656</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>39103.33333333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>131468</v>
+      </c>
+      <c r="G208" t="n">
+        <v>92364.66666666666</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.362066320006819</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237671290825</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2442</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-13171.63636363636</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1564017467248908</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237672276931</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>74960</v>
+      </c>
+      <c r="F210" t="n">
+        <v>34</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-74926</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.0004535752401280683</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237674580187</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21739</v>
+      </c>
+      <c r="G211" t="n">
+        <v>10899</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2.005442804428044</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237674673359</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>88189.5</v>
+      </c>
+      <c r="F212" t="n">
+        <v>191735</v>
+      </c>
+      <c r="G212" t="n">
+        <v>103545.5</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2.174125037561161</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237674769580</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>21040</v>
+      </c>
+      <c r="F213" t="n">
+        <v>7583</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-13457</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.3604087452471483</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237674926472</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>10265.55</v>
+      </c>
+      <c r="F214" t="n">
+        <v>29836</v>
+      </c>
+      <c r="G214" t="n">
+        <v>19570.45</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.90642001646283</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237675831509</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7407</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-136216.8461538462</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.05157221588444173</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237676770192</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>21759.975</v>
+      </c>
+      <c r="F216" t="n">
+        <v>288331</v>
+      </c>
+      <c r="G216" t="n">
+        <v>266571.025</v>
+      </c>
+      <c r="H216" t="n">
+        <v>13.25052073819019</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237680857383</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>46555</v>
+      </c>
+      <c r="F217" t="n">
+        <v>358710</v>
+      </c>
+      <c r="G217" t="n">
+        <v>312155</v>
+      </c>
+      <c r="H217" t="n">
+        <v>7.705080012887982</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237681180496</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>7225.555555555556</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25418</v>
+      </c>
+      <c r="G218" t="n">
+        <v>18192.44444444445</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3.517791788405351</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237681299829</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>56419.76190476191</v>
+      </c>
+      <c r="F219" t="n">
+        <v>355</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-56064.76190476191</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.006292121554841895</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237681657939</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>22932.52727272727</v>
+      </c>
+      <c r="F220" t="n">
+        <v>52907</v>
+      </c>
+      <c r="G220" t="n">
+        <v>29974.47272727273</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2.307072368029849</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237675944533</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>28080.71428571429</v>
+      </c>
+      <c r="F221" t="n">
+        <v>109549</v>
+      </c>
+      <c r="G221" t="n">
+        <v>81468.28571428571</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3.901218426474703</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237678319711</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MUKAM KENGNE SIMPLICE COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>63790</v>
+      </c>
+      <c r="F222" t="n">
+        <v>39394</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-24396</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.6175576109108011</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237654261990</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DOUANLA NOUPONG LEOPOLDINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>58234.21052631579</v>
+      </c>
+      <c r="F223" t="n">
+        <v>241356</v>
+      </c>
+      <c r="G223" t="n">
+        <v>183121.7894736842</v>
+      </c>
+      <c r="H223" t="n">
+        <v>4.144574088300421</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237670148911</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>9246.842105263158</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28426</v>
+      </c>
+      <c r="G224" t="n">
+        <v>19179.15789473684</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3.074130570891912</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237671517964</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>15455</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-14056</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.09052086703332254</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237671823371</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-6870</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.2668089647812166</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237671838460</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F227" t="n">
+        <v>107194</v>
+      </c>
+      <c r="G227" t="n">
+        <v>37694</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.542359712230216</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237674248126</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>28740.76923076923</v>
+      </c>
+      <c r="F228" t="n">
+        <v>197493</v>
+      </c>
+      <c r="G228" t="n">
+        <v>168752.2307692308</v>
+      </c>
+      <c r="H228" t="n">
+        <v>6.871527982228407</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237674629681</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F229" t="n">
+        <v>507782</v>
+      </c>
+      <c r="G229" t="n">
+        <v>422102</v>
+      </c>
+      <c r="H229" t="n">
+        <v>5.926493930905695</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237674929391</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>51638.88888888889</v>
+      </c>
+      <c r="F230" t="n">
+        <v>105074</v>
+      </c>
+      <c r="G230" t="n">
+        <v>53435.11111111111</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2.034784292630446</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237680670799</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>52604.73684210526</v>
+      </c>
+      <c r="F231" t="n">
+        <v>377121</v>
+      </c>
+      <c r="G231" t="n">
+        <v>324516.2631578947</v>
+      </c>
+      <c r="H231" t="n">
+        <v>7.168955167135239</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237681679880</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2041</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-2959</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.4082</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237682827350</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>174107.7777777778</v>
+      </c>
+      <c r="F233" t="n">
+        <v>190218</v>
+      </c>
+      <c r="G233" t="n">
+        <v>16110.22222222222</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1.092530169690549</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237683400719</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>39019.8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>205084</v>
+      </c>
+      <c r="G234" t="n">
+        <v>166064.2</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5.255895724734621</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237652356041</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>HELMIA MBURLI TAMNJONG</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>121240</v>
+      </c>
+      <c r="F235" t="n">
+        <v>967653</v>
+      </c>
+      <c r="G235" t="n">
+        <v>846413</v>
+      </c>
+      <c r="H235" t="n">
+        <v>7.981301550643352</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237652817931</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>david MAYA</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>30820</v>
+      </c>
+      <c r="F236" t="n">
+        <v>167955</v>
+      </c>
+      <c r="G236" t="n">
+        <v>137135</v>
+      </c>
+      <c r="H236" t="n">
+        <v>5.449545749513303</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237653816480</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>259886.1111111111</v>
+      </c>
+      <c r="F237" t="n">
+        <v>889899</v>
+      </c>
+      <c r="G237" t="n">
+        <v>630012.8888888889</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3.424188373112154</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237654020285</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>68953.76000000001</v>
+      </c>
+      <c r="F238" t="n">
+        <v>118971</v>
+      </c>
+      <c r="G238" t="n">
+        <v>50017.23999999999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.725373641698436</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237670809154</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>67386.55</v>
+      </c>
+      <c r="F239" t="n">
+        <v>99705</v>
+      </c>
+      <c r="G239" t="n">
+        <v>32318.45</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.479597931634725</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237672695037</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>95127.82000000002</v>
+      </c>
+      <c r="F240" t="n">
+        <v>344434</v>
+      </c>
+      <c r="G240" t="n">
+        <v>249306.18</v>
+      </c>
+      <c r="H240" t="n">
+        <v>3.620749429556989</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237674679432</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>18349.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>195667</v>
+      </c>
+      <c r="G241" t="n">
+        <v>177317.2</v>
+      </c>
+      <c r="H241" t="n">
+        <v>10.66316799093178</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237674928987</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>110902.2222222222</v>
+      </c>
+      <c r="F242" t="n">
+        <v>369662</v>
+      </c>
+      <c r="G242" t="n">
+        <v>258759.7777777778</v>
+      </c>
+      <c r="H242" t="n">
+        <v>3.333224461988539</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237676664056</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>140200</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1002316</v>
+      </c>
+      <c r="G243" t="n">
+        <v>862116</v>
+      </c>
+      <c r="H243" t="n">
+        <v>7.149186875891584</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237676974240</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>157580</v>
+      </c>
+      <c r="F244" t="n">
+        <v>422590</v>
+      </c>
+      <c r="G244" t="n">
+        <v>265010</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2.681748952912806</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237679422176</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F245" t="n">
+        <v>18</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-499982</v>
+      </c>
+      <c r="H245" t="n">
+        <v>3.6e-05</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237679607838</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>COLETTE EUGENE BARMIDI</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>65518.75</v>
+      </c>
+      <c r="F246" t="n">
+        <v>218464</v>
+      </c>
+      <c r="G246" t="n">
+        <v>152945.25</v>
+      </c>
+      <c r="H246" t="n">
+        <v>3.334373747972908</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237680887643</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>84126.25</v>
+      </c>
+      <c r="F247" t="n">
+        <v>88267</v>
+      </c>
+      <c r="G247" t="n">
+        <v>4140.75</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1.049220665369014</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237680950910</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>30157.33333333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>525</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-29632.33333333334</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.01740870103457423</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9619,6 +9619,1782 @@
         </is>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237652194293</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>126730</v>
+      </c>
+      <c r="F249" t="n">
+        <v>429804</v>
+      </c>
+      <c r="G249" t="n">
+        <v>303074</v>
+      </c>
+      <c r="H249" t="n">
+        <v>3.3914937268208</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237652386684</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>GUSTAVE KOUAM KUISSEU</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>282184.9</v>
+      </c>
+      <c r="F250" t="n">
+        <v>12387</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-269797.9</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.04389674996784023</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237652927180</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>72520.45454545454</v>
+      </c>
+      <c r="F251" t="n">
+        <v>206948</v>
+      </c>
+      <c r="G251" t="n">
+        <v>134427.5454545455</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2.853650067379109</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237653650087</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>321083.2625000001</v>
+      </c>
+      <c r="F252" t="n">
+        <v>170358</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-150725.2625000001</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.5305726579254499</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237675396752</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>34635</v>
+      </c>
+      <c r="F253" t="n">
+        <v>40772</v>
+      </c>
+      <c r="G253" t="n">
+        <v>6137</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1.177190703046052</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237675621967</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>21365.77647058823</v>
+      </c>
+      <c r="F254" t="n">
+        <v>6202</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-15163.77647058823</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.290277304386179</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237679548340</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>etienne ulrich awongo mbazoa</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>400114.9</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1786691</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1386576.1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>4.465444800980918</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237680144977</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>37653.33333333334</v>
+      </c>
+      <c r="F256" t="n">
+        <v>47690</v>
+      </c>
+      <c r="G256" t="n">
+        <v>10036.66666666666</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1.266554532577904</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237681679310</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>31099.92727272727</v>
+      </c>
+      <c r="F257" t="n">
+        <v>9125</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-21974.92727272727</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.293409046264943</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237682238745</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3706014</v>
+      </c>
+      <c r="G258" t="n">
+        <v>3206014</v>
+      </c>
+      <c r="H258" t="n">
+        <v>7.412028</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237682316602</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>GAELLE MAYEMELI ZAMPA</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>44349.8</v>
+      </c>
+      <c r="F259" t="n">
+        <v>244667</v>
+      </c>
+      <c r="G259" t="n">
+        <v>200317.2</v>
+      </c>
+      <c r="H259" t="n">
+        <v>5.516755430689654</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237682430965</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ELSA CABRELLE MAKOUNGANG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>11953.33333333333</v>
+      </c>
+      <c r="F260" t="n">
+        <v>9296</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-2657.333333333334</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.7776910206358059</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237683366333</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>13525</v>
+      </c>
+      <c r="F261" t="n">
+        <v>37492</v>
+      </c>
+      <c r="G261" t="n">
+        <v>23967</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2.772051756007394</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237683379155</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>GUY LEONEL FOTSO SIMO</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>102412.5</v>
+      </c>
+      <c r="F262" t="n">
+        <v>513256</v>
+      </c>
+      <c r="G262" t="n">
+        <v>410843.5</v>
+      </c>
+      <c r="H262" t="n">
+        <v>5.011653850848285</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237683379207</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>christain alex mboo</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>19690</v>
+      </c>
+      <c r="F263" t="n">
+        <v>157204</v>
+      </c>
+      <c r="G263" t="n">
+        <v>137514</v>
+      </c>
+      <c r="H263" t="n">
+        <v>7.98395124428644</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237652049507</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>9268.888888888889</v>
+      </c>
+      <c r="F264" t="n">
+        <v>23056</v>
+      </c>
+      <c r="G264" t="n">
+        <v>13787.11111111111</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2.487461040517862</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237671105715</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>19923.33333333333</v>
+      </c>
+      <c r="F265" t="n">
+        <v>140383</v>
+      </c>
+      <c r="G265" t="n">
+        <v>120459.6666666667</v>
+      </c>
+      <c r="H265" t="n">
+        <v>7.046160281077464</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>237674435926</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>FABRICE TCHOFFO</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>19273.33333333333</v>
+      </c>
+      <c r="F266" t="n">
+        <v>74695</v>
+      </c>
+      <c r="G266" t="n">
+        <v>55421.66666666667</v>
+      </c>
+      <c r="H266" t="n">
+        <v>3.875562089242477</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>237674892352</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>FRANCOIS MITTERANA TAGUEGUIM</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>113445.92</v>
+      </c>
+      <c r="F267" t="n">
+        <v>153550</v>
+      </c>
+      <c r="G267" t="n">
+        <v>40104.08</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1.353508350057895</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>237674895389</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>238518.3333333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>16726</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-221792.3333333334</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.07012458860604705</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>237674908416</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>12543.75</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1912</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-10631.75</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.1524265072247135</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>237675207106</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>germaine pougoue epse tchanang</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>192880</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1132334</v>
+      </c>
+      <c r="G270" t="n">
+        <v>939454</v>
+      </c>
+      <c r="H270" t="n">
+        <v>5.870665698880133</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>237675443028</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>15820</v>
+      </c>
+      <c r="F271" t="n">
+        <v>663</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-15157</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.04190897597977244</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>237676036869</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>154416.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>658203</v>
+      </c>
+      <c r="G272" t="n">
+        <v>503786.5</v>
+      </c>
+      <c r="H272" t="n">
+        <v>4.262517282803326</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>237677178575</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>10599.825</v>
+      </c>
+      <c r="F273" t="n">
+        <v>74485</v>
+      </c>
+      <c r="G273" t="n">
+        <v>63885.175</v>
+      </c>
+      <c r="H273" t="n">
+        <v>7.02700280429158</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>237678183211</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>7435.454545454545</v>
+      </c>
+      <c r="F274" t="n">
+        <v>27359</v>
+      </c>
+      <c r="G274" t="n">
+        <v>19923.54545454546</v>
+      </c>
+      <c r="H274" t="n">
+        <v>3.679532950238416</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>237679038720</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>52406.36</v>
+      </c>
+      <c r="F275" t="n">
+        <v>160874</v>
+      </c>
+      <c r="G275" t="n">
+        <v>108467.64</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3.069741916820783</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>237679087694</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Christ Brayant Penjeu Tchinkou</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>26039.6</v>
+      </c>
+      <c r="F276" t="n">
+        <v>134023</v>
+      </c>
+      <c r="G276" t="n">
+        <v>107983.4</v>
+      </c>
+      <c r="H276" t="n">
+        <v>5.146891657321925</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>237679869809</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>81035</v>
+      </c>
+      <c r="F277" t="n">
+        <v>15161</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-65874</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0.1870919972851237</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>237680435802</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>234470</v>
+      </c>
+      <c r="F278" t="n">
+        <v>835574</v>
+      </c>
+      <c r="G278" t="n">
+        <v>601104</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3.563671258583188</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>237681114247</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>17519.8</v>
+      </c>
+      <c r="F279" t="n">
+        <v>68382</v>
+      </c>
+      <c r="G279" t="n">
+        <v>50862.2</v>
+      </c>
+      <c r="H279" t="n">
+        <v>3.903126748022239</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>237681602244</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>260660</v>
+      </c>
+      <c r="F280" t="n">
+        <v>509875</v>
+      </c>
+      <c r="G280" t="n">
+        <v>249215</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1.956092227422696</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>237681606646</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>66756</v>
+      </c>
+      <c r="F281" t="n">
+        <v>100311</v>
+      </c>
+      <c r="G281" t="n">
+        <v>33555</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1.502651447060938</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>237681655241</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>107078.4615384615</v>
+      </c>
+      <c r="F282" t="n">
+        <v>36416</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-70662.46153846153</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.3400870677145443</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>237681658403</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>20060</v>
+      </c>
+      <c r="F283" t="n">
+        <v>57370</v>
+      </c>
+      <c r="G283" t="n">
+        <v>37310</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2.859920239282153</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>237681862876</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>26767.92</v>
+      </c>
+      <c r="F284" t="n">
+        <v>24620</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-2147.919999999998</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.9197576800887033</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>237674243367</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>6760</v>
+      </c>
+      <c r="F285" t="n">
+        <v>229</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-6531</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0.03387573964497041</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>237681656314</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>GATIEN TCHOUAYA MBOUCHIEKO</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>63475</v>
+      </c>
+      <c r="F286" t="n">
+        <v>428865</v>
+      </c>
+      <c r="G286" t="n">
+        <v>365390</v>
+      </c>
+      <c r="H286" t="n">
+        <v>6.756439543127216</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>237650934256</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100918</v>
+      </c>
+      <c r="G287" t="n">
+        <v>79258</v>
+      </c>
+      <c r="H287" t="n">
+        <v>4.659187442289936</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>237652427111</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>30760</v>
+      </c>
+      <c r="F288" t="n">
+        <v>174411</v>
+      </c>
+      <c r="G288" t="n">
+        <v>143651</v>
+      </c>
+      <c r="H288" t="n">
+        <v>5.670058517555266</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>237672064755</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1096209</v>
+      </c>
+      <c r="G289" t="n">
+        <v>957309</v>
+      </c>
+      <c r="H289" t="n">
+        <v>7.89207343412527</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>237673718583</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>98315.45454545454</v>
+      </c>
+      <c r="F290" t="n">
+        <v>128142</v>
+      </c>
+      <c r="G290" t="n">
+        <v>29826.54545454546</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.303375960498211</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>237675950748</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>110079.8</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1024033</v>
+      </c>
+      <c r="G291" t="n">
+        <v>913953.2</v>
+      </c>
+      <c r="H291" t="n">
+        <v>9.302642264975045</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>237683356603</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>70031.92</v>
+      </c>
+      <c r="F292" t="n">
+        <v>341</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-69690.92</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.004869208212483679</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>237683395123</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>61358.0625</v>
+      </c>
+      <c r="F293" t="n">
+        <v>58071</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-3287.0625</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0.9464281894494305</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>237670174030</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>63071.53846153846</v>
+      </c>
+      <c r="F294" t="n">
+        <v>8250</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-54821.53846153846</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.1308038491090703</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>237681611433</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>18655</v>
+      </c>
+      <c r="F295" t="n">
+        <v>90790</v>
+      </c>
+      <c r="G295" t="n">
+        <v>72135</v>
+      </c>
+      <c r="H295" t="n">
+        <v>4.866791744840525</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>237652667691</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>47476.36363636364</v>
+      </c>
+      <c r="F296" t="n">
+        <v>82481</v>
+      </c>
+      <c r="G296" t="n">
+        <v>35004.63636363636</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1.737306602328431</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3884,6 +3884,635 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237671825253</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MAFFO YEMDJI CHIMENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>129030</v>
+      </c>
+      <c r="F94" t="n">
+        <v>27439</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-101591</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.2126559714795009</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237673816350</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DJUIDJE EPOUSE TAGNE HELENE ADELE</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>145740</v>
+      </c>
+      <c r="F95" t="n">
+        <v>102856</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-42884</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.7057499656923288</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237674484736</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MAMADOU ALPHA DIALLO</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>31576.24</v>
+      </c>
+      <c r="F96" t="n">
+        <v>175549</v>
+      </c>
+      <c r="G96" t="n">
+        <v>143972.76</v>
+      </c>
+      <c r="H96" t="n">
+        <v>5.559528303559891</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237674895525</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NFOR EPSE FOMUNGUM ASSUMPTA MUMBEB</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>54855.31111111111</v>
+      </c>
+      <c r="F97" t="n">
+        <v>287848</v>
+      </c>
+      <c r="G97" t="n">
+        <v>232992.6888888889</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5.247404383815363</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237675457527</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TCHOUANKAP DJOMKAM ISMAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>30030</v>
+      </c>
+      <c r="F98" t="n">
+        <v>121749</v>
+      </c>
+      <c r="G98" t="n">
+        <v>91719</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4.054245754245755</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237675551814</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PELAGIE AIMEE NTOUBA MPAKO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>18795</v>
+      </c>
+      <c r="F99" t="n">
+        <v>299530</v>
+      </c>
+      <c r="G99" t="n">
+        <v>280735</v>
+      </c>
+      <c r="H99" t="n">
+        <v>15.9366852886406</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237678530662</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Seraphine Abela Eyele</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>48162</v>
+      </c>
+      <c r="F100" t="n">
+        <v>122082</v>
+      </c>
+      <c r="G100" t="n">
+        <v>73920</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.534819982558864</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237678796497</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MANIGANG NDALLOKA MARIE JOSIANE ALBARKA GN SARL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>41275.71428571428</v>
+      </c>
+      <c r="F101" t="n">
+        <v>136760</v>
+      </c>
+      <c r="G101" t="n">
+        <v>95484.28571428571</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.313328487869034</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237679093371</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ADAMA SARRE</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>30923.33333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>29745</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1178.333333333336</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9618950091624446</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237679209479</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TEDJON CLAUVIS FRANCIS TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>86783.84615384616</v>
+      </c>
+      <c r="F103" t="n">
+        <v>571</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-86212.84615384616</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.006579565498719187</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237679732169</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>HILAIRE EBWANGA FOTSO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>328228.8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>76217</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-252011.8</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.23220692395061</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237679791269</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 67</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>85360</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-85360</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237681663743</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL FONGA SINTCHA YOLANDE MIREILLE</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>103179.8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>514278</v>
+      </c>
+      <c r="G106" t="n">
+        <v>411098.2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>4.984289560553519</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237682480811</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>KENGNE TADJO LYNDA NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>178497.5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>764658</v>
+      </c>
+      <c r="G107" t="n">
+        <v>586160.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4.28385831734338</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237682798275</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NGAFFO YOCADINE BENEDITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>200036</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-299964</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.400072</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237683165199</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>N A ABASS GONI</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>6183.636363636364</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9058</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2874.363636363636</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.464833872390473</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237683454059</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RTS BELLE HOLLANDAISE</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Cite Bassa</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>114838.4615384615</v>
+      </c>
+      <c r="F110" t="n">
+        <v>223585</v>
+      </c>
+      <c r="G110" t="n">
+        <v>108746.5384615385</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.946952240605533</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,6 +4513,2411 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237671358082</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>VALERY MBAH FOLAPNEH</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>43130</v>
+      </c>
+      <c r="F111" t="n">
+        <v>231071</v>
+      </c>
+      <c r="G111" t="n">
+        <v>187941</v>
+      </c>
+      <c r="H111" t="n">
+        <v>5.357546951078135</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237672777369</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>WANDJI OBI RUSSEL_ MFS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>7120</v>
+      </c>
+      <c r="F112" t="n">
+        <v>76704</v>
+      </c>
+      <c r="G112" t="n">
+        <v>69584</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10.77303370786517</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237674062440</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>BIANKE HEUTCHOU FRANKLIN ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>12128.57142857143</v>
+      </c>
+      <c r="F113" t="n">
+        <v>7262</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4866.571428571428</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.598751472320377</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237674323650</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OHANDZA CLOTILDE ANTOINETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>75599.88333333333</v>
+      </c>
+      <c r="F114" t="n">
+        <v>183196</v>
+      </c>
+      <c r="G114" t="n">
+        <v>107596.1166666667</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.423231252781916</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237675579920</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA_CB0118_LIELO</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>239424</v>
+      </c>
+      <c r="F115" t="n">
+        <v>245723</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6299</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.026308974873029</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237676575053</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MARIE MADELEINE YANKOUA</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>79250</v>
+      </c>
+      <c r="F116" t="n">
+        <v>440341</v>
+      </c>
+      <c r="G116" t="n">
+        <v>361091</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.556353312302839</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237679338102</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>IKECHELI KEPSEU IFEOMA YANELL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>118868</v>
+      </c>
+      <c r="F117" t="n">
+        <v>70476</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-48392</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.5928929568933607</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237681657562</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>BLANDINE PEYEMBOUO</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>137844.9629629629</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2371</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-135473.9629629629</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.01720048342018167</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237683612202</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ETS CAMPUS III ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>104</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-4896</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237651988929</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>UKAM EPSE TANYI HELDA BETTEH ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>15997.69230769231</v>
+      </c>
+      <c r="F120" t="n">
+        <v>89954</v>
+      </c>
+      <c r="G120" t="n">
+        <v>73956.30769230769</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5.62293600038467</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237653190282</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>JANGMAN LIBA ERICA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>28041.81818181818</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4964</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-23077.81818181818</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.1770213317772159</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237653674387</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL PAGDABANG PIERRE LOTI</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>14380</v>
+      </c>
+      <c r="F122" t="n">
+        <v>241479</v>
+      </c>
+      <c r="G122" t="n">
+        <v>227099</v>
+      </c>
+      <c r="H122" t="n">
+        <v>16.79269819193324</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237653946894</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>12800</v>
+      </c>
+      <c r="F123" t="n">
+        <v>35634</v>
+      </c>
+      <c r="G123" t="n">
+        <v>22834</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.78390625</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237653959075</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>VIRGINIE AIMEE FOUELIFACK EPSE MONDIE</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>190430</v>
+      </c>
+      <c r="F124" t="n">
+        <v>849347</v>
+      </c>
+      <c r="G124" t="n">
+        <v>658917</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.460153337184267</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237654138873</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>OUMAR DIAKITE</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>5327.599999999999</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1166</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4161.599999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.2188602747954051</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237654150202</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>MBOU WILLY JUNIOR ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>27650</v>
+      </c>
+      <c r="F126" t="n">
+        <v>58335</v>
+      </c>
+      <c r="G126" t="n">
+        <v>30685</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2.109764918625678</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237654355100</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>abdou arahime sundzeh</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>112594</v>
+      </c>
+      <c r="F127" t="n">
+        <v>275769</v>
+      </c>
+      <c r="G127" t="n">
+        <v>163175</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2.449233529317726</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237670018166</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CECILE NONO SIMO</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>108762.35</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5187</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-103575.35</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.04769113576527171</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237671563291</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CHANCEL TIAYO KONNANG</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>20715.26153846153</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4603</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-16112.26153846153</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.222203325381807</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237671664239</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ZEPHERINE ANEBEP</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>34610</v>
+      </c>
+      <c r="F130" t="n">
+        <v>86339</v>
+      </c>
+      <c r="G130" t="n">
+        <v>51729</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2.494625830684773</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>257448</v>
+      </c>
+      <c r="G131" t="n">
+        <v>67662.20000000001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.356518770108196</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23361</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1669</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.933320015980823</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>VIVIENNE BIH ACHINE EPSE WETIE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1476996</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1450746</v>
+      </c>
+      <c r="H133" t="n">
+        <v>56.26651428571429</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>135321</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-46848.70000000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.7428293508744868</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>11000</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F136" t="n">
+        <v>79625</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-104537.0370370371</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.4323638100505292</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>235659</v>
+      </c>
+      <c r="G137" t="n">
+        <v>174465.6666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3.851056759995642</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>423955</v>
+      </c>
+      <c r="G139" t="n">
+        <v>323725.2</v>
+      </c>
+      <c r="H139" t="n">
+        <v>4.229829851002396</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CHRISTON TCHOFFO SIZONO</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F140" t="n">
+        <v>87974</v>
+      </c>
+      <c r="G140" t="n">
+        <v>62354.90909090909</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3.43392356552287</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F141" t="n">
+        <v>653301</v>
+      </c>
+      <c r="G141" t="n">
+        <v>597081</v>
+      </c>
+      <c r="H141" t="n">
+        <v>11.62043756670224</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F142" t="n">
+        <v>139723</v>
+      </c>
+      <c r="G142" t="n">
+        <v>80113</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.343952356987083</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F143" t="n">
+        <v>90</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-57715.71428571429</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.001556939501779359</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F144" t="n">
+        <v>38869</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-8944.75</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.8129251522836004</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3031</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-4407.090909090909</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.4074970361407497</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237682117915</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>123740</v>
+      </c>
+      <c r="F146" t="n">
+        <v>141759</v>
+      </c>
+      <c r="G146" t="n">
+        <v>18019</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.145619848068531</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237682154553</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>136800</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1931</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-134869</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.01411549707602339</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237682803277</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>59869.80000000002</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3387</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-56482.80000000002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.05657276289548318</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237683323481</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>25924</v>
+      </c>
+      <c r="F149" t="n">
+        <v>497030</v>
+      </c>
+      <c r="G149" t="n">
+        <v>471106</v>
+      </c>
+      <c r="H149" t="n">
+        <v>19.17258139176053</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237683368985</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MFS BELL HENRIE BERNARD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>51230</v>
+      </c>
+      <c r="F150" t="n">
+        <v>48564</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2666</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.947960179582276</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237683432110</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F151" t="n">
+        <v>563003</v>
+      </c>
+      <c r="G151" t="n">
+        <v>547403</v>
+      </c>
+      <c r="H151" t="n">
+        <v>36.0899358974359</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16195</v>
+      </c>
+      <c r="G152" t="n">
+        <v>8418.125</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2.082455999357068</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237651346686</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>47969.93333333333</v>
+      </c>
+      <c r="F153" t="n">
+        <v>146542</v>
+      </c>
+      <c r="G153" t="n">
+        <v>98572.06666666668</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.054871871130389</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237654508603</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>107070</v>
+      </c>
+      <c r="F154" t="n">
+        <v>728568</v>
+      </c>
+      <c r="G154" t="n">
+        <v>621498</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6.804595124684786</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237672731004</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3961</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1039</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.7922</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237674884831</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1252339</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1211679</v>
+      </c>
+      <c r="H156" t="n">
+        <v>30.80027053615347</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237675986754</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12766</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-14187.63636363636</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.4736281156194138</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237678384388</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>45439.84</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10226</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-35213.84</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.2250448064957975</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237678559161</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F159" t="n">
+        <v>443</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-54324.77777777778</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.008088697733866222</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237678872943</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5337</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-75581.93000000001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.06595490078773904</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237679244994</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3763439</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3263439</v>
+      </c>
+      <c r="H161" t="n">
+        <v>7.526878</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237679508295</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>60430</v>
+      </c>
+      <c r="F162" t="n">
+        <v>124508</v>
+      </c>
+      <c r="G162" t="n">
+        <v>64078</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2.060367367201721</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237679808809</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F163" t="n">
+        <v>146919</v>
+      </c>
+      <c r="G163" t="n">
+        <v>119899</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5.437416728349371</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>14877</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9877</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.9754</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5133</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-11565.33333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.3073959476993712</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F166" t="n">
+        <v>62090</v>
+      </c>
+      <c r="G166" t="n">
+        <v>36173.36923076923</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2.395758945399479</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F167" t="n">
+        <v>44713</v>
+      </c>
+      <c r="G167" t="n">
+        <v>35913</v>
+      </c>
+      <c r="H167" t="n">
+        <v>5.081022727272727</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F168" t="n">
+        <v>157855</v>
+      </c>
+      <c r="G168" t="n">
+        <v>95254.29090909089</v>
+      </c>
+      <c r="H168" t="n">
+        <v>2.521616804224407</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F169" t="n">
+        <v>51463</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-6607</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.8862235233339073</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F170" t="n">
+        <v>46173</v>
+      </c>
+      <c r="G170" t="n">
+        <v>41173</v>
+      </c>
+      <c r="H170" t="n">
+        <v>9.2346</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237651927707</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MARIE CHANTAL EDWIGE NDZIE ONANA</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F171" t="n">
+        <v>144483</v>
+      </c>
+      <c r="G171" t="n">
+        <v>122383</v>
+      </c>
+      <c r="H171" t="n">
+        <v>6.537692307692308</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F172" t="n">
+        <v>712669</v>
+      </c>
+      <c r="G172" t="n">
+        <v>638839</v>
+      </c>
+      <c r="H172" t="n">
+        <v>9.652837599891644</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F173" t="n">
+        <v>240243</v>
+      </c>
+      <c r="G173" t="n">
+        <v>166313</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.249600973894224</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>roch anelson nguedjeu yamadjeu</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2625</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-102395</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.02499523900209484</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F175" t="n">
+        <v>371647</v>
+      </c>
+      <c r="G175" t="n">
+        <v>273827</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3.799294622776528</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6918,6 +6918,265 @@
         </is>
       </c>
     </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F176" t="n">
+        <v>27986</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-12779</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.68652029927634</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TECLAIRE KAMENI TCHOKOTHE KEMAYOU EPSE TCHANI</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F177" t="n">
+        <v>236900</v>
+      </c>
+      <c r="G177" t="n">
+        <v>193030</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5.400045589240939</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>N A PATEM CLOVIS LAHVET</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2129010</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1895905.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>9.133281797098812</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19657</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-129989.6666666667</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.1313560832182474</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2866981</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2366981</v>
+      </c>
+      <c r="H180" t="n">
+        <v>5.733962</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2337</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-10023.93333333334</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.189063393271274</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F182" t="n">
+        <v>180462</v>
+      </c>
+      <c r="G182" t="n">
+        <v>86362</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.917768331562168</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7177,6 +7177,1523 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237650651854</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>173354.6</v>
+      </c>
+      <c r="F183" t="n">
+        <v>67307</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-106047.6</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.3882619786264685</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237650988697</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>FABASSOU GASPARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>112810</v>
+      </c>
+      <c r="F184" t="n">
+        <v>324536</v>
+      </c>
+      <c r="G184" t="n">
+        <v>211726</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2.876837159826256</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237651809692</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>140210</v>
+      </c>
+      <c r="F185" t="n">
+        <v>224523</v>
+      </c>
+      <c r="G185" t="n">
+        <v>84313</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.601333713715142</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237652579681</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>AGRIPINE LAURE NOUMUNA</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>55020</v>
+      </c>
+      <c r="F186" t="n">
+        <v>74577</v>
+      </c>
+      <c r="G186" t="n">
+        <v>19557</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1.355452562704471</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237652724076</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>22670</v>
+      </c>
+      <c r="F187" t="n">
+        <v>78924</v>
+      </c>
+      <c r="G187" t="n">
+        <v>56254</v>
+      </c>
+      <c r="H187" t="n">
+        <v>3.481429201588002</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237652958984</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>46742.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>324514</v>
+      </c>
+      <c r="G188" t="n">
+        <v>277771.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>6.94258972027598</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237653239050</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F189" t="n">
+        <v>157987</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-186685.7272727273</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.4583681489687186</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237653423810</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TEFFO ALAIN NOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>29820</v>
+      </c>
+      <c r="F190" t="n">
+        <v>46342</v>
+      </c>
+      <c r="G190" t="n">
+        <v>16522</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.554057679409792</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237653472620</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F191" t="n">
+        <v>314642</v>
+      </c>
+      <c r="G191" t="n">
+        <v>253072</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5.110313464349521</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F192" t="n">
+        <v>78187</v>
+      </c>
+      <c r="G192" t="n">
+        <v>23767</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.436732818816612</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>HERVE ANTOINE EDZILI TCHAMDA</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10490</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-56925</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.1556033523696507</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F194" t="n">
+        <v>203366</v>
+      </c>
+      <c r="G194" t="n">
+        <v>161084.1764705883</v>
+      </c>
+      <c r="H194" t="n">
+        <v>4.809773633782282</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-100666.6666666667</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F196" t="n">
+        <v>103009</v>
+      </c>
+      <c r="G196" t="n">
+        <v>59559</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2.370747986191024</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7154</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-28476</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.2007858546168959</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237671364668</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>60745</v>
+      </c>
+      <c r="F198" t="n">
+        <v>93543</v>
+      </c>
+      <c r="G198" t="n">
+        <v>32798</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.539929212280846</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237671369692</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>27325.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23751</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-3574.5</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.8691881209858923</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F200" t="n">
+        <v>296526</v>
+      </c>
+      <c r="G200" t="n">
+        <v>251421</v>
+      </c>
+      <c r="H200" t="n">
+        <v>6.574127036913867</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1088389</v>
+      </c>
+      <c r="G201" t="n">
+        <v>663909</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.564052487749717</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F202" t="n">
+        <v>155195</v>
+      </c>
+      <c r="G202" t="n">
+        <v>139585</v>
+      </c>
+      <c r="H202" t="n">
+        <v>9.942024343369635</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3172</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-15258</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.1721106890938687</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>137029</v>
+      </c>
+      <c r="G204" t="n">
+        <v>88589.19999999998</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2.828851481632872</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F205" t="n">
+        <v>223390</v>
+      </c>
+      <c r="G205" t="n">
+        <v>136770</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2.578965596859847</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F206" t="n">
+        <v>29264</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-7466</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.7967329158725838</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F207" t="n">
+        <v>37658</v>
+      </c>
+      <c r="G207" t="n">
+        <v>22378</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2.464528795811519</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F208" t="n">
+        <v>214488</v>
+      </c>
+      <c r="G208" t="n">
+        <v>151348</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3.397022489705416</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>204326</v>
+      </c>
+      <c r="G209" t="n">
+        <v>150619.3333333333</v>
+      </c>
+      <c r="H209" t="n">
+        <v>3.804481132075472</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F210" t="n">
+        <v>379934</v>
+      </c>
+      <c r="G210" t="n">
+        <v>295764.2</v>
+      </c>
+      <c r="H210" t="n">
+        <v>4.513899284541486</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F211" t="n">
+        <v>193111</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-26268.03636363635</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.8802618664068922</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F212" t="n">
+        <v>376</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-4624</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237652899422</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>CATHERINE CHAMBERLINE NZEPANG</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F213" t="n">
+        <v>235473</v>
+      </c>
+      <c r="G213" t="n">
+        <v>166591.6363636364</v>
+      </c>
+      <c r="H213" t="n">
+        <v>3.418529883396354</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-352072.5</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-112566.4615384615</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.0001954019061934206</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F216" t="n">
+        <v>16050</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-8776.153846153848</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.6464956311582079</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F217" t="n">
+        <v>7230</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-106510</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.06356602778266221</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F218" t="n">
+        <v>172010</v>
+      </c>
+      <c r="G218" t="n">
+        <v>115465</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3.042001945353258</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F219" t="n">
+        <v>202341</v>
+      </c>
+      <c r="G219" t="n">
+        <v>51961.39999999999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1.345534899680542</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F220" t="n">
+        <v>117534</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-41501.17499999999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.7390440511037889</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F221" t="n">
+        <v>95871</v>
+      </c>
+      <c r="G221" t="n">
+        <v>8493.649999999994</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1.097206541512188</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MFS MAKEPE MATURITE</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F222" t="n">
+        <v>326493</v>
+      </c>
+      <c r="G222" t="n">
+        <v>238048</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3.691480581152129</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F223" t="n">
+        <v>297533</v>
+      </c>
+      <c r="G223" t="n">
+        <v>274093.4</v>
+      </c>
+      <c r="H223" t="n">
+        <v>12.69360398641615</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8694,6 +8694,1227 @@
         </is>
       </c>
     </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237674959564</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2214</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-2786</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.4428</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237675208505</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>HAPSATOU N A MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>19527.86</v>
+      </c>
+      <c r="F225" t="n">
+        <v>32746</v>
+      </c>
+      <c r="G225" t="n">
+        <v>13218.14</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.676886253793299</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237675555508</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F226" t="n">
+        <v>17849</v>
+      </c>
+      <c r="G226" t="n">
+        <v>5526.390909090913</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.448475713894711</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237675557616</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>64010</v>
+      </c>
+      <c r="F227" t="n">
+        <v>249059</v>
+      </c>
+      <c r="G227" t="n">
+        <v>185049</v>
+      </c>
+      <c r="H227" t="n">
+        <v>3.890938915794407</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237678225987</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>37403.93</v>
+      </c>
+      <c r="F228" t="n">
+        <v>30888</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-6515.93</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.8257955781651821</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237679553674</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>56618.88</v>
+      </c>
+      <c r="F229" t="n">
+        <v>42637</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-13981.88</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.7530526919642352</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237679654555</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F230" t="n">
+        <v>24335</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-12293.42105263158</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.6643748024254964</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237679789713</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>78170</v>
+      </c>
+      <c r="F231" t="n">
+        <v>48</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-78122</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.0006140463093258283</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237681589841</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F232" t="n">
+        <v>98610</v>
+      </c>
+      <c r="G232" t="n">
+        <v>72756.66666666667</v>
+      </c>
+      <c r="H232" t="n">
+        <v>3.814208354822073</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237681676445</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>51040</v>
+      </c>
+      <c r="F233" t="n">
+        <v>192142</v>
+      </c>
+      <c r="G233" t="n">
+        <v>141102</v>
+      </c>
+      <c r="H233" t="n">
+        <v>3.764537617554859</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237681678622</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>26740</v>
+      </c>
+      <c r="F234" t="n">
+        <v>455365</v>
+      </c>
+      <c r="G234" t="n">
+        <v>428625</v>
+      </c>
+      <c r="H234" t="n">
+        <v>17.02935676888556</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237683815311</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F235" t="n">
+        <v>35261</v>
+      </c>
+      <c r="G235" t="n">
+        <v>22532.10909090909</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.770154937443667</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237651533411</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>56092.85714285714</v>
+      </c>
+      <c r="F236" t="n">
+        <v>535755</v>
+      </c>
+      <c r="G236" t="n">
+        <v>479662.1428571428</v>
+      </c>
+      <c r="H236" t="n">
+        <v>9.551216095759582</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237651843112</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F237" t="n">
+        <v>219489</v>
+      </c>
+      <c r="G237" t="n">
+        <v>157919</v>
+      </c>
+      <c r="H237" t="n">
+        <v>3.564869254507065</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237652297747</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>24830</v>
+      </c>
+      <c r="F238" t="n">
+        <v>37355</v>
+      </c>
+      <c r="G238" t="n">
+        <v>12525</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.504430124848973</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237653316656</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CHRISTELLE KANOUO TANYO</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>39103.33333333334</v>
+      </c>
+      <c r="F239" t="n">
+        <v>66726</v>
+      </c>
+      <c r="G239" t="n">
+        <v>27622.66666666666</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.706401841275254</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237671290825</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11614</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-3999.636363636364</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.7438369723435225</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237672276931</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>74960</v>
+      </c>
+      <c r="F241" t="n">
+        <v>178</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-74782</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.002374599786552828</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237674580187</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F242" t="n">
+        <v>21739</v>
+      </c>
+      <c r="G242" t="n">
+        <v>10899</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2.005442804428044</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237674673359</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>88189.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>220321</v>
+      </c>
+      <c r="G243" t="n">
+        <v>132131.5</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2.498267934391282</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237674769580</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SANDIE KAMGUE BELVA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>21040</v>
+      </c>
+      <c r="F244" t="n">
+        <v>16583</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-4457</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.7881653992395438</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237674926472</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>10265.55</v>
+      </c>
+      <c r="F245" t="n">
+        <v>41150</v>
+      </c>
+      <c r="G245" t="n">
+        <v>30884.45</v>
+      </c>
+      <c r="H245" t="n">
+        <v>4.00855287831631</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237675831509</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F246" t="n">
+        <v>7407</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-136216.8461538462</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.05157221588444173</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237676770192</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>21759.975</v>
+      </c>
+      <c r="F247" t="n">
+        <v>111421</v>
+      </c>
+      <c r="G247" t="n">
+        <v>89661.02499999999</v>
+      </c>
+      <c r="H247" t="n">
+        <v>5.120456250524185</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237680857383</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>46555</v>
+      </c>
+      <c r="F248" t="n">
+        <v>621644</v>
+      </c>
+      <c r="G248" t="n">
+        <v>575089</v>
+      </c>
+      <c r="H248" t="n">
+        <v>13.3528944259478</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237681180496</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>7225.555555555556</v>
+      </c>
+      <c r="F249" t="n">
+        <v>150</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-7075.555555555556</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.02075964939258804</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237681299829</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SAMIRA ZOFERNUI FAITH</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>56419.76190476191</v>
+      </c>
+      <c r="F250" t="n">
+        <v>12155</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-44264.76190476191</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.2154386971805725</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237681657939</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>22932.52727272727</v>
+      </c>
+      <c r="F251" t="n">
+        <v>23493</v>
+      </c>
+      <c r="G251" t="n">
+        <v>560.4727272727287</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1.024440076778597</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237675944533</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>28080.71428571429</v>
+      </c>
+      <c r="F252" t="n">
+        <v>130649</v>
+      </c>
+      <c r="G252" t="n">
+        <v>102568.2857142857</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4.652623814005545</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237678319711</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MIGUEL MATULA MOUCHO SIETCHEPIN</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>63790</v>
+      </c>
+      <c r="F253" t="n">
+        <v>547374</v>
+      </c>
+      <c r="G253" t="n">
+        <v>483584</v>
+      </c>
+      <c r="H253" t="n">
+        <v>8.580874745257878</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237654261990</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>AUDOUCE AIMEE NANA KOUADIP</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>58234.21052631579</v>
+      </c>
+      <c r="F254" t="n">
+        <v>353654</v>
+      </c>
+      <c r="G254" t="n">
+        <v>295419.7894736842</v>
+      </c>
+      <c r="H254" t="n">
+        <v>6.072959464955488</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237670148911</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FRANKLIN NGONGFARH</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>9246.842105263158</v>
+      </c>
+      <c r="F255" t="n">
+        <v>30838</v>
+      </c>
+      <c r="G255" t="n">
+        <v>21591.15789473684</v>
+      </c>
+      <c r="H255" t="n">
+        <v>3.334976378849109</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237671517964</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 214</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>15455</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1399</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-14056</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.09052086703332254</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1021,13 +1021,13 @@
         <v>34635</v>
       </c>
       <c r="F16" t="n">
-        <v>40772</v>
+        <v>171347</v>
       </c>
       <c r="G16" t="n">
-        <v>6137</v>
+        <v>136712</v>
       </c>
       <c r="H16" t="n">
-        <v>1.177190703046052</v>
+        <v>4.947221019200231</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -9910,6 +9910,3003 @@
         <v>0.09052086703332254</v>
       </c>
       <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237671823371</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-6870</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.2668089647812166</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237671838460</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F258" t="n">
+        <v>108764</v>
+      </c>
+      <c r="G258" t="n">
+        <v>39264</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1.56494964028777</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237674248126</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>28740.76923076923</v>
+      </c>
+      <c r="F259" t="n">
+        <v>211493</v>
+      </c>
+      <c r="G259" t="n">
+        <v>182752.2307692308</v>
+      </c>
+      <c r="H259" t="n">
+        <v>7.358640901426545</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237674629681</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F260" t="n">
+        <v>253256</v>
+      </c>
+      <c r="G260" t="n">
+        <v>167576</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2.955835667600374</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237674929391</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>51638.88888888889</v>
+      </c>
+      <c r="F261" t="n">
+        <v>42236</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-9402.888888888891</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.8179107046799354</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237680670799</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>52604.73684210526</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1515</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-51089.73684210526</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.02879968784079881</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237681679880</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F263" t="n">
+        <v>273</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-4727</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.0546</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237682827350</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ETS KASSAV ENGINEERING</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>174107.7777777778</v>
+      </c>
+      <c r="F264" t="n">
+        <v>789440</v>
+      </c>
+      <c r="G264" t="n">
+        <v>615332.2222222222</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4.534202952194362</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237683400719</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>39019.8</v>
+      </c>
+      <c r="F265" t="n">
+        <v>54238</v>
+      </c>
+      <c r="G265" t="n">
+        <v>15218.2</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1.390012250190929</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>237652356041</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>JULES ROSTAND DJALEU</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>121240</v>
+      </c>
+      <c r="F266" t="n">
+        <v>800681</v>
+      </c>
+      <c r="G266" t="n">
+        <v>679441</v>
+      </c>
+      <c r="H266" t="n">
+        <v>6.604099307159354</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>237652817931</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>JOSE MERVEILLE ABONG A MMAN</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>30820</v>
+      </c>
+      <c r="F267" t="n">
+        <v>111391</v>
+      </c>
+      <c r="G267" t="n">
+        <v>80571</v>
+      </c>
+      <c r="H267" t="n">
+        <v>3.614243997404283</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>237653816480</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>BERYL NAKOMA TOUFOIN TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>259886.1111111111</v>
+      </c>
+      <c r="F268" t="n">
+        <v>967069</v>
+      </c>
+      <c r="G268" t="n">
+        <v>707182.8888888889</v>
+      </c>
+      <c r="H268" t="n">
+        <v>3.721126134310969</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>237654020285</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>68953.76000000001</v>
+      </c>
+      <c r="F269" t="n">
+        <v>144633</v>
+      </c>
+      <c r="G269" t="n">
+        <v>75679.23999999999</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2.097536087952274</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>237670809154</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>TCHUISSANG BETTOU CHARLINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>67386.55</v>
+      </c>
+      <c r="F270" t="n">
+        <v>99705</v>
+      </c>
+      <c r="G270" t="n">
+        <v>32318.45</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1.479597931634725</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>237672695037</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DOMCHE GAPIMSI N A</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>95127.82000000002</v>
+      </c>
+      <c r="F271" t="n">
+        <v>335034</v>
+      </c>
+      <c r="G271" t="n">
+        <v>239906.18</v>
+      </c>
+      <c r="H271" t="n">
+        <v>3.521935013332587</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>237674679432</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Sekou Kevine Chanelle ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>18349.8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>132141</v>
+      </c>
+      <c r="G272" t="n">
+        <v>113791.2</v>
+      </c>
+      <c r="H272" t="n">
+        <v>7.201222901612007</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>237674928987</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>110902.2222222222</v>
+      </c>
+      <c r="F273" t="n">
+        <v>148784</v>
+      </c>
+      <c r="G273" t="n">
+        <v>37881.77777777778</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1.341578166953873</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>237676664056</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>140200</v>
+      </c>
+      <c r="F274" t="n">
+        <v>265518</v>
+      </c>
+      <c r="G274" t="n">
+        <v>125318</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1.893851640513552</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>237676974240</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>157580</v>
+      </c>
+      <c r="F275" t="n">
+        <v>429626</v>
+      </c>
+      <c r="G275" t="n">
+        <v>272046</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2.726399289249905</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>237679422176</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-499996</v>
+      </c>
+      <c r="H276" t="n">
+        <v>8e-06</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>237679607838</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>65518.75</v>
+      </c>
+      <c r="F277" t="n">
+        <v>217686</v>
+      </c>
+      <c r="G277" t="n">
+        <v>152167.25</v>
+      </c>
+      <c r="H277" t="n">
+        <v>3.322499284555948</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>237680887643</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>DEMONSTER FERDINAND KOUEKAM</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>84126.25</v>
+      </c>
+      <c r="F278" t="n">
+        <v>128217</v>
+      </c>
+      <c r="G278" t="n">
+        <v>44090.75</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.524102167872691</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>237680950910</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>LIBYA OIL CAMEROUN UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>30157.33333333334</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1825</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-28332.33333333334</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.06051596073923423</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>237652194293</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>126730</v>
+      </c>
+      <c r="F280" t="n">
+        <v>896086</v>
+      </c>
+      <c r="G280" t="n">
+        <v>769356</v>
+      </c>
+      <c r="H280" t="n">
+        <v>7.070827744022726</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>237652386684</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>MARTIALE IDA NGAKAM</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>282184.9</v>
+      </c>
+      <c r="F281" t="n">
+        <v>571955</v>
+      </c>
+      <c r="G281" t="n">
+        <v>289770.1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2.026880247667398</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>237652927180</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>72520.45454545454</v>
+      </c>
+      <c r="F282" t="n">
+        <v>348890</v>
+      </c>
+      <c r="G282" t="n">
+        <v>276369.5454545455</v>
+      </c>
+      <c r="H282" t="n">
+        <v>4.810918549625498</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>237653650087</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>321083.2625000001</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1103413</v>
+      </c>
+      <c r="G283" t="n">
+        <v>782329.7374999999</v>
+      </c>
+      <c r="H283" t="n">
+        <v>3.436532291993887</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>237675621967</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>21365.77647058823</v>
+      </c>
+      <c r="F284" t="n">
+        <v>70</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-21295.77647058823</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.003276267543862065</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>237679548340</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>400114.9</v>
+      </c>
+      <c r="F285" t="n">
+        <v>492035</v>
+      </c>
+      <c r="G285" t="n">
+        <v>91920.09999999998</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1.22973425883415</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>237680144977</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>37653.33333333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>44326</v>
+      </c>
+      <c r="G286" t="n">
+        <v>6672.666666666664</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1.177213172804533</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>237681679310</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>31099.92727272727</v>
+      </c>
+      <c r="F287" t="n">
+        <v>8153</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-22946.92727272727</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.2621549538847212</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>237682238745</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>herver christ bessong</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1223742</v>
+      </c>
+      <c r="G288" t="n">
+        <v>723742</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2.447484</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>237682316602</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>44349.8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>221579</v>
+      </c>
+      <c r="G289" t="n">
+        <v>177229.2</v>
+      </c>
+      <c r="H289" t="n">
+        <v>4.996166837279987</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>237682430965</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>MADELEINE ETONNA</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>11953.33333333333</v>
+      </c>
+      <c r="F290" t="n">
+        <v>96344</v>
+      </c>
+      <c r="G290" t="n">
+        <v>84390.66666666667</v>
+      </c>
+      <c r="H290" t="n">
+        <v>8.060011154489681</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>237683366333</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>13525</v>
+      </c>
+      <c r="F291" t="n">
+        <v>94</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-13431</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.006950092421441774</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>237683379155</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>NGUEUGANG ALLIANCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>102412.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>755561</v>
+      </c>
+      <c r="G292" t="n">
+        <v>653148.5</v>
+      </c>
+      <c r="H292" t="n">
+        <v>7.377624801659953</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>237683379207</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>19690</v>
+      </c>
+      <c r="F293" t="n">
+        <v>40424</v>
+      </c>
+      <c r="G293" t="n">
+        <v>20734</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2.053021838496699</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>237652049507</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>9268.888888888889</v>
+      </c>
+      <c r="F294" t="n">
+        <v>116964</v>
+      </c>
+      <c r="G294" t="n">
+        <v>107695.1111111111</v>
+      </c>
+      <c r="H294" t="n">
+        <v>12.61898825221769</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>237671105715</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>19923.33333333333</v>
+      </c>
+      <c r="F295" t="n">
+        <v>282243</v>
+      </c>
+      <c r="G295" t="n">
+        <v>262319.6666666667</v>
+      </c>
+      <c r="H295" t="n">
+        <v>14.1664547431822</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>237674435926</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DEVIS NANFACK PATELSON</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>19273.33333333333</v>
+      </c>
+      <c r="F296" t="n">
+        <v>85195</v>
+      </c>
+      <c r="G296" t="n">
+        <v>65921.66666666667</v>
+      </c>
+      <c r="H296" t="n">
+        <v>4.420356278104462</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>237674892352</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Nguimdo Diane</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>113445.92</v>
+      </c>
+      <c r="F297" t="n">
+        <v>338188</v>
+      </c>
+      <c r="G297" t="n">
+        <v>224742.08</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2.981050354212827</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>237674895389</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>238518.3333333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>12692</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-225826.3333333334</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.05321184255577837</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>237674908416</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>12543.75</v>
+      </c>
+      <c r="F299" t="n">
+        <v>120</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-12423.75</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.009566517189835576</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>237675207106</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>192880</v>
+      </c>
+      <c r="F300" t="n">
+        <v>705523</v>
+      </c>
+      <c r="G300" t="n">
+        <v>512643</v>
+      </c>
+      <c r="H300" t="n">
+        <v>3.65783388635421</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>237675443028</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>15820</v>
+      </c>
+      <c r="F301" t="n">
+        <v>6320</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-9500</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0.3994943109987358</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>237676036869</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>154416.5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1029923</v>
+      </c>
+      <c r="G302" t="n">
+        <v>875506.5</v>
+      </c>
+      <c r="H302" t="n">
+        <v>6.669772984104677</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>237677178575</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>10599.825</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20929</v>
+      </c>
+      <c r="G303" t="n">
+        <v>10329.175</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1.974466559589427</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>237678183211</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>7435.454545454545</v>
+      </c>
+      <c r="F304" t="n">
+        <v>13529</v>
+      </c>
+      <c r="G304" t="n">
+        <v>6093.545454545455</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1.819525614378286</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>237679038720</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>52406.36</v>
+      </c>
+      <c r="F305" t="n">
+        <v>146746</v>
+      </c>
+      <c r="G305" t="n">
+        <v>94339.64</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2.800156316905047</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>237679087694</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>26039.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>58407</v>
+      </c>
+      <c r="G306" t="n">
+        <v>32367.4</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2.243006805020046</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>237679869809</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>81035</v>
+      </c>
+      <c r="F307" t="n">
+        <v>83413</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2378</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1.029345344604183</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>237680435802</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>234470</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1128106</v>
+      </c>
+      <c r="G308" t="n">
+        <v>893636</v>
+      </c>
+      <c r="H308" t="n">
+        <v>4.811302085554655</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>237681114247</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>17519.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>47390</v>
+      </c>
+      <c r="G309" t="n">
+        <v>29870.2</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2.7049395541045</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>237681602244</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>260660</v>
+      </c>
+      <c r="F310" t="n">
+        <v>118731</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-141929</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.4555014194736438</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>237681606646</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DONFACK PAULINE PELAGIE</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>66756</v>
+      </c>
+      <c r="F311" t="n">
+        <v>100311</v>
+      </c>
+      <c r="G311" t="n">
+        <v>33555</v>
+      </c>
+      <c r="H311" t="n">
+        <v>1.502651447060938</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>237681655241</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>107078.4615384615</v>
+      </c>
+      <c r="F312" t="n">
+        <v>65607</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-41471.46153846153</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.6127002485596472</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>237681658403</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>20060</v>
+      </c>
+      <c r="F313" t="n">
+        <v>80798</v>
+      </c>
+      <c r="G313" t="n">
+        <v>60738</v>
+      </c>
+      <c r="H313" t="n">
+        <v>4.027816550348954</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>237681862876</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>26767.92</v>
+      </c>
+      <c r="F314" t="n">
+        <v>5585</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-21182.92</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.2086452738950206</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>237683555873</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>297690</v>
+      </c>
+      <c r="F315" t="n">
+        <v>6388</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-291302</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.02145856427827606</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>237654037914</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>20483.33333333333</v>
+      </c>
+      <c r="F316" t="n">
+        <v>28022</v>
+      </c>
+      <c r="G316" t="n">
+        <v>7538.666666666668</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1.368039056143206</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>237674243367</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>6760</v>
+      </c>
+      <c r="F317" t="n">
+        <v>229</v>
+      </c>
+      <c r="G317" t="n">
+        <v>-6531</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0.03387573964497041</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>237681656314</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>63475</v>
+      </c>
+      <c r="F318" t="n">
+        <v>718467</v>
+      </c>
+      <c r="G318" t="n">
+        <v>654992</v>
+      </c>
+      <c r="H318" t="n">
+        <v>11.31889720362347</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>237682511457</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>DIENECLAIR SEN KWA</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>29396</v>
+      </c>
+      <c r="F319" t="n">
+        <v>324770</v>
+      </c>
+      <c r="G319" t="n">
+        <v>295374</v>
+      </c>
+      <c r="H319" t="n">
+        <v>11.04810178255545</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>237650934256</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F320" t="n">
+        <v>39596</v>
+      </c>
+      <c r="G320" t="n">
+        <v>17936</v>
+      </c>
+      <c r="H320" t="n">
+        <v>1.828070175438596</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>237652275301</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>6380</v>
+      </c>
+      <c r="F321" t="n">
+        <v>848</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-5532</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0.1329153605015674</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>237652427111</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>CHARLOTTE PAULINE PATIENCE NJOLE MANJOLE</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>30760</v>
+      </c>
+      <c r="F322" t="n">
+        <v>78947</v>
+      </c>
+      <c r="G322" t="n">
+        <v>48187</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2.566547464239272</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>237671645947</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F323" t="n">
+        <v>31052</v>
+      </c>
+      <c r="G323" t="n">
+        <v>25712</v>
+      </c>
+      <c r="H323" t="n">
+        <v>5.81498127340824</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>237672064755</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>KENFACK FRANC DUVIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1113523</v>
+      </c>
+      <c r="G324" t="n">
+        <v>974623</v>
+      </c>
+      <c r="H324" t="n">
+        <v>8.016724262059036</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>237672956746</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>137539.8</v>
+      </c>
+      <c r="F325" t="n">
+        <v>126820</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-10719.80000000002</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0.9220603781596308</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>237673718583</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>98315.45454545454</v>
+      </c>
+      <c r="F326" t="n">
+        <v>712310</v>
+      </c>
+      <c r="G326" t="n">
+        <v>613994.5454545454</v>
+      </c>
+      <c r="H326" t="n">
+        <v>7.245147808076045</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>237674933048</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>43872.3</v>
+      </c>
+      <c r="F327" t="n">
+        <v>152306</v>
+      </c>
+      <c r="G327" t="n">
+        <v>108433.7</v>
+      </c>
+      <c r="H327" t="n">
+        <v>3.471575458774671</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>237675950748</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>110079.8</v>
+      </c>
+      <c r="F328" t="n">
+        <v>456804</v>
+      </c>
+      <c r="G328" t="n">
+        <v>346724.2</v>
+      </c>
+      <c r="H328" t="n">
+        <v>4.149753179057375</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>237682520113</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>27383.33333333333</v>
+      </c>
+      <c r="F329" t="n">
+        <v>205235</v>
+      </c>
+      <c r="G329" t="n">
+        <v>177851.6666666667</v>
+      </c>
+      <c r="H329" t="n">
+        <v>7.494887401095557</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>237683395123</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>61358.0625</v>
+      </c>
+      <c r="F330" t="n">
+        <v>141082</v>
+      </c>
+      <c r="G330" t="n">
+        <v>79723.9375</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2.299322929240147</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>237670174030</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>63071.53846153846</v>
+      </c>
+      <c r="F331" t="n">
+        <v>18478</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-44593.53846153846</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.292968911980291</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>237679111075</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>166666.5333333334</v>
+      </c>
+      <c r="F332" t="n">
+        <v>932302</v>
+      </c>
+      <c r="G332" t="n">
+        <v>765635.4666666667</v>
+      </c>
+      <c r="H332" t="n">
+        <v>5.593816475053179</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>237681611433</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>ANTHONY AMAH IHIMBRU</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>18655</v>
+      </c>
+      <c r="F333" t="n">
+        <v>287534</v>
+      </c>
+      <c r="G333" t="n">
+        <v>268879</v>
+      </c>
+      <c r="H333" t="n">
+        <v>15.41324041811847</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>237652194260</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CRISTELLE DIANE TCHAHANE</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>85074</v>
+      </c>
+      <c r="F334" t="n">
+        <v>661970</v>
+      </c>
+      <c r="G334" t="n">
+        <v>576896</v>
+      </c>
+      <c r="H334" t="n">
+        <v>7.781108211674542</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>237652667691</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>47476.36363636364</v>
+      </c>
+      <c r="F335" t="n">
+        <v>45963</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-1513.36363636364</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.9681238511029411</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>237670473852</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>68020</v>
+      </c>
+      <c r="F336" t="n">
+        <v>147638</v>
+      </c>
+      <c r="G336" t="n">
+        <v>79618</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2.170508673919435</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>237673018936</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>41164</v>
+      </c>
+      <c r="F337" t="n">
+        <v>162936</v>
+      </c>
+      <c r="G337" t="n">
+        <v>121772</v>
+      </c>
+      <c r="H337" t="n">
+        <v>3.958215916820523</v>
+      </c>
+      <c r="I337" t="inlineStr">
         <is>
           <t>Ndogbong</t>
         </is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3588,6 +3588,561 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>157448</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-32337.79999999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8296089591528977</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F87" t="n">
+        <v>65097</v>
+      </c>
+      <c r="G87" t="n">
+        <v>40067</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.600759089093089</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2996</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-23254</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.1141333333333333</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4306</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-177863.7</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.02363730082445105</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>9333</v>
+      </c>
+      <c r="G90" t="n">
+        <v>4333</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.8666</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F91" t="n">
+        <v>30585</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-153577.0370370371</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1660765730661907</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>235659</v>
+      </c>
+      <c r="G92" t="n">
+        <v>174465.6666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.851056759995642</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>510310</v>
+      </c>
+      <c r="G94" t="n">
+        <v>410080.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5.09139996288529</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F95" t="n">
+        <v>137271</v>
+      </c>
+      <c r="G95" t="n">
+        <v>111651.9090909091</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.358152656044853</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F96" t="n">
+        <v>730908</v>
+      </c>
+      <c r="G96" t="n">
+        <v>674688</v>
+      </c>
+      <c r="H96" t="n">
+        <v>13.0008537886873</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GABRIEL MONKAM TCHOUPE</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F97" t="n">
+        <v>365895</v>
+      </c>
+      <c r="G97" t="n">
+        <v>306285</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6.138147961751384</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F98" t="n">
+        <v>245762</v>
+      </c>
+      <c r="G98" t="n">
+        <v>187956.2857142857</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4.251517398181099</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F99" t="n">
+        <v>33916</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-13897.75</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.7093357036417348</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2067</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-5371.090909090909</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2778938877277894</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,13 +651,13 @@
         <v>28141.53846153846</v>
       </c>
       <c r="F6" t="n">
-        <v>24989</v>
+        <v>22375</v>
       </c>
       <c r="G6" t="n">
-        <v>-3152.538461538461</v>
+        <v>-5766.538461538461</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8879756177563962</v>
+        <v>0.7950880166192872</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -4138,6 +4138,2300 @@
         <v>0.2778938877277894</v>
       </c>
       <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10951</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3174.125</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.408149160170377</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237651346686</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>47969.93333333333</v>
+      </c>
+      <c r="F102" t="n">
+        <v>33194</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-14775.93333333333</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.6919751121883292</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237654508603</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>107070</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1037853</v>
+      </c>
+      <c r="G103" t="n">
+        <v>930783</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9.693219389184646</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237672731004</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>N A NTOHMBU NKWIAMBOH FOUGUMA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2997</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-2003</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5994</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237674884831</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>VOUMO MESSALEMO ESTHER TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1177119</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1136459</v>
+      </c>
+      <c r="H105" t="n">
+        <v>28.95029513034924</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237675986754</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9512</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-17441.63636363636</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3529022901278289</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237678384388</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SONIA STEVE TCHOKOTE MBOUBDA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>45439.84</v>
+      </c>
+      <c r="F107" t="n">
+        <v>39726</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-5713.839999999997</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.8742548389254893</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237678559161</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F108" t="n">
+        <v>443</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-54324.77777777778</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.008088697733866222</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237678872943</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>STELLA YVIE DLEUDJEU KWEMO</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F109" t="n">
+        <v>99183</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18264.06999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.225708248984508</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237679244994</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5086883</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4586883</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10.173766</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237679508295</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>60430</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25360</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-35070</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.4196591097137183</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237679808809</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F112" t="n">
+        <v>204561</v>
+      </c>
+      <c r="G112" t="n">
+        <v>177541</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7.570725388601036</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11493</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6493</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.2986</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F114" t="n">
+        <v>359</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-16339.33333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.02149915161193732</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F115" t="n">
+        <v>124</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-25792.63076923077</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.004784572543558309</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F116" t="n">
+        <v>44713</v>
+      </c>
+      <c r="G116" t="n">
+        <v>35913</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.081022727272727</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F117" t="n">
+        <v>56099</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-6501.709090909098</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.8961400088700707</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F118" t="n">
+        <v>54115</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3955</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9318925434820045</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TIENTCHEU ROSINE CHRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>44867</v>
+      </c>
+      <c r="G119" t="n">
+        <v>39867</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8.9734</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237651927707</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>LEONARD TATSINKOU DZONDA</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F120" t="n">
+        <v>169725</v>
+      </c>
+      <c r="G120" t="n">
+        <v>147625</v>
+      </c>
+      <c r="H120" t="n">
+        <v>7.679864253393665</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F121" t="n">
+        <v>680899</v>
+      </c>
+      <c r="G121" t="n">
+        <v>607069</v>
+      </c>
+      <c r="H121" t="n">
+        <v>9.222524718948936</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F122" t="n">
+        <v>212893</v>
+      </c>
+      <c r="G122" t="n">
+        <v>138963</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2.879656431759773</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F123" t="n">
+        <v>13947</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-91073</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.1328032755665587</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F124" t="n">
+        <v>464939</v>
+      </c>
+      <c r="G124" t="n">
+        <v>367119</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4.753005520343488</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>N A OKAYAH HANNAH BOWEH</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F125" t="n">
+        <v>189878</v>
+      </c>
+      <c r="G125" t="n">
+        <v>149113</v>
+      </c>
+      <c r="H125" t="n">
+        <v>4.657868269348706</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>NGOUNOU EPSE KEMAYOU VIRGINIE FLORE _PAN-AFRICAN SAVINGS AND LOANS SA</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F126" t="n">
+        <v>199900</v>
+      </c>
+      <c r="G126" t="n">
+        <v>156030</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4.556644631866879</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>HERMAN EWUNGWA AJANG</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>79527</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-153577.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.3411644386254067</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>438746</v>
+      </c>
+      <c r="G128" t="n">
+        <v>289099.3333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2.931879538468392</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1937809</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1437809</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3.875618</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10107</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2253.933333333336</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.8176567033773068</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F131" t="n">
+        <v>311824</v>
+      </c>
+      <c r="G131" t="n">
+        <v>217724</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3.31375132837407</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237678637179</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ODILE FONING PATRICIA DONO</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>169880</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1194581</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1024701</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7.031910760536849</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237679567513</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PASCALINE DJUIGNI KUE</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3432</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-4268</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.4457142857142857</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237680119435</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Beni Donnatien Mpeck</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>88440</v>
+      </c>
+      <c r="F134" t="n">
+        <v>626205</v>
+      </c>
+      <c r="G134" t="n">
+        <v>537765</v>
+      </c>
+      <c r="H134" t="n">
+        <v>7.080563093622795</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237683386020</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>27588.26086956522</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6643</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-20945.26086956522</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.2407908215529605</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237683408221</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>104380</v>
+      </c>
+      <c r="F136" t="n">
+        <v>36132</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-68248</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.3461582678674076</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237650651854</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>173354.6</v>
+      </c>
+      <c r="F137" t="n">
+        <v>125863</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-47491.60000000001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.7260436123414089</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237650988697</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>N A NDAPE SAKANG</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>112810</v>
+      </c>
+      <c r="F138" t="n">
+        <v>254496</v>
+      </c>
+      <c r="G138" t="n">
+        <v>141686</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2.255970215406435</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237651809692</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>140210</v>
+      </c>
+      <c r="F139" t="n">
+        <v>743</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-139467</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.005299194066043791</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237652579681</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ROMUALD GHISLAIN CHEUDJOU TCHOUPE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>55020</v>
+      </c>
+      <c r="F140" t="n">
+        <v>392089</v>
+      </c>
+      <c r="G140" t="n">
+        <v>337069</v>
+      </c>
+      <c r="H140" t="n">
+        <v>7.126299527444566</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237652724076</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>22670</v>
+      </c>
+      <c r="F141" t="n">
+        <v>90314</v>
+      </c>
+      <c r="G141" t="n">
+        <v>67644</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3.983855315394795</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237652958984</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>46742.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>324514</v>
+      </c>
+      <c r="G142" t="n">
+        <v>277771.5</v>
+      </c>
+      <c r="H142" t="n">
+        <v>6.94258972027598</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237653239050</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F143" t="n">
+        <v>61087</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-283585.7272727273</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.1772318932320515</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237653472620</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F144" t="n">
+        <v>136684</v>
+      </c>
+      <c r="G144" t="n">
+        <v>75114</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2.219977261653403</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F145" t="n">
+        <v>320846</v>
+      </c>
+      <c r="G145" t="n">
+        <v>266426</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5.895736861447997</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F146" t="n">
+        <v>50996</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-16419</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.7564488615293332</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F147" t="n">
+        <v>44996</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2714.176470588238</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1.064192512148872</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-100666.6666666667</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F149" t="n">
+        <v>170903</v>
+      </c>
+      <c r="G149" t="n">
+        <v>127453</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.933325661680092</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F150" t="n">
+        <v>59853</v>
+      </c>
+      <c r="G150" t="n">
+        <v>24223</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1.679848442323884</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237671364668</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>60745</v>
+      </c>
+      <c r="F151" t="n">
+        <v>91581</v>
+      </c>
+      <c r="G151" t="n">
+        <v>30836</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1.507630257634373</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237671369692</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>27325.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>10645</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-16680.5</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.3895628625276756</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F153" t="n">
+        <v>140626</v>
+      </c>
+      <c r="G153" t="n">
+        <v>95521</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.11774747810664</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F154" t="n">
+        <v>937471</v>
+      </c>
+      <c r="G154" t="n">
+        <v>512991</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2.208516302299284</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CECILE SIAWE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F155" t="n">
+        <v>159695</v>
+      </c>
+      <c r="G155" t="n">
+        <v>144085</v>
+      </c>
+      <c r="H155" t="n">
+        <v>10.23030108904548</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F156" t="n">
+        <v>21158</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2728</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1.148019533369506</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>57584</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9144.19999999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1.188774520126012</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F158" t="n">
+        <v>217590</v>
+      </c>
+      <c r="G158" t="n">
+        <v>130970</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2.512006465019626</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F159" t="n">
+        <v>63070</v>
+      </c>
+      <c r="G159" t="n">
+        <v>26340</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.717124965967874</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5666</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-9614</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.3708115183246073</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F161" t="n">
+        <v>62000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1140</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9819448843839088</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>78330</v>
+      </c>
+      <c r="G162" t="n">
+        <v>24623.33333333334</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.458478152929494</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>Cite Sic</t>
         </is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6437,6 +6437,894 @@
         </is>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>397988</v>
+      </c>
+      <c r="G163" t="n">
+        <v>313818.2</v>
+      </c>
+      <c r="H163" t="n">
+        <v>4.728394269678673</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F164" t="n">
+        <v>322045</v>
+      </c>
+      <c r="G164" t="n">
+        <v>102665.9636363637</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.467984386011194</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>574</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-4426</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.1148</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237652899422</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F166" t="n">
+        <v>155671</v>
+      </c>
+      <c r="G166" t="n">
+        <v>86789.63636363637</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2.259987198015033</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-352072.5</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-112570.4615384615</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.0001598742868855259</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F169" t="n">
+        <v>68564</v>
+      </c>
+      <c r="G169" t="n">
+        <v>43737.84615384616</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.761764888145256</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6730</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-107010</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.05917003692632319</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>FRED JUNIOR ZOK EDOU</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F171" t="n">
+        <v>138362</v>
+      </c>
+      <c r="G171" t="n">
+        <v>81817</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2.446936068617915</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>192473</v>
+      </c>
+      <c r="G172" t="n">
+        <v>42093.39999999999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1.279914296886014</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F173" t="n">
+        <v>82338</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-76697.17499999999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.517734520051932</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>229</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-87148.35000000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.002620816493061417</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SIMON PIERRE AKOA</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F175" t="n">
+        <v>132533</v>
+      </c>
+      <c r="G175" t="n">
+        <v>44088</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.498479280909039</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>FRANKLIN MUA ZUO</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F176" t="n">
+        <v>228443</v>
+      </c>
+      <c r="G176" t="n">
+        <v>205003.4</v>
+      </c>
+      <c r="H176" t="n">
+        <v>9.746028089216541</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237679127464</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>16950</v>
+      </c>
+      <c r="F177" t="n">
+        <v>33636</v>
+      </c>
+      <c r="G177" t="n">
+        <v>16686</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.984424778761062</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237679422291</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F178" t="n">
+        <v>100022</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1575.142857142855</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.9844961894316488</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237651433330</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>59904.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>83422</v>
+      </c>
+      <c r="G179" t="n">
+        <v>23517.41666666666</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.392581257694528</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237654168696</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1893</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-5904.028571428572</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.2427847971388367</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237670799877</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>23610</v>
+      </c>
+      <c r="F181" t="n">
+        <v>642657</v>
+      </c>
+      <c r="G181" t="n">
+        <v>619047</v>
+      </c>
+      <c r="H181" t="n">
+        <v>27.21969504447268</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237671351291</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F182" t="n">
+        <v>324495</v>
+      </c>
+      <c r="G182" t="n">
+        <v>228625.14</v>
+      </c>
+      <c r="H182" t="n">
+        <v>3.384744694526517</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237671378136</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>54416.5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4426</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-49990.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.08133562430512804</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237671605749</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>107695</v>
+      </c>
+      <c r="F184" t="n">
+        <v>436933</v>
+      </c>
+      <c r="G184" t="n">
+        <v>329238</v>
+      </c>
+      <c r="H184" t="n">
+        <v>4.057133571660708</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237671615641</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21212</v>
+      </c>
+      <c r="G185" t="n">
+        <v>12510.33333333333</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2.437693928366214</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237673739931</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>21375</v>
+      </c>
+      <c r="F186" t="n">
+        <v>45501</v>
+      </c>
+      <c r="G186" t="n">
+        <v>24126</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2.128701754385965</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,13 +503,13 @@
         <v>19150</v>
       </c>
       <c r="F2" t="n">
-        <v>67954</v>
+        <v>64008</v>
       </c>
       <c r="G2" t="n">
-        <v>48804</v>
+        <v>44858</v>
       </c>
       <c r="H2" t="n">
-        <v>3.548511749347258</v>
+        <v>3.342454308093995</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -836,13 +836,13 @@
         <v>8935.719999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>10816</v>
+        <v>9870</v>
       </c>
       <c r="G11" t="n">
-        <v>1880.280000000001</v>
+        <v>934.2800000000007</v>
       </c>
       <c r="H11" t="n">
-        <v>1.210422887019737</v>
+        <v>1.104555648565533</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         <v>7220</v>
       </c>
       <c r="F15" t="n">
-        <v>19460</v>
+        <v>39498</v>
       </c>
       <c r="G15" t="n">
-        <v>12240</v>
+        <v>32278</v>
       </c>
       <c r="H15" t="n">
-        <v>2.695290858725762</v>
+        <v>5.470637119113573</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLARISSE MAKOLO</t>
+          <t>BIENVENU NGUIMBOM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,13 +1095,13 @@
         <v>26419.66666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>30758</v>
+        <v>32758</v>
       </c>
       <c r="G18" t="n">
-        <v>4338.333333333343</v>
+        <v>6338.333333333343</v>
       </c>
       <c r="H18" t="n">
-        <v>1.16420848105578</v>
+        <v>1.239909663255908</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MARIE LAREINE KENGNE MANGOH</t>
+          <t>TEWA TCHIFFO LANDRY MERVEIL ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1169,13 +1169,13 @@
         <v>333240</v>
       </c>
       <c r="F20" t="n">
-        <v>614779</v>
+        <v>613833</v>
       </c>
       <c r="G20" t="n">
-        <v>281539</v>
+        <v>280593</v>
       </c>
       <c r="H20" t="n">
-        <v>1.844853558996519</v>
+        <v>1.842014764133957</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MOUSTAFA DJIKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+          <t>PRISCILLE CLAUDE EDIMO SAPPI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1724,13 +1724,13 @@
         <v>39758.21666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>7178</v>
+        <v>12178</v>
       </c>
       <c r="G35" t="n">
-        <v>-32580.21666666667</v>
+        <v>-27580.21666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1805412969143066</v>
+        <v>0.3063014647286745</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
@@ -1872,13 +1872,13 @@
         <v>90695</v>
       </c>
       <c r="F39" t="n">
-        <v>177247</v>
+        <v>176783</v>
       </c>
       <c r="G39" t="n">
-        <v>86552</v>
+        <v>86088</v>
       </c>
       <c r="H39" t="n">
-        <v>1.954319422239374</v>
+        <v>1.949203373945642</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2020,13 +2020,13 @@
         <v>34912.72727272727</v>
       </c>
       <c r="F43" t="n">
-        <v>139391</v>
+        <v>138927</v>
       </c>
       <c r="G43" t="n">
-        <v>104478.2727272727</v>
+        <v>104014.2727272727</v>
       </c>
       <c r="H43" t="n">
-        <v>3.992555462972607</v>
+        <v>3.979265180710343</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2205,13 +2205,13 @@
         <v>54855.31111111111</v>
       </c>
       <c r="F48" t="n">
-        <v>248110</v>
+        <v>247910</v>
       </c>
       <c r="G48" t="n">
-        <v>193254.6888888889</v>
+        <v>193054.6888888889</v>
       </c>
       <c r="H48" t="n">
-        <v>4.52298956973274</v>
+        <v>4.519343614656577</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -7322,6 +7322,43 @@
       <c r="I186" t="inlineStr">
         <is>
           <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237652807179</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>YOGOUE TOUGOUE TATIANE_POS_652807179 ETS TCHATCHOUANG PAUL</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Agape Ocm</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>46255</v>
+      </c>
+      <c r="F187" t="n">
+        <v>78010</v>
+      </c>
+      <c r="G187" t="n">
+        <v>31755</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.686520376175549</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VICKY MILENA VALORA FOTSO PIEKAM</t>
+          <t>JULIETTE SOB KEMDJOU</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1058,13 +1058,13 @@
         <v>7380.523076923077</v>
       </c>
       <c r="F17" t="n">
-        <v>3951</v>
+        <v>4595</v>
       </c>
       <c r="G17" t="n">
-        <v>-3429.523076923077</v>
+        <v>-2785.523076923077</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5353279108839482</v>
+        <v>0.6225845989652599</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2760,13 +2760,13 @@
         <v>145105</v>
       </c>
       <c r="F63" t="n">
-        <v>446341</v>
+        <v>425877</v>
       </c>
       <c r="G63" t="n">
-        <v>301236</v>
+        <v>280772</v>
       </c>
       <c r="H63" t="n">
-        <v>3.075986354708659</v>
+        <v>2.934957444609076</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3093,13 +3093,13 @@
         <v>118868</v>
       </c>
       <c r="F72" t="n">
-        <v>243436</v>
+        <v>223436</v>
       </c>
       <c r="G72" t="n">
-        <v>124568</v>
+        <v>104568</v>
       </c>
       <c r="H72" t="n">
-        <v>2.047952350506444</v>
+        <v>1.879698489080324</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SAMUEL ERIC IBOBA</t>
+          <t>BLANDINE PEYEMBOUO</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3130,13 +3130,13 @@
         <v>137844.9629629629</v>
       </c>
       <c r="F73" t="n">
-        <v>51750</v>
+        <v>50822</v>
       </c>
       <c r="G73" t="n">
-        <v>-86094.96296296295</v>
+        <v>-87022.96296296295</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3754217701368204</v>
+        <v>0.3686895691187148</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GILBERING BRUNO NGUAMENE</t>
+          <t>ETS CAMPUS III ETS MOBILE FINANCIAL SERVICES MFS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3167,13 +3167,13 @@
         <v>5000</v>
       </c>
       <c r="F74" t="n">
-        <v>5904</v>
+        <v>104</v>
       </c>
       <c r="G74" t="n">
-        <v>904</v>
+        <v>-4896</v>
       </c>
       <c r="H74" t="n">
-        <v>1.1808</v>
+        <v>0.0208</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3241,13 +3241,13 @@
         <v>28041.81818181818</v>
       </c>
       <c r="F76" t="n">
-        <v>2026</v>
+        <v>1098</v>
       </c>
       <c r="G76" t="n">
-        <v>-26015.81818181818</v>
+        <v>-26943.81818181818</v>
       </c>
       <c r="H76" t="n">
-        <v>0.07224923815081373</v>
+        <v>0.03915580626337289</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DJENE ETONGUE GERMAINE ROYAL LOGISTICS</t>
+          <t>LAZARRE BIKEK</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3315,13 +3315,13 @@
         <v>12800</v>
       </c>
       <c r="F78" t="n">
-        <v>24496</v>
+        <v>104496</v>
       </c>
       <c r="G78" t="n">
-        <v>11696</v>
+        <v>91696</v>
       </c>
       <c r="H78" t="n">
-        <v>1.91375</v>
+        <v>8.16375</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3574,13 +3574,13 @@
         <v>34610</v>
       </c>
       <c r="F85" t="n">
-        <v>393115</v>
+        <v>391865</v>
       </c>
       <c r="G85" t="n">
-        <v>358505</v>
+        <v>357255</v>
       </c>
       <c r="H85" t="n">
-        <v>11.35842242126553</v>
+        <v>11.32230569199653</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3648,13 +3648,13 @@
         <v>25030</v>
       </c>
       <c r="F87" t="n">
-        <v>65097</v>
+        <v>64097</v>
       </c>
       <c r="G87" t="n">
-        <v>40067</v>
+        <v>39067</v>
       </c>
       <c r="H87" t="n">
-        <v>2.600759089093089</v>
+        <v>2.560807031562125</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3722,13 +3722,13 @@
         <v>182169.7</v>
       </c>
       <c r="F89" t="n">
-        <v>4306</v>
+        <v>3842</v>
       </c>
       <c r="G89" t="n">
-        <v>-177863.7</v>
+        <v>-178327.7</v>
       </c>
       <c r="H89" t="n">
-        <v>0.02363730082445105</v>
+        <v>0.02109022521308428</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7362,6 +7362,1597 @@
         </is>
       </c>
     </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237674450580</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>137758.1818181818</v>
+      </c>
+      <c r="F188" t="n">
+        <v>106527</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-31231.18181818182</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.7732898227460504</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237674929417</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>12770</v>
+      </c>
+      <c r="F189" t="n">
+        <v>78223</v>
+      </c>
+      <c r="G189" t="n">
+        <v>65453</v>
+      </c>
+      <c r="H189" t="n">
+        <v>6.125528582615505</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237677316351</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>74625</v>
+      </c>
+      <c r="F190" t="n">
+        <v>105456</v>
+      </c>
+      <c r="G190" t="n">
+        <v>30831</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.413145728643216</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237677831340</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>YEPCHE NGANSOP DORINELLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4591</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-409</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.9182</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237678843959</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>5471.111111111111</v>
+      </c>
+      <c r="F192" t="n">
+        <v>126</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-5345.111111111111</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.02303005686433793</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237679068456</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BILY LUCIE DJIOFACK</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>23430</v>
+      </c>
+      <c r="F193" t="n">
+        <v>123655</v>
+      </c>
+      <c r="G193" t="n">
+        <v>100225</v>
+      </c>
+      <c r="H193" t="n">
+        <v>5.277635510029876</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237679793647</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SOCRATES KAMTAN KWINJE</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>198218.4615384615</v>
+      </c>
+      <c r="F194" t="n">
+        <v>183576</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-14642.46153846153</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.9261296782105214</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237682323406</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>81782.5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>38</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-81744.5</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.0004646470821997371</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237682764368</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>23640</v>
+      </c>
+      <c r="F196" t="n">
+        <v>430812</v>
+      </c>
+      <c r="G196" t="n">
+        <v>407172</v>
+      </c>
+      <c r="H196" t="n">
+        <v>18.2238578680203</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237682814055</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F197" t="n">
+        <v>119560</v>
+      </c>
+      <c r="G197" t="n">
+        <v>112130</v>
+      </c>
+      <c r="H197" t="n">
+        <v>16.09152086137281</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237683079541</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>81326.66666666667</v>
+      </c>
+      <c r="F198" t="n">
+        <v>431608</v>
+      </c>
+      <c r="G198" t="n">
+        <v>350281.3333333333</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5.307090745143044</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237683379070</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>400185</v>
+      </c>
+      <c r="F199" t="n">
+        <v>862703</v>
+      </c>
+      <c r="G199" t="n">
+        <v>462518</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.155760460786886</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237683730580</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>41930</v>
+      </c>
+      <c r="F200" t="n">
+        <v>83955</v>
+      </c>
+      <c r="G200" t="n">
+        <v>42025</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2.002265680896733</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237651213730</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>JEAN ROBERT EBEKOMI MBE</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F201" t="n">
+        <v>459442</v>
+      </c>
+      <c r="G201" t="n">
+        <v>442542</v>
+      </c>
+      <c r="H201" t="n">
+        <v>27.18591715976331</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237652071114</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F202" t="n">
+        <v>87211</v>
+      </c>
+      <c r="G202" t="n">
+        <v>5611</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.068762254901961</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237652285489</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>joseline kenne</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>97864.375</v>
+      </c>
+      <c r="F203" t="n">
+        <v>293908</v>
+      </c>
+      <c r="G203" t="n">
+        <v>196043.625</v>
+      </c>
+      <c r="H203" t="n">
+        <v>3.003217462942976</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237652940152</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>30684</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2680</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-28004</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.08734193716594968</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237654137136</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>72100</v>
+      </c>
+      <c r="F205" t="n">
+        <v>208698</v>
+      </c>
+      <c r="G205" t="n">
+        <v>136598</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2.894563106796117</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237671694408</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>singtoing ngriswe</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>48509.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>456926</v>
+      </c>
+      <c r="G206" t="n">
+        <v>408416.2</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9.419251367764863</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237672279571</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>VINCENT DE PAUL ARNOLD ESSAMA NGONO</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>169789.1333333333</v>
+      </c>
+      <c r="F207" t="n">
+        <v>690946</v>
+      </c>
+      <c r="G207" t="n">
+        <v>521156.8666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>4.069435931706662</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237672777139</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>23040</v>
+      </c>
+      <c r="F208" t="n">
+        <v>416522</v>
+      </c>
+      <c r="G208" t="n">
+        <v>393482</v>
+      </c>
+      <c r="H208" t="n">
+        <v>18.07821180555555</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237673220938</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>159090</v>
+      </c>
+      <c r="F209" t="n">
+        <v>17327</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-141763</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.1089131937896788</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237674437082</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>42678.57142857143</v>
+      </c>
+      <c r="F210" t="n">
+        <v>59763</v>
+      </c>
+      <c r="G210" t="n">
+        <v>17084.42857142857</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.40030460251046</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237674895877</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>149630</v>
+      </c>
+      <c r="F211" t="n">
+        <v>661161</v>
+      </c>
+      <c r="G211" t="n">
+        <v>511531</v>
+      </c>
+      <c r="H211" t="n">
+        <v>4.418639310298737</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237674956331</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>MARCELINE YEPTIEU</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>209204</v>
+      </c>
+      <c r="F212" t="n">
+        <v>990125</v>
+      </c>
+      <c r="G212" t="n">
+        <v>780921</v>
+      </c>
+      <c r="H212" t="n">
+        <v>4.732820596164509</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237674979451</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>99222</v>
+      </c>
+      <c r="F213" t="n">
+        <v>586167</v>
+      </c>
+      <c r="G213" t="n">
+        <v>486945</v>
+      </c>
+      <c r="H213" t="n">
+        <v>5.907631372074741</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237675329176</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>CYNTHIA AKWA TIBUH</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>37210</v>
+      </c>
+      <c r="F214" t="n">
+        <v>281201</v>
+      </c>
+      <c r="G214" t="n">
+        <v>243991</v>
+      </c>
+      <c r="H214" t="n">
+        <v>7.5571351787154</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237675889982</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>LAIC YDRAN LIEDJI DAYA</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>25530.58181818182</v>
+      </c>
+      <c r="F215" t="n">
+        <v>182245</v>
+      </c>
+      <c r="G215" t="n">
+        <v>156714.4181818182</v>
+      </c>
+      <c r="H215" t="n">
+        <v>7.138301872549283</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237676076193</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>78364.4181818182</v>
+      </c>
+      <c r="F216" t="n">
+        <v>613510</v>
+      </c>
+      <c r="G216" t="n">
+        <v>535145.5818181818</v>
+      </c>
+      <c r="H216" t="n">
+        <v>7.828935813401396</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237677567788</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>CARINE DEVILLIERS ESSOH</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>135148.75</v>
+      </c>
+      <c r="F217" t="n">
+        <v>448951</v>
+      </c>
+      <c r="G217" t="n">
+        <v>313802.25</v>
+      </c>
+      <c r="H217" t="n">
+        <v>3.321902718301131</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237678722616</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>53283.10769230768</v>
+      </c>
+      <c r="F218" t="n">
+        <v>6039</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-47244.10769230768</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.1133379838667299</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237679580678</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>12426.66666666667</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2754</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-9672.666666666666</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.2216201716738198</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237680116452</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MOUSTAPHA TAHEROU</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>80862.5</v>
+      </c>
+      <c r="F220" t="n">
+        <v>92197</v>
+      </c>
+      <c r="G220" t="n">
+        <v>11334.5</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1.140170041737517</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237680415220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>RICHARD FRANCK ELGARD ESSONO</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>9787.859999999995</v>
+      </c>
+      <c r="F221" t="n">
+        <v>9662</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-125.8599999999951</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.9871412137075933</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237681603496</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>57131.66666666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>130572</v>
+      </c>
+      <c r="G222" t="n">
+        <v>73440.33333333334</v>
+      </c>
+      <c r="H222" t="n">
+        <v>2.285457568773885</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237681657461</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>86929.8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>70835</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-16094.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.8148529042974906</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237681662596</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BRODIANE RAISSA TCHUEMSSEU KOM</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>110397.5</v>
+      </c>
+      <c r="F224" t="n">
+        <v>201266</v>
+      </c>
+      <c r="G224" t="n">
+        <v>90868.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.823102878235467</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237681677617</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>17929.8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>18136</v>
+      </c>
+      <c r="G225" t="n">
+        <v>206.2000000000007</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.011500407143415</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237681679096</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>30203</v>
+      </c>
+      <c r="F226" t="n">
+        <v>347384</v>
+      </c>
+      <c r="G226" t="n">
+        <v>317181</v>
+      </c>
+      <c r="H226" t="n">
+        <v>11.50163891004205</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237683279255</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>39160</v>
+      </c>
+      <c r="F227" t="n">
+        <v>6769</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-32391</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.1728549540347293</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237683353137</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>34730</v>
+      </c>
+      <c r="F228" t="n">
+        <v>318</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-34412</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.009156348977828967</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237683396173</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>46180</v>
+      </c>
+      <c r="F229" t="n">
+        <v>221967</v>
+      </c>
+      <c r="G229" t="n">
+        <v>175787</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.806561281940234</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237683557193</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>CORINE MIMBANDE ABANDA</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F230" t="n">
+        <v>11446</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1666</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1.170347648261759</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+          <t>N A DAMA ADAMA</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7163,13 +7163,13 @@
         <v>95869.86000000002</v>
       </c>
       <c r="F182" t="n">
-        <v>324495</v>
+        <v>354745</v>
       </c>
       <c r="G182" t="n">
-        <v>228625.14</v>
+        <v>258875.14</v>
       </c>
       <c r="H182" t="n">
-        <v>3.384744694526517</v>
+        <v>3.700276604138151</v>
       </c>
       <c r="I182" t="inlineStr">
         <is>
@@ -8948,6 +8948,1301 @@
         <v>1.170347648261759</v>
       </c>
       <c r="I230" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237671646117</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>51881.075</v>
+      </c>
+      <c r="F231" t="n">
+        <v>623824</v>
+      </c>
+      <c r="G231" t="n">
+        <v>571942.925</v>
+      </c>
+      <c r="H231" t="n">
+        <v>12.02411476631893</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237674440808</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F232" t="n">
+        <v>6322</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1322</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1.2644</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237675788721</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>145306.5</v>
+      </c>
+      <c r="F233" t="n">
+        <v>569488</v>
+      </c>
+      <c r="G233" t="n">
+        <v>424181.5</v>
+      </c>
+      <c r="H233" t="n">
+        <v>3.919219030119093</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237676036914</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>29860</v>
+      </c>
+      <c r="F234" t="n">
+        <v>92721</v>
+      </c>
+      <c r="G234" t="n">
+        <v>62861</v>
+      </c>
+      <c r="H234" t="n">
+        <v>3.105190890823845</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237679550294</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>N A FONATIA</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>14649.6</v>
+      </c>
+      <c r="F235" t="n">
+        <v>35722</v>
+      </c>
+      <c r="G235" t="n">
+        <v>21072.4</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2.438428352992573</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237679604574</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>10309.09090909091</v>
+      </c>
+      <c r="F236" t="n">
+        <v>25643</v>
+      </c>
+      <c r="G236" t="n">
+        <v>15333.90909090909</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2.487416225749559</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237682370358</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>JEANNE PRISCA NGO DJON EPSE EBANA ZOE</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>24760</v>
+      </c>
+      <c r="F237" t="n">
+        <v>328505</v>
+      </c>
+      <c r="G237" t="n">
+        <v>303745</v>
+      </c>
+      <c r="H237" t="n">
+        <v>13.26756865912763</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237682639044</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>JOSEPH KAMGA</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>223294</v>
+      </c>
+      <c r="F238" t="n">
+        <v>46373</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-176921</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.2076768744346019</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237683023087</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>119280</v>
+      </c>
+      <c r="F239" t="n">
+        <v>373215</v>
+      </c>
+      <c r="G239" t="n">
+        <v>253935</v>
+      </c>
+      <c r="H239" t="n">
+        <v>3.128898390342052</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237650874464</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>ASSONFACK VANESSA ATB POINT COM</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>189390.9090909091</v>
+      </c>
+      <c r="F240" t="n">
+        <v>536391</v>
+      </c>
+      <c r="G240" t="n">
+        <v>347000.0909090909</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2.832189795036721</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237653854849</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>TITTI GASTON CLEMENT TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>18363.75</v>
+      </c>
+      <c r="F241" t="n">
+        <v>98719</v>
+      </c>
+      <c r="G241" t="n">
+        <v>80355.25</v>
+      </c>
+      <c r="H241" t="n">
+        <v>5.375753862909264</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237654164073</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>30457.27272727273</v>
+      </c>
+      <c r="F242" t="n">
+        <v>54178</v>
+      </c>
+      <c r="G242" t="n">
+        <v>23720.72727272727</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.778819807181446</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237671357520</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>16806.66666666667</v>
+      </c>
+      <c r="F243" t="n">
+        <v>15906</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-900.6666666666679</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.9464101547005156</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237672587687</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>43904.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>247714</v>
+      </c>
+      <c r="G244" t="n">
+        <v>203809.1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>5.642058175738926</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237674240552</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>AUGUSTINE NGO BAYOI</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>20270</v>
+      </c>
+      <c r="F245" t="n">
+        <v>56178</v>
+      </c>
+      <c r="G245" t="n">
+        <v>35908</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2.771484953132708</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237675239360</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>ERIC MBAH AKEN</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>34469.9</v>
+      </c>
+      <c r="F246" t="n">
+        <v>107033</v>
+      </c>
+      <c r="G246" t="n">
+        <v>72563.10000000001</v>
+      </c>
+      <c r="H246" t="n">
+        <v>3.10511489734522</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237675396752</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>34635</v>
+      </c>
+      <c r="F247" t="n">
+        <v>121999</v>
+      </c>
+      <c r="G247" t="n">
+        <v>87364</v>
+      </c>
+      <c r="H247" t="n">
+        <v>3.522419517828786</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237675626141</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FLORENCE NGUEFACK</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>24500</v>
+      </c>
+      <c r="F248" t="n">
+        <v>148545</v>
+      </c>
+      <c r="G248" t="n">
+        <v>124045</v>
+      </c>
+      <c r="H248" t="n">
+        <v>6.063061224489796</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237676840777</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>471586.4666666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-471586.4666666666</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237677833877</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ISSA ISSYAKOU</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>38396.7</v>
+      </c>
+      <c r="F250" t="n">
+        <v>561227</v>
+      </c>
+      <c r="G250" t="n">
+        <v>522830.3</v>
+      </c>
+      <c r="H250" t="n">
+        <v>14.61654256746023</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237678854978</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>NSAMO NDJOUOHOU MICRANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>40520</v>
+      </c>
+      <c r="F251" t="n">
+        <v>258563</v>
+      </c>
+      <c r="G251" t="n">
+        <v>218043</v>
+      </c>
+      <c r="H251" t="n">
+        <v>6.381120434353406</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237679422591</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>141149.8</v>
+      </c>
+      <c r="F252" t="n">
+        <v>401400</v>
+      </c>
+      <c r="G252" t="n">
+        <v>260250.2</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2.843787238805865</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237650353920</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>218865</v>
+      </c>
+      <c r="F253" t="n">
+        <v>980204</v>
+      </c>
+      <c r="G253" t="n">
+        <v>761339</v>
+      </c>
+      <c r="H253" t="n">
+        <v>4.478578118931762</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237651927448</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>charity aben awalah</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>128653.3333333333</v>
+      </c>
+      <c r="F254" t="n">
+        <v>71305</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-57348.33333333331</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.5542413721629185</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237653294562</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>126220</v>
+      </c>
+      <c r="F255" t="n">
+        <v>271672</v>
+      </c>
+      <c r="G255" t="n">
+        <v>145452</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2.152368879733798</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237678046498</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>41943.17</v>
+      </c>
+      <c r="F256" t="n">
+        <v>303</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-41640.17</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.007224060556224053</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237679428698</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>161427.5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>7</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-161420.5</v>
+      </c>
+      <c r="H257" t="n">
+        <v>4.336311966672345e-05</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237679551262</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>65595</v>
+      </c>
+      <c r="F258" t="n">
+        <v>17349</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-48246</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.2644866224559799</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237680574202</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>TOUMEWO SAMUEL</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F259" t="n">
+        <v>297874</v>
+      </c>
+      <c r="G259" t="n">
+        <v>211254</v>
+      </c>
+      <c r="H259" t="n">
+        <v>3.438859385823136</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237681118330</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>152199.5714285714</v>
+      </c>
+      <c r="F260" t="n">
+        <v>303554</v>
+      </c>
+      <c r="G260" t="n">
+        <v>151354.4285714286</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1.994447140361762</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237674446293</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SYDONIE MAFOMA MESSINE</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>5994.285714285715</v>
+      </c>
+      <c r="F261" t="n">
+        <v>10536</v>
+      </c>
+      <c r="G261" t="n">
+        <v>4541.714285714285</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1.75767397521449</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237679085953</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>MADELEINE NKOUADJIO</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>8950</v>
+      </c>
+      <c r="F262" t="n">
+        <v>24018</v>
+      </c>
+      <c r="G262" t="n">
+        <v>15068</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2.683575418994413</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237681662761</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>EMMANUEL EKOLLE ELUMBA</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>29783.82</v>
+      </c>
+      <c r="F263" t="n">
+        <v>32326</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2542.180000000004</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1.085354397118973</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237682975726</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SYLVIE-ISABELLE DGANHOU EPSE KOUAHOU</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>29809.16666666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>76155</v>
+      </c>
+      <c r="G264" t="n">
+        <v>46345.83333333334</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2.554751055324145</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237683075075</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>ESSOM YOUASSI FRANCK LIONEL STYLE. COM</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Total Ndokotti</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>173418.2</v>
+      </c>
+      <c r="F265" t="n">
+        <v>4943</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-168475.2</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.02850335201264919</v>
+      </c>
+      <c r="I265" t="inlineStr">
         <is>
           <t>Ndogbong</t>
         </is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -782,7 +782,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOP MOBILE LTDLA CBOX R2 NGO DIBE HERMINE</t>
+          <t>LOUISE DAJEU</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -799,13 +799,13 @@
         <v>13250</v>
       </c>
       <c r="F10" t="n">
-        <v>6018</v>
+        <v>7518</v>
       </c>
       <c r="G10" t="n">
-        <v>-7232</v>
+        <v>-5732</v>
       </c>
       <c r="H10" t="n">
-        <v>0.454188679245283</v>
+        <v>0.5673962264150944</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MFS KOAGNE STALINE BRUNELLE</t>
+          <t>ROSE DEUMENI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -836,13 +836,13 @@
         <v>8935.719999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>9870</v>
+        <v>14870</v>
       </c>
       <c r="G11" t="n">
-        <v>934.2800000000007</v>
+        <v>5934.280000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1.104555648565533</v>
+        <v>1.664107648852023</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LA NEGRESSE LTDLA CBOX R2 ALPHA OUMAR</t>
+          <t>Clarisse Ngenue Wankah</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>5493.333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>3144</v>
+        <v>12048</v>
       </c>
       <c r="G13" t="n">
-        <v>-2349.333333333333</v>
+        <v>6554.666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5723300970873787</v>
+        <v>2.193203883495146</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -984,13 +984,13 @@
         <v>7220</v>
       </c>
       <c r="F15" t="n">
-        <v>39498</v>
+        <v>35306</v>
       </c>
       <c r="G15" t="n">
-        <v>32278</v>
+        <v>28086</v>
       </c>
       <c r="H15" t="n">
-        <v>5.470637119113573</v>
+        <v>4.890027700831025</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JULIETTE SOB KEMDJOU</t>
+          <t>ETIENNE JUSTIN JIOFACK</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1058,13 +1058,13 @@
         <v>7380.523076923077</v>
       </c>
       <c r="F17" t="n">
-        <v>4595</v>
+        <v>2717</v>
       </c>
       <c r="G17" t="n">
-        <v>-2785.523076923077</v>
+        <v>-4663.523076923077</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6225845989652599</v>
+        <v>0.3681310893119937</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIENVENU NGUIMBOM</t>
+          <t>CLARISSE MAKOLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1095,13 +1095,13 @@
         <v>26419.66666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>32758</v>
+        <v>7758</v>
       </c>
       <c r="G18" t="n">
-        <v>6338.333333333343</v>
+        <v>-18661.66666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1.239909663255908</v>
+        <v>0.2936448857542993</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>YVES LIMBENI SEMETE</t>
+          <t>LANDRY MANFOUO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1132,13 +1132,13 @@
         <v>39192.5</v>
       </c>
       <c r="F19" t="n">
-        <v>214883</v>
+        <v>3855</v>
       </c>
       <c r="G19" t="n">
-        <v>175690.5</v>
+        <v>-35337.5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.482758180774383</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3588,6 +3588,2004 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>237671823369</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MFS ENTREE COLLEGE MALANGUE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>189785.8</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7448</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-182337.8</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0392442427199506</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>237672128028</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CAROLINE WAKO DJAMNOU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>25030</v>
+      </c>
+      <c r="F87" t="n">
+        <v>34383</v>
+      </c>
+      <c r="G87" t="n">
+        <v>9353</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.373671594087095</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>237672277367</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>26250</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28296</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2046</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.077942857142857</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>237674853971</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>182169.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>216629</v>
+      </c>
+      <c r="G89" t="n">
+        <v>34459.29999999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.189160436669764</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>237674884705</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BAH AMADOU MOUNTAGHA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>13867</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8867</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.7734</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>237675779272</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RODES NGWEM KEMAYOU</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19223</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-164939.0370370371</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.1043809044973478</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>237677304210</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CARINE OROCK</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>227157</v>
+      </c>
+      <c r="G92" t="n">
+        <v>165963.6666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.712120056651051</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>237678267353</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>16520</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-16520</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>237678370615</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>100229.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>364192</v>
+      </c>
+      <c r="G94" t="n">
+        <v>263962.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3.633570056011286</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>237678836319</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F95" t="n">
+        <v>139993</v>
+      </c>
+      <c r="G95" t="n">
+        <v>114373.9090909091</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.464401547141692</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>237678922502</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>56220</v>
+      </c>
+      <c r="F96" t="n">
+        <v>803074</v>
+      </c>
+      <c r="G96" t="n">
+        <v>746854</v>
+      </c>
+      <c r="H96" t="n">
+        <v>14.28448950551405</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>237679884264</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MFS CICAM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>59610</v>
+      </c>
+      <c r="F97" t="n">
+        <v>365895</v>
+      </c>
+      <c r="G97" t="n">
+        <v>306285</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6.138147961751384</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>237681019523</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ETS MOULAY RIPERT AND COMPANY</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F98" t="n">
+        <v>401212</v>
+      </c>
+      <c r="G98" t="n">
+        <v>343406.2857142857</v>
+      </c>
+      <c r="H98" t="n">
+        <v>6.940697904310004</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>237681125655</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ANTOINETTE CLAUDE YOMBA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>47813.75</v>
+      </c>
+      <c r="F99" t="n">
+        <v>95888</v>
+      </c>
+      <c r="G99" t="n">
+        <v>48074.25</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.005448223575854</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>237681240793</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2067</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-5371.090909090909</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.2778938877277894</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>237682117915</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>123740</v>
+      </c>
+      <c r="F101" t="n">
+        <v>287967</v>
+      </c>
+      <c r="G101" t="n">
+        <v>164227</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.327194116696299</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>237682154553</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>N A ISUFUH MIEMONA NGESSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>136800</v>
+      </c>
+      <c r="F102" t="n">
+        <v>16500</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-120300</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.1206140350877193</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>237682803277</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>NGUEMASSOM RENE MARTIAL LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>59869.80000000002</v>
+      </c>
+      <c r="F103" t="n">
+        <v>67657</v>
+      </c>
+      <c r="G103" t="n">
+        <v>7787.199999999983</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.130068916214853</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>237683323481</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT TSAZE DONFOUET FLORETTE ROSINE</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>25924</v>
+      </c>
+      <c r="F104" t="n">
+        <v>284338</v>
+      </c>
+      <c r="G104" t="n">
+        <v>258414</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10.96813763308131</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>237683368985</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>RAISSA GOUEMKUM KENGNE</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>51230</v>
+      </c>
+      <c r="F105" t="n">
+        <v>39540</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-11690</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.7718133905914504</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>237683432110</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ERODINE TOUMENI</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>15600</v>
+      </c>
+      <c r="F106" t="n">
+        <v>552165</v>
+      </c>
+      <c r="G106" t="n">
+        <v>536565</v>
+      </c>
+      <c r="H106" t="n">
+        <v>35.39519230769231</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>237683743490</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT NGAH MARIE</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Cite Sic Stade Marion Ocm</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>7776.875</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6753</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-1023.875</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.8683436470304589</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>237651346686</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DOUANLA ARMEL VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>47969.93333333333</v>
+      </c>
+      <c r="F108" t="n">
+        <v>13378</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-34591.93333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.2788830225599647</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>237654508603</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>NINA MORELLE KUEDONG NGUETSA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>107070</v>
+      </c>
+      <c r="F109" t="n">
+        <v>363989</v>
+      </c>
+      <c r="G109" t="n">
+        <v>256919</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.399542355468385</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>237672731004</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1491</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3509</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.2982</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>237674884831</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>THOMAS NANFACK</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>40660</v>
+      </c>
+      <c r="F111" t="n">
+        <v>911655</v>
+      </c>
+      <c r="G111" t="n">
+        <v>870995</v>
+      </c>
+      <c r="H111" t="n">
+        <v>22.42142154451549</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>237675986754</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>VIVIANE MANTO DZOUA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16304</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-10649.63636363636</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.6048905528011063</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>237678384388</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DJOUMESSI KEUMOU FLAUBERT COCADIS SARL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>45439.84</v>
+      </c>
+      <c r="F113" t="n">
+        <v>32976</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-12463.84</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.7257067806576785</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>237678559161</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F114" t="n">
+        <v>52443</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2324.777777777781</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9575520886165831</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>237678872943</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F115" t="n">
+        <v>91313</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10394.06999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.128450413271653</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>237679244994</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3019690</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2519690</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.03938</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>237679508295</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Valentine Kum Kang World T Plus</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>60430</v>
+      </c>
+      <c r="F117" t="n">
+        <v>123036</v>
+      </c>
+      <c r="G117" t="n">
+        <v>62606</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2.036008604997518</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>237679808809</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>27020</v>
+      </c>
+      <c r="F118" t="n">
+        <v>232441</v>
+      </c>
+      <c r="G118" t="n">
+        <v>205421</v>
+      </c>
+      <c r="H118" t="n">
+        <v>8.602553663952628</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>237679909537</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LAURE GISELE TADOUMFO NOUOJI</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14867</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9867</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.9734</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>237681114370</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-16668.33333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.001796586485677213</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>237681490029</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F121" t="n">
+        <v>91696</v>
+      </c>
+      <c r="G121" t="n">
+        <v>65779.36923076923</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.538114225436473</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>237681655237</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>8800</v>
+      </c>
+      <c r="F122" t="n">
+        <v>44713</v>
+      </c>
+      <c r="G122" t="n">
+        <v>35913</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5.081022727272727</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>237681662606</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>GAEL PHALENNE NANA POUASSI</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>62600.7090909091</v>
+      </c>
+      <c r="F123" t="n">
+        <v>108743</v>
+      </c>
+      <c r="G123" t="n">
+        <v>46142.2909090909</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.737088949616894</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>237681662680</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>pascaline djiogo mejioguezem</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>58070</v>
+      </c>
+      <c r="F124" t="n">
+        <v>208573</v>
+      </c>
+      <c r="G124" t="n">
+        <v>150503</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3.591751334596177</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>237681679214</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>N A NTOHMBU NKWIAMBOH FOUGUMA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Douala University</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>99703</v>
+      </c>
+      <c r="G125" t="n">
+        <v>94703</v>
+      </c>
+      <c r="H125" t="n">
+        <v>19.9406</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>237651927707</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>JERRY MAFFO YPOLLI</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>22100</v>
+      </c>
+      <c r="F126" t="n">
+        <v>237591</v>
+      </c>
+      <c r="G126" t="n">
+        <v>215491</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10.75072398190045</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>237654270800</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MBANDA MARTIN BABIAKA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>73830</v>
+      </c>
+      <c r="F127" t="n">
+        <v>630199</v>
+      </c>
+      <c r="G127" t="n">
+        <v>556369</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8.535812000541785</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>237674069453</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DANIELLE SORELLE KENGNE  WENCI</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>73930</v>
+      </c>
+      <c r="F128" t="n">
+        <v>212893</v>
+      </c>
+      <c r="G128" t="n">
+        <v>138963</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2.879656431759773</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>237674895078</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ALLIANCE FLORE NOUMO EPSE TAGNE FOM</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>105020</v>
+      </c>
+      <c r="F129" t="n">
+        <v>50851</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-54169</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.4842030089506761</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>237674895309</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>BORIS LIONEL FOTSING WENCI</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>97820</v>
+      </c>
+      <c r="F130" t="n">
+        <v>464939</v>
+      </c>
+      <c r="G130" t="n">
+        <v>367119</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4.753005520343488</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>237675826419</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Sara Gaetane Njouma epse Ntoma</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>40765</v>
+      </c>
+      <c r="F131" t="n">
+        <v>120628</v>
+      </c>
+      <c r="G131" t="n">
+        <v>79863</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2.959107077149516</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>237676286294</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>NESTEN BOULANDI</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>43870</v>
+      </c>
+      <c r="F132" t="n">
+        <v>237800</v>
+      </c>
+      <c r="G132" t="n">
+        <v>193930</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5.420560747663552</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>237677313421</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>NADEGE OMONINGO EPOUSE NEBA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>233104.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>264809</v>
+      </c>
+      <c r="G133" t="n">
+        <v>31704.39999999997</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1.136009328001249</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>237677880357</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>vanissa sandjouon</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1209722</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1060075.333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8.083855303604045</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>237678201584</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1162981</v>
+      </c>
+      <c r="G135" t="n">
+        <v>662981</v>
+      </c>
+      <c r="H135" t="n">
+        <v>2.325962</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>237678239927</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12423</v>
+      </c>
+      <c r="G136" t="n">
+        <v>62.06666666666388</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.005021195810456</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>237678623874</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>94100</v>
+      </c>
+      <c r="F137" t="n">
+        <v>328324</v>
+      </c>
+      <c r="G137" t="n">
+        <v>234224</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3.489096705632306</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>237678637179</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ALAIN GEORGES MOUDIO</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>169880</v>
+      </c>
+      <c r="F138" t="n">
+        <v>904324</v>
+      </c>
+      <c r="G138" t="n">
+        <v>734444</v>
+      </c>
+      <c r="H138" t="n">
+        <v>5.323310572168589</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>237679567513</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>DJOUTCHOU TCHANA MERVEILLE ESPERANCE</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Esg Building</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>7700</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17932</v>
+      </c>
+      <c r="G139" t="n">
+        <v>10232</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2.328831168831169</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,13 +651,13 @@
         <v>28141.53846153846</v>
       </c>
       <c r="F6" t="n">
-        <v>293</v>
+        <v>829</v>
       </c>
       <c r="G6" t="n">
-        <v>-27848.53846153846</v>
+        <v>-27312.53846153846</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01041165536846709</v>
+        <v>0.02945823310736934</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -5583,6 +5583,931 @@
       <c r="I139" t="inlineStr">
         <is>
           <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>237650988697</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TAPITA DAGUE</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>112810</v>
+      </c>
+      <c r="F140" t="n">
+        <v>627058</v>
+      </c>
+      <c r="G140" t="n">
+        <v>514248</v>
+      </c>
+      <c r="H140" t="n">
+        <v>5.558532045031469</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>237651809692</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>AUREL KAMTA TEUMEN</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>140210</v>
+      </c>
+      <c r="F141" t="n">
+        <v>391229</v>
+      </c>
+      <c r="G141" t="n">
+        <v>251019</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.790307396048784</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>237652579681</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>55020</v>
+      </c>
+      <c r="F142" t="n">
+        <v>222501</v>
+      </c>
+      <c r="G142" t="n">
+        <v>167481</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4.044002181025082</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>237652724076</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>22670</v>
+      </c>
+      <c r="F143" t="n">
+        <v>150414</v>
+      </c>
+      <c r="G143" t="n">
+        <v>127744</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6.634936038817821</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>237652958984</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>46742.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>324514</v>
+      </c>
+      <c r="G144" t="n">
+        <v>277771.5</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6.94258972027598</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>237653239050</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ARMAND KAMTA KUITSA</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F145" t="n">
+        <v>285337</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-59335.72727272729</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.8278490794957007</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>237653472620</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>LANKEU ALAIN JULIOT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F146" t="n">
+        <v>121220</v>
+      </c>
+      <c r="G146" t="n">
+        <v>59650</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1.968815981809323</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>237654117741</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>DONGMEZA TSAGUE STEPHANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>54420</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1775909</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1721489</v>
+      </c>
+      <c r="H147" t="n">
+        <v>32.63338846012496</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>237654134124</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Atangoh Hustencia ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>67415</v>
+      </c>
+      <c r="F148" t="n">
+        <v>224634</v>
+      </c>
+      <c r="G148" t="n">
+        <v>157219</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.332107097826893</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>237670358585</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>EVAGLE EMMANUEL -MFS</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F149" t="n">
+        <v>101332</v>
+      </c>
+      <c r="G149" t="n">
+        <v>59050.17647058824</v>
+      </c>
+      <c r="H149" t="n">
+        <v>2.396585377390646</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>237670806337</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>MFS AM ANGE RAPHAËL</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-100666.6666666667</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>237670809743</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>43450</v>
+      </c>
+      <c r="F151" t="n">
+        <v>170903</v>
+      </c>
+      <c r="G151" t="n">
+        <v>127453</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.933325661680092</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>237670984670</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>LIONELFONE MEDJEUFEUSSI</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>35630</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16847</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-18783</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.4728318832444569</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>237671364668</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ODETTE PELANTITCHOUWE</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>60745</v>
+      </c>
+      <c r="F153" t="n">
+        <v>79831</v>
+      </c>
+      <c r="G153" t="n">
+        <v>19086</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1.314198699481439</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>237671369692</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>EDITH MELI TEMZENETCHOU</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>27325.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7839</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-19486.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.2868748970741615</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>237674272162</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>45105</v>
+      </c>
+      <c r="F155" t="n">
+        <v>140626</v>
+      </c>
+      <c r="G155" t="n">
+        <v>95521</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.11774747810664</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>237674431977</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>424480</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3348151</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2923671</v>
+      </c>
+      <c r="H156" t="n">
+        <v>7.887653128533735</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>237674913584</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>15610</v>
+      </c>
+      <c r="F157" t="n">
+        <v>78693</v>
+      </c>
+      <c r="G157" t="n">
+        <v>63083</v>
+      </c>
+      <c r="H157" t="n">
+        <v>5.041191543882126</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>237675432472</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>JUDITH LAURE LIENOU</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>18430</v>
+      </c>
+      <c r="F158" t="n">
+        <v>24460</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6030</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1.327183939229517</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>237675450046</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>58430</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9990.19999999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.206239497272903</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>237675641522</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LOUISE ODILE DJOUALA</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>86620</v>
+      </c>
+      <c r="F160" t="n">
+        <v>374714</v>
+      </c>
+      <c r="G160" t="n">
+        <v>288094</v>
+      </c>
+      <c r="H160" t="n">
+        <v>4.325952435927038</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>237676270842</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>KAOU POINT SARL SODISERV</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>36730</v>
+      </c>
+      <c r="F161" t="n">
+        <v>33127</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-3603</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9019057990743261</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>237677525770</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>15280</v>
+      </c>
+      <c r="F162" t="n">
+        <v>984</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-14296</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.06439790575916231</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>237679071551</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>63140</v>
+      </c>
+      <c r="F163" t="n">
+        <v>35536</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-27604</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.5628127969591384</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>237680472978</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>NICOLAS BIKECK</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F164" t="n">
+        <v>132664</v>
+      </c>
+      <c r="G164" t="n">
+        <v>78957.33333333334</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2.470158887785502</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
         </is>
       </c>
     </row>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6511,6 +6511,2041 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>237681102046</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FRANCOISE NKENFACK NKENGMO</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>84169.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>397988</v>
+      </c>
+      <c r="G165" t="n">
+        <v>313818.2</v>
+      </c>
+      <c r="H165" t="n">
+        <v>4.728394269678673</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>237682368679</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>MFS SIM AA 2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1493</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-217886.0363636363</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.006805572787389066</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>237683360459</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LUCIE MAJOLIE LELE NKANKEU</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Essec</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-3050</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>237652899422</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F168" t="n">
+        <v>549111</v>
+      </c>
+      <c r="G168" t="n">
+        <v>480229.6363636364</v>
+      </c>
+      <c r="H168" t="n">
+        <v>7.97183695286362</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>237670904526</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>MFS SIM PROVISOIRE 20</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>352072.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-352072.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>237671105116</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F170" t="n">
+        <v>30</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-112558.4615384615</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.0002664571448092099</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>237672916354</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F171" t="n">
+        <v>32250</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7423.846153846152</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1.299033277560885</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>237672920086</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>113740</v>
+      </c>
+      <c r="F172" t="n">
+        <v>11730</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-102010</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.1031299454897134</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>237674000053</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>56545</v>
+      </c>
+      <c r="F173" t="n">
+        <v>237</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-56308</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.004191352020514634</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>237674841555</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>150379.6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>90817</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-59562.60000000001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.6039183506273457</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>237674899678</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>159035.175</v>
+      </c>
+      <c r="F175" t="n">
+        <v>175766</v>
+      </c>
+      <c r="G175" t="n">
+        <v>16730.82500000001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.105202040995019</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>237676439452</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>RONIS BRAVO DONGMO TSAGUE</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F176" t="n">
+        <v>219279</v>
+      </c>
+      <c r="G176" t="n">
+        <v>131901.65</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2.509563405161635</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>237676695935</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Mathieu Djitouo</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>88445</v>
+      </c>
+      <c r="F177" t="n">
+        <v>51303</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-37142</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.5800554016620498</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>237677745809</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>23439.6</v>
+      </c>
+      <c r="F178" t="n">
+        <v>150103</v>
+      </c>
+      <c r="G178" t="n">
+        <v>126663.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>6.403820884315432</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>237679127464</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>16950</v>
+      </c>
+      <c r="F179" t="n">
+        <v>26352</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9402</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.554690265486726</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>237679422291</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 32</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Hopital General Douala</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F180" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1597.142857142855</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.9842796479091088</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>237651433330</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>59904.58333333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>59822</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-82.58333333333576</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.9986214187840384</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>237654168696</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1743</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-6054.028571428572</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.223546699108818</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>237670799877</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>23610</v>
+      </c>
+      <c r="F183" t="n">
+        <v>681193</v>
+      </c>
+      <c r="G183" t="n">
+        <v>657583</v>
+      </c>
+      <c r="H183" t="n">
+        <v>28.85188479457857</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>237671351291</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>MFS LTDLA CBOX R3 MOUTHIEU JOSETTE CHANCELINE</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F184" t="n">
+        <v>126983</v>
+      </c>
+      <c r="G184" t="n">
+        <v>31113.13999999998</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.324535156304599</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>237671378136</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>54416.5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>210112</v>
+      </c>
+      <c r="G185" t="n">
+        <v>155695.5</v>
+      </c>
+      <c r="H185" t="n">
+        <v>3.861181810664045</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>237671605749</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>107695</v>
+      </c>
+      <c r="F186" t="n">
+        <v>542405</v>
+      </c>
+      <c r="G186" t="n">
+        <v>434710</v>
+      </c>
+      <c r="H186" t="n">
+        <v>5.036491944844236</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>237671615641</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F187" t="n">
+        <v>116</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-8585.666666666666</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.01333077954414863</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>237673739931</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>MOFFO GERMAIN SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>21375</v>
+      </c>
+      <c r="F188" t="n">
+        <v>105981</v>
+      </c>
+      <c r="G188" t="n">
+        <v>84606</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4.958175438596491</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>237674466307</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>119626.6666666667</v>
+      </c>
+      <c r="F189" t="n">
+        <v>561158</v>
+      </c>
+      <c r="G189" t="n">
+        <v>441531.3333333333</v>
+      </c>
+      <c r="H189" t="n">
+        <v>4.690910610789121</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>237674959564</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1142</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-3858</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.2284</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>237675208505</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>N A SAIDOU INOUSSA</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>19527.86</v>
+      </c>
+      <c r="F191" t="n">
+        <v>53324</v>
+      </c>
+      <c r="G191" t="n">
+        <v>33796.14</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2.730662755673177</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>237675555508</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F192" t="n">
+        <v>697</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-11625.60909090909</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.05656269665441278</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>237675557616</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LUCIENNE FOTSING TSINGOUM</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>64010</v>
+      </c>
+      <c r="F193" t="n">
+        <v>568707</v>
+      </c>
+      <c r="G193" t="n">
+        <v>504697</v>
+      </c>
+      <c r="H193" t="n">
+        <v>8.884658647086393</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>237676301061</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>67109.59999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>75897</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8787.400000000009</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.130941027811222</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>237677939039</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>11484.78260869565</v>
+      </c>
+      <c r="F195" t="n">
+        <v>442</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-11042.78260869565</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.03848570887753171</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>237678225987</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>37403.93</v>
+      </c>
+      <c r="F196" t="n">
+        <v>19174</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-18229.93</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.5126199305794872</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>237679553674</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DESIRE MAGINZANG MBOUEZKO</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>56618.88</v>
+      </c>
+      <c r="F197" t="n">
+        <v>202671</v>
+      </c>
+      <c r="G197" t="n">
+        <v>146052.12</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.579565685509851</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>237679654555</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PAULINE NGUELEMO</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F198" t="n">
+        <v>11435</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-25193.42105263158</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.3121892691898727</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>237679789713</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 68</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>78170</v>
+      </c>
+      <c r="F199" t="n">
+        <v>48</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-78122</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.0006140463093258283</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>237681589841</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LEINTENG ROSE MARY</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F200" t="n">
+        <v>166469</v>
+      </c>
+      <c r="G200" t="n">
+        <v>140615.6666666667</v>
+      </c>
+      <c r="H200" t="n">
+        <v>6.43897627643115</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>237681676445</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>MELANIE NGAFFO</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>51040</v>
+      </c>
+      <c r="F201" t="n">
+        <v>232346</v>
+      </c>
+      <c r="G201" t="n">
+        <v>181306</v>
+      </c>
+      <c r="H201" t="n">
+        <v>4.552233542319749</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>237681678622</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>26740</v>
+      </c>
+      <c r="F202" t="n">
+        <v>90015</v>
+      </c>
+      <c r="G202" t="n">
+        <v>63275</v>
+      </c>
+      <c r="H202" t="n">
+        <v>3.366305160807779</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>237683815311</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Makepe Conquete</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F203" t="n">
+        <v>32404</v>
+      </c>
+      <c r="G203" t="n">
+        <v>19675.10909090909</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2.545704903233731</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>237651533411</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>CLAUDE LANDRY DJOUMSI NZUSSING</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>56092.85714285714</v>
+      </c>
+      <c r="F204" t="n">
+        <v>35554</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-20538.85714285714</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.6338418438813193</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>237651843112</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>61570</v>
+      </c>
+      <c r="F205" t="n">
+        <v>5571</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-55999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.09048237778138704</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>237652297747</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>24830</v>
+      </c>
+      <c r="F206" t="n">
+        <v>159435</v>
+      </c>
+      <c r="G206" t="n">
+        <v>134605</v>
+      </c>
+      <c r="H206" t="n">
+        <v>6.421063229963753</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>237653316656</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>deschance zambou dontsop</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>39103.33333333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>454540</v>
+      </c>
+      <c r="G207" t="n">
+        <v>415436.6666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>11.62407296905635</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>237671290825</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F208" t="n">
+        <v>83290</v>
+      </c>
+      <c r="G208" t="n">
+        <v>67676.36363636363</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5.334439592430859</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>237672276931</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>MIREILLE MAGOLACK FOMEKONG</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>74960</v>
+      </c>
+      <c r="F209" t="n">
+        <v>14</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-74946</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.0001867662753468516</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>237674580187</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ROSETTE SIGHOM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21475</v>
+      </c>
+      <c r="G210" t="n">
+        <v>10635</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1.981088560885609</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>237674673359</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>88189.5</v>
+      </c>
+      <c r="F211" t="n">
+        <v>857779</v>
+      </c>
+      <c r="G211" t="n">
+        <v>769589.5</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9.726543409362792</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>237674769580</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>VAKSA BELLO</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>21040</v>
+      </c>
+      <c r="F212" t="n">
+        <v>19533</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1507</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.928374524714829</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>237674926472</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>DYLAN LECANAL MOLUH</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>10265.55</v>
+      </c>
+      <c r="F213" t="n">
+        <v>102388</v>
+      </c>
+      <c r="G213" t="n">
+        <v>92122.45</v>
+      </c>
+      <c r="H213" t="n">
+        <v>9.973941970961128</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>237675831509</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F214" t="n">
+        <v>7307</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-136316.8461538462</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.05087595267552528</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>237680857383</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>MOUNIKIEL TECLAIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>46555</v>
+      </c>
+      <c r="F215" t="n">
+        <v>570230</v>
+      </c>
+      <c r="G215" t="n">
+        <v>523675</v>
+      </c>
+      <c r="H215" t="n">
+        <v>12.24852325206745</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>237681180496</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ALEX NGOUO YOUNDA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>7225.555555555556</v>
+      </c>
+      <c r="F216" t="n">
+        <v>4972</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-2253.555555555556</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.6881131785329848</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>237681299829</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>NDEBI MEDARD DESIRE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>56419.76190476191</v>
+      </c>
+      <c r="F217" t="n">
+        <v>28395</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-28024.76190476191</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.5032811029570017</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>237681657939</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 MOHA CHAIBOU</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Makepe Maturite</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>22932.52727272727</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100903</v>
+      </c>
+      <c r="G218" t="n">
+        <v>77970.47272727273</v>
+      </c>
+      <c r="H218" t="n">
+        <v>4.39999476725794</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>237675944533</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>LONGA ELDRINE ELYSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Malangue</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>28080.71428571429</v>
+      </c>
+      <c r="F219" t="n">
+        <v>189399</v>
+      </c>
+      <c r="G219" t="n">
+        <v>161318.2857142857</v>
+      </c>
+      <c r="H219" t="n">
+        <v>6.74480706127744</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8546,6 +8546,968 @@
         </is>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>237671823371</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>MFS MARCHE BEEDI</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Rte_1</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>9370</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-6870</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.2668089647812166</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>237671838460</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DJOMTHE FONGANG EPOUSE DJOMOU SANDRINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1872</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-67628</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.02693525179856115</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>237674248126</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NKWAKETP ANNIE ARISTIDE</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>28740.76923076923</v>
+      </c>
+      <c r="F222" t="n">
+        <v>200693</v>
+      </c>
+      <c r="G222" t="n">
+        <v>171952.2307692308</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.982868078045125</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>237674629681</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>ROSINE SOCBOU KENNE</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>85680</v>
+      </c>
+      <c r="F223" t="n">
+        <v>214454</v>
+      </c>
+      <c r="G223" t="n">
+        <v>128774</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2.50296451914099</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>237674929391</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BILI TATIANE METSADJIO</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>51638.88888888889</v>
+      </c>
+      <c r="F224" t="n">
+        <v>447244</v>
+      </c>
+      <c r="G224" t="n">
+        <v>395605.1111111111</v>
+      </c>
+      <c r="H224" t="n">
+        <v>8.660991931145777</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>237680670799</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>DJOMOU BETCHOWA PRESLEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>52604.73684210526</v>
+      </c>
+      <c r="F225" t="n">
+        <v>70415</v>
+      </c>
+      <c r="G225" t="n">
+        <v>17810.26315789474</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.338567669511451</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>237681679880</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TSAKEM AGNES LAIDY ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F226" t="n">
+        <v>3563</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1437</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.7126</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>237682827350</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>PRISCILLE PRISCA BIEN</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>174107.7777777778</v>
+      </c>
+      <c r="F227" t="n">
+        <v>439290</v>
+      </c>
+      <c r="G227" t="n">
+        <v>265182.2222222222</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.523092337441049</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>237683400719</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>CHANCELINE LAGMAGO</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Missoke-Universite</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>39019.8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>13440</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-25579.8</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.3444405148155552</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>237652356041</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>N A BUA MAXWELL AMIH</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>121240</v>
+      </c>
+      <c r="F229" t="n">
+        <v>770513</v>
+      </c>
+      <c r="G229" t="n">
+        <v>649273</v>
+      </c>
+      <c r="H229" t="n">
+        <v>6.355270537776311</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>237652817931</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SENGUE RUTH NICAISE YOLANDE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>30820</v>
+      </c>
+      <c r="F230" t="n">
+        <v>56599</v>
+      </c>
+      <c r="G230" t="n">
+        <v>25779</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1.836437378325763</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>237653816480</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BERTIN DUVAL GNAKWA FANGWA</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>259886.1111111111</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1715843</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1455956.888888889</v>
+      </c>
+      <c r="H231" t="n">
+        <v>6.602288181789032</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>237654020285</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BRIGITTE ANNISSE YAMBOCK</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>68953.76000000001</v>
+      </c>
+      <c r="F232" t="n">
+        <v>341373</v>
+      </c>
+      <c r="G232" t="n">
+        <v>272419.24</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4.95075250428693</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>237670809154</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>CHARLINE TCHUISSANG BETTOU</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>67386.55</v>
+      </c>
+      <c r="F233" t="n">
+        <v>162155</v>
+      </c>
+      <c r="G233" t="n">
+        <v>94768.45</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2.406340731199327</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>237672695037</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>EVELINE TCHEZE NZEKO</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>95127.82000000002</v>
+      </c>
+      <c r="F234" t="n">
+        <v>293734</v>
+      </c>
+      <c r="G234" t="n">
+        <v>198606.18</v>
+      </c>
+      <c r="H234" t="n">
+        <v>3.087782312261544</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>237674679432</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>JEAN JACQUES KAMGANG</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>18349.8</v>
+      </c>
+      <c r="F235" t="n">
+        <v>637501</v>
+      </c>
+      <c r="G235" t="n">
+        <v>619151.2</v>
+      </c>
+      <c r="H235" t="n">
+        <v>34.74157756487809</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>237674928987</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>MFS TSAFACK KEMENE VIVIEN CEDRIC</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>110902.2222222222</v>
+      </c>
+      <c r="F236" t="n">
+        <v>259830</v>
+      </c>
+      <c r="G236" t="n">
+        <v>148927.7777777778</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2.342874604256001</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>237676664056</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DJAMBOU SIEWE LOUIS MFS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>140200</v>
+      </c>
+      <c r="F237" t="n">
+        <v>239928</v>
+      </c>
+      <c r="G237" t="n">
+        <v>99728</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.71132667617689</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237676974240</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>YAMBA KEMAJOU DANIELLE MERCY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>157580</v>
+      </c>
+      <c r="F238" t="n">
+        <v>429626</v>
+      </c>
+      <c r="G238" t="n">
+        <v>272046</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2.726399289249905</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>237679422176</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 28</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-499998</v>
+      </c>
+      <c r="H239" t="n">
+        <v>4e-06</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>237679607838</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>MARIE CLAIRE MIREILLE EKOUNDA EPSE KWEMO FOZE</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>65518.75</v>
+      </c>
+      <c r="F240" t="n">
+        <v>342686</v>
+      </c>
+      <c r="G240" t="n">
+        <v>277167.25</v>
+      </c>
+      <c r="H240" t="n">
+        <v>5.230350090622913</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>237680887643</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BEUTCHOM VIVIANE MELANIE TOP MOBILE TELECOM</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>84126.25</v>
+      </c>
+      <c r="F241" t="n">
+        <v>46017</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-38109.25</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.5469993016448492</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>237680950910</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>JULIENNE AIMEE NGO MAYI</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Mobil Guiness</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>30157.33333333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>135275</v>
+      </c>
+      <c r="G242" t="n">
+        <v>105117.6666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>4.485641966575294</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>237652194293</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>MABEKOU TALLA MARIELLE SANDRA _MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>126730</v>
+      </c>
+      <c r="F243" t="n">
+        <v>383102</v>
+      </c>
+      <c r="G243" t="n">
+        <v>256372</v>
+      </c>
+      <c r="H243" t="n">
+        <v>3.022977984691865</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>237652386684</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>GERTRUDE ELEONOR NZOGNOU MALE EPOUSE NKOAKAP</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>282184.9</v>
+      </c>
+      <c r="F244" t="n">
+        <v>304169</v>
+      </c>
+      <c r="G244" t="n">
+        <v>21984.09999999998</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.077906720026479</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>237652927180</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>NDUMBE ROLINE JANONG ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>72520.45454545454</v>
+      </c>
+      <c r="F245" t="n">
+        <v>215998</v>
+      </c>
+      <c r="G245" t="n">
+        <v>143477.5454545455</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2.978442445704974</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9508,6 +9508,3040 @@
         </is>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>237653650087</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>TCHOUALA THIERRY LTDLA_POLAS_BTQ_NDOGBONG ECOLE LAIC</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>321083.2625000001</v>
+      </c>
+      <c r="F246" t="n">
+        <v>633613</v>
+      </c>
+      <c r="G246" t="n">
+        <v>312529.7374999999</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1.973360414574708</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>237675396752</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BENEDICTE CHANTAL MANTSANG</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>34635</v>
+      </c>
+      <c r="F247" t="n">
+        <v>364913</v>
+      </c>
+      <c r="G247" t="n">
+        <v>330278</v>
+      </c>
+      <c r="H247" t="n">
+        <v>10.53596073336221</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>237675621967</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>NGO NTAMACK CECILE CECIC</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>21365.77647058823</v>
+      </c>
+      <c r="F248" t="n">
+        <v>108898</v>
+      </c>
+      <c r="G248" t="n">
+        <v>87532.22352941177</v>
+      </c>
+      <c r="H248" t="n">
+        <v>5.096842614164159</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>237679548340</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>APPOLINE CLAUDE ANGOTCHOU</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>400114.9</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1790121</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1390006.1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4.47401733851951</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>237680144977</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>NDZEMBATEH NDZENAPU N ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>37653.33333333334</v>
+      </c>
+      <c r="F250" t="n">
+        <v>59634</v>
+      </c>
+      <c r="G250" t="n">
+        <v>21980.66666666666</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1.583764164305949</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>237681679310</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>31099.92727272727</v>
+      </c>
+      <c r="F251" t="n">
+        <v>132161</v>
+      </c>
+      <c r="G251" t="n">
+        <v>101061.0727272727</v>
+      </c>
+      <c r="H251" t="n">
+        <v>4.249559776813276</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>237682238745</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>RACHEL PRUDENCE JIKE KETCHA</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2197390</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1697390</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4.39478</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>237682316602</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>DANGA ZAMPA PATRICE VICKY TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>44349.8</v>
+      </c>
+      <c r="F253" t="n">
+        <v>249392</v>
+      </c>
+      <c r="G253" t="n">
+        <v>205042.2</v>
+      </c>
+      <c r="H253" t="n">
+        <v>5.623294806289994</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>237682430965</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>MARGUERITE CLARISSE NGO NGAMBI</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>11953.33333333333</v>
+      </c>
+      <c r="F254" t="n">
+        <v>8750</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-3203.333333333334</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.7320133853876185</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>237683366333</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS DJIAGUE JEANNETTE</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>13525</v>
+      </c>
+      <c r="F255" t="n">
+        <v>37172</v>
+      </c>
+      <c r="G255" t="n">
+        <v>23647</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2.748391866913124</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>237683379155</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>JEAN ERIC YOUMBA</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>102412.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>537833</v>
+      </c>
+      <c r="G256" t="n">
+        <v>435420.5</v>
+      </c>
+      <c r="H256" t="n">
+        <v>5.25163432198218</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>237683379207</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>NANFACK EPSE SOKENG SOLANGE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>19690</v>
+      </c>
+      <c r="F257" t="n">
+        <v>47876</v>
+      </c>
+      <c r="G257" t="n">
+        <v>28186</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2.431488065007618</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>237652049507</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>DONGMO GUESSOP ROVIELLE LAURA TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>9268.888888888889</v>
+      </c>
+      <c r="F258" t="n">
+        <v>118777</v>
+      </c>
+      <c r="G258" t="n">
+        <v>109508.1111111111</v>
+      </c>
+      <c r="H258" t="n">
+        <v>12.81458882761928</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>237671105715</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>DJOUMEGNI HORIELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>19923.33333333333</v>
+      </c>
+      <c r="F259" t="n">
+        <v>53767</v>
+      </c>
+      <c r="G259" t="n">
+        <v>33843.66666666667</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2.69869499749038</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>237674435926</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>YASMINE DARELLE MADJE</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>19273.33333333333</v>
+      </c>
+      <c r="F260" t="n">
+        <v>119667</v>
+      </c>
+      <c r="G260" t="n">
+        <v>100393.6666666667</v>
+      </c>
+      <c r="H260" t="n">
+        <v>6.208941542718783</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>237674892352</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>CARINE LEKEUFACK YMELE</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>113445.92</v>
+      </c>
+      <c r="F261" t="n">
+        <v>671776</v>
+      </c>
+      <c r="G261" t="n">
+        <v>558330.08</v>
+      </c>
+      <c r="H261" t="n">
+        <v>5.92155275394655</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>237674895389</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>238518.3333333334</v>
+      </c>
+      <c r="F262" t="n">
+        <v>340862</v>
+      </c>
+      <c r="G262" t="n">
+        <v>102343.6666666666</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1.429080923199474</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>237674908416</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>GNITEDEMO MEDJOUTSA CHARLOTTE SYLVIE ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>12543.75</v>
+      </c>
+      <c r="F263" t="n">
+        <v>12420</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-123.75</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.9901345291479821</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>237675207106</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>NEEH MANFOUO VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>192880</v>
+      </c>
+      <c r="F264" t="n">
+        <v>919269</v>
+      </c>
+      <c r="G264" t="n">
+        <v>726389</v>
+      </c>
+      <c r="H264" t="n">
+        <v>4.766015138946496</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>237675443028</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>LYSETTE LEONELLE  S NGUENA</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>15820</v>
+      </c>
+      <c r="F265" t="n">
+        <v>477</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-15343</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.03015170670037927</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>237676036869</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>KENFACK VIRGINIE GIODELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>154416.5</v>
+      </c>
+      <c r="F266" t="n">
+        <v>997267</v>
+      </c>
+      <c r="G266" t="n">
+        <v>842850.5</v>
+      </c>
+      <c r="H266" t="n">
+        <v>6.458292993300585</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>237677178575</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>GISELE CLAIRE ZAGBOUE DJIALA</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>10599.825</v>
+      </c>
+      <c r="F267" t="n">
+        <v>29103</v>
+      </c>
+      <c r="G267" t="n">
+        <v>18503.175</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2.745611366225386</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>237678183211</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>KAMTO NANGOP STEVE GAETAN ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>7435.454545454545</v>
+      </c>
+      <c r="F268" t="n">
+        <v>16161</v>
+      </c>
+      <c r="G268" t="n">
+        <v>8725.545454545456</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2.173505318498594</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>237679038720</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>MUEINGNIEU MBIAWANG EPSE TCHATCHOUA ROSE ANNETTE Ets KENTO  Co</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>52406.36</v>
+      </c>
+      <c r="F269" t="n">
+        <v>20014</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-32392.36</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.3819002121116597</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>237679087694</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>VALERIE MADJUIKOUO</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>26039.6</v>
+      </c>
+      <c r="F270" t="n">
+        <v>30071</v>
+      </c>
+      <c r="G270" t="n">
+        <v>4031.400000000001</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1.154818046360159</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>237679869809</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>XAVIEE ROSINE MEZAMO</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>81035</v>
+      </c>
+      <c r="F271" t="n">
+        <v>168745</v>
+      </c>
+      <c r="G271" t="n">
+        <v>87710</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2.082371814647991</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>237680435802</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>derice mboumela</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>234470</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1463300</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1228830</v>
+      </c>
+      <c r="H272" t="n">
+        <v>6.240883695142236</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>237681114247</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>17519.8</v>
+      </c>
+      <c r="F273" t="n">
+        <v>46444</v>
+      </c>
+      <c r="G273" t="n">
+        <v>28924.2</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2.650943503921278</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>237681602244</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>TSOMEJIO KENFACK NICAISE NESLIE ETS TCHATCHOUANG PAUL  ETP</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>260660</v>
+      </c>
+      <c r="F274" t="n">
+        <v>82587</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-178073</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.3168380265479935</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>237681606646</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>NADINE MAFONKOU FONGANG</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>66756</v>
+      </c>
+      <c r="F275" t="n">
+        <v>248647</v>
+      </c>
+      <c r="G275" t="n">
+        <v>181891</v>
+      </c>
+      <c r="H275" t="n">
+        <v>3.724713883396249</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>237681655241</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NKUIDJEU KAMDOUM SYMPHORIEN</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>107078.4615384615</v>
+      </c>
+      <c r="F276" t="n">
+        <v>4364</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-102714.4615384615</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.04075516156377064</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>237681658403</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE MISSOKE-UNIVERSITE</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>20060</v>
+      </c>
+      <c r="F277" t="n">
+        <v>28491</v>
+      </c>
+      <c r="G277" t="n">
+        <v>8431</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1.420289132602193</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>237681862876</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>TIDO GARLINE NOGRA-POLAS-BTQ-MAKEPE MISSOKE</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>26767.92</v>
+      </c>
+      <c r="F278" t="n">
+        <v>30429</v>
+      </c>
+      <c r="G278" t="n">
+        <v>3661.080000000002</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1.136771179830185</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>237683555873</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>CHI MERCY SWIRI LTDLA_POLAS_BTQ_LIMBE</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ndogbong 2</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>297690</v>
+      </c>
+      <c r="F279" t="n">
+        <v>802164</v>
+      </c>
+      <c r="G279" t="n">
+        <v>504474</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2.694628640532097</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>237654037914</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL YONGA RUSSEL DONALD</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>20483.33333333333</v>
+      </c>
+      <c r="F280" t="n">
+        <v>82110</v>
+      </c>
+      <c r="G280" t="n">
+        <v>61626.66666666667</v>
+      </c>
+      <c r="H280" t="n">
+        <v>4.008624898291294</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>237674243367</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>EMEGNI NGUEKAM DESTO WILFRIED CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>6760</v>
+      </c>
+      <c r="F281" t="n">
+        <v>229</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-6531</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0.03387573964497041</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>237681656314</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SWIRRI AZINWI NGANG LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>63475</v>
+      </c>
+      <c r="F282" t="n">
+        <v>533693</v>
+      </c>
+      <c r="G282" t="n">
+        <v>470218</v>
+      </c>
+      <c r="H282" t="n">
+        <v>8.407924379677038</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>237682511457</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>FRANFORETTE NWOGUEP KODJOUO</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ndogbong Guiness</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>29396</v>
+      </c>
+      <c r="F283" t="n">
+        <v>42076</v>
+      </c>
+      <c r="G283" t="n">
+        <v>12680</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1.431351204245476</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Cite Sic</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>237650934256</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>DIDIER ROMUALD MBAKOP NYA</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>21660</v>
+      </c>
+      <c r="F284" t="n">
+        <v>69786</v>
+      </c>
+      <c r="G284" t="n">
+        <v>48126</v>
+      </c>
+      <c r="H284" t="n">
+        <v>3.221883656509695</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>237652275301</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>6380</v>
+      </c>
+      <c r="F285" t="n">
+        <v>16828</v>
+      </c>
+      <c r="G285" t="n">
+        <v>10448</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2.637617554858934</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>237652427111</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>CELESTINE CHANTAL MENDJOBOU EPSE NZIAKOU NJANJO</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>30760</v>
+      </c>
+      <c r="F286" t="n">
+        <v>82582</v>
+      </c>
+      <c r="G286" t="n">
+        <v>51822</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2.684720416124837</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>237671645947</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>CLOVIS TAMKOU SOCTOUO</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>5340</v>
+      </c>
+      <c r="F287" t="n">
+        <v>40612</v>
+      </c>
+      <c r="G287" t="n">
+        <v>35272</v>
+      </c>
+      <c r="H287" t="n">
+        <v>7.605243445692884</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>237672064755</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>FREDERIC STEPHANE PARFAIT MAKEME</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Rte_2</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>138900</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1286471</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1147571</v>
+      </c>
+      <c r="H288" t="n">
+        <v>9.261850251979842</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>237672956746</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>ALAIN MOISE NDJONG ITALEN</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>137539.8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>115406</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-22133.80000000002</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0.8390734900007124</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>237673718583</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Soppi Verole ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>98315.45454545454</v>
+      </c>
+      <c r="F290" t="n">
+        <v>134035</v>
+      </c>
+      <c r="G290" t="n">
+        <v>35719.54545454546</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1.363315672186931</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>237674933048</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 NINZEGA EMILIENNE CLAIRE</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>43872.3</v>
+      </c>
+      <c r="F291" t="n">
+        <v>110298</v>
+      </c>
+      <c r="G291" t="n">
+        <v>66425.7</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2.514069241867876</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>237675950748</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ATANGANA HENRI EITEL ETS TCHATCHOUANG PAUL _ETP</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>110079.8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1814059</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1703979.2</v>
+      </c>
+      <c r="H292" t="n">
+        <v>16.47949033337633</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>237682520113</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>KEUYAP NGATCHEU JUDITH JOSY ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>27383.33333333333</v>
+      </c>
+      <c r="F293" t="n">
+        <v>353479</v>
+      </c>
+      <c r="G293" t="n">
+        <v>326095.6666666667</v>
+      </c>
+      <c r="H293" t="n">
+        <v>12.90854534388314</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>237683356603</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>MFS MATCHINDA SENDRINE</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>70031.92</v>
+      </c>
+      <c r="F294" t="n">
+        <v>141607</v>
+      </c>
+      <c r="G294" t="n">
+        <v>71575.08</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2.022035094853889</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>237683394976</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DIALLO MAMADOU OURY</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>518</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-4482</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.1036</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>237683395123</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA-CBOX-R1-TAGNIN NICAISSE FLEURIE</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Rte_3</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Ndogbong Iut Ocm</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>61358.0625</v>
+      </c>
+      <c r="F296" t="n">
+        <v>205117</v>
+      </c>
+      <c r="G296" t="n">
+        <v>143758.9375</v>
+      </c>
+      <c r="H296" t="n">
+        <v>3.342951058795248</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>237670174030</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA_CBOX_R1_FOHOM STEPHANE THIERRY</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>63071.53846153846</v>
+      </c>
+      <c r="F297" t="n">
+        <v>8327</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-54744.53846153846</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0.1320246850340883</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>237679111075</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>TCHAMABE YOSSA JEAN JOEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>166666.5333333334</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1275608</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1108941.466666667</v>
+      </c>
+      <c r="H298" t="n">
+        <v>7.653654122923298</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>237681611433</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Barry Diakariaou World T Plus</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Ndogbong Vallee Ocm</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>18655</v>
+      </c>
+      <c r="F299" t="n">
+        <v>275273</v>
+      </c>
+      <c r="G299" t="n">
+        <v>256618</v>
+      </c>
+      <c r="H299" t="n">
+        <v>14.7559903511123</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>237652194260</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>CRISTELLE DIANE TCHAHANE</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>85074</v>
+      </c>
+      <c r="F300" t="n">
+        <v>384960</v>
+      </c>
+      <c r="G300" t="n">
+        <v>299886</v>
+      </c>
+      <c r="H300" t="n">
+        <v>4.525001763170886</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>237652667691</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>47476.36363636364</v>
+      </c>
+      <c r="F301" t="n">
+        <v>233811</v>
+      </c>
+      <c r="G301" t="n">
+        <v>186334.6363636364</v>
+      </c>
+      <c r="H301" t="n">
+        <v>4.924787454044117</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>237670473852</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R0 MAGNE TALLA EMILIE</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>68020</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31662</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-36358</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.4654807409585416</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>237673018936</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>EJUH AKEP EUGENE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>41164</v>
+      </c>
+      <c r="F303" t="n">
+        <v>51042</v>
+      </c>
+      <c r="G303" t="n">
+        <v>9878</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1.239966961422602</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>237673560726</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>MAGUELON NADERGE -CHIC MOBILE</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>64035.83333333334</v>
+      </c>
+      <c r="F304" t="n">
+        <v>979755</v>
+      </c>
+      <c r="G304" t="n">
+        <v>915719.1666666666</v>
+      </c>
+      <c r="H304" t="n">
+        <v>15.30010540973153</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>237674450580</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>TCHIYADJE VANESSA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>137758.1818181818</v>
+      </c>
+      <c r="F305" t="n">
+        <v>106527</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-31231.18181818182</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0.7732898227460504</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>237674929417</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>HORTANCE MANTHO</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>12770</v>
+      </c>
+      <c r="F306" t="n">
+        <v>136229</v>
+      </c>
+      <c r="G306" t="n">
+        <v>123459</v>
+      </c>
+      <c r="H306" t="n">
+        <v>10.66789350039154</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>237677316351</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>QUELIE LOVE KAGE LEUYOUM</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>74625</v>
+      </c>
+      <c r="F307" t="n">
+        <v>190896</v>
+      </c>
+      <c r="G307" t="n">
+        <v>116271</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2.558070351758794</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>237677831340</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FRANCA VANESSA SEUGUEP</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F308" t="n">
+        <v>12013</v>
+      </c>
+      <c r="G308" t="n">
+        <v>7013</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2.4026</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>237678843959</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS NGO NDJAYICK THERESE</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>5471.111111111111</v>
+      </c>
+      <c r="F309" t="n">
+        <v>24766</v>
+      </c>
+      <c r="G309" t="n">
+        <v>19294.88888888889</v>
+      </c>
+      <c r="H309" t="n">
+        <v>4.526685621445979</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>237679068456</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>MICHEL PLATINI BALOUA</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>23430</v>
+      </c>
+      <c r="F310" t="n">
+        <v>110655</v>
+      </c>
+      <c r="G310" t="n">
+        <v>87225</v>
+      </c>
+      <c r="H310" t="n">
+        <v>4.722791293213828</v>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>237679793647</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 71</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>198218.4615384615</v>
+      </c>
+      <c r="F311" t="n">
+        <v>26</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-198192.4615384615</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.0001311684078173266</v>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>237682323406</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT LAS VEGAS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>81782.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>10</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-81772.5</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.0001222755479472992</v>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>237682764368</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LIEDJI GINETTE</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>23640</v>
+      </c>
+      <c r="F313" t="n">
+        <v>434356</v>
+      </c>
+      <c r="G313" t="n">
+        <v>410716</v>
+      </c>
+      <c r="H313" t="n">
+        <v>18.37377326565144</v>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>237682814055</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>DIALL BOUCARI KAMILAH CONNECTION GROUP</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>7430</v>
+      </c>
+      <c r="F314" t="n">
+        <v>129810</v>
+      </c>
+      <c r="G314" t="n">
+        <v>122380</v>
+      </c>
+      <c r="H314" t="n">
+        <v>17.47106325706595</v>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>237683079541</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>THIERRY MELINGUI AYINA</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>81326.66666666667</v>
+      </c>
+      <c r="F315" t="n">
+        <v>431608</v>
+      </c>
+      <c r="G315" t="n">
+        <v>350281.3333333333</v>
+      </c>
+      <c r="H315" t="n">
+        <v>5.307090745143044</v>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>237683379070</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>MELI DOUANLA ORNELA LINDA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>400185</v>
+      </c>
+      <c r="F316" t="n">
+        <v>540757</v>
+      </c>
+      <c r="G316" t="n">
+        <v>140572</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1.351267538763322</v>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>237683730580</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA_CBOX_R1_TSAFO NICOLE</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Ndogbong-Citadelle</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>41930</v>
+      </c>
+      <c r="F317" t="n">
+        <v>127005</v>
+      </c>
+      <c r="G317" t="n">
+        <v>85075</v>
+      </c>
+      <c r="H317" t="n">
+        <v>3.028976866205581</v>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>237651213730</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>NZONDE GABRIEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F318" t="n">
+        <v>331342</v>
+      </c>
+      <c r="G318" t="n">
+        <v>314442</v>
+      </c>
+      <c r="H318" t="n">
+        <v>19.60603550295858</v>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>237652071114</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL TALLA BOYOM JEAN ERNEST</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>81600</v>
+      </c>
+      <c r="F319" t="n">
+        <v>85647</v>
+      </c>
+      <c r="G319" t="n">
+        <v>4047</v>
+      </c>
+      <c r="H319" t="n">
+        <v>1.049595588235294</v>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>237652285489</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>GAETAN HONORE TSONYEM YEMELI</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>97864.375</v>
+      </c>
+      <c r="F320" t="n">
+        <v>275632</v>
+      </c>
+      <c r="G320" t="n">
+        <v>177767.625</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2.816469220796638</v>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>237652940152</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>GISAWO AIME LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>30684</v>
+      </c>
+      <c r="F321" t="n">
+        <v>373314</v>
+      </c>
+      <c r="G321" t="n">
+        <v>342630</v>
+      </c>
+      <c r="H321" t="n">
+        <v>12.16640594446617</v>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>237654137136</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>NGANGUE NDOUMBE CHARLOTTE MINDEM SARL</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>72100</v>
+      </c>
+      <c r="F322" t="n">
+        <v>208198</v>
+      </c>
+      <c r="G322" t="n">
+        <v>136098</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2.887628294036061</v>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>237671694408</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>singtoing ngriswe</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>48509.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>456926</v>
+      </c>
+      <c r="G323" t="n">
+        <v>408416.2</v>
+      </c>
+      <c r="H323" t="n">
+        <v>9.419251367764863</v>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>237672279571</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>169789.1333333333</v>
+      </c>
+      <c r="F324" t="n">
+        <v>471922</v>
+      </c>
+      <c r="G324" t="n">
+        <v>302132.8666666667</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2.77945938432652</v>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>237672777139</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>23040</v>
+      </c>
+      <c r="F325" t="n">
+        <v>732658</v>
+      </c>
+      <c r="G325" t="n">
+        <v>709618</v>
+      </c>
+      <c r="H325" t="n">
+        <v>31.79939236111111</v>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>237673220938</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>KAMGANG TOMDJIO SIMEONE BABETTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>159090</v>
+      </c>
+      <c r="F326" t="n">
+        <v>17327</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-141763</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.1089131937896788</v>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>237674437082</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>MODESTE NGOUKOUA</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>42678.57142857143</v>
+      </c>
+      <c r="F327" t="n">
+        <v>42799</v>
+      </c>
+      <c r="G327" t="n">
+        <v>120.4285714285725</v>
+      </c>
+      <c r="H327" t="n">
+        <v>1.002821757322176</v>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12542,6 +12542,1745 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>237674895877</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>149630</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1326911</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1177281</v>
+      </c>
+      <c r="H328" t="n">
+        <v>8.867947604090089</v>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>237674956331</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>PAULIN POUALEU</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>209204</v>
+      </c>
+      <c r="F329" t="n">
+        <v>168225</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-40979</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0.8041194241027896</v>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>237674979451</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>99222</v>
+      </c>
+      <c r="F330" t="n">
+        <v>377429</v>
+      </c>
+      <c r="G330" t="n">
+        <v>278207</v>
+      </c>
+      <c r="H330" t="n">
+        <v>3.803884219225575</v>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>237675329176</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>37210</v>
+      </c>
+      <c r="F331" t="n">
+        <v>204877</v>
+      </c>
+      <c r="G331" t="n">
+        <v>167667</v>
+      </c>
+      <c r="H331" t="n">
+        <v>5.50596613813491</v>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>237675889982</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>LAIC YDRAN LIEDJI DAYA</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>25530.58181818182</v>
+      </c>
+      <c r="F332" t="n">
+        <v>182245</v>
+      </c>
+      <c r="G332" t="n">
+        <v>156714.4181818182</v>
+      </c>
+      <c r="H332" t="n">
+        <v>7.138301872549283</v>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>237676076193</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>AMADOU ROBERT ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>78364.4181818182</v>
+      </c>
+      <c r="F333" t="n">
+        <v>602610</v>
+      </c>
+      <c r="G333" t="n">
+        <v>524245.5818181818</v>
+      </c>
+      <c r="H333" t="n">
+        <v>7.689842073501353</v>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>237677567788</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CARINE DEVILLIERS ESSOH</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>135148.75</v>
+      </c>
+      <c r="F334" t="n">
+        <v>448951</v>
+      </c>
+      <c r="G334" t="n">
+        <v>313802.25</v>
+      </c>
+      <c r="H334" t="n">
+        <v>3.321902718301131</v>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>237678722616</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>53283.10769230768</v>
+      </c>
+      <c r="F335" t="n">
+        <v>6039</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-47244.10769230768</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.1133379838667299</v>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>237679580678</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Ngo Ndjeng Marie Pauline</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>12426.66666666667</v>
+      </c>
+      <c r="F336" t="n">
+        <v>5754</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-6672.666666666666</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.4630364806866953</v>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>237680116452</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL NDE HENRI</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>80862.5</v>
+      </c>
+      <c r="F337" t="n">
+        <v>97795</v>
+      </c>
+      <c r="G337" t="n">
+        <v>16932.5</v>
+      </c>
+      <c r="H337" t="n">
+        <v>1.20939867058278</v>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>237680415220</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>9787.859999999995</v>
+      </c>
+      <c r="F338" t="n">
+        <v>10262</v>
+      </c>
+      <c r="G338" t="n">
+        <v>474.1400000000049</v>
+      </c>
+      <c r="H338" t="n">
+        <v>1.048441640971571</v>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>237681603496</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>57131.66666666666</v>
+      </c>
+      <c r="F339" t="n">
+        <v>130572</v>
+      </c>
+      <c r="G339" t="n">
+        <v>73440.33333333334</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2.285457568773885</v>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>237681657461</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>86929.8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>70335</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-16594.8</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.8091011367793323</v>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>237681662596</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>110397.5</v>
+      </c>
+      <c r="F341" t="n">
+        <v>194688</v>
+      </c>
+      <c r="G341" t="n">
+        <v>84290.5</v>
+      </c>
+      <c r="H341" t="n">
+        <v>1.763518195611314</v>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>237681677617</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>17929.8</v>
+      </c>
+      <c r="F342" t="n">
+        <v>27208</v>
+      </c>
+      <c r="G342" t="n">
+        <v>9278.200000000001</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1.517473702997245</v>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>237681679096</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>30203</v>
+      </c>
+      <c r="F343" t="n">
+        <v>97384</v>
+      </c>
+      <c r="G343" t="n">
+        <v>67181</v>
+      </c>
+      <c r="H343" t="n">
+        <v>3.224315465351124</v>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>237683279255</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>39160</v>
+      </c>
+      <c r="F344" t="n">
+        <v>34169</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-4991</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.8725485188968335</v>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>237683353137</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>34730</v>
+      </c>
+      <c r="F345" t="n">
+        <v>318</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-34412</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0.009156348977828967</v>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>237683396173</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>46180</v>
+      </c>
+      <c r="F346" t="n">
+        <v>223792</v>
+      </c>
+      <c r="G346" t="n">
+        <v>177612</v>
+      </c>
+      <c r="H346" t="n">
+        <v>4.846080554352533</v>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>237683557193</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Ndokoti Carrefour</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>9780</v>
+      </c>
+      <c r="F347" t="n">
+        <v>254</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-9526</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.02597137014314928</v>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>237671646117</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FLORENCE MEDONGUE</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>51881.075</v>
+      </c>
+      <c r="F348" t="n">
+        <v>516490</v>
+      </c>
+      <c r="G348" t="n">
+        <v>464608.925</v>
+      </c>
+      <c r="H348" t="n">
+        <v>9.955267889109853</v>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>237674440808</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F349" t="n">
+        <v>22158</v>
+      </c>
+      <c r="G349" t="n">
+        <v>17158</v>
+      </c>
+      <c r="H349" t="n">
+        <v>4.4316</v>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>237675788721</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Rte_6</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>145306.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>513322</v>
+      </c>
+      <c r="G350" t="n">
+        <v>368015.5</v>
+      </c>
+      <c r="H350" t="n">
+        <v>3.532684360300468</v>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>237676036914</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>29860</v>
+      </c>
+      <c r="F351" t="n">
+        <v>201711</v>
+      </c>
+      <c r="G351" t="n">
+        <v>171851</v>
+      </c>
+      <c r="H351" t="n">
+        <v>6.755224380442063</v>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>237679550294</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>14649.6</v>
+      </c>
+      <c r="F352" t="n">
+        <v>8438</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-6211.6</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.5759884228920926</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>237679604574</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>10309.09090909091</v>
+      </c>
+      <c r="F353" t="n">
+        <v>16343</v>
+      </c>
+      <c r="G353" t="n">
+        <v>6033.90909090909</v>
+      </c>
+      <c r="H353" t="n">
+        <v>1.585299823633157</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>237682370358</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>TATALONG NDAH DARYL</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>24760</v>
+      </c>
+      <c r="F354" t="n">
+        <v>270541</v>
+      </c>
+      <c r="G354" t="n">
+        <v>245781</v>
+      </c>
+      <c r="H354" t="n">
+        <v>10.92653473344103</v>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>237682639044</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>NJIMEGNIE LINDA NANA</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Rte_7</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>223294</v>
+      </c>
+      <c r="F355" t="n">
+        <v>568123</v>
+      </c>
+      <c r="G355" t="n">
+        <v>344829</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2.544282425860077</v>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>237683023087</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>FAGHUIE ABIBA</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>New Ndogbong Plateau</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>119280</v>
+      </c>
+      <c r="F356" t="n">
+        <v>342523</v>
+      </c>
+      <c r="G356" t="n">
+        <v>223243</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2.871587860496311</v>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>237650874464</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ASSONFACK VANESSA ATB POINT COM</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>189390.9090909091</v>
+      </c>
+      <c r="F357" t="n">
+        <v>471335</v>
+      </c>
+      <c r="G357" t="n">
+        <v>281944.0909090909</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2.488688619017905</v>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>237653854849</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Jean Boreau Holl</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>18363.75</v>
+      </c>
+      <c r="F358" t="n">
+        <v>51705</v>
+      </c>
+      <c r="G358" t="n">
+        <v>33341.25</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2.815601388605268</v>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>237654164073</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>30457.27272727273</v>
+      </c>
+      <c r="F359" t="n">
+        <v>52578</v>
+      </c>
+      <c r="G359" t="n">
+        <v>22120.72727272727</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1.726287198161359</v>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>237671357520</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>CALICE WOTI EPSE DJOMO</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>16806.66666666667</v>
+      </c>
+      <c r="F360" t="n">
+        <v>22850</v>
+      </c>
+      <c r="G360" t="n">
+        <v>6043.333333333332</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1.359579531931773</v>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>237672587687</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>43904.9</v>
+      </c>
+      <c r="F361" t="n">
+        <v>247714</v>
+      </c>
+      <c r="G361" t="n">
+        <v>203809.1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>5.642058175738926</v>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>237674240552</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>AUGUSTINE NGO BAYOI</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>20270</v>
+      </c>
+      <c r="F362" t="n">
+        <v>60758</v>
+      </c>
+      <c r="G362" t="n">
+        <v>40488</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2.997434632461766</v>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>237675239360</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>NGO NKOT MARIE LOUISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>34469.9</v>
+      </c>
+      <c r="F363" t="n">
+        <v>118239</v>
+      </c>
+      <c r="G363" t="n">
+        <v>83769.10000000001</v>
+      </c>
+      <c r="H363" t="n">
+        <v>3.430210125355745</v>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>237675626141</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>FLORENCE NGUEFACK</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>24500</v>
+      </c>
+      <c r="F364" t="n">
+        <v>52169</v>
+      </c>
+      <c r="G364" t="n">
+        <v>27669</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2.12934693877551</v>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>237676840777</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>ETP109 ETP</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>471586.4666666666</v>
+      </c>
+      <c r="F365" t="n">
+        <v>994075</v>
+      </c>
+      <c r="G365" t="n">
+        <v>522488.5333333334</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2.107937929233763</v>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>237677833877</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>38396.7</v>
+      </c>
+      <c r="F366" t="n">
+        <v>144763</v>
+      </c>
+      <c r="G366" t="n">
+        <v>106366.3</v>
+      </c>
+      <c r="H366" t="n">
+        <v>3.770193792695727</v>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>237678854978</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>rostel kenzoh gignole</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>40520</v>
+      </c>
+      <c r="F367" t="n">
+        <v>250763</v>
+      </c>
+      <c r="G367" t="n">
+        <v>210243</v>
+      </c>
+      <c r="H367" t="n">
+        <v>6.188622902270484</v>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>237679422591</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 42</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Rte_0</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Pk8</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>141149.8</v>
+      </c>
+      <c r="F368" t="n">
+        <v>403900</v>
+      </c>
+      <c r="G368" t="n">
+        <v>262750.2</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2.861498918170625</v>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>237650353920</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>218865</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1305524</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1086659</v>
+      </c>
+      <c r="H369" t="n">
+        <v>5.964973842322893</v>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>237651927448</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>charity aben awalah</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>128653.3333333333</v>
+      </c>
+      <c r="F370" t="n">
+        <v>28091</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-100562.3333333333</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.2183464607731372</v>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>237653294562</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>126220</v>
+      </c>
+      <c r="F371" t="n">
+        <v>271672</v>
+      </c>
+      <c r="G371" t="n">
+        <v>145452</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2.152368879733798</v>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>237678046498</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>MFS SOCAVER</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Rte_4</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>41943.17</v>
+      </c>
+      <c r="F372" t="n">
+        <v>303</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-41640.17</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.007224060556224053</v>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>237679428698</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>ETS LE CONTENT 29</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Rte_8</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>161427.5</v>
+      </c>
+      <c r="F373" t="n">
+        <v>13</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-161414.5</v>
+      </c>
+      <c r="H373" t="n">
+        <v>8.053150795248641e-05</v>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>237679551262</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Rte_5</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Socaver Ndongbong</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>65595</v>
+      </c>
+      <c r="F374" t="n">
+        <v>17349</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-48246</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.2644866224559799</v>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Ndogbong</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="119">
   <si>
     <t>Numero</t>
   </si>
@@ -293,6 +293,54 @@
   </si>
   <si>
     <t>ANEBEP ZEPHERINE MFS</t>
+  </si>
+  <si>
+    <t>MFS ENTREE COLLEGE MALANGUE</t>
+  </si>
+  <si>
+    <t>CAROLINE WAKO DJAMNOU</t>
+  </si>
+  <si>
+    <t>TOP MOBIL KM5 LTDLA_POLAS_BTQ_KM5</t>
+  </si>
+  <si>
+    <t>NJOSSEU TCHOUNZOU TOP MOBILE</t>
+  </si>
+  <si>
+    <t>manuela verna yetna baaga</t>
+  </si>
+  <si>
+    <t>RODES NGWEM KEMAYOU</t>
+  </si>
+  <si>
+    <t>FERDINAND NKWELLE NGOME</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL EMBOLA BELTUS MBU</t>
+  </si>
+  <si>
+    <t>ESSEN ONGOLONG BERTHE HORTENSE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KAMDOM DOMINIQUE STEPHANIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NWOAGA TCHAMDJOU EPSE KAMSEU EMILINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>MFS CICAM</t>
+  </si>
+  <si>
+    <t>ETS MOULAY RIPERT AND COMPANY</t>
+  </si>
+  <si>
+    <t>EMENGUE PICHOU ROMEO KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>MBANE EMILIE FRANCOISE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
     <t>Rte_0</t>
@@ -680,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,10 +771,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>19150</v>
@@ -741,7 +789,7 @@
         <v>1.415770234986945</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -752,10 +800,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -770,7 +818,7 @@
         <v>3.0728</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -781,10 +829,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>84390</v>
@@ -799,7 +847,7 @@
         <v>0.1093731484773077</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -810,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>260865</v>
@@ -828,7 +876,7 @@
         <v>2.685546163724532</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -839,10 +887,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>28141.53846153846</v>
@@ -857,7 +905,7 @@
         <v>1.233443581893724</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -868,10 +916,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>38670</v>
@@ -886,7 +934,7 @@
         <v>17.1059219032842</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -897,10 +945,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>46826</v>
@@ -915,7 +963,7 @@
         <v>0.4723871353521548</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -926,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>14676.42857142857</v>
@@ -944,7 +992,7 @@
         <v>5.942658295614932</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -955,10 +1003,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <v>13250</v>
@@ -973,7 +1021,7 @@
         <v>0.6353207547169811</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -984,10 +1032,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>8935.719999999999</v>
@@ -1002,7 +1050,7 @@
         <v>1.570326733604007</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1013,10 +1061,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>223404</v>
@@ -1031,7 +1079,7 @@
         <v>1.613655082272475</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1042,10 +1090,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>5493.333333333333</v>
@@ -1060,7 +1108,7 @@
         <v>2.123118932038835</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1071,10 +1119,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <v>284192.6444444444</v>
@@ -1089,7 +1137,7 @@
         <v>0.147498539527452</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1100,10 +1148,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>7220</v>
@@ -1118,7 +1166,7 @@
         <v>3.068975069252077</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1129,10 +1177,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>38878.39000000001</v>
@@ -1147,7 +1195,7 @@
         <v>1.854397777274213</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1158,10 +1206,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>7380.523076923077</v>
@@ -1176,7 +1224,7 @@
         <v>0.5148686563804108</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1187,10 +1235,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>26419.66666666666</v>
@@ -1205,7 +1253,7 @@
         <v>0.9661741884202428</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1216,10 +1264,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>39192.5</v>
@@ -1234,7 +1282,7 @@
         <v>0.006174650762263188</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1245,10 +1293,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>333240</v>
@@ -1263,7 +1311,7 @@
         <v>0.940406313767855</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1274,10 +1322,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>62720</v>
@@ -1292,7 +1340,7 @@
         <v>4.549250637755102</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1303,10 +1351,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>38170</v>
@@ -1321,7 +1369,7 @@
         <v>6.635472884464239</v>
       </c>
       <c r="I22" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1332,10 +1380,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>172860</v>
@@ -1350,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1361,10 +1409,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E24">
         <v>53438.45714285715</v>
@@ -1379,7 +1427,7 @@
         <v>1.492913610636748</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1390,10 +1438,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>55864.54545454546</v>
@@ -1408,7 +1456,7 @@
         <v>2.86292493205969</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1419,10 +1467,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <v>18750</v>
@@ -1437,7 +1485,7 @@
         <v>0.8024</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1448,10 +1496,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>14265</v>
@@ -1466,7 +1514,7 @@
         <v>2.024956186470382</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1477,10 +1525,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>271168</v>
@@ -1495,7 +1543,7 @@
         <v>0.4647119129100779</v>
       </c>
       <c r="I28" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1506,10 +1554,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E29">
         <v>35537.4</v>
@@ -1524,7 +1572,7 @@
         <v>0.6158300832362524</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1535,10 +1583,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E30">
         <v>195936.25</v>
@@ -1553,7 +1601,7 @@
         <v>1.659478529368609</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1564,10 +1612,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E31">
         <v>136459.0909090909</v>
@@ -1582,7 +1630,7 @@
         <v>2.140524299656907</v>
       </c>
       <c r="I31" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1593,10 +1641,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>159153.3333333333</v>
@@ -1611,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1622,10 +1670,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>41870</v>
@@ -1640,7 +1688,7 @@
         <v>0.03694769524719369</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1651,10 +1699,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>235988.3333333334</v>
@@ -1669,7 +1717,7 @@
         <v>0.1087935138036485</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1680,10 +1728,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>39758.21666666667</v>
@@ -1698,7 +1746,7 @@
         <v>0.7710858929370156</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1709,10 +1757,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>74657.14285714286</v>
@@ -1727,7 +1775,7 @@
         <v>4.457577497129736</v>
       </c>
       <c r="I36" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1738,10 +1786,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>500000</v>
@@ -1756,7 +1804,7 @@
         <v>0.389164</v>
       </c>
       <c r="I37" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1767,10 +1815,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>113235</v>
@@ -1785,7 +1833,7 @@
         <v>0.6954386894511414</v>
       </c>
       <c r="I38" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1796,10 +1844,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E39">
         <v>90695</v>
@@ -1814,7 +1862,7 @@
         <v>6.502001212856277</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1825,10 +1873,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E40">
         <v>176790</v>
@@ -1843,7 +1891,7 @@
         <v>0.06353300526047853</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1854,10 +1902,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E41">
         <v>15660</v>
@@ -1872,7 +1920,7 @@
         <v>8.755938697318008</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1883,10 +1931,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E42">
         <v>28554.8</v>
@@ -1901,7 +1949,7 @@
         <v>1.325241290431031</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1912,10 +1960,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>34912.72727272727</v>
@@ -1930,7 +1978,7 @@
         <v>3.012798146026455</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1941,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E44">
         <v>96559.8</v>
@@ -1959,7 +2007,7 @@
         <v>6.712462121918231</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1970,10 +2018,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E45">
         <v>129030</v>
@@ -1988,7 +2036,7 @@
         <v>1.180477408354646</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1999,10 +2047,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E46">
         <v>145740</v>
@@ -2017,7 +2065,7 @@
         <v>1.070522848909016</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2028,10 +2076,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E47">
         <v>31576.24</v>
@@ -2046,7 +2094,7 @@
         <v>2.552647180284923</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2057,10 +2105,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E48">
         <v>54855.31111111111</v>
@@ -2075,7 +2123,7 @@
         <v>0.9403282736929353</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2086,10 +2134,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E49">
         <v>30030</v>
@@ -2104,7 +2152,7 @@
         <v>12.5002664002664</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2115,10 +2163,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>18795</v>
@@ -2133,7 +2181,7 @@
         <v>14.79318967810588</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2144,10 +2192,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>48162</v>
@@ -2162,7 +2210,7 @@
         <v>8.494165524687514</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2173,10 +2221,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>41275.71428571428</v>
@@ -2191,7 +2239,7 @@
         <v>4.615232063129478</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2202,10 +2250,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>30923.33333333334</v>
@@ -2220,7 +2268,7 @@
         <v>1.096388918831519</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2231,10 +2279,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>86783.84615384616</v>
@@ -2249,7 +2297,7 @@
         <v>0.006579565498719187</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2260,10 +2308,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E55">
         <v>328228.8</v>
@@ -2278,7 +2326,7 @@
         <v>0.01132137094612051</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2289,10 +2337,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E56">
         <v>85360</v>
@@ -2307,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2318,10 +2366,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>103179.8</v>
@@ -2336,7 +2384,7 @@
         <v>4.278831709307441</v>
       </c>
       <c r="I57" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2347,10 +2395,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E58">
         <v>178497.5</v>
@@ -2365,7 +2413,7 @@
         <v>3.279889074076668</v>
       </c>
       <c r="I58" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2376,10 +2424,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E59">
         <v>500000</v>
@@ -2394,7 +2442,7 @@
         <v>0.65001</v>
       </c>
       <c r="I59" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2405,10 +2453,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E60">
         <v>6183.636363636364</v>
@@ -2423,7 +2471,7 @@
         <v>0.5162011173184358</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2434,10 +2482,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E61">
         <v>114838.4615384615</v>
@@ -2452,7 +2500,7 @@
         <v>1.08703128139862</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2463,10 +2511,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>29820</v>
@@ -2481,7 +2529,7 @@
         <v>12.70107310529846</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2492,10 +2540,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E63">
         <v>145105</v>
@@ -2510,7 +2558,7 @@
         <v>4.746397436339203</v>
       </c>
       <c r="I63" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2521,10 +2569,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E64">
         <v>242106.6666666666</v>
@@ -2539,7 +2587,7 @@
         <v>3.094706190109043</v>
       </c>
       <c r="I64" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2550,10 +2598,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E65">
         <v>23150</v>
@@ -2568,7 +2616,7 @@
         <v>6.186522678185745</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2579,10 +2627,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E66">
         <v>43130</v>
@@ -2597,7 +2645,7 @@
         <v>10.75998145142592</v>
       </c>
       <c r="I66" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2608,10 +2656,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E67">
         <v>7120</v>
@@ -2626,7 +2674,7 @@
         <v>6.41376404494382</v>
       </c>
       <c r="I67" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2637,10 +2685,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E68">
         <v>12128.57142857143</v>
@@ -2655,7 +2703,7 @@
         <v>5.23243816254417</v>
       </c>
       <c r="I68" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2666,10 +2714,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E69">
         <v>75599.88333333333</v>
@@ -2684,7 +2732,7 @@
         <v>2.552940447659421</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2695,10 +2743,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E70">
         <v>239424</v>
@@ -2713,7 +2761,7 @@
         <v>0.001791800320769848</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2724,10 +2772,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E71">
         <v>79250</v>
@@ -2742,7 +2790,7 @@
         <v>2.946965299684543</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2753,10 +2801,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E72">
         <v>118868</v>
@@ -2771,7 +2819,7 @@
         <v>0.9735000168253861</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2782,10 +2830,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <v>137844.9629629629</v>
@@ -2800,7 +2848,7 @@
         <v>0.02645000529311782</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2811,10 +2859,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E74">
         <v>5000</v>
@@ -2829,7 +2877,7 @@
         <v>0.0008</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2840,10 +2888,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E75">
         <v>15997.69230769231</v>
@@ -2858,7 +2906,7 @@
         <v>6.787854017406357</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2869,10 +2917,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E76">
         <v>28041.81818181818</v>
@@ -2887,7 +2935,7 @@
         <v>4.932383453284056</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2898,10 +2946,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E77">
         <v>14380</v>
@@ -2916,7 +2964,7 @@
         <v>4.255146036161335</v>
       </c>
       <c r="I77" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2927,10 +2975,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E78">
         <v>12800</v>
@@ -2945,7 +2993,7 @@
         <v>1.9940625</v>
       </c>
       <c r="I78" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2956,10 +3004,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E79">
         <v>190430</v>
@@ -2974,7 +3022,7 @@
         <v>2.090999317334453</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2985,10 +3033,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E80">
         <v>5327.599999999999</v>
@@ -3003,7 +3051,7 @@
         <v>0.9644117426233202</v>
       </c>
       <c r="I80" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3014,10 +3062,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E81">
         <v>27650</v>
@@ -3032,7 +3080,7 @@
         <v>14.92723327305606</v>
       </c>
       <c r="I81" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3043,10 +3091,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E82">
         <v>112594</v>
@@ -3061,7 +3109,7 @@
         <v>1.871245359433007</v>
       </c>
       <c r="I82" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3072,10 +3120,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E83">
         <v>108762.35</v>
@@ -3090,7 +3138,7 @@
         <v>6.313370389661496</v>
       </c>
       <c r="I83" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3101,10 +3149,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D84" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>20715.26153846153</v>
@@ -3119,7 +3167,7 @@
         <v>1.687644635096236</v>
       </c>
       <c r="I84" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3130,10 +3178,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E85">
         <v>34610</v>
@@ -3148,7 +3196,471 @@
         <v>5.895088124819416</v>
       </c>
       <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>237671823369</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86">
+        <v>189785.8</v>
+      </c>
+      <c r="F86">
+        <v>110633</v>
+      </c>
+      <c r="G86">
+        <v>-79152.79999999999</v>
+      </c>
+      <c r="H86">
+        <v>0.5829361311541749</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>237672128028</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87">
+        <v>25030</v>
+      </c>
+      <c r="F87">
+        <v>22483</v>
+      </c>
+      <c r="G87">
+        <v>-2547</v>
+      </c>
+      <c r="H87">
+        <v>0.8982421094686376</v>
+      </c>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>237672277367</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88">
+        <v>26250</v>
+      </c>
+      <c r="F88">
+        <v>726946</v>
+      </c>
+      <c r="G88">
+        <v>700696</v>
+      </c>
+      <c r="H88">
+        <v>27.69318095238095</v>
+      </c>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>237674853971</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89">
+        <v>182169.7</v>
+      </c>
+      <c r="F89">
+        <v>129189</v>
+      </c>
+      <c r="G89">
+        <v>-52980.70000000001</v>
+      </c>
+      <c r="H89">
+        <v>0.7091684292173726</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>237674884705</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>109</v>
+      </c>
+      <c r="D90" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90">
+        <v>5000</v>
+      </c>
+      <c r="F90">
+        <v>15105</v>
+      </c>
+      <c r="G90">
+        <v>10105</v>
+      </c>
+      <c r="H90">
+        <v>3.021</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>237675779272</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91">
+        <v>184162.0370370371</v>
+      </c>
+      <c r="F91">
+        <v>28759</v>
+      </c>
+      <c r="G91">
+        <v>-155403.0370370371</v>
+      </c>
+      <c r="H91">
+        <v>0.1561613916890822</v>
+      </c>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>237677304210</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92">
+        <v>61193.33333333334</v>
+      </c>
+      <c r="F92">
+        <v>137078</v>
+      </c>
+      <c r="G92">
+        <v>75884.66666666666</v>
+      </c>
+      <c r="H92">
+        <v>2.240080618803791</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>237678267353</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93">
+        <v>16520</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>-16520</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>237678370615</v>
+      </c>
+      <c r="B94" t="s">
         <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94">
+        <v>100229.8</v>
+      </c>
+      <c r="F94">
+        <v>239366</v>
+      </c>
+      <c r="G94">
+        <v>139136.2</v>
+      </c>
+      <c r="H94">
+        <v>2.388171980788149</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>237678836319</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95">
+        <v>25619.09090909091</v>
+      </c>
+      <c r="F95">
+        <v>94879</v>
+      </c>
+      <c r="G95">
+        <v>69259.90909090909</v>
+      </c>
+      <c r="H95">
+        <v>3.703449132394166</v>
+      </c>
+      <c r="I95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>237678922502</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96">
+        <v>56220</v>
+      </c>
+      <c r="F96">
+        <v>1196062</v>
+      </c>
+      <c r="G96">
+        <v>1139842</v>
+      </c>
+      <c r="H96">
+        <v>21.2746709356101</v>
+      </c>
+      <c r="I96" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>237679884264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>111</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97">
+        <v>59610</v>
+      </c>
+      <c r="F97">
+        <v>66267</v>
+      </c>
+      <c r="G97">
+        <v>6657</v>
+      </c>
+      <c r="H97">
+        <v>1.111675893306492</v>
+      </c>
+      <c r="I97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>237681019523</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98">
+        <v>57805.71428571429</v>
+      </c>
+      <c r="F98">
+        <v>132723</v>
+      </c>
+      <c r="G98">
+        <v>74917.28571428571</v>
+      </c>
+      <c r="H98">
+        <v>2.296018683274021</v>
+      </c>
+      <c r="I98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>237681125655</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D99" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99">
+        <v>47813.75</v>
+      </c>
+      <c r="F99">
+        <v>498608</v>
+      </c>
+      <c r="G99">
+        <v>450794.25</v>
+      </c>
+      <c r="H99">
+        <v>10.42812998352984</v>
+      </c>
+      <c r="I99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>237681240793</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100">
+        <v>7438.090909090909</v>
+      </c>
+      <c r="F100">
+        <v>15143</v>
+      </c>
+      <c r="G100">
+        <v>7704.909090909091</v>
+      </c>
+      <c r="H100">
+        <v>2.035871863503587</v>
+      </c>
+      <c r="I100" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>237682117915</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101">
+        <v>123740</v>
+      </c>
+      <c r="F101">
+        <v>272599</v>
+      </c>
+      <c r="G101">
+        <v>148859</v>
+      </c>
+      <c r="H101">
+        <v>2.202998222078552</v>
+      </c>
+      <c r="I101" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="188">
   <si>
     <t>Numero</t>
   </si>
@@ -343,6 +343,192 @@
     <t>MEKUEKO FOUDJO BERLINE DIDIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
   </si>
   <si>
+    <t>ETS LE CONTENT NGAH MARIE</t>
+  </si>
+  <si>
+    <t>PRISCILLIA YOUATCHUS SONCHIFUA</t>
+  </si>
+  <si>
+    <t>NINA MORELLE KUEDONG NGUETSA</t>
+  </si>
+  <si>
+    <t>DIALLO OUSMANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>CHRISTINE METSEGOUM</t>
+  </si>
+  <si>
+    <t>VIVIANE MANTO DZOUA</t>
+  </si>
+  <si>
+    <t>LEOCADIE SEN BANG ESSOME</t>
+  </si>
+  <si>
+    <t>ANCHANG LOUIS FUL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ZANKIA RAISSA DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>WEPNYU NJEBOH CLINTON CONTACT PLUS Sarl</t>
+  </si>
+  <si>
+    <t>MERCY AKON ABIA</t>
+  </si>
+  <si>
+    <t>TONLEPEU NGALAGNI CHANCELINE DIANE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LAURE GISELE TADOUMFO NOUOJI</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT SEDJINE TCHINDA RAMSES GAUTIER</t>
+  </si>
+  <si>
+    <t>DOUNTIO FOFIE SAMANTA TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT DJOUFACK WOUAFACK ALAIN GAROUSTE</t>
+  </si>
+  <si>
+    <t>NGOUNOU EPSE KEMAYOU VIRGINIE FLORE _PAN-AFRICAN SAVINGS AND LOANS SA</t>
+  </si>
+  <si>
+    <t>SOFT DEAL TRADING LIMITED ESG CAMPUS A</t>
+  </si>
+  <si>
+    <t>vanissa sandjouon</t>
+  </si>
+  <si>
+    <t>Fon Hortencia Engochan ONYEKA CONNECTION</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MADAGAL MOHAMED</t>
+  </si>
+  <si>
+    <t>BOUDIEU RHOTA KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>LANDRY KWENDJE DJEUKUI</t>
+  </si>
+  <si>
+    <t>DJOUTCHOU TCHANA MERVEILLE ESPERANCE</t>
+  </si>
+  <si>
+    <t>Beni Donnatien Mpeck</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+  </si>
+  <si>
+    <t>KOMI GISELE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SYLVIANE LAURE SIMO TAGNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DENIS VOTIO NOBOUODEM</t>
+  </si>
+  <si>
+    <t>AUREL KAMTA TEUMEN</t>
+  </si>
+  <si>
+    <t>NGOUBE NGOUPAYOU ARAMI ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Nzepena Tambo Jeanine ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>DEUCHE FEUZE CHARNELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GABRELLA BERINYUY NSAWIR</t>
+  </si>
+  <si>
+    <t>MESMINE AURELIE MAADE TAGNE</t>
+  </si>
+  <si>
+    <t>ROSINE BONGWEH LA VERDZEYUF</t>
+  </si>
+  <si>
+    <t>RAPHAEL WAZECK YABONG</t>
+  </si>
+  <si>
+    <t>EVAGLE EMMANUEL -MFS</t>
+  </si>
+  <si>
+    <t>MFS AM ANGE RAPHAËL</t>
+  </si>
+  <si>
+    <t>EBONGUE NYAMSI YVAN LANDRY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LIONELFONE MEDJEUFEUSSI</t>
+  </si>
+  <si>
+    <t>NADI FATIMATOU</t>
+  </si>
+  <si>
+    <t>EDITH MELI TEMZENETCHOU</t>
+  </si>
+  <si>
+    <t>ETS MFS LTDLA CB0114 TCHEUTCHOUA TCHAWE PAUL EUGENE</t>
+  </si>
+  <si>
+    <t>TCHETGNIA TOBET RUTH TOP MOBIL</t>
+  </si>
+  <si>
+    <t>MBAKOP DJOUMOU DARC TOP MOBIL</t>
+  </si>
+  <si>
+    <t>JUDITH LAURE LIENOU</t>
+  </si>
+  <si>
+    <t>BOKO LYNDA JOELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LOUISE ODILE DJOUALA</t>
+  </si>
+  <si>
+    <t>KAOU POINT SARL SODISERV</t>
+  </si>
+  <si>
+    <t>TOP MOBILE LTDLA CB05277 DOMOU ANTOINETTE</t>
+  </si>
+  <si>
+    <t>BEGHEH PAMELA MBEBUI ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NICOLAS BIKECK</t>
+  </si>
+  <si>
+    <t>ZOULIATOU NTOUPENDI</t>
+  </si>
+  <si>
+    <t>MFS SIM AA 2</t>
+  </si>
+  <si>
+    <t>JOSEPH TRESOR NGABU</t>
+  </si>
+  <si>
+    <t>NOUMOU epouse SAGNON MARCELINE LA NEGRESSE</t>
+  </si>
+  <si>
+    <t>MFS SIM PROVISOIRE 20</t>
+  </si>
+  <si>
+    <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+  </si>
+  <si>
+    <t>MAMADOU DIAN BAH LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>NAMY NGOKO CLARISSE ROSE VERTINE KAMILAH CONNECTION</t>
+  </si>
+  <si>
+    <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+  </si>
+  <si>
     <t>Rte_0</t>
   </si>
   <si>
@@ -358,6 +544,12 @@
     <t>Rte_2</t>
   </si>
   <si>
+    <t>Rte_4</t>
+  </si>
+  <si>
+    <t>Rte_5</t>
+  </si>
+  <si>
     <t>Agape Ocm</t>
   </si>
   <si>
@@ -371,6 +563,21 @@
   </si>
   <si>
     <t>Cite Sic Stade Marion Ocm</t>
+  </si>
+  <si>
+    <t>Douala University</t>
+  </si>
+  <si>
+    <t>Esg Building</t>
+  </si>
+  <si>
+    <t>Essec</t>
+  </si>
+  <si>
+    <t>Hopital General Douala</t>
+  </si>
+  <si>
+    <t>Ndogbong</t>
   </si>
 </sst>
 </file>
@@ -728,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,10 +978,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E2">
         <v>19150</v>
@@ -789,7 +996,7 @@
         <v>1.415770234986945</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,10 +1007,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -818,7 +1025,7 @@
         <v>3.0728</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>84390</v>
@@ -847,7 +1054,7 @@
         <v>0.1093731484773077</v>
       </c>
       <c r="I4" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -858,10 +1065,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>260865</v>
@@ -876,7 +1083,7 @@
         <v>2.685546163724532</v>
       </c>
       <c r="I5" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -887,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>28141.53846153846</v>
@@ -905,7 +1112,7 @@
         <v>1.233443581893724</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -916,10 +1123,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E7">
         <v>38670</v>
@@ -934,7 +1141,7 @@
         <v>17.1059219032842</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -945,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>46826</v>
@@ -963,7 +1170,7 @@
         <v>0.4723871353521548</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -974,10 +1181,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>14676.42857142857</v>
@@ -992,7 +1199,7 @@
         <v>5.942658295614932</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1003,10 +1210,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>13250</v>
@@ -1021,7 +1228,7 @@
         <v>0.6353207547169811</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1032,10 +1239,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E11">
         <v>8935.719999999999</v>
@@ -1050,7 +1257,7 @@
         <v>1.570326733604007</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1061,10 +1268,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>223404</v>
@@ -1079,7 +1286,7 @@
         <v>1.613655082272475</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1090,10 +1297,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>5493.333333333333</v>
@@ -1108,7 +1315,7 @@
         <v>2.123118932038835</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1119,10 +1326,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E14">
         <v>284192.6444444444</v>
@@ -1137,7 +1344,7 @@
         <v>0.147498539527452</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1148,10 +1355,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <v>7220</v>
@@ -1166,7 +1373,7 @@
         <v>3.068975069252077</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1177,10 +1384,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E16">
         <v>38878.39000000001</v>
@@ -1195,7 +1402,7 @@
         <v>1.854397777274213</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1206,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>7380.523076923077</v>
@@ -1224,7 +1431,7 @@
         <v>0.5148686563804108</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1235,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>26419.66666666666</v>
@@ -1253,7 +1460,7 @@
         <v>0.9661741884202428</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1264,10 +1471,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>39192.5</v>
@@ -1282,7 +1489,7 @@
         <v>0.006174650762263188</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1293,10 +1500,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E20">
         <v>333240</v>
@@ -1311,7 +1518,7 @@
         <v>0.940406313767855</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1322,10 +1529,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E21">
         <v>62720</v>
@@ -1340,7 +1547,7 @@
         <v>4.549250637755102</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1351,10 +1558,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E22">
         <v>38170</v>
@@ -1369,7 +1576,7 @@
         <v>6.635472884464239</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1380,10 +1587,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E23">
         <v>172860</v>
@@ -1398,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1409,10 +1616,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E24">
         <v>53438.45714285715</v>
@@ -1427,7 +1634,7 @@
         <v>1.492913610636748</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1438,10 +1645,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E25">
         <v>55864.54545454546</v>
@@ -1456,7 +1663,7 @@
         <v>2.86292493205969</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1467,10 +1674,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E26">
         <v>18750</v>
@@ -1485,7 +1692,7 @@
         <v>0.8024</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1496,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E27">
         <v>14265</v>
@@ -1514,7 +1721,7 @@
         <v>2.024956186470382</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1525,10 +1732,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E28">
         <v>271168</v>
@@ -1543,7 +1750,7 @@
         <v>0.4647119129100779</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1554,10 +1761,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="E29">
         <v>35537.4</v>
@@ -1572,7 +1779,7 @@
         <v>0.6158300832362524</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1583,10 +1790,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E30">
         <v>195936.25</v>
@@ -1601,7 +1808,7 @@
         <v>1.659478529368609</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1612,10 +1819,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E31">
         <v>136459.0909090909</v>
@@ -1630,7 +1837,7 @@
         <v>2.140524299656907</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1641,10 +1848,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E32">
         <v>159153.3333333333</v>
@@ -1659,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1670,10 +1877,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E33">
         <v>41870</v>
@@ -1688,7 +1895,7 @@
         <v>0.03694769524719369</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1699,10 +1906,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E34">
         <v>235988.3333333334</v>
@@ -1717,7 +1924,7 @@
         <v>0.1087935138036485</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1728,10 +1935,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E35">
         <v>39758.21666666667</v>
@@ -1746,7 +1953,7 @@
         <v>0.7710858929370156</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1757,10 +1964,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E36">
         <v>74657.14285714286</v>
@@ -1775,7 +1982,7 @@
         <v>4.457577497129736</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1786,10 +1993,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E37">
         <v>500000</v>
@@ -1804,7 +2011,7 @@
         <v>0.389164</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1815,10 +2022,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="E38">
         <v>113235</v>
@@ -1833,7 +2040,7 @@
         <v>0.6954386894511414</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1844,10 +2051,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E39">
         <v>90695</v>
@@ -1862,7 +2069,7 @@
         <v>6.502001212856277</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1873,10 +2080,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E40">
         <v>176790</v>
@@ -1891,7 +2098,7 @@
         <v>0.06353300526047853</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1902,10 +2109,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E41">
         <v>15660</v>
@@ -1920,7 +2127,7 @@
         <v>8.755938697318008</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1931,10 +2138,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E42">
         <v>28554.8</v>
@@ -1949,7 +2156,7 @@
         <v>1.325241290431031</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1960,10 +2167,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E43">
         <v>34912.72727272727</v>
@@ -1978,7 +2185,7 @@
         <v>3.012798146026455</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1989,10 +2196,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E44">
         <v>96559.8</v>
@@ -2007,7 +2214,7 @@
         <v>6.712462121918231</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2018,10 +2225,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E45">
         <v>129030</v>
@@ -2036,7 +2243,7 @@
         <v>1.180477408354646</v>
       </c>
       <c r="I45" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2047,10 +2254,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E46">
         <v>145740</v>
@@ -2065,7 +2272,7 @@
         <v>1.070522848909016</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2076,10 +2283,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E47">
         <v>31576.24</v>
@@ -2094,7 +2301,7 @@
         <v>2.552647180284923</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2105,10 +2312,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E48">
         <v>54855.31111111111</v>
@@ -2123,7 +2330,7 @@
         <v>0.9403282736929353</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2134,10 +2341,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E49">
         <v>30030</v>
@@ -2152,7 +2359,7 @@
         <v>12.5002664002664</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2163,10 +2370,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D50" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E50">
         <v>18795</v>
@@ -2181,7 +2388,7 @@
         <v>14.79318967810588</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2192,10 +2399,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E51">
         <v>48162</v>
@@ -2210,7 +2417,7 @@
         <v>8.494165524687514</v>
       </c>
       <c r="I51" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2221,10 +2428,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E52">
         <v>41275.71428571428</v>
@@ -2239,7 +2446,7 @@
         <v>4.615232063129478</v>
       </c>
       <c r="I52" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2250,10 +2457,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E53">
         <v>30923.33333333334</v>
@@ -2268,7 +2475,7 @@
         <v>1.096388918831519</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2279,10 +2486,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E54">
         <v>86783.84615384616</v>
@@ -2297,7 +2504,7 @@
         <v>0.006579565498719187</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2308,10 +2515,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E55">
         <v>328228.8</v>
@@ -2326,7 +2533,7 @@
         <v>0.01132137094612051</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2337,10 +2544,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E56">
         <v>85360</v>
@@ -2355,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2366,10 +2573,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E57">
         <v>103179.8</v>
@@ -2384,7 +2591,7 @@
         <v>4.278831709307441</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2395,10 +2602,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E58">
         <v>178497.5</v>
@@ -2413,7 +2620,7 @@
         <v>3.279889074076668</v>
       </c>
       <c r="I58" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2424,10 +2631,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E59">
         <v>500000</v>
@@ -2442,7 +2649,7 @@
         <v>0.65001</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2453,10 +2660,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E60">
         <v>6183.636363636364</v>
@@ -2471,7 +2678,7 @@
         <v>0.5162011173184358</v>
       </c>
       <c r="I60" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2482,10 +2689,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="E61">
         <v>114838.4615384615</v>
@@ -2500,7 +2707,7 @@
         <v>1.08703128139862</v>
       </c>
       <c r="I61" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2511,10 +2718,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E62">
         <v>29820</v>
@@ -2529,7 +2736,7 @@
         <v>12.70107310529846</v>
       </c>
       <c r="I62" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2540,10 +2747,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E63">
         <v>145105</v>
@@ -2558,7 +2765,7 @@
         <v>4.746397436339203</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2569,10 +2776,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E64">
         <v>242106.6666666666</v>
@@ -2587,7 +2794,7 @@
         <v>3.094706190109043</v>
       </c>
       <c r="I64" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2598,10 +2805,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E65">
         <v>23150</v>
@@ -2616,7 +2823,7 @@
         <v>6.186522678185745</v>
       </c>
       <c r="I65" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2627,10 +2834,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E66">
         <v>43130</v>
@@ -2645,7 +2852,7 @@
         <v>10.75998145142592</v>
       </c>
       <c r="I66" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2656,10 +2863,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E67">
         <v>7120</v>
@@ -2674,7 +2881,7 @@
         <v>6.41376404494382</v>
       </c>
       <c r="I67" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2685,10 +2892,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E68">
         <v>12128.57142857143</v>
@@ -2703,7 +2910,7 @@
         <v>5.23243816254417</v>
       </c>
       <c r="I68" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2714,10 +2921,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E69">
         <v>75599.88333333333</v>
@@ -2732,7 +2939,7 @@
         <v>2.552940447659421</v>
       </c>
       <c r="I69" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2743,10 +2950,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E70">
         <v>239424</v>
@@ -2761,7 +2968,7 @@
         <v>0.001791800320769848</v>
       </c>
       <c r="I70" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2772,10 +2979,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E71">
         <v>79250</v>
@@ -2790,7 +2997,7 @@
         <v>2.946965299684543</v>
       </c>
       <c r="I71" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2801,10 +3008,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E72">
         <v>118868</v>
@@ -2819,7 +3026,7 @@
         <v>0.9735000168253861</v>
       </c>
       <c r="I72" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2830,10 +3037,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E73">
         <v>137844.9629629629</v>
@@ -2848,7 +3055,7 @@
         <v>0.02645000529311782</v>
       </c>
       <c r="I73" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2859,10 +3066,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E74">
         <v>5000</v>
@@ -2877,7 +3084,7 @@
         <v>0.0008</v>
       </c>
       <c r="I74" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2888,10 +3095,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E75">
         <v>15997.69230769231</v>
@@ -2906,7 +3113,7 @@
         <v>6.787854017406357</v>
       </c>
       <c r="I75" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2917,10 +3124,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E76">
         <v>28041.81818181818</v>
@@ -2935,7 +3142,7 @@
         <v>4.932383453284056</v>
       </c>
       <c r="I76" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2946,10 +3153,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E77">
         <v>14380</v>
@@ -2964,7 +3171,7 @@
         <v>4.255146036161335</v>
       </c>
       <c r="I77" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2975,10 +3182,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E78">
         <v>12800</v>
@@ -2993,7 +3200,7 @@
         <v>1.9940625</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3004,10 +3211,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E79">
         <v>190430</v>
@@ -3022,7 +3229,7 @@
         <v>2.090999317334453</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3033,10 +3240,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E80">
         <v>5327.599999999999</v>
@@ -3051,7 +3258,7 @@
         <v>0.9644117426233202</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3062,10 +3269,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E81">
         <v>27650</v>
@@ -3080,7 +3287,7 @@
         <v>14.92723327305606</v>
       </c>
       <c r="I81" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3091,10 +3298,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E82">
         <v>112594</v>
@@ -3109,7 +3316,7 @@
         <v>1.871245359433007</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3120,10 +3327,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E83">
         <v>108762.35</v>
@@ -3138,7 +3345,7 @@
         <v>6.313370389661496</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3149,10 +3356,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E84">
         <v>20715.26153846153</v>
@@ -3167,7 +3374,7 @@
         <v>1.687644635096236</v>
       </c>
       <c r="I84" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3178,10 +3385,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E85">
         <v>34610</v>
@@ -3196,7 +3403,7 @@
         <v>5.895088124819416</v>
       </c>
       <c r="I85" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3207,10 +3414,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E86">
         <v>189785.8</v>
@@ -3225,7 +3432,7 @@
         <v>0.5829361311541749</v>
       </c>
       <c r="I86" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3236,10 +3443,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D87" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E87">
         <v>25030</v>
@@ -3254,7 +3461,7 @@
         <v>0.8982421094686376</v>
       </c>
       <c r="I87" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3265,10 +3472,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E88">
         <v>26250</v>
@@ -3283,7 +3490,7 @@
         <v>27.69318095238095</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3294,10 +3501,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E89">
         <v>182169.7</v>
@@ -3312,7 +3519,7 @@
         <v>0.7091684292173726</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3323,10 +3530,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E90">
         <v>5000</v>
@@ -3341,7 +3548,7 @@
         <v>3.021</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3352,10 +3559,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E91">
         <v>184162.0370370371</v>
@@ -3370,7 +3577,7 @@
         <v>0.1561613916890822</v>
       </c>
       <c r="I91" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3381,10 +3588,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E92">
         <v>61193.33333333334</v>
@@ -3399,7 +3606,7 @@
         <v>2.240080618803791</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3410,10 +3617,10 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E93">
         <v>16520</v>
@@ -3428,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3439,10 +3646,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E94">
         <v>100229.8</v>
@@ -3457,7 +3664,7 @@
         <v>2.388171980788149</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3468,10 +3675,10 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E95">
         <v>25619.09090909091</v>
@@ -3486,7 +3693,7 @@
         <v>3.703449132394166</v>
       </c>
       <c r="I95" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3497,10 +3704,10 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E96">
         <v>56220</v>
@@ -3515,7 +3722,7 @@
         <v>21.2746709356101</v>
       </c>
       <c r="I96" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3526,10 +3733,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E97">
         <v>59610</v>
@@ -3544,7 +3751,7 @@
         <v>1.111675893306492</v>
       </c>
       <c r="I97" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3555,10 +3762,10 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E98">
         <v>57805.71428571429</v>
@@ -3573,7 +3780,7 @@
         <v>2.296018683274021</v>
       </c>
       <c r="I98" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3584,10 +3791,10 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E99">
         <v>47813.75</v>
@@ -3602,7 +3809,7 @@
         <v>10.42812998352984</v>
       </c>
       <c r="I99" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3613,10 +3820,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="D100" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E100">
         <v>7438.090909090909</v>
@@ -3631,7 +3838,7 @@
         <v>2.035871863503587</v>
       </c>
       <c r="I100" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3642,10 +3849,10 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="E101">
         <v>123740</v>
@@ -3660,7 +3867,1805 @@
         <v>2.202998222078552</v>
       </c>
       <c r="I101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>237683743490</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>182</v>
+      </c>
+      <c r="E102">
+        <v>7776.875</v>
+      </c>
+      <c r="F102">
+        <v>39244</v>
+      </c>
+      <c r="G102">
+        <v>31467.125</v>
+      </c>
+      <c r="H102">
+        <v>5.046242867475689</v>
+      </c>
+      <c r="I102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>237651346686</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103">
+        <v>47969.93333333333</v>
+      </c>
+      <c r="F103">
+        <v>309794</v>
+      </c>
+      <c r="G103">
+        <v>261824.0666666667</v>
+      </c>
+      <c r="H103">
+        <v>6.458086940569719</v>
+      </c>
+      <c r="I103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>237654508603</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104">
+        <v>107070</v>
+      </c>
+      <c r="F104">
+        <v>592377</v>
+      </c>
+      <c r="G104">
+        <v>485307</v>
+      </c>
+      <c r="H104">
+        <v>5.532614177640796</v>
+      </c>
+      <c r="I104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>237672731004</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" t="s">
+        <v>183</v>
+      </c>
+      <c r="E105">
+        <v>5000</v>
+      </c>
+      <c r="F105">
+        <v>3399</v>
+      </c>
+      <c r="G105">
+        <v>-1601</v>
+      </c>
+      <c r="H105">
+        <v>0.6798</v>
+      </c>
+      <c r="I105" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>237674884831</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" t="s">
+        <v>183</v>
+      </c>
+      <c r="E106">
+        <v>40660</v>
+      </c>
+      <c r="F106">
+        <v>1274455</v>
+      </c>
+      <c r="G106">
+        <v>1233795</v>
+      </c>
+      <c r="H106">
+        <v>31.34419576979833</v>
+      </c>
+      <c r="I106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>237675986754</v>
+      </c>
+      <c r="B107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107">
+        <v>26953.63636363636</v>
+      </c>
+      <c r="F107">
+        <v>34795</v>
+      </c>
+      <c r="G107">
+        <v>7841.363636363636</v>
+      </c>
+      <c r="H107">
+        <v>1.290920435765119</v>
+      </c>
+      <c r="I107" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>237678384388</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108">
+        <v>45439.84</v>
+      </c>
+      <c r="F108">
+        <v>5448</v>
+      </c>
+      <c r="G108">
+        <v>-39991.84</v>
+      </c>
+      <c r="H108">
+        <v>0.1198947883619309</v>
+      </c>
+      <c r="I108" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>237678559161</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>175</v>
+      </c>
+      <c r="D109" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109">
+        <v>54767.77777777778</v>
+      </c>
+      <c r="F109">
+        <v>1979</v>
+      </c>
+      <c r="G109">
+        <v>-52788.77777777778</v>
+      </c>
+      <c r="H109">
+        <v>0.03613438558763263</v>
+      </c>
+      <c r="I109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>237678872943</v>
+      </c>
+      <c r="B110" t="s">
         <v>117</v>
+      </c>
+      <c r="C110" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110">
+        <v>80918.93000000001</v>
+      </c>
+      <c r="F110">
+        <v>547970</v>
+      </c>
+      <c r="G110">
+        <v>467051.07</v>
+      </c>
+      <c r="H110">
+        <v>6.77183942002199</v>
+      </c>
+      <c r="I110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>237679244994</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="D111" t="s">
+        <v>183</v>
+      </c>
+      <c r="E111">
+        <v>500000</v>
+      </c>
+      <c r="F111">
+        <v>3889365</v>
+      </c>
+      <c r="G111">
+        <v>3389365</v>
+      </c>
+      <c r="H111">
+        <v>7.77873</v>
+      </c>
+      <c r="I111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>237679508295</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112">
+        <v>60430</v>
+      </c>
+      <c r="F112">
+        <v>55114</v>
+      </c>
+      <c r="G112">
+        <v>-5316</v>
+      </c>
+      <c r="H112">
+        <v>0.9120304484527553</v>
+      </c>
+      <c r="I112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>237679808809</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" t="s">
+        <v>175</v>
+      </c>
+      <c r="D113" t="s">
+        <v>183</v>
+      </c>
+      <c r="E113">
+        <v>27020</v>
+      </c>
+      <c r="F113">
+        <v>179628</v>
+      </c>
+      <c r="G113">
+        <v>152608</v>
+      </c>
+      <c r="H113">
+        <v>6.647964470762398</v>
+      </c>
+      <c r="I113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>237679909537</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
+      </c>
+      <c r="D114" t="s">
+        <v>183</v>
+      </c>
+      <c r="E114">
+        <v>5000</v>
+      </c>
+      <c r="F114">
+        <v>20429</v>
+      </c>
+      <c r="G114">
+        <v>15429</v>
+      </c>
+      <c r="H114">
+        <v>4.0858</v>
+      </c>
+      <c r="I114" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>237681114370</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>183</v>
+      </c>
+      <c r="E115">
+        <v>16698.33333333333</v>
+      </c>
+      <c r="F115">
+        <v>45255</v>
+      </c>
+      <c r="G115">
+        <v>28556.66666666667</v>
+      </c>
+      <c r="H115">
+        <v>2.710150713644076</v>
+      </c>
+      <c r="I115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>237681490029</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>171</v>
+      </c>
+      <c r="D116" t="s">
+        <v>183</v>
+      </c>
+      <c r="E116">
+        <v>25916.63076923077</v>
+      </c>
+      <c r="F116">
+        <v>23090</v>
+      </c>
+      <c r="G116">
+        <v>-2826.630769230771</v>
+      </c>
+      <c r="H116">
+        <v>0.8909337099254948</v>
+      </c>
+      <c r="I116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>237681655237</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117" t="s">
+        <v>183</v>
+      </c>
+      <c r="E117">
+        <v>8800</v>
+      </c>
+      <c r="F117">
+        <v>20301</v>
+      </c>
+      <c r="G117">
+        <v>11501</v>
+      </c>
+      <c r="H117">
+        <v>2.306931818181818</v>
+      </c>
+      <c r="I117" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>237676286294</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>176</v>
+      </c>
+      <c r="D118" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118">
+        <v>43870</v>
+      </c>
+      <c r="F118">
+        <v>89100</v>
+      </c>
+      <c r="G118">
+        <v>45230</v>
+      </c>
+      <c r="H118">
+        <v>2.031000683838614</v>
+      </c>
+      <c r="I118" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>237677313421</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+      <c r="E119">
+        <v>233104.6</v>
+      </c>
+      <c r="F119">
+        <v>346590</v>
+      </c>
+      <c r="G119">
+        <v>113485.4</v>
+      </c>
+      <c r="H119">
+        <v>1.486843245478639</v>
+      </c>
+      <c r="I119" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>237677880357</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>176</v>
+      </c>
+      <c r="D120" t="s">
+        <v>184</v>
+      </c>
+      <c r="E120">
+        <v>149646.6666666667</v>
+      </c>
+      <c r="F120">
+        <v>985422</v>
+      </c>
+      <c r="G120">
+        <v>835775.3333333333</v>
+      </c>
+      <c r="H120">
+        <v>6.584991312870316</v>
+      </c>
+      <c r="I120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>237678201584</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+      <c r="D121" t="s">
+        <v>184</v>
+      </c>
+      <c r="E121">
+        <v>500000</v>
+      </c>
+      <c r="F121">
+        <v>2761983</v>
+      </c>
+      <c r="G121">
+        <v>2261983</v>
+      </c>
+      <c r="H121">
+        <v>5.523966</v>
+      </c>
+      <c r="I121" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>237678239927</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122">
+        <v>12360.93333333334</v>
+      </c>
+      <c r="F122">
+        <v>52693</v>
+      </c>
+      <c r="G122">
+        <v>40332.06666666667</v>
+      </c>
+      <c r="H122">
+        <v>4.262865803013796</v>
+      </c>
+      <c r="I122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>237678623874</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+      <c r="D123" t="s">
+        <v>184</v>
+      </c>
+      <c r="E123">
+        <v>94100</v>
+      </c>
+      <c r="F123">
+        <v>493290</v>
+      </c>
+      <c r="G123">
+        <v>399190</v>
+      </c>
+      <c r="H123">
+        <v>5.242189160467587</v>
+      </c>
+      <c r="I123" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>237678637179</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>176</v>
+      </c>
+      <c r="D124" t="s">
+        <v>184</v>
+      </c>
+      <c r="E124">
+        <v>169880</v>
+      </c>
+      <c r="F124">
+        <v>1770235</v>
+      </c>
+      <c r="G124">
+        <v>1600355</v>
+      </c>
+      <c r="H124">
+        <v>10.42050270779374</v>
+      </c>
+      <c r="I124" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>237679567513</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125">
+        <v>7700</v>
+      </c>
+      <c r="F125">
+        <v>17932</v>
+      </c>
+      <c r="G125">
+        <v>10232</v>
+      </c>
+      <c r="H125">
+        <v>2.328831168831169</v>
+      </c>
+      <c r="I125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>237680119435</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" t="s">
+        <v>184</v>
+      </c>
+      <c r="E126">
+        <v>88440</v>
+      </c>
+      <c r="F126">
+        <v>997393</v>
+      </c>
+      <c r="G126">
+        <v>908953</v>
+      </c>
+      <c r="H126">
+        <v>11.27762324739937</v>
+      </c>
+      <c r="I126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>237683386020</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" t="s">
+        <v>184</v>
+      </c>
+      <c r="E127">
+        <v>27588.26086956522</v>
+      </c>
+      <c r="F127">
+        <v>32182</v>
+      </c>
+      <c r="G127">
+        <v>4593.739130434784</v>
+      </c>
+      <c r="H127">
+        <v>1.166510645674751</v>
+      </c>
+      <c r="I127" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>237683408221</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
+        <v>176</v>
+      </c>
+      <c r="D128" t="s">
+        <v>184</v>
+      </c>
+      <c r="E128">
+        <v>104380</v>
+      </c>
+      <c r="F128">
+        <v>158614</v>
+      </c>
+      <c r="G128">
+        <v>54234</v>
+      </c>
+      <c r="H128">
+        <v>1.5195822954589</v>
+      </c>
+      <c r="I128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>237650651854</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" t="s">
+        <v>185</v>
+      </c>
+      <c r="E129">
+        <v>173354.6</v>
+      </c>
+      <c r="F129">
+        <v>189550</v>
+      </c>
+      <c r="G129">
+        <v>16195.39999999999</v>
+      </c>
+      <c r="H129">
+        <v>1.093423537650573</v>
+      </c>
+      <c r="I129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>237650988697</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>175</v>
+      </c>
+      <c r="D130" t="s">
+        <v>185</v>
+      </c>
+      <c r="E130">
+        <v>112810</v>
+      </c>
+      <c r="F130">
+        <v>24132</v>
+      </c>
+      <c r="G130">
+        <v>-88678</v>
+      </c>
+      <c r="H130">
+        <v>0.2139172059214609</v>
+      </c>
+      <c r="I130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>237651809692</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+      <c r="E131">
+        <v>140210</v>
+      </c>
+      <c r="F131">
+        <v>346865</v>
+      </c>
+      <c r="G131">
+        <v>206655</v>
+      </c>
+      <c r="H131">
+        <v>2.473896298409529</v>
+      </c>
+      <c r="I131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>237652579681</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="s">
+        <v>172</v>
+      </c>
+      <c r="D132" t="s">
+        <v>185</v>
+      </c>
+      <c r="E132">
+        <v>55020</v>
+      </c>
+      <c r="F132">
+        <v>31675</v>
+      </c>
+      <c r="G132">
+        <v>-23345</v>
+      </c>
+      <c r="H132">
+        <v>0.5756997455470738</v>
+      </c>
+      <c r="I132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>237652724076</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133">
+        <v>22670</v>
+      </c>
+      <c r="F133">
+        <v>90908</v>
+      </c>
+      <c r="G133">
+        <v>68238</v>
+      </c>
+      <c r="H133">
+        <v>4.01005734450816</v>
+      </c>
+      <c r="I133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>237652958984</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" t="s">
+        <v>185</v>
+      </c>
+      <c r="E134">
+        <v>46742.5</v>
+      </c>
+      <c r="F134">
+        <v>323514</v>
+      </c>
+      <c r="G134">
+        <v>276771.5</v>
+      </c>
+      <c r="H134">
+        <v>6.92119591378296</v>
+      </c>
+      <c r="I134" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>237653239050</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135">
+        <v>344672.7272727273</v>
+      </c>
+      <c r="F135">
+        <v>134245</v>
+      </c>
+      <c r="G135">
+        <v>-210427.7272727273</v>
+      </c>
+      <c r="H135">
+        <v>0.389485414358812</v>
+      </c>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>237653472620</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>172</v>
+      </c>
+      <c r="D136" t="s">
+        <v>185</v>
+      </c>
+      <c r="E136">
+        <v>61570</v>
+      </c>
+      <c r="F136">
+        <v>113746</v>
+      </c>
+      <c r="G136">
+        <v>52176</v>
+      </c>
+      <c r="H136">
+        <v>1.847425694331655</v>
+      </c>
+      <c r="I136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>237654117741</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" t="s">
+        <v>185</v>
+      </c>
+      <c r="E137">
+        <v>54420</v>
+      </c>
+      <c r="F137">
+        <v>447505</v>
+      </c>
+      <c r="G137">
+        <v>393085</v>
+      </c>
+      <c r="H137">
+        <v>8.223171628077912</v>
+      </c>
+      <c r="I137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>237654134124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>172</v>
+      </c>
+      <c r="D138" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138">
+        <v>67415</v>
+      </c>
+      <c r="F138">
+        <v>128017</v>
+      </c>
+      <c r="G138">
+        <v>60602</v>
+      </c>
+      <c r="H138">
+        <v>1.898939405176889</v>
+      </c>
+      <c r="I138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>237670358585</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>172</v>
+      </c>
+      <c r="D139" t="s">
+        <v>185</v>
+      </c>
+      <c r="E139">
+        <v>42281.82352941176</v>
+      </c>
+      <c r="F139">
+        <v>43728</v>
+      </c>
+      <c r="G139">
+        <v>1446.176470588238</v>
+      </c>
+      <c r="H139">
+        <v>1.034203266318026</v>
+      </c>
+      <c r="I139" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>237670806337</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" t="s">
+        <v>185</v>
+      </c>
+      <c r="E140">
+        <v>100666.6666666667</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>-100664.6666666667</v>
+      </c>
+      <c r="H140">
+        <v>1.986754966887417E-05</v>
+      </c>
+      <c r="I140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>237670809743</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="s">
+        <v>172</v>
+      </c>
+      <c r="D141" t="s">
+        <v>185</v>
+      </c>
+      <c r="E141">
+        <v>43450</v>
+      </c>
+      <c r="F141">
+        <v>196945</v>
+      </c>
+      <c r="G141">
+        <v>153495</v>
+      </c>
+      <c r="H141">
+        <v>4.532681242807825</v>
+      </c>
+      <c r="I141" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>237670984670</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>172</v>
+      </c>
+      <c r="D142" t="s">
+        <v>185</v>
+      </c>
+      <c r="E142">
+        <v>35630</v>
+      </c>
+      <c r="F142">
+        <v>53719</v>
+      </c>
+      <c r="G142">
+        <v>18089</v>
+      </c>
+      <c r="H142">
+        <v>1.507690148751053</v>
+      </c>
+      <c r="I142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>237671364668</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+      <c r="D143" t="s">
+        <v>185</v>
+      </c>
+      <c r="E143">
+        <v>60745</v>
+      </c>
+      <c r="F143">
+        <v>53719</v>
+      </c>
+      <c r="G143">
+        <v>-7026</v>
+      </c>
+      <c r="H143">
+        <v>0.8843361593546794</v>
+      </c>
+      <c r="I143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>237671369692</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" t="s">
+        <v>172</v>
+      </c>
+      <c r="D144" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144">
+        <v>27325.5</v>
+      </c>
+      <c r="F144">
+        <v>29637</v>
+      </c>
+      <c r="G144">
+        <v>2311.5</v>
+      </c>
+      <c r="H144">
+        <v>1.084591315803919</v>
+      </c>
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>237674272162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" t="s">
+        <v>185</v>
+      </c>
+      <c r="E145">
+        <v>45105</v>
+      </c>
+      <c r="F145">
+        <v>36076</v>
+      </c>
+      <c r="G145">
+        <v>-9029</v>
+      </c>
+      <c r="H145">
+        <v>0.7998226360713889</v>
+      </c>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>237674431977</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" t="s">
+        <v>185</v>
+      </c>
+      <c r="E146">
+        <v>424480</v>
+      </c>
+      <c r="F146">
+        <v>197292</v>
+      </c>
+      <c r="G146">
+        <v>-227188</v>
+      </c>
+      <c r="H146">
+        <v>0.4647851488880513</v>
+      </c>
+      <c r="I146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>237674913584</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" t="s">
+        <v>185</v>
+      </c>
+      <c r="E147">
+        <v>15610</v>
+      </c>
+      <c r="F147">
+        <v>54939</v>
+      </c>
+      <c r="G147">
+        <v>39329</v>
+      </c>
+      <c r="H147">
+        <v>3.51947469570788</v>
+      </c>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>237675432472</v>
+      </c>
+      <c r="B148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" t="s">
+        <v>175</v>
+      </c>
+      <c r="D148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148">
+        <v>18430</v>
+      </c>
+      <c r="F148">
+        <v>72960</v>
+      </c>
+      <c r="G148">
+        <v>54530</v>
+      </c>
+      <c r="H148">
+        <v>3.958762886597938</v>
+      </c>
+      <c r="I148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>237675450046</v>
+      </c>
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" t="s">
+        <v>172</v>
+      </c>
+      <c r="D149" t="s">
+        <v>185</v>
+      </c>
+      <c r="E149">
+        <v>48439.80000000001</v>
+      </c>
+      <c r="F149">
+        <v>196306</v>
+      </c>
+      <c r="G149">
+        <v>147866.2</v>
+      </c>
+      <c r="H149">
+        <v>4.052576600233691</v>
+      </c>
+      <c r="I149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>237675641522</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" t="s">
+        <v>175</v>
+      </c>
+      <c r="D150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150">
+        <v>86620</v>
+      </c>
+      <c r="F150">
+        <v>200345</v>
+      </c>
+      <c r="G150">
+        <v>113725</v>
+      </c>
+      <c r="H150">
+        <v>2.312918494574002</v>
+      </c>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>237676270842</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151">
+        <v>36730</v>
+      </c>
+      <c r="F151">
+        <v>42664</v>
+      </c>
+      <c r="G151">
+        <v>5934</v>
+      </c>
+      <c r="H151">
+        <v>1.161557310100735</v>
+      </c>
+      <c r="I151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>237677525770</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="s">
+        <v>185</v>
+      </c>
+      <c r="E152">
+        <v>15280</v>
+      </c>
+      <c r="F152">
+        <v>32834</v>
+      </c>
+      <c r="G152">
+        <v>17554</v>
+      </c>
+      <c r="H152">
+        <v>2.148821989528796</v>
+      </c>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>237679071551</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153" t="s">
+        <v>185</v>
+      </c>
+      <c r="E153">
+        <v>63140</v>
+      </c>
+      <c r="F153">
+        <v>94572</v>
+      </c>
+      <c r="G153">
+        <v>31432</v>
+      </c>
+      <c r="H153">
+        <v>1.49781438074121</v>
+      </c>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>237680472978</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" t="s">
+        <v>175</v>
+      </c>
+      <c r="D154" t="s">
+        <v>185</v>
+      </c>
+      <c r="E154">
+        <v>53706.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>208608</v>
+      </c>
+      <c r="G154">
+        <v>154901.3333333333</v>
+      </c>
+      <c r="H154">
+        <v>3.88421052631579</v>
+      </c>
+      <c r="I154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>237681102046</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+      <c r="D155" t="s">
+        <v>185</v>
+      </c>
+      <c r="E155">
+        <v>84169.8</v>
+      </c>
+      <c r="F155">
+        <v>239792</v>
+      </c>
+      <c r="G155">
+        <v>155622.2</v>
+      </c>
+      <c r="H155">
+        <v>2.848907803036243</v>
+      </c>
+      <c r="I155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>237682368679</v>
+      </c>
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" t="s">
+        <v>185</v>
+      </c>
+      <c r="E156">
+        <v>219379.0363636363</v>
+      </c>
+      <c r="F156">
+        <v>46429</v>
+      </c>
+      <c r="G156">
+        <v>-172950.0363636363</v>
+      </c>
+      <c r="H156">
+        <v>0.2116382712295291</v>
+      </c>
+      <c r="I156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>237683360459</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" t="s">
+        <v>171</v>
+      </c>
+      <c r="D157" t="s">
+        <v>185</v>
+      </c>
+      <c r="E157">
+        <v>5000</v>
+      </c>
+      <c r="F157">
+        <v>4570</v>
+      </c>
+      <c r="G157">
+        <v>-430</v>
+      </c>
+      <c r="H157">
+        <v>0.914</v>
+      </c>
+      <c r="I157" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>237652899422</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>186</v>
+      </c>
+      <c r="E158">
+        <v>68881.36363636363</v>
+      </c>
+      <c r="F158">
+        <v>465194</v>
+      </c>
+      <c r="G158">
+        <v>396312.6363636364</v>
+      </c>
+      <c r="H158">
+        <v>6.753553870620765</v>
+      </c>
+      <c r="I158" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>237670904526</v>
+      </c>
+      <c r="B159" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" t="s">
+        <v>177</v>
+      </c>
+      <c r="D159" t="s">
+        <v>186</v>
+      </c>
+      <c r="E159">
+        <v>352072.5</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>-352072.5</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>237671105116</v>
+      </c>
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160" t="s">
+        <v>172</v>
+      </c>
+      <c r="D160" t="s">
+        <v>186</v>
+      </c>
+      <c r="E160">
+        <v>112588.4615384615</v>
+      </c>
+      <c r="F160">
+        <v>49</v>
+      </c>
+      <c r="G160">
+        <v>-112539.4615384615</v>
+      </c>
+      <c r="H160">
+        <v>0.0004352133365217095</v>
+      </c>
+      <c r="I160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>237672916354</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161" t="s">
+        <v>186</v>
+      </c>
+      <c r="E161">
+        <v>24826.15384615385</v>
+      </c>
+      <c r="F161">
+        <v>194587</v>
+      </c>
+      <c r="G161">
+        <v>169760.8461538462</v>
+      </c>
+      <c r="H161">
+        <v>7.837984135836896</v>
+      </c>
+      <c r="I161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>237672920086</v>
+      </c>
+      <c r="B162" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
+        <v>177</v>
+      </c>
+      <c r="D162" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162">
+        <v>113740</v>
+      </c>
+      <c r="F162">
+        <v>251718</v>
+      </c>
+      <c r="G162">
+        <v>137978</v>
+      </c>
+      <c r="H162">
+        <v>2.21310005275189</v>
+      </c>
+      <c r="I162" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>237674000053</v>
+      </c>
+      <c r="B163" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>177</v>
+      </c>
+      <c r="D163" t="s">
+        <v>186</v>
+      </c>
+      <c r="E163">
+        <v>56545</v>
+      </c>
+      <c r="F163">
+        <v>290575</v>
+      </c>
+      <c r="G163">
+        <v>234030</v>
+      </c>
+      <c r="H163">
+        <v>5.138827482536033</v>
+      </c>
+      <c r="I163" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="192">
   <si>
     <t>Numero</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>YVETTE LAURE NGANDO SIMO EPSE DIMO</t>
+  </si>
+  <si>
+    <t>BEATRICE TCHAMTIEU EPSE NGAMENI</t>
+  </si>
+  <si>
+    <t>VIVIANE MADJUIMEKEM FOMEKONG</t>
+  </si>
+  <si>
+    <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+  </si>
+  <si>
+    <t>MFS MAKEPE MATURITE</t>
   </si>
   <si>
     <t>Rte_0</t>
@@ -935,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E2">
         <v>19150</v>
@@ -996,7 +1008,7 @@
         <v>1.415770234986945</v>
       </c>
       <c r="I2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1007,10 +1019,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -1025,7 +1037,7 @@
         <v>3.0728</v>
       </c>
       <c r="I3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1036,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>84390</v>
@@ -1054,7 +1066,7 @@
         <v>0.1093731484773077</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1065,10 +1077,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>260865</v>
@@ -1083,7 +1095,7 @@
         <v>2.685546163724532</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1094,10 +1106,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E6">
         <v>28141.53846153846</v>
@@ -1112,7 +1124,7 @@
         <v>1.233443581893724</v>
       </c>
       <c r="I6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1123,10 +1135,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>38670</v>
@@ -1141,7 +1153,7 @@
         <v>17.1059219032842</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1152,10 +1164,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E8">
         <v>46826</v>
@@ -1170,7 +1182,7 @@
         <v>0.4723871353521548</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1181,10 +1193,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E9">
         <v>14676.42857142857</v>
@@ -1199,7 +1211,7 @@
         <v>5.942658295614932</v>
       </c>
       <c r="I9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1210,10 +1222,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E10">
         <v>13250</v>
@@ -1228,7 +1240,7 @@
         <v>0.6353207547169811</v>
       </c>
       <c r="I10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1239,10 +1251,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E11">
         <v>8935.719999999999</v>
@@ -1257,7 +1269,7 @@
         <v>1.570326733604007</v>
       </c>
       <c r="I11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1268,10 +1280,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E12">
         <v>223404</v>
@@ -1286,7 +1298,7 @@
         <v>1.613655082272475</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1297,10 +1309,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>5493.333333333333</v>
@@ -1315,7 +1327,7 @@
         <v>2.123118932038835</v>
       </c>
       <c r="I13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1326,10 +1338,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E14">
         <v>284192.6444444444</v>
@@ -1344,7 +1356,7 @@
         <v>0.147498539527452</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1355,10 +1367,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E15">
         <v>7220</v>
@@ -1373,7 +1385,7 @@
         <v>3.068975069252077</v>
       </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1384,10 +1396,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>38878.39000000001</v>
@@ -1402,7 +1414,7 @@
         <v>1.854397777274213</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1413,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E17">
         <v>7380.523076923077</v>
@@ -1431,7 +1443,7 @@
         <v>0.5148686563804108</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1442,10 +1454,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E18">
         <v>26419.66666666666</v>
@@ -1460,7 +1472,7 @@
         <v>0.9661741884202428</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1471,10 +1483,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>39192.5</v>
@@ -1489,7 +1501,7 @@
         <v>0.006174650762263188</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1500,10 +1512,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E20">
         <v>333240</v>
@@ -1518,7 +1530,7 @@
         <v>0.940406313767855</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1529,10 +1541,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E21">
         <v>62720</v>
@@ -1547,7 +1559,7 @@
         <v>4.549250637755102</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1558,10 +1570,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E22">
         <v>38170</v>
@@ -1576,7 +1588,7 @@
         <v>6.635472884464239</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1587,10 +1599,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E23">
         <v>172860</v>
@@ -1605,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1616,10 +1628,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E24">
         <v>53438.45714285715</v>
@@ -1634,7 +1646,7 @@
         <v>1.492913610636748</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1645,10 +1657,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E25">
         <v>55864.54545454546</v>
@@ -1663,7 +1675,7 @@
         <v>2.86292493205969</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1674,10 +1686,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E26">
         <v>18750</v>
@@ -1692,7 +1704,7 @@
         <v>0.8024</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1703,10 +1715,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E27">
         <v>14265</v>
@@ -1721,7 +1733,7 @@
         <v>2.024956186470382</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1732,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E28">
         <v>271168</v>
@@ -1750,7 +1762,7 @@
         <v>0.4647119129100779</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1761,10 +1773,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E29">
         <v>35537.4</v>
@@ -1779,7 +1791,7 @@
         <v>0.6158300832362524</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1790,10 +1802,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>195936.25</v>
@@ -1808,7 +1820,7 @@
         <v>1.659478529368609</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1819,10 +1831,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E31">
         <v>136459.0909090909</v>
@@ -1837,7 +1849,7 @@
         <v>2.140524299656907</v>
       </c>
       <c r="I31" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1848,10 +1860,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>159153.3333333333</v>
@@ -1866,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1877,10 +1889,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>41870</v>
@@ -1895,7 +1907,7 @@
         <v>0.03694769524719369</v>
       </c>
       <c r="I33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1906,10 +1918,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E34">
         <v>235988.3333333334</v>
@@ -1924,7 +1936,7 @@
         <v>0.1087935138036485</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1935,10 +1947,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>39758.21666666667</v>
@@ -1953,7 +1965,7 @@
         <v>0.7710858929370156</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1964,10 +1976,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E36">
         <v>74657.14285714286</v>
@@ -1982,7 +1994,7 @@
         <v>4.457577497129736</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1993,10 +2005,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>500000</v>
@@ -2011,7 +2023,7 @@
         <v>0.389164</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2022,10 +2034,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E38">
         <v>113235</v>
@@ -2040,7 +2052,7 @@
         <v>0.6954386894511414</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2051,10 +2063,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>90695</v>
@@ -2069,7 +2081,7 @@
         <v>6.502001212856277</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2080,10 +2092,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>176790</v>
@@ -2098,7 +2110,7 @@
         <v>0.06353300526047853</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2109,10 +2121,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>15660</v>
@@ -2127,7 +2139,7 @@
         <v>8.755938697318008</v>
       </c>
       <c r="I41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2138,10 +2150,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E42">
         <v>28554.8</v>
@@ -2156,7 +2168,7 @@
         <v>1.325241290431031</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2167,10 +2179,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>34912.72727272727</v>
@@ -2185,7 +2197,7 @@
         <v>3.012798146026455</v>
       </c>
       <c r="I43" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2196,10 +2208,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E44">
         <v>96559.8</v>
@@ -2214,7 +2226,7 @@
         <v>6.712462121918231</v>
       </c>
       <c r="I44" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2225,10 +2237,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E45">
         <v>129030</v>
@@ -2243,7 +2255,7 @@
         <v>1.180477408354646</v>
       </c>
       <c r="I45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2254,10 +2266,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E46">
         <v>145740</v>
@@ -2272,7 +2284,7 @@
         <v>1.070522848909016</v>
       </c>
       <c r="I46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2283,10 +2295,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E47">
         <v>31576.24</v>
@@ -2301,7 +2313,7 @@
         <v>2.552647180284923</v>
       </c>
       <c r="I47" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2312,10 +2324,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <v>54855.31111111111</v>
@@ -2330,7 +2342,7 @@
         <v>0.9403282736929353</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2341,10 +2353,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E49">
         <v>30030</v>
@@ -2359,7 +2371,7 @@
         <v>12.5002664002664</v>
       </c>
       <c r="I49" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2370,10 +2382,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E50">
         <v>18795</v>
@@ -2388,7 +2400,7 @@
         <v>14.79318967810588</v>
       </c>
       <c r="I50" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2399,10 +2411,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E51">
         <v>48162</v>
@@ -2417,7 +2429,7 @@
         <v>8.494165524687514</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2428,10 +2440,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E52">
         <v>41275.71428571428</v>
@@ -2446,7 +2458,7 @@
         <v>4.615232063129478</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2457,10 +2469,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E53">
         <v>30923.33333333334</v>
@@ -2475,7 +2487,7 @@
         <v>1.096388918831519</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2486,10 +2498,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E54">
         <v>86783.84615384616</v>
@@ -2504,7 +2516,7 @@
         <v>0.006579565498719187</v>
       </c>
       <c r="I54" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2515,10 +2527,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E55">
         <v>328228.8</v>
@@ -2533,7 +2545,7 @@
         <v>0.01132137094612051</v>
       </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2544,10 +2556,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E56">
         <v>85360</v>
@@ -2562,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2573,10 +2585,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E57">
         <v>103179.8</v>
@@ -2591,7 +2603,7 @@
         <v>4.278831709307441</v>
       </c>
       <c r="I57" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2602,10 +2614,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>178497.5</v>
@@ -2620,7 +2632,7 @@
         <v>3.279889074076668</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2631,10 +2643,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E59">
         <v>500000</v>
@@ -2649,7 +2661,7 @@
         <v>0.65001</v>
       </c>
       <c r="I59" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2660,10 +2672,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E60">
         <v>6183.636363636364</v>
@@ -2678,7 +2690,7 @@
         <v>0.5162011173184358</v>
       </c>
       <c r="I60" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2689,10 +2701,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E61">
         <v>114838.4615384615</v>
@@ -2707,7 +2719,7 @@
         <v>1.08703128139862</v>
       </c>
       <c r="I61" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2718,10 +2730,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E62">
         <v>29820</v>
@@ -2736,7 +2748,7 @@
         <v>12.70107310529846</v>
       </c>
       <c r="I62" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2747,10 +2759,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E63">
         <v>145105</v>
@@ -2765,7 +2777,7 @@
         <v>4.746397436339203</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2776,10 +2788,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E64">
         <v>242106.6666666666</v>
@@ -2794,7 +2806,7 @@
         <v>3.094706190109043</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2805,10 +2817,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E65">
         <v>23150</v>
@@ -2823,7 +2835,7 @@
         <v>6.186522678185745</v>
       </c>
       <c r="I65" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2834,10 +2846,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E66">
         <v>43130</v>
@@ -2852,7 +2864,7 @@
         <v>10.75998145142592</v>
       </c>
       <c r="I66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2863,10 +2875,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E67">
         <v>7120</v>
@@ -2881,7 +2893,7 @@
         <v>6.41376404494382</v>
       </c>
       <c r="I67" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2892,10 +2904,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E68">
         <v>12128.57142857143</v>
@@ -2910,7 +2922,7 @@
         <v>5.23243816254417</v>
       </c>
       <c r="I68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2921,10 +2933,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E69">
         <v>75599.88333333333</v>
@@ -2939,7 +2951,7 @@
         <v>2.552940447659421</v>
       </c>
       <c r="I69" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2950,10 +2962,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E70">
         <v>239424</v>
@@ -2968,7 +2980,7 @@
         <v>0.001791800320769848</v>
       </c>
       <c r="I70" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2979,10 +2991,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>79250</v>
@@ -2997,7 +3009,7 @@
         <v>2.946965299684543</v>
       </c>
       <c r="I71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3008,10 +3020,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E72">
         <v>118868</v>
@@ -3026,7 +3038,7 @@
         <v>0.9735000168253861</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3037,10 +3049,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E73">
         <v>137844.9629629629</v>
@@ -3055,7 +3067,7 @@
         <v>0.02645000529311782</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3066,10 +3078,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E74">
         <v>5000</v>
@@ -3084,7 +3096,7 @@
         <v>0.0008</v>
       </c>
       <c r="I74" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3095,10 +3107,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E75">
         <v>15997.69230769231</v>
@@ -3113,7 +3125,7 @@
         <v>6.787854017406357</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3124,10 +3136,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E76">
         <v>28041.81818181818</v>
@@ -3142,7 +3154,7 @@
         <v>4.932383453284056</v>
       </c>
       <c r="I76" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3153,10 +3165,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E77">
         <v>14380</v>
@@ -3171,7 +3183,7 @@
         <v>4.255146036161335</v>
       </c>
       <c r="I77" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3182,10 +3194,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>12800</v>
@@ -3200,7 +3212,7 @@
         <v>1.9940625</v>
       </c>
       <c r="I78" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3211,10 +3223,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E79">
         <v>190430</v>
@@ -3229,7 +3241,7 @@
         <v>2.090999317334453</v>
       </c>
       <c r="I79" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3240,10 +3252,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E80">
         <v>5327.599999999999</v>
@@ -3258,7 +3270,7 @@
         <v>0.9644117426233202</v>
       </c>
       <c r="I80" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3269,10 +3281,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E81">
         <v>27650</v>
@@ -3287,7 +3299,7 @@
         <v>14.92723327305606</v>
       </c>
       <c r="I81" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3298,10 +3310,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E82">
         <v>112594</v>
@@ -3316,7 +3328,7 @@
         <v>1.871245359433007</v>
       </c>
       <c r="I82" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3327,10 +3339,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E83">
         <v>108762.35</v>
@@ -3345,7 +3357,7 @@
         <v>6.313370389661496</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3356,10 +3368,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E84">
         <v>20715.26153846153</v>
@@ -3374,7 +3386,7 @@
         <v>1.687644635096236</v>
       </c>
       <c r="I84" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3385,10 +3397,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E85">
         <v>34610</v>
@@ -3403,7 +3415,7 @@
         <v>5.895088124819416</v>
       </c>
       <c r="I85" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3414,10 +3426,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E86">
         <v>189785.8</v>
@@ -3432,7 +3444,7 @@
         <v>0.5829361311541749</v>
       </c>
       <c r="I86" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3443,10 +3455,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E87">
         <v>25030</v>
@@ -3461,7 +3473,7 @@
         <v>0.8982421094686376</v>
       </c>
       <c r="I87" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3472,10 +3484,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E88">
         <v>26250</v>
@@ -3490,7 +3502,7 @@
         <v>27.69318095238095</v>
       </c>
       <c r="I88" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3501,10 +3513,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E89">
         <v>182169.7</v>
@@ -3519,7 +3531,7 @@
         <v>0.7091684292173726</v>
       </c>
       <c r="I89" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3530,10 +3542,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E90">
         <v>5000</v>
@@ -3548,7 +3560,7 @@
         <v>3.021</v>
       </c>
       <c r="I90" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3559,10 +3571,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E91">
         <v>184162.0370370371</v>
@@ -3577,7 +3589,7 @@
         <v>0.1561613916890822</v>
       </c>
       <c r="I91" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3588,10 +3600,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E92">
         <v>61193.33333333334</v>
@@ -3606,7 +3618,7 @@
         <v>2.240080618803791</v>
       </c>
       <c r="I92" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3617,10 +3629,10 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E93">
         <v>16520</v>
@@ -3635,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3646,10 +3658,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E94">
         <v>100229.8</v>
@@ -3664,7 +3676,7 @@
         <v>2.388171980788149</v>
       </c>
       <c r="I94" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3675,10 +3687,10 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E95">
         <v>25619.09090909091</v>
@@ -3693,7 +3705,7 @@
         <v>3.703449132394166</v>
       </c>
       <c r="I95" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3704,10 +3716,10 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D96" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E96">
         <v>56220</v>
@@ -3722,7 +3734,7 @@
         <v>21.2746709356101</v>
       </c>
       <c r="I96" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3733,10 +3745,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E97">
         <v>59610</v>
@@ -3751,7 +3763,7 @@
         <v>1.111675893306492</v>
       </c>
       <c r="I97" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3762,10 +3774,10 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E98">
         <v>57805.71428571429</v>
@@ -3780,7 +3792,7 @@
         <v>2.296018683274021</v>
       </c>
       <c r="I98" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3791,10 +3803,10 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E99">
         <v>47813.75</v>
@@ -3809,7 +3821,7 @@
         <v>10.42812998352984</v>
       </c>
       <c r="I99" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3820,10 +3832,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E100">
         <v>7438.090909090909</v>
@@ -3838,7 +3850,7 @@
         <v>2.035871863503587</v>
       </c>
       <c r="I100" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3849,10 +3861,10 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E101">
         <v>123740</v>
@@ -3867,7 +3879,7 @@
         <v>2.202998222078552</v>
       </c>
       <c r="I101" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3878,10 +3890,10 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D102" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E102">
         <v>7776.875</v>
@@ -3896,7 +3908,7 @@
         <v>5.046242867475689</v>
       </c>
       <c r="I102" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3907,10 +3919,10 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E103">
         <v>47969.93333333333</v>
@@ -3925,7 +3937,7 @@
         <v>6.458086940569719</v>
       </c>
       <c r="I103" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3936,10 +3948,10 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E104">
         <v>107070</v>
@@ -3954,7 +3966,7 @@
         <v>5.532614177640796</v>
       </c>
       <c r="I104" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3965,10 +3977,10 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E105">
         <v>5000</v>
@@ -3983,7 +3995,7 @@
         <v>0.6798</v>
       </c>
       <c r="I105" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3994,10 +4006,10 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E106">
         <v>40660</v>
@@ -4012,7 +4024,7 @@
         <v>31.34419576979833</v>
       </c>
       <c r="I106" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4023,10 +4035,10 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E107">
         <v>26953.63636363636</v>
@@ -4041,7 +4053,7 @@
         <v>1.290920435765119</v>
       </c>
       <c r="I107" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4052,10 +4064,10 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E108">
         <v>45439.84</v>
@@ -4070,7 +4082,7 @@
         <v>0.1198947883619309</v>
       </c>
       <c r="I108" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4081,10 +4093,10 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E109">
         <v>54767.77777777778</v>
@@ -4099,7 +4111,7 @@
         <v>0.03613438558763263</v>
       </c>
       <c r="I109" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4110,10 +4122,10 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D110" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E110">
         <v>80918.93000000001</v>
@@ -4128,7 +4140,7 @@
         <v>6.77183942002199</v>
       </c>
       <c r="I110" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4139,10 +4151,10 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E111">
         <v>500000</v>
@@ -4157,7 +4169,7 @@
         <v>7.77873</v>
       </c>
       <c r="I111" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4168,10 +4180,10 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E112">
         <v>60430</v>
@@ -4186,7 +4198,7 @@
         <v>0.9120304484527553</v>
       </c>
       <c r="I112" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4197,10 +4209,10 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E113">
         <v>27020</v>
@@ -4215,7 +4227,7 @@
         <v>6.647964470762398</v>
       </c>
       <c r="I113" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4226,10 +4238,10 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E114">
         <v>5000</v>
@@ -4244,7 +4256,7 @@
         <v>4.0858</v>
       </c>
       <c r="I114" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4255,10 +4267,10 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E115">
         <v>16698.33333333333</v>
@@ -4273,7 +4285,7 @@
         <v>2.710150713644076</v>
       </c>
       <c r="I115" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4284,10 +4296,10 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E116">
         <v>25916.63076923077</v>
@@ -4302,7 +4314,7 @@
         <v>0.8909337099254948</v>
       </c>
       <c r="I116" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4313,10 +4325,10 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E117">
         <v>8800</v>
@@ -4331,7 +4343,7 @@
         <v>2.306931818181818</v>
       </c>
       <c r="I117" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4342,10 +4354,10 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E118">
         <v>43870</v>
@@ -4360,7 +4372,7 @@
         <v>2.031000683838614</v>
       </c>
       <c r="I118" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4371,10 +4383,10 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E119">
         <v>233104.6</v>
@@ -4389,7 +4401,7 @@
         <v>1.486843245478639</v>
       </c>
       <c r="I119" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4400,10 +4412,10 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E120">
         <v>149646.6666666667</v>
@@ -4418,7 +4430,7 @@
         <v>6.584991312870316</v>
       </c>
       <c r="I120" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4429,10 +4441,10 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E121">
         <v>500000</v>
@@ -4447,7 +4459,7 @@
         <v>5.523966</v>
       </c>
       <c r="I121" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4458,10 +4470,10 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E122">
         <v>12360.93333333334</v>
@@ -4476,7 +4488,7 @@
         <v>4.262865803013796</v>
       </c>
       <c r="I122" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4487,10 +4499,10 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D123" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E123">
         <v>94100</v>
@@ -4505,7 +4517,7 @@
         <v>5.242189160467587</v>
       </c>
       <c r="I123" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4516,10 +4528,10 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D124" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E124">
         <v>169880</v>
@@ -4534,7 +4546,7 @@
         <v>10.42050270779374</v>
       </c>
       <c r="I124" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4545,10 +4557,10 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E125">
         <v>7700</v>
@@ -4563,7 +4575,7 @@
         <v>2.328831168831169</v>
       </c>
       <c r="I125" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4574,10 +4586,10 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E126">
         <v>88440</v>
@@ -4592,7 +4604,7 @@
         <v>11.27762324739937</v>
       </c>
       <c r="I126" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4603,10 +4615,10 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E127">
         <v>27588.26086956522</v>
@@ -4621,7 +4633,7 @@
         <v>1.166510645674751</v>
       </c>
       <c r="I127" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4632,10 +4644,10 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E128">
         <v>104380</v>
@@ -4650,7 +4662,7 @@
         <v>1.5195822954589</v>
       </c>
       <c r="I128" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4661,10 +4673,10 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E129">
         <v>173354.6</v>
@@ -4679,7 +4691,7 @@
         <v>1.093423537650573</v>
       </c>
       <c r="I129" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4690,10 +4702,10 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E130">
         <v>112810</v>
@@ -4708,7 +4720,7 @@
         <v>0.2139172059214609</v>
       </c>
       <c r="I130" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4719,10 +4731,10 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E131">
         <v>140210</v>
@@ -4737,7 +4749,7 @@
         <v>2.473896298409529</v>
       </c>
       <c r="I131" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4748,10 +4760,10 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E132">
         <v>55020</v>
@@ -4766,7 +4778,7 @@
         <v>0.5756997455470738</v>
       </c>
       <c r="I132" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4777,10 +4789,10 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E133">
         <v>22670</v>
@@ -4795,7 +4807,7 @@
         <v>4.01005734450816</v>
       </c>
       <c r="I133" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4806,10 +4818,10 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E134">
         <v>46742.5</v>
@@ -4824,7 +4836,7 @@
         <v>6.92119591378296</v>
       </c>
       <c r="I134" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4835,10 +4847,10 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E135">
         <v>344672.7272727273</v>
@@ -4853,7 +4865,7 @@
         <v>0.389485414358812</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4864,10 +4876,10 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E136">
         <v>61570</v>
@@ -4882,7 +4894,7 @@
         <v>1.847425694331655</v>
       </c>
       <c r="I136" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4893,10 +4905,10 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E137">
         <v>54420</v>
@@ -4911,7 +4923,7 @@
         <v>8.223171628077912</v>
       </c>
       <c r="I137" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4922,10 +4934,10 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E138">
         <v>67415</v>
@@ -4940,7 +4952,7 @@
         <v>1.898939405176889</v>
       </c>
       <c r="I138" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4951,10 +4963,10 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E139">
         <v>42281.82352941176</v>
@@ -4969,7 +4981,7 @@
         <v>1.034203266318026</v>
       </c>
       <c r="I139" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4980,10 +4992,10 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D140" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E140">
         <v>100666.6666666667</v>
@@ -4998,7 +5010,7 @@
         <v>1.986754966887417E-05</v>
       </c>
       <c r="I140" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5009,10 +5021,10 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E141">
         <v>43450</v>
@@ -5027,7 +5039,7 @@
         <v>4.532681242807825</v>
       </c>
       <c r="I141" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5038,10 +5050,10 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>35630</v>
@@ -5056,7 +5068,7 @@
         <v>1.507690148751053</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5067,10 +5079,10 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E143">
         <v>60745</v>
@@ -5085,7 +5097,7 @@
         <v>0.8843361593546794</v>
       </c>
       <c r="I143" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5096,10 +5108,10 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E144">
         <v>27325.5</v>
@@ -5114,7 +5126,7 @@
         <v>1.084591315803919</v>
       </c>
       <c r="I144" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5125,10 +5137,10 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E145">
         <v>45105</v>
@@ -5143,7 +5155,7 @@
         <v>0.7998226360713889</v>
       </c>
       <c r="I145" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5154,10 +5166,10 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E146">
         <v>424480</v>
@@ -5172,7 +5184,7 @@
         <v>0.4647851488880513</v>
       </c>
       <c r="I146" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5183,10 +5195,10 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E147">
         <v>15610</v>
@@ -5201,7 +5213,7 @@
         <v>3.51947469570788</v>
       </c>
       <c r="I147" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5212,10 +5224,10 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E148">
         <v>18430</v>
@@ -5230,7 +5242,7 @@
         <v>3.958762886597938</v>
       </c>
       <c r="I148" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5241,10 +5253,10 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E149">
         <v>48439.80000000001</v>
@@ -5259,7 +5271,7 @@
         <v>4.052576600233691</v>
       </c>
       <c r="I149" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5270,10 +5282,10 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E150">
         <v>86620</v>
@@ -5288,7 +5300,7 @@
         <v>2.312918494574002</v>
       </c>
       <c r="I150" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5299,10 +5311,10 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E151">
         <v>36730</v>
@@ -5317,7 +5329,7 @@
         <v>1.161557310100735</v>
       </c>
       <c r="I151" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5328,10 +5340,10 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E152">
         <v>15280</v>
@@ -5346,7 +5358,7 @@
         <v>2.148821989528796</v>
       </c>
       <c r="I152" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5357,10 +5369,10 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E153">
         <v>63140</v>
@@ -5375,7 +5387,7 @@
         <v>1.49781438074121</v>
       </c>
       <c r="I153" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5386,10 +5398,10 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D154" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E154">
         <v>53706.66666666666</v>
@@ -5404,7 +5416,7 @@
         <v>3.88421052631579</v>
       </c>
       <c r="I154" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5415,10 +5427,10 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E155">
         <v>84169.8</v>
@@ -5433,7 +5445,7 @@
         <v>2.848907803036243</v>
       </c>
       <c r="I155" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5444,10 +5456,10 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E156">
         <v>219379.0363636363</v>
@@ -5462,7 +5474,7 @@
         <v>0.2116382712295291</v>
       </c>
       <c r="I156" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5473,10 +5485,10 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E157">
         <v>5000</v>
@@ -5491,7 +5503,7 @@
         <v>0.914</v>
       </c>
       <c r="I157" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5502,10 +5514,10 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D158" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E158">
         <v>68881.36363636363</v>
@@ -5520,7 +5532,7 @@
         <v>6.753553870620765</v>
       </c>
       <c r="I158" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5531,10 +5543,10 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D159" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E159">
         <v>352072.5</v>
@@ -5549,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5560,10 +5572,10 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D160" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E160">
         <v>112588.4615384615</v>
@@ -5578,7 +5590,7 @@
         <v>0.0004352133365217095</v>
       </c>
       <c r="I160" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5589,10 +5601,10 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D161" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E161">
         <v>24826.15384615385</v>
@@ -5607,7 +5619,7 @@
         <v>7.837984135836896</v>
       </c>
       <c r="I161" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5618,10 +5630,10 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D162" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E162">
         <v>113740</v>
@@ -5636,7 +5648,7 @@
         <v>2.21310005275189</v>
       </c>
       <c r="I162" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5647,10 +5659,10 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E163">
         <v>56545</v>
@@ -5665,7 +5677,123 @@
         <v>5.138827482536033</v>
       </c>
       <c r="I163" t="s">
-        <v>187</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>237674841555</v>
+      </c>
+      <c r="B164" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164">
+        <v>150379.6</v>
+      </c>
+      <c r="F164">
+        <v>790555</v>
+      </c>
+      <c r="G164">
+        <v>640175.4</v>
+      </c>
+      <c r="H164">
+        <v>5.257062793091616</v>
+      </c>
+      <c r="I164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>237674899678</v>
+      </c>
+      <c r="B165" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" t="s">
+        <v>181</v>
+      </c>
+      <c r="D165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165">
+        <v>159035.175</v>
+      </c>
+      <c r="F165">
+        <v>507599</v>
+      </c>
+      <c r="G165">
+        <v>348563.825</v>
+      </c>
+      <c r="H165">
+        <v>3.191740443584258</v>
+      </c>
+      <c r="I165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>237676439452</v>
+      </c>
+      <c r="B166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166" t="s">
+        <v>181</v>
+      </c>
+      <c r="D166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166">
+        <v>87377.35000000001</v>
+      </c>
+      <c r="F166">
+        <v>9597</v>
+      </c>
+      <c r="G166">
+        <v>-77780.35000000001</v>
+      </c>
+      <c r="H166">
+        <v>0.1098339558249363</v>
+      </c>
+      <c r="I166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>237676695935</v>
+      </c>
+      <c r="B167" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" t="s">
+        <v>181</v>
+      </c>
+      <c r="D167" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167">
+        <v>88445</v>
+      </c>
+      <c r="F167">
+        <v>312534</v>
+      </c>
+      <c r="G167">
+        <v>224089</v>
+      </c>
+      <c r="H167">
+        <v>3.53365368307988</v>
+      </c>
+      <c r="I167" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="276">
   <si>
     <t>Numero</t>
   </si>
@@ -541,6 +541,237 @@
     <t>MFS MAKEPE MATURITE</t>
   </si>
   <si>
+    <t>JOSEPHINE CLAIRE NGUENKAM KADJI</t>
+  </si>
+  <si>
+    <t>DJUFFO TSOATA MARIE NOEL KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 32</t>
+  </si>
+  <si>
+    <t>NGUIAZONG DORIANE LAURE KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>DZEUMAZONG FLORENCE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MENANDJIO HORTENSE BIENVENUE</t>
+  </si>
+  <si>
+    <t>CHRISTINE METCHU BEMMO EPSE NONO</t>
+  </si>
+  <si>
+    <t>KOUBINOM DIPITA SARIETTE CRISTELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS TCHATCHOUANG PAUL  ETP LTDLA CBOX RO MEGAPTCHE VICTORINE</t>
+  </si>
+  <si>
+    <t>BEGO FOGUE CHRISTELLE KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>mireille emcheu</t>
+  </si>
+  <si>
+    <t>MFS MEYIMDOUNG MARIE LOUISE</t>
+  </si>
+  <si>
+    <t>FOTSO PASCAL KAMILAH CONNECTION GROUP</t>
+  </si>
+  <si>
+    <t>HAPSATOU N A MINDEM SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R0 OKALA NTCHAGOU Ernest</t>
+  </si>
+  <si>
+    <t>KAMILAH CONNECTION LTDLA CBOX R1 KEUBOU CHANCELINE</t>
+  </si>
+  <si>
+    <t>NGO TONYE ELISE AUDREY STYLE.COM</t>
+  </si>
+  <si>
+    <t>ROMARIC TRESOR TCHOUNKEU MBAKOP ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>FINGO FOTO SOPHIE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>DESIRE MAGINZANG MBOUEZKO</t>
+  </si>
+  <si>
+    <t>FABRICE VALEX MOKENG</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 68</t>
+  </si>
+  <si>
+    <t>LEINTENG ROSE MARY</t>
+  </si>
+  <si>
+    <t>MELANIE NGAFFO</t>
+  </si>
+  <si>
+    <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ETS TIN-GLOBALCOMM ZEBAZE TSEBAZE LAURA</t>
+  </si>
+  <si>
+    <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NLOGA NGO SIPORAH FELICITE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>GOUAMPOUM MIREILLE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TAMOKOUE HUGUES PASCAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LONGMENE FLORIDE NINA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MIREILLE MAGOLACK FOMEKONG</t>
+  </si>
+  <si>
+    <t>ROSETTE SIGHOM</t>
+  </si>
+  <si>
+    <t>NDE DONATUS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>HADJARA ADAMOU</t>
+  </si>
+  <si>
+    <t>NGO SAMNICK ELISABETH JOSEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGAMOUN NAFISSATOU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MBOUOMBO PEHUIE JOSEPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MOTCHUENG MADO LIONNELLE_ TOP MOBIL</t>
+  </si>
+  <si>
+    <t>CHOURUPOUO MBAKOP ABDEL MFS</t>
+  </si>
+  <si>
+    <t>DONGMO FELIX</t>
+  </si>
+  <si>
+    <t>MODESTE NGOUKOUA</t>
+  </si>
+  <si>
+    <t>NZOUNDI NGUEDJO EDITH TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>MELANIE NONO TONKAM</t>
+  </si>
+  <si>
+    <t>EMPIRE COMPANY   LIMITED SWKBA CBOX R4 TCHOUALA GLADIS NADEGE</t>
+  </si>
+  <si>
+    <t>NGHOMBOMBONG ALPHONSE NKWANUI LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+  </si>
+  <si>
+    <t>SUZIE ISABELLE MAGNE CHIEFFO</t>
+  </si>
+  <si>
+    <t>CARINE DEVILLIERS ESSOH</t>
+  </si>
+  <si>
+    <t>KWEDI BELLE GEORGES GAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Ngo Ndjeng Marie Pauline</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NDE HENRI</t>
+  </si>
+  <si>
+    <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>MAGNI YANSI DORIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MOKAM KOUAM VIVIANE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 TIOKENG SANDRINE</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MANFOUO TCHOUALA HUGUETTE</t>
+  </si>
+  <si>
+    <t>TAMNOU NGANGO ULRICH BERNARD ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Deuffi Yvonne laurette LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>VOUGMO NGUEMO MERLIN WILLIAM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ENOMA NDJAH PAULINE SONIA ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KOUYEKE MONIQUE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>FLORENCE MEDONGUE</t>
+  </si>
+  <si>
+    <t>HOUMI EPSE MVEINGUE GUINDOP TATIANA ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS TCHAWE MBOUGA JUDITH FLORE</t>
+  </si>
+  <si>
+    <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NGOUNOU JOSIANE GAELLE CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>KINGUE KOMBI VICTORINE SIDONIE VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+  </si>
+  <si>
+    <t>TAKU FORTUNE TSECBUM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JOSEPH KAMGA</t>
+  </si>
+  <si>
+    <t>FAGHUIE ABIBA</t>
+  </si>
+  <si>
+    <t>ASSONFACK VANESSA ATB POINT COM</t>
+  </si>
+  <si>
+    <t>TITTI GASTON CLEMENT TOP MOBIL</t>
+  </si>
+  <si>
+    <t>NGUIDJOL SIMONE ASTRIDE SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>CALICE WOTI EPSE DJOMO</t>
+  </si>
+  <si>
+    <t>Kamaha Tomy Nadine LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>AUGUSTINE NGO BAYOI</t>
+  </si>
+  <si>
     <t>Rte_0</t>
   </si>
   <si>
@@ -562,6 +793,12 @@
     <t>Rte_5</t>
   </si>
   <si>
+    <t>Rte_7</t>
+  </si>
+  <si>
+    <t>Rte_6</t>
+  </si>
+  <si>
     <t>Agape Ocm</t>
   </si>
   <si>
@@ -587,6 +824,21 @@
   </si>
   <si>
     <t>Hopital General Douala</t>
+  </si>
+  <si>
+    <t>Makepe Conquete</t>
+  </si>
+  <si>
+    <t>Makepe Maturite</t>
+  </si>
+  <si>
+    <t>Ndokoti Carrefour</t>
+  </si>
+  <si>
+    <t>New Ndogbong Plateau</t>
+  </si>
+  <si>
+    <t>Pk8</t>
   </si>
   <si>
     <t>Ndogbong</t>
@@ -947,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -990,10 +1242,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E2">
         <v>19150</v>
@@ -1008,7 +1260,7 @@
         <v>1.415770234986945</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1019,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -1037,7 +1289,7 @@
         <v>3.0728</v>
       </c>
       <c r="I3" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1048,10 +1300,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E4">
         <v>84390</v>
@@ -1066,7 +1318,7 @@
         <v>0.1093731484773077</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1077,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E5">
         <v>260865</v>
@@ -1095,7 +1347,7 @@
         <v>2.685546163724532</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1106,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E6">
         <v>28141.53846153846</v>
@@ -1124,7 +1376,7 @@
         <v>1.233443581893724</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1135,10 +1387,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E7">
         <v>38670</v>
@@ -1153,7 +1405,7 @@
         <v>17.1059219032842</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1164,10 +1416,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E8">
         <v>46826</v>
@@ -1182,7 +1434,7 @@
         <v>0.4723871353521548</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1193,10 +1445,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E9">
         <v>14676.42857142857</v>
@@ -1211,7 +1463,7 @@
         <v>5.942658295614932</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1222,10 +1474,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E10">
         <v>13250</v>
@@ -1240,7 +1492,7 @@
         <v>0.6353207547169811</v>
       </c>
       <c r="I10" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1251,10 +1503,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E11">
         <v>8935.719999999999</v>
@@ -1269,7 +1521,7 @@
         <v>1.570326733604007</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1280,10 +1532,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E12">
         <v>223404</v>
@@ -1298,7 +1550,7 @@
         <v>1.613655082272475</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1309,10 +1561,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E13">
         <v>5493.333333333333</v>
@@ -1327,7 +1579,7 @@
         <v>2.123118932038835</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1338,10 +1590,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E14">
         <v>284192.6444444444</v>
@@ -1356,7 +1608,7 @@
         <v>0.147498539527452</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1367,10 +1619,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E15">
         <v>7220</v>
@@ -1385,7 +1637,7 @@
         <v>3.068975069252077</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1396,10 +1648,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E16">
         <v>38878.39000000001</v>
@@ -1414,7 +1666,7 @@
         <v>1.854397777274213</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1425,10 +1677,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E17">
         <v>7380.523076923077</v>
@@ -1443,7 +1695,7 @@
         <v>0.5148686563804108</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1454,10 +1706,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E18">
         <v>26419.66666666666</v>
@@ -1472,7 +1724,7 @@
         <v>0.9661741884202428</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1483,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E19">
         <v>39192.5</v>
@@ -1501,7 +1753,7 @@
         <v>0.006174650762263188</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1512,10 +1764,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E20">
         <v>333240</v>
@@ -1530,7 +1782,7 @@
         <v>0.940406313767855</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1541,10 +1793,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E21">
         <v>62720</v>
@@ -1559,7 +1811,7 @@
         <v>4.549250637755102</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1570,10 +1822,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E22">
         <v>38170</v>
@@ -1588,7 +1840,7 @@
         <v>6.635472884464239</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1599,10 +1851,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E23">
         <v>172860</v>
@@ -1617,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1628,10 +1880,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E24">
         <v>53438.45714285715</v>
@@ -1646,7 +1898,7 @@
         <v>1.492913610636748</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1657,10 +1909,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E25">
         <v>55864.54545454546</v>
@@ -1675,7 +1927,7 @@
         <v>2.86292493205969</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1686,10 +1938,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E26">
         <v>18750</v>
@@ -1704,7 +1956,7 @@
         <v>0.8024</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1715,10 +1967,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E27">
         <v>14265</v>
@@ -1733,7 +1985,7 @@
         <v>2.024956186470382</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1744,10 +1996,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E28">
         <v>271168</v>
@@ -1762,7 +2014,7 @@
         <v>0.4647119129100779</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1773,10 +2025,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="E29">
         <v>35537.4</v>
@@ -1791,7 +2043,7 @@
         <v>0.6158300832362524</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1802,10 +2054,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E30">
         <v>195936.25</v>
@@ -1820,7 +2072,7 @@
         <v>1.659478529368609</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1831,10 +2083,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E31">
         <v>136459.0909090909</v>
@@ -1849,7 +2101,7 @@
         <v>2.140524299656907</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1860,10 +2112,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E32">
         <v>159153.3333333333</v>
@@ -1878,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1889,10 +2141,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E33">
         <v>41870</v>
@@ -1907,7 +2159,7 @@
         <v>0.03694769524719369</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1918,10 +2170,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E34">
         <v>235988.3333333334</v>
@@ -1936,7 +2188,7 @@
         <v>0.1087935138036485</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1947,10 +2199,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E35">
         <v>39758.21666666667</v>
@@ -1965,7 +2217,7 @@
         <v>0.7710858929370156</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1976,10 +2228,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E36">
         <v>74657.14285714286</v>
@@ -1994,7 +2246,7 @@
         <v>4.457577497129736</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2005,10 +2257,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E37">
         <v>500000</v>
@@ -2023,7 +2275,7 @@
         <v>0.389164</v>
       </c>
       <c r="I37" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2034,10 +2286,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="E38">
         <v>113235</v>
@@ -2052,7 +2304,7 @@
         <v>0.6954386894511414</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2063,10 +2315,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E39">
         <v>90695</v>
@@ -2081,7 +2333,7 @@
         <v>6.502001212856277</v>
       </c>
       <c r="I39" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2092,10 +2344,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E40">
         <v>176790</v>
@@ -2110,7 +2362,7 @@
         <v>0.06353300526047853</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2121,10 +2373,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E41">
         <v>15660</v>
@@ -2139,7 +2391,7 @@
         <v>8.755938697318008</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2150,10 +2402,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E42">
         <v>28554.8</v>
@@ -2168,7 +2420,7 @@
         <v>1.325241290431031</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2179,10 +2431,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E43">
         <v>34912.72727272727</v>
@@ -2197,7 +2449,7 @@
         <v>3.012798146026455</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2208,10 +2460,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E44">
         <v>96559.8</v>
@@ -2226,7 +2478,7 @@
         <v>6.712462121918231</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2237,10 +2489,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E45">
         <v>129030</v>
@@ -2255,7 +2507,7 @@
         <v>1.180477408354646</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2266,10 +2518,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E46">
         <v>145740</v>
@@ -2284,7 +2536,7 @@
         <v>1.070522848909016</v>
       </c>
       <c r="I46" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2295,10 +2547,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E47">
         <v>31576.24</v>
@@ -2313,7 +2565,7 @@
         <v>2.552647180284923</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2324,10 +2576,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E48">
         <v>54855.31111111111</v>
@@ -2342,7 +2594,7 @@
         <v>0.9403282736929353</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2353,10 +2605,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E49">
         <v>30030</v>
@@ -2371,7 +2623,7 @@
         <v>12.5002664002664</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2382,10 +2634,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E50">
         <v>18795</v>
@@ -2400,7 +2652,7 @@
         <v>14.79318967810588</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2411,10 +2663,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E51">
         <v>48162</v>
@@ -2429,7 +2681,7 @@
         <v>8.494165524687514</v>
       </c>
       <c r="I51" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2440,10 +2692,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E52">
         <v>41275.71428571428</v>
@@ -2458,7 +2710,7 @@
         <v>4.615232063129478</v>
       </c>
       <c r="I52" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2469,10 +2721,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E53">
         <v>30923.33333333334</v>
@@ -2487,7 +2739,7 @@
         <v>1.096388918831519</v>
       </c>
       <c r="I53" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2498,10 +2750,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E54">
         <v>86783.84615384616</v>
@@ -2516,7 +2768,7 @@
         <v>0.006579565498719187</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2527,10 +2779,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E55">
         <v>328228.8</v>
@@ -2545,7 +2797,7 @@
         <v>0.01132137094612051</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2556,10 +2808,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E56">
         <v>85360</v>
@@ -2574,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2585,10 +2837,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E57">
         <v>103179.8</v>
@@ -2603,7 +2855,7 @@
         <v>4.278831709307441</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2614,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E58">
         <v>178497.5</v>
@@ -2632,7 +2884,7 @@
         <v>3.279889074076668</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2643,10 +2895,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E59">
         <v>500000</v>
@@ -2661,7 +2913,7 @@
         <v>0.65001</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2672,10 +2924,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E60">
         <v>6183.636363636364</v>
@@ -2690,7 +2942,7 @@
         <v>0.5162011173184358</v>
       </c>
       <c r="I60" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2701,10 +2953,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="E61">
         <v>114838.4615384615</v>
@@ -2719,7 +2971,7 @@
         <v>1.08703128139862</v>
       </c>
       <c r="I61" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2730,10 +2982,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E62">
         <v>29820</v>
@@ -2748,7 +3000,7 @@
         <v>12.70107310529846</v>
       </c>
       <c r="I62" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2759,10 +3011,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E63">
         <v>145105</v>
@@ -2777,7 +3029,7 @@
         <v>4.746397436339203</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2788,10 +3040,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E64">
         <v>242106.6666666666</v>
@@ -2806,7 +3058,7 @@
         <v>3.094706190109043</v>
       </c>
       <c r="I64" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2817,10 +3069,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E65">
         <v>23150</v>
@@ -2835,7 +3087,7 @@
         <v>6.186522678185745</v>
       </c>
       <c r="I65" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2846,10 +3098,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E66">
         <v>43130</v>
@@ -2864,7 +3116,7 @@
         <v>10.75998145142592</v>
       </c>
       <c r="I66" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2875,10 +3127,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E67">
         <v>7120</v>
@@ -2893,7 +3145,7 @@
         <v>6.41376404494382</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2904,10 +3156,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E68">
         <v>12128.57142857143</v>
@@ -2922,7 +3174,7 @@
         <v>5.23243816254417</v>
       </c>
       <c r="I68" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2933,10 +3185,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E69">
         <v>75599.88333333333</v>
@@ -2951,7 +3203,7 @@
         <v>2.552940447659421</v>
       </c>
       <c r="I69" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2962,10 +3214,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E70">
         <v>239424</v>
@@ -2980,7 +3232,7 @@
         <v>0.001791800320769848</v>
       </c>
       <c r="I70" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2991,10 +3243,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E71">
         <v>79250</v>
@@ -3009,7 +3261,7 @@
         <v>2.946965299684543</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3020,10 +3272,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E72">
         <v>118868</v>
@@ -3038,7 +3290,7 @@
         <v>0.9735000168253861</v>
       </c>
       <c r="I72" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3049,10 +3301,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E73">
         <v>137844.9629629629</v>
@@ -3067,7 +3319,7 @@
         <v>0.02645000529311782</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3078,10 +3330,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="E74">
         <v>5000</v>
@@ -3096,7 +3348,7 @@
         <v>0.0008</v>
       </c>
       <c r="I74" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3107,10 +3359,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E75">
         <v>15997.69230769231</v>
@@ -3125,7 +3377,7 @@
         <v>6.787854017406357</v>
       </c>
       <c r="I75" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3136,10 +3388,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E76">
         <v>28041.81818181818</v>
@@ -3154,7 +3406,7 @@
         <v>4.932383453284056</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3165,10 +3417,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E77">
         <v>14380</v>
@@ -3183,7 +3435,7 @@
         <v>4.255146036161335</v>
       </c>
       <c r="I77" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3194,10 +3446,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E78">
         <v>12800</v>
@@ -3212,7 +3464,7 @@
         <v>1.9940625</v>
       </c>
       <c r="I78" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3223,10 +3475,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E79">
         <v>190430</v>
@@ -3241,7 +3493,7 @@
         <v>2.090999317334453</v>
       </c>
       <c r="I79" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3252,10 +3504,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E80">
         <v>5327.599999999999</v>
@@ -3270,7 +3522,7 @@
         <v>0.9644117426233202</v>
       </c>
       <c r="I80" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3281,10 +3533,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E81">
         <v>27650</v>
@@ -3299,7 +3551,7 @@
         <v>14.92723327305606</v>
       </c>
       <c r="I81" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3310,10 +3562,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E82">
         <v>112594</v>
@@ -3328,7 +3580,7 @@
         <v>1.871245359433007</v>
       </c>
       <c r="I82" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3339,10 +3591,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E83">
         <v>108762.35</v>
@@ -3357,7 +3609,7 @@
         <v>6.313370389661496</v>
       </c>
       <c r="I83" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3368,10 +3620,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E84">
         <v>20715.26153846153</v>
@@ -3386,7 +3638,7 @@
         <v>1.687644635096236</v>
       </c>
       <c r="I84" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3397,10 +3649,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E85">
         <v>34610</v>
@@ -3415,7 +3667,7 @@
         <v>5.895088124819416</v>
       </c>
       <c r="I85" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3426,10 +3678,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E86">
         <v>189785.8</v>
@@ -3444,7 +3696,7 @@
         <v>0.5829361311541749</v>
       </c>
       <c r="I86" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3455,10 +3707,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E87">
         <v>25030</v>
@@ -3473,7 +3725,7 @@
         <v>0.8982421094686376</v>
       </c>
       <c r="I87" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3484,10 +3736,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E88">
         <v>26250</v>
@@ -3502,7 +3754,7 @@
         <v>27.69318095238095</v>
       </c>
       <c r="I88" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3513,10 +3765,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E89">
         <v>182169.7</v>
@@ -3531,7 +3783,7 @@
         <v>0.7091684292173726</v>
       </c>
       <c r="I89" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3542,10 +3794,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E90">
         <v>5000</v>
@@ -3560,7 +3812,7 @@
         <v>3.021</v>
       </c>
       <c r="I90" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3571,10 +3823,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E91">
         <v>184162.0370370371</v>
@@ -3589,7 +3841,7 @@
         <v>0.1561613916890822</v>
       </c>
       <c r="I91" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3600,10 +3852,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E92">
         <v>61193.33333333334</v>
@@ -3618,7 +3870,7 @@
         <v>2.240080618803791</v>
       </c>
       <c r="I92" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3629,10 +3881,10 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E93">
         <v>16520</v>
@@ -3647,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3658,10 +3910,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E94">
         <v>100229.8</v>
@@ -3676,7 +3928,7 @@
         <v>2.388171980788149</v>
       </c>
       <c r="I94" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3687,10 +3939,10 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D95" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E95">
         <v>25619.09090909091</v>
@@ -3705,7 +3957,7 @@
         <v>3.703449132394166</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3716,10 +3968,10 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E96">
         <v>56220</v>
@@ -3734,7 +3986,7 @@
         <v>21.2746709356101</v>
       </c>
       <c r="I96" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3745,10 +3997,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E97">
         <v>59610</v>
@@ -3763,7 +4015,7 @@
         <v>1.111675893306492</v>
       </c>
       <c r="I97" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3774,10 +4026,10 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E98">
         <v>57805.71428571429</v>
@@ -3792,7 +4044,7 @@
         <v>2.296018683274021</v>
       </c>
       <c r="I98" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3803,10 +4055,10 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E99">
         <v>47813.75</v>
@@ -3821,7 +4073,7 @@
         <v>10.42812998352984</v>
       </c>
       <c r="I99" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3832,10 +4084,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D100" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E100">
         <v>7438.090909090909</v>
@@ -3850,7 +4102,7 @@
         <v>2.035871863503587</v>
       </c>
       <c r="I100" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3861,10 +4113,10 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="D101" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E101">
         <v>123740</v>
@@ -3879,7 +4131,7 @@
         <v>2.202998222078552</v>
       </c>
       <c r="I101" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3890,10 +4142,10 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D102" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="E102">
         <v>7776.875</v>
@@ -3908,7 +4160,7 @@
         <v>5.046242867475689</v>
       </c>
       <c r="I102" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3919,10 +4171,10 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E103">
         <v>47969.93333333333</v>
@@ -3937,7 +4189,7 @@
         <v>6.458086940569719</v>
       </c>
       <c r="I103" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3948,10 +4200,10 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E104">
         <v>107070</v>
@@ -3966,7 +4218,7 @@
         <v>5.532614177640796</v>
       </c>
       <c r="I104" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3977,10 +4229,10 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E105">
         <v>5000</v>
@@ -3995,7 +4247,7 @@
         <v>0.6798</v>
       </c>
       <c r="I105" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4006,10 +4258,10 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E106">
         <v>40660</v>
@@ -4024,7 +4276,7 @@
         <v>31.34419576979833</v>
       </c>
       <c r="I106" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4035,10 +4287,10 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E107">
         <v>26953.63636363636</v>
@@ -4053,7 +4305,7 @@
         <v>1.290920435765119</v>
       </c>
       <c r="I107" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4064,10 +4316,10 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E108">
         <v>45439.84</v>
@@ -4082,7 +4334,7 @@
         <v>0.1198947883619309</v>
       </c>
       <c r="I108" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4093,10 +4345,10 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E109">
         <v>54767.77777777778</v>
@@ -4111,7 +4363,7 @@
         <v>0.03613438558763263</v>
       </c>
       <c r="I109" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4122,10 +4374,10 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E110">
         <v>80918.93000000001</v>
@@ -4140,7 +4392,7 @@
         <v>6.77183942002199</v>
       </c>
       <c r="I110" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4151,10 +4403,10 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E111">
         <v>500000</v>
@@ -4169,7 +4421,7 @@
         <v>7.77873</v>
       </c>
       <c r="I111" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4180,10 +4432,10 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E112">
         <v>60430</v>
@@ -4198,7 +4450,7 @@
         <v>0.9120304484527553</v>
       </c>
       <c r="I112" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4209,10 +4461,10 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E113">
         <v>27020</v>
@@ -4227,7 +4479,7 @@
         <v>6.647964470762398</v>
       </c>
       <c r="I113" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4238,10 +4490,10 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E114">
         <v>5000</v>
@@ -4256,7 +4508,7 @@
         <v>4.0858</v>
       </c>
       <c r="I114" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4267,10 +4519,10 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E115">
         <v>16698.33333333333</v>
@@ -4285,7 +4537,7 @@
         <v>2.710150713644076</v>
       </c>
       <c r="I115" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4296,10 +4548,10 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E116">
         <v>25916.63076923077</v>
@@ -4314,7 +4566,7 @@
         <v>0.8909337099254948</v>
       </c>
       <c r="I116" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4325,10 +4577,10 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="E117">
         <v>8800</v>
@@ -4343,7 +4595,7 @@
         <v>2.306931818181818</v>
       </c>
       <c r="I117" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4354,10 +4606,10 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E118">
         <v>43870</v>
@@ -4372,7 +4624,7 @@
         <v>2.031000683838614</v>
       </c>
       <c r="I118" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4383,10 +4635,10 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D119" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E119">
         <v>233104.6</v>
@@ -4401,7 +4653,7 @@
         <v>1.486843245478639</v>
       </c>
       <c r="I119" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4412,10 +4664,10 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D120" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E120">
         <v>149646.6666666667</v>
@@ -4430,7 +4682,7 @@
         <v>6.584991312870316</v>
       </c>
       <c r="I120" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4441,10 +4693,10 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D121" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E121">
         <v>500000</v>
@@ -4459,7 +4711,7 @@
         <v>5.523966</v>
       </c>
       <c r="I121" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4470,10 +4722,10 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D122" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E122">
         <v>12360.93333333334</v>
@@ -4488,7 +4740,7 @@
         <v>4.262865803013796</v>
       </c>
       <c r="I122" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4499,10 +4751,10 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D123" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E123">
         <v>94100</v>
@@ -4517,7 +4769,7 @@
         <v>5.242189160467587</v>
       </c>
       <c r="I123" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4528,10 +4780,10 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E124">
         <v>169880</v>
@@ -4546,7 +4798,7 @@
         <v>10.42050270779374</v>
       </c>
       <c r="I124" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4557,10 +4809,10 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E125">
         <v>7700</v>
@@ -4575,7 +4827,7 @@
         <v>2.328831168831169</v>
       </c>
       <c r="I125" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4586,10 +4838,10 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D126" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E126">
         <v>88440</v>
@@ -4604,7 +4856,7 @@
         <v>11.27762324739937</v>
       </c>
       <c r="I126" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4615,10 +4867,10 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D127" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E127">
         <v>27588.26086956522</v>
@@ -4633,7 +4885,7 @@
         <v>1.166510645674751</v>
       </c>
       <c r="I127" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4644,10 +4896,10 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="D128" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="E128">
         <v>104380</v>
@@ -4662,7 +4914,7 @@
         <v>1.5195822954589</v>
       </c>
       <c r="I128" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4673,10 +4925,10 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E129">
         <v>173354.6</v>
@@ -4691,7 +4943,7 @@
         <v>1.093423537650573</v>
       </c>
       <c r="I129" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4702,10 +4954,10 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E130">
         <v>112810</v>
@@ -4720,7 +4972,7 @@
         <v>0.2139172059214609</v>
       </c>
       <c r="I130" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4731,10 +4983,10 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D131" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E131">
         <v>140210</v>
@@ -4749,7 +5001,7 @@
         <v>2.473896298409529</v>
       </c>
       <c r="I131" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4760,10 +5012,10 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D132" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E132">
         <v>55020</v>
@@ -4778,7 +5030,7 @@
         <v>0.5756997455470738</v>
       </c>
       <c r="I132" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4789,10 +5041,10 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D133" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E133">
         <v>22670</v>
@@ -4807,7 +5059,7 @@
         <v>4.01005734450816</v>
       </c>
       <c r="I133" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4818,10 +5070,10 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E134">
         <v>46742.5</v>
@@ -4836,7 +5088,7 @@
         <v>6.92119591378296</v>
       </c>
       <c r="I134" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4847,10 +5099,10 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D135" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E135">
         <v>344672.7272727273</v>
@@ -4865,7 +5117,7 @@
         <v>0.389485414358812</v>
       </c>
       <c r="I135" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4876,10 +5128,10 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E136">
         <v>61570</v>
@@ -4894,7 +5146,7 @@
         <v>1.847425694331655</v>
       </c>
       <c r="I136" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4905,10 +5157,10 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E137">
         <v>54420</v>
@@ -4923,7 +5175,7 @@
         <v>8.223171628077912</v>
       </c>
       <c r="I137" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4934,10 +5186,10 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E138">
         <v>67415</v>
@@ -4952,7 +5204,7 @@
         <v>1.898939405176889</v>
       </c>
       <c r="I138" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4963,10 +5215,10 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D139" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E139">
         <v>42281.82352941176</v>
@@ -4981,7 +5233,7 @@
         <v>1.034203266318026</v>
       </c>
       <c r="I139" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4992,10 +5244,10 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E140">
         <v>100666.6666666667</v>
@@ -5010,7 +5262,7 @@
         <v>1.986754966887417E-05</v>
       </c>
       <c r="I140" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5021,10 +5273,10 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E141">
         <v>43450</v>
@@ -5039,7 +5291,7 @@
         <v>4.532681242807825</v>
       </c>
       <c r="I141" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5050,10 +5302,10 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E142">
         <v>35630</v>
@@ -5068,7 +5320,7 @@
         <v>1.507690148751053</v>
       </c>
       <c r="I142" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5079,10 +5331,10 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D143" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E143">
         <v>60745</v>
@@ -5097,7 +5349,7 @@
         <v>0.8843361593546794</v>
       </c>
       <c r="I143" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5108,10 +5360,10 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D144" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E144">
         <v>27325.5</v>
@@ -5126,7 +5378,7 @@
         <v>1.084591315803919</v>
       </c>
       <c r="I144" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5137,10 +5389,10 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D145" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E145">
         <v>45105</v>
@@ -5155,7 +5407,7 @@
         <v>0.7998226360713889</v>
       </c>
       <c r="I145" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5166,10 +5418,10 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D146" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E146">
         <v>424480</v>
@@ -5184,7 +5436,7 @@
         <v>0.4647851488880513</v>
       </c>
       <c r="I146" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5195,10 +5447,10 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D147" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E147">
         <v>15610</v>
@@ -5213,7 +5465,7 @@
         <v>3.51947469570788</v>
       </c>
       <c r="I147" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5224,10 +5476,10 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D148" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E148">
         <v>18430</v>
@@ -5242,7 +5494,7 @@
         <v>3.958762886597938</v>
       </c>
       <c r="I148" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5253,10 +5505,10 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D149" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E149">
         <v>48439.80000000001</v>
@@ -5271,7 +5523,7 @@
         <v>4.052576600233691</v>
       </c>
       <c r="I149" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5282,10 +5534,10 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E150">
         <v>86620</v>
@@ -5300,7 +5552,7 @@
         <v>2.312918494574002</v>
       </c>
       <c r="I150" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5311,10 +5563,10 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E151">
         <v>36730</v>
@@ -5329,7 +5581,7 @@
         <v>1.161557310100735</v>
       </c>
       <c r="I151" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5340,10 +5592,10 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E152">
         <v>15280</v>
@@ -5358,7 +5610,7 @@
         <v>2.148821989528796</v>
       </c>
       <c r="I152" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5369,10 +5621,10 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E153">
         <v>63140</v>
@@ -5387,7 +5639,7 @@
         <v>1.49781438074121</v>
       </c>
       <c r="I153" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5398,10 +5650,10 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E154">
         <v>53706.66666666666</v>
@@ -5416,7 +5668,7 @@
         <v>3.88421052631579</v>
       </c>
       <c r="I154" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5427,10 +5679,10 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E155">
         <v>84169.8</v>
@@ -5445,7 +5697,7 @@
         <v>2.848907803036243</v>
       </c>
       <c r="I155" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5456,10 +5708,10 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E156">
         <v>219379.0363636363</v>
@@ -5474,7 +5726,7 @@
         <v>0.2116382712295291</v>
       </c>
       <c r="I156" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5485,10 +5737,10 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D157" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="E157">
         <v>5000</v>
@@ -5503,7 +5755,7 @@
         <v>0.914</v>
       </c>
       <c r="I157" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5514,10 +5766,10 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D158" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E158">
         <v>68881.36363636363</v>
@@ -5532,7 +5784,7 @@
         <v>6.753553870620765</v>
       </c>
       <c r="I158" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5543,10 +5795,10 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E159">
         <v>352072.5</v>
@@ -5561,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5572,10 +5824,10 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="D160" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E160">
         <v>112588.4615384615</v>
@@ -5590,7 +5842,7 @@
         <v>0.0004352133365217095</v>
       </c>
       <c r="I160" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5601,10 +5853,10 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D161" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E161">
         <v>24826.15384615385</v>
@@ -5619,7 +5871,7 @@
         <v>7.837984135836896</v>
       </c>
       <c r="I161" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5630,10 +5882,10 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E162">
         <v>113740</v>
@@ -5648,7 +5900,7 @@
         <v>2.21310005275189</v>
       </c>
       <c r="I162" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5659,10 +5911,10 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D163" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E163">
         <v>56545</v>
@@ -5677,7 +5929,7 @@
         <v>5.138827482536033</v>
       </c>
       <c r="I163" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5688,10 +5940,10 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E164">
         <v>150379.6</v>
@@ -5706,7 +5958,7 @@
         <v>5.257062793091616</v>
       </c>
       <c r="I164" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5717,10 +5969,10 @@
         <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E165">
         <v>159035.175</v>
@@ -5735,7 +5987,7 @@
         <v>3.191740443584258</v>
       </c>
       <c r="I165" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5746,10 +5998,10 @@
         <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E166">
         <v>87377.35000000001</v>
@@ -5764,7 +6016,7 @@
         <v>0.1098339558249363</v>
       </c>
       <c r="I166" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5775,10 +6027,10 @@
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="D167" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="E167">
         <v>88445</v>
@@ -5793,7 +6045,2240 @@
         <v>3.53365368307988</v>
       </c>
       <c r="I167" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>237677745809</v>
+      </c>
+      <c r="B168" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" t="s">
+        <v>252</v>
+      </c>
+      <c r="D168" t="s">
+        <v>269</v>
+      </c>
+      <c r="E168">
+        <v>23439.6</v>
+      </c>
+      <c r="F168">
+        <v>91883</v>
+      </c>
+      <c r="G168">
+        <v>68443.39999999999</v>
+      </c>
+      <c r="H168">
+        <v>3.919990102220175</v>
+      </c>
+      <c r="I168" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>237679127464</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169" t="s">
+        <v>269</v>
+      </c>
+      <c r="E169">
+        <v>16950</v>
+      </c>
+      <c r="F169">
+        <v>14346</v>
+      </c>
+      <c r="G169">
+        <v>-2604</v>
+      </c>
+      <c r="H169">
+        <v>0.8463716814159292</v>
+      </c>
+      <c r="I169" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>237679422291</v>
+      </c>
+      <c r="B170" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170" t="s">
+        <v>269</v>
+      </c>
+      <c r="E170">
+        <v>101597.1428571429</v>
+      </c>
+      <c r="F170">
+        <v>100000</v>
+      </c>
+      <c r="G170">
+        <v>-1597.142857142855</v>
+      </c>
+      <c r="H170">
+        <v>0.9842796479091088</v>
+      </c>
+      <c r="I170" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>237651433330</v>
+      </c>
+      <c r="B171" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" t="s">
+        <v>259</v>
+      </c>
+      <c r="D171" t="s">
+        <v>270</v>
+      </c>
+      <c r="E171">
+        <v>59904.58333333334</v>
+      </c>
+      <c r="F171">
+        <v>359683</v>
+      </c>
+      <c r="G171">
+        <v>299778.4166666667</v>
+      </c>
+      <c r="H171">
+        <v>6.004265116052611</v>
+      </c>
+      <c r="I171" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>237654168696</v>
+      </c>
+      <c r="B172" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>252</v>
+      </c>
+      <c r="D172" t="s">
+        <v>270</v>
+      </c>
+      <c r="E172">
+        <v>7797.028571428572</v>
+      </c>
+      <c r="F172">
+        <v>283</v>
+      </c>
+      <c r="G172">
+        <v>-7514.028571428572</v>
+      </c>
+      <c r="H172">
+        <v>0.03629587828330206</v>
+      </c>
+      <c r="I172" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>237670799877</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>252</v>
+      </c>
+      <c r="D173" t="s">
+        <v>270</v>
+      </c>
+      <c r="E173">
+        <v>23610</v>
+      </c>
+      <c r="F173">
+        <v>698780</v>
+      </c>
+      <c r="G173">
+        <v>675170</v>
+      </c>
+      <c r="H173">
+        <v>29.59678102498941</v>
+      </c>
+      <c r="I173" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>237671351291</v>
+      </c>
+      <c r="B174" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" t="s">
+        <v>270</v>
+      </c>
+      <c r="E174">
+        <v>95869.86000000002</v>
+      </c>
+      <c r="F174">
+        <v>195144</v>
+      </c>
+      <c r="G174">
+        <v>99274.13999999998</v>
+      </c>
+      <c r="H174">
+        <v>2.035509387413312</v>
+      </c>
+      <c r="I174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>237671378136</v>
+      </c>
+      <c r="B175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+      <c r="D175" t="s">
+        <v>270</v>
+      </c>
+      <c r="E175">
+        <v>54416.5</v>
+      </c>
+      <c r="F175">
+        <v>33253</v>
+      </c>
+      <c r="G175">
+        <v>-21163.5</v>
+      </c>
+      <c r="H175">
+        <v>0.6110830354763721</v>
+      </c>
+      <c r="I175" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>237671605749</v>
+      </c>
+      <c r="B176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176" t="s">
+        <v>260</v>
+      </c>
+      <c r="D176" t="s">
+        <v>270</v>
+      </c>
+      <c r="E176">
+        <v>107695</v>
+      </c>
+      <c r="F176">
+        <v>1276578</v>
+      </c>
+      <c r="G176">
+        <v>1168883</v>
+      </c>
+      <c r="H176">
+        <v>11.85364223037281</v>
+      </c>
+      <c r="I176" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>237671615641</v>
+      </c>
+      <c r="B177" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" t="s">
+        <v>252</v>
+      </c>
+      <c r="D177" t="s">
+        <v>270</v>
+      </c>
+      <c r="E177">
+        <v>8701.666666666666</v>
+      </c>
+      <c r="F177">
+        <v>4840</v>
+      </c>
+      <c r="G177">
+        <v>-3861.666666666666</v>
+      </c>
+      <c r="H177">
+        <v>0.5562152844282705</v>
+      </c>
+      <c r="I177" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>237673739931</v>
+      </c>
+      <c r="B178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" t="s">
+        <v>252</v>
+      </c>
+      <c r="D178" t="s">
+        <v>270</v>
+      </c>
+      <c r="E178">
+        <v>21375</v>
+      </c>
+      <c r="F178">
+        <v>149893</v>
+      </c>
+      <c r="G178">
+        <v>128518</v>
+      </c>
+      <c r="H178">
+        <v>7.012538011695907</v>
+      </c>
+      <c r="I178" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>237674466307</v>
+      </c>
+      <c r="B179" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" t="s">
+        <v>258</v>
+      </c>
+      <c r="D179" t="s">
+        <v>270</v>
+      </c>
+      <c r="E179">
+        <v>119626.6666666667</v>
+      </c>
+      <c r="F179">
+        <v>444224</v>
+      </c>
+      <c r="G179">
+        <v>324597.3333333333</v>
+      </c>
+      <c r="H179">
+        <v>3.713419527418635</v>
+      </c>
+      <c r="I179" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>237674959564</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180" t="s">
+        <v>252</v>
+      </c>
+      <c r="D180" t="s">
+        <v>270</v>
+      </c>
+      <c r="E180">
+        <v>5000</v>
+      </c>
+      <c r="F180">
+        <v>4469</v>
+      </c>
+      <c r="G180">
+        <v>-531</v>
+      </c>
+      <c r="H180">
+        <v>0.8938</v>
+      </c>
+      <c r="I180" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>237675208505</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" t="s">
+        <v>252</v>
+      </c>
+      <c r="D181" t="s">
+        <v>270</v>
+      </c>
+      <c r="E181">
+        <v>19527.86</v>
+      </c>
+      <c r="F181">
+        <v>76236</v>
+      </c>
+      <c r="G181">
+        <v>56708.14</v>
+      </c>
+      <c r="H181">
+        <v>3.903960802668598</v>
+      </c>
+      <c r="I181" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>237675555508</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>252</v>
+      </c>
+      <c r="D182" t="s">
+        <v>270</v>
+      </c>
+      <c r="E182">
+        <v>12322.60909090909</v>
+      </c>
+      <c r="F182">
+        <v>16417</v>
+      </c>
+      <c r="G182">
+        <v>4094.390909090913</v>
+      </c>
+      <c r="H182">
+        <v>1.332266558071011</v>
+      </c>
+      <c r="I182" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>237675557616</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>252</v>
+      </c>
+      <c r="D183" t="s">
+        <v>270</v>
+      </c>
+      <c r="E183">
+        <v>64010</v>
+      </c>
+      <c r="F183">
+        <v>565817</v>
+      </c>
+      <c r="G183">
+        <v>501807</v>
+      </c>
+      <c r="H183">
+        <v>8.83950945164818</v>
+      </c>
+      <c r="I183" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>237676301061</v>
+      </c>
+      <c r="B184" t="s">
         <v>191</v>
+      </c>
+      <c r="C184" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" t="s">
+        <v>270</v>
+      </c>
+      <c r="E184">
+        <v>67109.59999999999</v>
+      </c>
+      <c r="F184">
+        <v>75397</v>
+      </c>
+      <c r="G184">
+        <v>8287.400000000009</v>
+      </c>
+      <c r="H184">
+        <v>1.123490528925817</v>
+      </c>
+      <c r="I184" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>237677939039</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>252</v>
+      </c>
+      <c r="D185" t="s">
+        <v>270</v>
+      </c>
+      <c r="E185">
+        <v>11484.78260869565</v>
+      </c>
+      <c r="F185">
+        <v>242</v>
+      </c>
+      <c r="G185">
+        <v>-11242.78260869565</v>
+      </c>
+      <c r="H185">
+        <v>0.02107136096914632</v>
+      </c>
+      <c r="I185" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>237678225987</v>
+      </c>
+      <c r="B186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186" t="s">
+        <v>252</v>
+      </c>
+      <c r="D186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E186">
+        <v>37403.93</v>
+      </c>
+      <c r="F186">
+        <v>13020</v>
+      </c>
+      <c r="G186">
+        <v>-24383.93</v>
+      </c>
+      <c r="H186">
+        <v>0.3480917646888977</v>
+      </c>
+      <c r="I186" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>237679553674</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" t="s">
+        <v>258</v>
+      </c>
+      <c r="D187" t="s">
+        <v>270</v>
+      </c>
+      <c r="E187">
+        <v>56618.88</v>
+      </c>
+      <c r="F187">
+        <v>270760</v>
+      </c>
+      <c r="G187">
+        <v>214141.12</v>
+      </c>
+      <c r="H187">
+        <v>4.782150406366215</v>
+      </c>
+      <c r="I187" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>237679654555</v>
+      </c>
+      <c r="B188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" t="s">
+        <v>252</v>
+      </c>
+      <c r="D188" t="s">
+        <v>270</v>
+      </c>
+      <c r="E188">
+        <v>36628.42105263158</v>
+      </c>
+      <c r="F188">
+        <v>35452</v>
+      </c>
+      <c r="G188">
+        <v>-1176.42105263158</v>
+      </c>
+      <c r="H188">
+        <v>0.967882288703049</v>
+      </c>
+      <c r="I188" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>237679789713</v>
+      </c>
+      <c r="B189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="s">
+        <v>252</v>
+      </c>
+      <c r="D189" t="s">
+        <v>270</v>
+      </c>
+      <c r="E189">
+        <v>78170</v>
+      </c>
+      <c r="F189">
+        <v>20</v>
+      </c>
+      <c r="G189">
+        <v>-78150</v>
+      </c>
+      <c r="H189">
+        <v>0.0002558526288857618</v>
+      </c>
+      <c r="I189" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>237681589841</v>
+      </c>
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="s">
+        <v>252</v>
+      </c>
+      <c r="D190" t="s">
+        <v>270</v>
+      </c>
+      <c r="E190">
+        <v>25853.33333333333</v>
+      </c>
+      <c r="F190">
+        <v>1577</v>
+      </c>
+      <c r="G190">
+        <v>-24276.33333333333</v>
+      </c>
+      <c r="H190">
+        <v>0.06099793708096957</v>
+      </c>
+      <c r="I190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>237681676445</v>
+      </c>
+      <c r="B191" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" t="s">
+        <v>252</v>
+      </c>
+      <c r="D191" t="s">
+        <v>270</v>
+      </c>
+      <c r="E191">
+        <v>51040</v>
+      </c>
+      <c r="F191">
+        <v>196234</v>
+      </c>
+      <c r="G191">
+        <v>145194</v>
+      </c>
+      <c r="H191">
+        <v>3.844710031347963</v>
+      </c>
+      <c r="I191" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>237681678622</v>
+      </c>
+      <c r="B192" t="s">
+        <v>199</v>
+      </c>
+      <c r="C192" t="s">
+        <v>259</v>
+      </c>
+      <c r="D192" t="s">
+        <v>270</v>
+      </c>
+      <c r="E192">
+        <v>26740</v>
+      </c>
+      <c r="F192">
+        <v>192387</v>
+      </c>
+      <c r="G192">
+        <v>165647</v>
+      </c>
+      <c r="H192">
+        <v>7.194727000747943</v>
+      </c>
+      <c r="I192" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>237683815311</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" t="s">
+        <v>252</v>
+      </c>
+      <c r="D193" t="s">
+        <v>270</v>
+      </c>
+      <c r="E193">
+        <v>12728.89090909091</v>
+      </c>
+      <c r="F193">
+        <v>49970</v>
+      </c>
+      <c r="G193">
+        <v>37241.10909090909</v>
+      </c>
+      <c r="H193">
+        <v>3.925715159072631</v>
+      </c>
+      <c r="I193" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>237651533411</v>
+      </c>
+      <c r="B194" t="s">
+        <v>201</v>
+      </c>
+      <c r="C194" t="s">
+        <v>256</v>
+      </c>
+      <c r="D194" t="s">
+        <v>271</v>
+      </c>
+      <c r="E194">
+        <v>56092.85714285714</v>
+      </c>
+      <c r="F194">
+        <v>87946</v>
+      </c>
+      <c r="G194">
+        <v>31853.14285714286</v>
+      </c>
+      <c r="H194">
+        <v>1.567864510378199</v>
+      </c>
+      <c r="I194" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>237651843112</v>
+      </c>
+      <c r="B195" t="s">
+        <v>202</v>
+      </c>
+      <c r="C195" t="s">
+        <v>256</v>
+      </c>
+      <c r="D195" t="s">
+        <v>271</v>
+      </c>
+      <c r="E195">
+        <v>61570</v>
+      </c>
+      <c r="F195">
+        <v>79124</v>
+      </c>
+      <c r="G195">
+        <v>17554</v>
+      </c>
+      <c r="H195">
+        <v>1.285106382978723</v>
+      </c>
+      <c r="I195" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>237652297747</v>
+      </c>
+      <c r="B196" t="s">
+        <v>203</v>
+      </c>
+      <c r="C196" t="s">
+        <v>256</v>
+      </c>
+      <c r="D196" t="s">
+        <v>271</v>
+      </c>
+      <c r="E196">
+        <v>24830</v>
+      </c>
+      <c r="F196">
+        <v>59435</v>
+      </c>
+      <c r="G196">
+        <v>34605</v>
+      </c>
+      <c r="H196">
+        <v>2.393677003624648</v>
+      </c>
+      <c r="I196" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>237653316656</v>
+      </c>
+      <c r="B197" t="s">
+        <v>204</v>
+      </c>
+      <c r="C197" t="s">
+        <v>256</v>
+      </c>
+      <c r="D197" t="s">
+        <v>271</v>
+      </c>
+      <c r="E197">
+        <v>39103.33333333334</v>
+      </c>
+      <c r="F197">
+        <v>453130</v>
+      </c>
+      <c r="G197">
+        <v>414026.6666666667</v>
+      </c>
+      <c r="H197">
+        <v>11.58801466200665</v>
+      </c>
+      <c r="I197" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>237671290825</v>
+      </c>
+      <c r="B198" t="s">
+        <v>205</v>
+      </c>
+      <c r="C198" t="s">
+        <v>256</v>
+      </c>
+      <c r="D198" t="s">
+        <v>271</v>
+      </c>
+      <c r="E198">
+        <v>15613.63636363636</v>
+      </c>
+      <c r="F198">
+        <v>56290</v>
+      </c>
+      <c r="G198">
+        <v>40676.36363636363</v>
+      </c>
+      <c r="H198">
+        <v>3.605181950509461</v>
+      </c>
+      <c r="I198" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>237672276931</v>
+      </c>
+      <c r="B199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C199" t="s">
+        <v>256</v>
+      </c>
+      <c r="D199" t="s">
+        <v>271</v>
+      </c>
+      <c r="E199">
+        <v>74960</v>
+      </c>
+      <c r="F199">
+        <v>21050</v>
+      </c>
+      <c r="G199">
+        <v>-53910</v>
+      </c>
+      <c r="H199">
+        <v>0.2808164354322305</v>
+      </c>
+      <c r="I199" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>237674580187</v>
+      </c>
+      <c r="B200" t="s">
+        <v>207</v>
+      </c>
+      <c r="C200" t="s">
+        <v>256</v>
+      </c>
+      <c r="D200" t="s">
+        <v>271</v>
+      </c>
+      <c r="E200">
+        <v>10840</v>
+      </c>
+      <c r="F200">
+        <v>21475</v>
+      </c>
+      <c r="G200">
+        <v>10635</v>
+      </c>
+      <c r="H200">
+        <v>1.981088560885609</v>
+      </c>
+      <c r="I200" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>237674673359</v>
+      </c>
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" t="s">
+        <v>256</v>
+      </c>
+      <c r="D201" t="s">
+        <v>271</v>
+      </c>
+      <c r="E201">
+        <v>88189.5</v>
+      </c>
+      <c r="F201">
+        <v>115845</v>
+      </c>
+      <c r="G201">
+        <v>27655.5</v>
+      </c>
+      <c r="H201">
+        <v>1.313591754120389</v>
+      </c>
+      <c r="I201" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202">
+        <v>237674769580</v>
+      </c>
+      <c r="B202" t="s">
+        <v>209</v>
+      </c>
+      <c r="C202" t="s">
+        <v>252</v>
+      </c>
+      <c r="D202" t="s">
+        <v>271</v>
+      </c>
+      <c r="E202">
+        <v>21040</v>
+      </c>
+      <c r="F202">
+        <v>15733</v>
+      </c>
+      <c r="G202">
+        <v>-5307</v>
+      </c>
+      <c r="H202">
+        <v>0.7477661596958175</v>
+      </c>
+      <c r="I202" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203">
+        <v>237674926472</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" t="s">
+        <v>252</v>
+      </c>
+      <c r="D203" t="s">
+        <v>271</v>
+      </c>
+      <c r="E203">
+        <v>10265.55</v>
+      </c>
+      <c r="F203">
+        <v>103897</v>
+      </c>
+      <c r="G203">
+        <v>93631.45</v>
+      </c>
+      <c r="H203">
+        <v>10.12093847869817</v>
+      </c>
+      <c r="I203" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204">
+        <v>237675831509</v>
+      </c>
+      <c r="B204" t="s">
+        <v>211</v>
+      </c>
+      <c r="C204" t="s">
+        <v>256</v>
+      </c>
+      <c r="D204" t="s">
+        <v>271</v>
+      </c>
+      <c r="E204">
+        <v>143623.8461538462</v>
+      </c>
+      <c r="F204">
+        <v>7307</v>
+      </c>
+      <c r="G204">
+        <v>-136316.8461538462</v>
+      </c>
+      <c r="H204">
+        <v>0.05087595267552528</v>
+      </c>
+      <c r="I204" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205">
+        <v>237676770192</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" t="s">
+        <v>256</v>
+      </c>
+      <c r="D205" t="s">
+        <v>271</v>
+      </c>
+      <c r="E205">
+        <v>21759.975</v>
+      </c>
+      <c r="F205">
+        <v>236579</v>
+      </c>
+      <c r="G205">
+        <v>214819.025</v>
+      </c>
+      <c r="H205">
+        <v>10.87220918222562</v>
+      </c>
+      <c r="I205" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>237672279571</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" t="s">
+        <v>252</v>
+      </c>
+      <c r="D206" t="s">
+        <v>272</v>
+      </c>
+      <c r="E206">
+        <v>169789.1333333333</v>
+      </c>
+      <c r="F206">
+        <v>705179</v>
+      </c>
+      <c r="G206">
+        <v>535389.8666666667</v>
+      </c>
+      <c r="H206">
+        <v>4.15326344010237</v>
+      </c>
+      <c r="I206" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207">
+        <v>237672777139</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
+      </c>
+      <c r="C207" t="s">
+        <v>255</v>
+      </c>
+      <c r="D207" t="s">
+        <v>272</v>
+      </c>
+      <c r="E207">
+        <v>23040</v>
+      </c>
+      <c r="F207">
+        <v>60058</v>
+      </c>
+      <c r="G207">
+        <v>37018</v>
+      </c>
+      <c r="H207">
+        <v>2.606684027777778</v>
+      </c>
+      <c r="I207" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208">
+        <v>237673220938</v>
+      </c>
+      <c r="B208" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" t="s">
+        <v>255</v>
+      </c>
+      <c r="D208" t="s">
+        <v>272</v>
+      </c>
+      <c r="E208">
+        <v>159090</v>
+      </c>
+      <c r="F208">
+        <v>502275</v>
+      </c>
+      <c r="G208">
+        <v>343185</v>
+      </c>
+      <c r="H208">
+        <v>3.157175183858194</v>
+      </c>
+      <c r="I208" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209">
+        <v>237674437082</v>
+      </c>
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" t="s">
+        <v>255</v>
+      </c>
+      <c r="D209" t="s">
+        <v>272</v>
+      </c>
+      <c r="E209">
+        <v>42678.57142857143</v>
+      </c>
+      <c r="F209">
+        <v>30089</v>
+      </c>
+      <c r="G209">
+        <v>-12589.57142857143</v>
+      </c>
+      <c r="H209">
+        <v>0.7050142259414226</v>
+      </c>
+      <c r="I209" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210">
+        <v>237674895877</v>
+      </c>
+      <c r="B210" t="s">
+        <v>217</v>
+      </c>
+      <c r="C210" t="s">
+        <v>255</v>
+      </c>
+      <c r="D210" t="s">
+        <v>272</v>
+      </c>
+      <c r="E210">
+        <v>149630</v>
+      </c>
+      <c r="F210">
+        <v>13165</v>
+      </c>
+      <c r="G210">
+        <v>-136465</v>
+      </c>
+      <c r="H210">
+        <v>0.08798369310967052</v>
+      </c>
+      <c r="I210" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211">
+        <v>237674956331</v>
+      </c>
+      <c r="B211" t="s">
+        <v>218</v>
+      </c>
+      <c r="C211" t="s">
+        <v>255</v>
+      </c>
+      <c r="D211" t="s">
+        <v>272</v>
+      </c>
+      <c r="E211">
+        <v>209204</v>
+      </c>
+      <c r="F211">
+        <v>348375</v>
+      </c>
+      <c r="G211">
+        <v>139171</v>
+      </c>
+      <c r="H211">
+        <v>1.665240626374257</v>
+      </c>
+      <c r="I211" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>237674979451</v>
+      </c>
+      <c r="B212" t="s">
+        <v>219</v>
+      </c>
+      <c r="C212" t="s">
+        <v>255</v>
+      </c>
+      <c r="D212" t="s">
+        <v>272</v>
+      </c>
+      <c r="E212">
+        <v>99222</v>
+      </c>
+      <c r="F212">
+        <v>138843</v>
+      </c>
+      <c r="G212">
+        <v>39621</v>
+      </c>
+      <c r="H212">
+        <v>1.399316683799964</v>
+      </c>
+      <c r="I212" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213">
+        <v>237675329176</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" t="s">
+        <v>252</v>
+      </c>
+      <c r="D213" t="s">
+        <v>272</v>
+      </c>
+      <c r="E213">
+        <v>37210</v>
+      </c>
+      <c r="F213">
+        <v>176025</v>
+      </c>
+      <c r="G213">
+        <v>138815</v>
+      </c>
+      <c r="H213">
+        <v>4.73058317656544</v>
+      </c>
+      <c r="I213" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214">
+        <v>237675889982</v>
+      </c>
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" t="s">
+        <v>252</v>
+      </c>
+      <c r="D214" t="s">
+        <v>272</v>
+      </c>
+      <c r="E214">
+        <v>25530.58181818182</v>
+      </c>
+      <c r="F214">
+        <v>137303</v>
+      </c>
+      <c r="G214">
+        <v>111772.4181818182</v>
+      </c>
+      <c r="H214">
+        <v>5.37798162916203</v>
+      </c>
+      <c r="I214" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215">
+        <v>237676076193</v>
+      </c>
+      <c r="B215" t="s">
+        <v>222</v>
+      </c>
+      <c r="C215" t="s">
+        <v>255</v>
+      </c>
+      <c r="D215" t="s">
+        <v>272</v>
+      </c>
+      <c r="E215">
+        <v>78364.4181818182</v>
+      </c>
+      <c r="F215">
+        <v>354982</v>
+      </c>
+      <c r="G215">
+        <v>276617.5818181818</v>
+      </c>
+      <c r="H215">
+        <v>4.529887520843759</v>
+      </c>
+      <c r="I215" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216">
+        <v>237677567788</v>
+      </c>
+      <c r="B216" t="s">
+        <v>223</v>
+      </c>
+      <c r="C216" t="s">
+        <v>255</v>
+      </c>
+      <c r="D216" t="s">
+        <v>272</v>
+      </c>
+      <c r="E216">
+        <v>135148.75</v>
+      </c>
+      <c r="F216">
+        <v>448951</v>
+      </c>
+      <c r="G216">
+        <v>313802.25</v>
+      </c>
+      <c r="H216">
+        <v>3.321902718301131</v>
+      </c>
+      <c r="I216" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217">
+        <v>237678722616</v>
+      </c>
+      <c r="B217" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217" t="s">
+        <v>252</v>
+      </c>
+      <c r="D217" t="s">
+        <v>272</v>
+      </c>
+      <c r="E217">
+        <v>53283.10769230768</v>
+      </c>
+      <c r="F217">
+        <v>2323</v>
+      </c>
+      <c r="G217">
+        <v>-50960.10769230768</v>
+      </c>
+      <c r="H217">
+        <v>0.04359730692538724</v>
+      </c>
+      <c r="I217" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>237679580678</v>
+      </c>
+      <c r="B218" t="s">
+        <v>225</v>
+      </c>
+      <c r="C218" t="s">
+        <v>255</v>
+      </c>
+      <c r="D218" t="s">
+        <v>272</v>
+      </c>
+      <c r="E218">
+        <v>12426.66666666667</v>
+      </c>
+      <c r="F218">
+        <v>10028</v>
+      </c>
+      <c r="G218">
+        <v>-2398.666666666666</v>
+      </c>
+      <c r="H218">
+        <v>0.8069742489270386</v>
+      </c>
+      <c r="I218" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219">
+        <v>237680116452</v>
+      </c>
+      <c r="B219" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219" t="s">
+        <v>272</v>
+      </c>
+      <c r="E219">
+        <v>80862.5</v>
+      </c>
+      <c r="F219">
+        <v>10771</v>
+      </c>
+      <c r="G219">
+        <v>-70091.5</v>
+      </c>
+      <c r="H219">
+        <v>0.1332014221672592</v>
+      </c>
+      <c r="I219" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220">
+        <v>237680415220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>227</v>
+      </c>
+      <c r="C220" t="s">
+        <v>252</v>
+      </c>
+      <c r="D220" t="s">
+        <v>272</v>
+      </c>
+      <c r="E220">
+        <v>9787.859999999995</v>
+      </c>
+      <c r="F220">
+        <v>1227</v>
+      </c>
+      <c r="G220">
+        <v>-8560.859999999995</v>
+      </c>
+      <c r="H220">
+        <v>0.1253593737548351</v>
+      </c>
+      <c r="I220" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221">
+        <v>237681603496</v>
+      </c>
+      <c r="B221" t="s">
+        <v>228</v>
+      </c>
+      <c r="C221" t="s">
+        <v>255</v>
+      </c>
+      <c r="D221" t="s">
+        <v>272</v>
+      </c>
+      <c r="E221">
+        <v>57131.66666666666</v>
+      </c>
+      <c r="F221">
+        <v>5844</v>
+      </c>
+      <c r="G221">
+        <v>-51287.66666666666</v>
+      </c>
+      <c r="H221">
+        <v>0.1022900317978938</v>
+      </c>
+      <c r="I221" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222">
+        <v>237681657461</v>
+      </c>
+      <c r="B222" t="s">
+        <v>229</v>
+      </c>
+      <c r="C222" t="s">
+        <v>252</v>
+      </c>
+      <c r="D222" t="s">
+        <v>272</v>
+      </c>
+      <c r="E222">
+        <v>86929.8</v>
+      </c>
+      <c r="F222">
+        <v>31562</v>
+      </c>
+      <c r="G222">
+        <v>-55367.8</v>
+      </c>
+      <c r="H222">
+        <v>0.3630745728162264</v>
+      </c>
+      <c r="I222" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223">
+        <v>237681662596</v>
+      </c>
+      <c r="B223" t="s">
+        <v>230</v>
+      </c>
+      <c r="C223" t="s">
+        <v>255</v>
+      </c>
+      <c r="D223" t="s">
+        <v>272</v>
+      </c>
+      <c r="E223">
+        <v>110397.5</v>
+      </c>
+      <c r="F223">
+        <v>72179</v>
+      </c>
+      <c r="G223">
+        <v>-38218.5</v>
+      </c>
+      <c r="H223">
+        <v>0.6538100953373038</v>
+      </c>
+      <c r="I223" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>237681677617</v>
+      </c>
+      <c r="B224" t="s">
+        <v>231</v>
+      </c>
+      <c r="C224" t="s">
+        <v>252</v>
+      </c>
+      <c r="D224" t="s">
+        <v>272</v>
+      </c>
+      <c r="E224">
+        <v>17929.8</v>
+      </c>
+      <c r="F224">
+        <v>27208</v>
+      </c>
+      <c r="G224">
+        <v>9278.200000000001</v>
+      </c>
+      <c r="H224">
+        <v>1.517473702997245</v>
+      </c>
+      <c r="I224" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225">
+        <v>237681679096</v>
+      </c>
+      <c r="B225" t="s">
+        <v>232</v>
+      </c>
+      <c r="C225" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225" t="s">
+        <v>272</v>
+      </c>
+      <c r="E225">
+        <v>30203</v>
+      </c>
+      <c r="F225">
+        <v>71861</v>
+      </c>
+      <c r="G225">
+        <v>41658</v>
+      </c>
+      <c r="H225">
+        <v>2.379266960235738</v>
+      </c>
+      <c r="I225" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226">
+        <v>237683279255</v>
+      </c>
+      <c r="B226" t="s">
+        <v>233</v>
+      </c>
+      <c r="C226" t="s">
+        <v>252</v>
+      </c>
+      <c r="D226" t="s">
+        <v>272</v>
+      </c>
+      <c r="E226">
+        <v>39160</v>
+      </c>
+      <c r="F226">
+        <v>207969</v>
+      </c>
+      <c r="G226">
+        <v>168809</v>
+      </c>
+      <c r="H226">
+        <v>5.310750766087844</v>
+      </c>
+      <c r="I226" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227">
+        <v>237683353137</v>
+      </c>
+      <c r="B227" t="s">
+        <v>234</v>
+      </c>
+      <c r="C227" t="s">
+        <v>252</v>
+      </c>
+      <c r="D227" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227">
+        <v>34730</v>
+      </c>
+      <c r="F227">
+        <v>318</v>
+      </c>
+      <c r="G227">
+        <v>-34412</v>
+      </c>
+      <c r="H227">
+        <v>0.009156348977828967</v>
+      </c>
+      <c r="I227" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228">
+        <v>237683396173</v>
+      </c>
+      <c r="B228" t="s">
+        <v>235</v>
+      </c>
+      <c r="C228" t="s">
+        <v>255</v>
+      </c>
+      <c r="D228" t="s">
+        <v>272</v>
+      </c>
+      <c r="E228">
+        <v>46180</v>
+      </c>
+      <c r="F228">
+        <v>120364</v>
+      </c>
+      <c r="G228">
+        <v>74184</v>
+      </c>
+      <c r="H228">
+        <v>2.606409701169337</v>
+      </c>
+      <c r="I228" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229">
+        <v>237683557193</v>
+      </c>
+      <c r="B229" t="s">
+        <v>236</v>
+      </c>
+      <c r="C229" t="s">
+        <v>252</v>
+      </c>
+      <c r="D229" t="s">
+        <v>272</v>
+      </c>
+      <c r="E229">
+        <v>9780</v>
+      </c>
+      <c r="F229">
+        <v>281</v>
+      </c>
+      <c r="G229">
+        <v>-9499</v>
+      </c>
+      <c r="H229">
+        <v>0.0287321063394683</v>
+      </c>
+      <c r="I229" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230">
+        <v>237671646117</v>
+      </c>
+      <c r="B230" t="s">
+        <v>237</v>
+      </c>
+      <c r="C230" t="s">
+        <v>258</v>
+      </c>
+      <c r="D230" t="s">
+        <v>273</v>
+      </c>
+      <c r="E230">
+        <v>51881.075</v>
+      </c>
+      <c r="F230">
+        <v>459096</v>
+      </c>
+      <c r="G230">
+        <v>407214.925</v>
+      </c>
+      <c r="H230">
+        <v>8.849007080134712</v>
+      </c>
+      <c r="I230" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231">
+        <v>237674440808</v>
+      </c>
+      <c r="B231" t="s">
+        <v>238</v>
+      </c>
+      <c r="C231" t="s">
+        <v>252</v>
+      </c>
+      <c r="D231" t="s">
+        <v>273</v>
+      </c>
+      <c r="E231">
+        <v>5000</v>
+      </c>
+      <c r="F231">
+        <v>21299</v>
+      </c>
+      <c r="G231">
+        <v>16299</v>
+      </c>
+      <c r="H231">
+        <v>4.2598</v>
+      </c>
+      <c r="I231" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232">
+        <v>237675788721</v>
+      </c>
+      <c r="B232" t="s">
+        <v>239</v>
+      </c>
+      <c r="C232" t="s">
+        <v>260</v>
+      </c>
+      <c r="D232" t="s">
+        <v>273</v>
+      </c>
+      <c r="E232">
+        <v>145306.5</v>
+      </c>
+      <c r="F232">
+        <v>591097</v>
+      </c>
+      <c r="G232">
+        <v>445790.5</v>
+      </c>
+      <c r="H232">
+        <v>4.067932267310822</v>
+      </c>
+      <c r="I232" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233">
+        <v>237676036914</v>
+      </c>
+      <c r="B233" t="s">
+        <v>240</v>
+      </c>
+      <c r="C233" t="s">
+        <v>252</v>
+      </c>
+      <c r="D233" t="s">
+        <v>273</v>
+      </c>
+      <c r="E233">
+        <v>29860</v>
+      </c>
+      <c r="F233">
+        <v>201711</v>
+      </c>
+      <c r="G233">
+        <v>171851</v>
+      </c>
+      <c r="H233">
+        <v>6.755224380442063</v>
+      </c>
+      <c r="I233" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234">
+        <v>237679550294</v>
+      </c>
+      <c r="B234" t="s">
+        <v>241</v>
+      </c>
+      <c r="C234" t="s">
+        <v>252</v>
+      </c>
+      <c r="D234" t="s">
+        <v>273</v>
+      </c>
+      <c r="E234">
+        <v>14649.6</v>
+      </c>
+      <c r="F234">
+        <v>8438</v>
+      </c>
+      <c r="G234">
+        <v>-6211.6</v>
+      </c>
+      <c r="H234">
+        <v>0.5759884228920926</v>
+      </c>
+      <c r="I234" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235">
+        <v>237679604574</v>
+      </c>
+      <c r="B235" t="s">
+        <v>242</v>
+      </c>
+      <c r="C235" t="s">
+        <v>252</v>
+      </c>
+      <c r="D235" t="s">
+        <v>273</v>
+      </c>
+      <c r="E235">
+        <v>10309.09090909091</v>
+      </c>
+      <c r="F235">
+        <v>11797</v>
+      </c>
+      <c r="G235">
+        <v>1487.90909090909</v>
+      </c>
+      <c r="H235">
+        <v>1.144329805996473</v>
+      </c>
+      <c r="I235" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236">
+        <v>237682370358</v>
+      </c>
+      <c r="B236" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236" t="s">
+        <v>258</v>
+      </c>
+      <c r="D236" t="s">
+        <v>273</v>
+      </c>
+      <c r="E236">
+        <v>24760</v>
+      </c>
+      <c r="F236">
+        <v>57191</v>
+      </c>
+      <c r="G236">
+        <v>32431</v>
+      </c>
+      <c r="H236">
+        <v>2.309814216478191</v>
+      </c>
+      <c r="I236" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237">
+        <v>237682639044</v>
+      </c>
+      <c r="B237" t="s">
+        <v>244</v>
+      </c>
+      <c r="C237" t="s">
+        <v>259</v>
+      </c>
+      <c r="D237" t="s">
+        <v>273</v>
+      </c>
+      <c r="E237">
+        <v>223294</v>
+      </c>
+      <c r="F237">
+        <v>690070</v>
+      </c>
+      <c r="G237">
+        <v>466776</v>
+      </c>
+      <c r="H237">
+        <v>3.090409952797657</v>
+      </c>
+      <c r="I237" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238">
+        <v>237683023087</v>
+      </c>
+      <c r="B238" t="s">
+        <v>245</v>
+      </c>
+      <c r="C238" t="s">
+        <v>258</v>
+      </c>
+      <c r="D238" t="s">
+        <v>273</v>
+      </c>
+      <c r="E238">
+        <v>119280</v>
+      </c>
+      <c r="F238">
+        <v>34970</v>
+      </c>
+      <c r="G238">
+        <v>-84310</v>
+      </c>
+      <c r="H238">
+        <v>0.2931757209926224</v>
+      </c>
+      <c r="I238" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239">
+        <v>237650874464</v>
+      </c>
+      <c r="B239" t="s">
+        <v>246</v>
+      </c>
+      <c r="C239" t="s">
+        <v>257</v>
+      </c>
+      <c r="D239" t="s">
+        <v>274</v>
+      </c>
+      <c r="E239">
+        <v>189390.9090909091</v>
+      </c>
+      <c r="F239">
+        <v>142764</v>
+      </c>
+      <c r="G239">
+        <v>-46626.90909090906</v>
+      </c>
+      <c r="H239">
+        <v>0.7538059808956945</v>
+      </c>
+      <c r="I239" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240">
+        <v>237653854849</v>
+      </c>
+      <c r="B240" t="s">
+        <v>247</v>
+      </c>
+      <c r="C240" t="s">
+        <v>257</v>
+      </c>
+      <c r="D240" t="s">
+        <v>274</v>
+      </c>
+      <c r="E240">
+        <v>18363.75</v>
+      </c>
+      <c r="F240">
+        <v>1974</v>
+      </c>
+      <c r="G240">
+        <v>-16389.75</v>
+      </c>
+      <c r="H240">
+        <v>0.1074943843169287</v>
+      </c>
+      <c r="I240" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241">
+        <v>237654164073</v>
+      </c>
+      <c r="B241" t="s">
+        <v>248</v>
+      </c>
+      <c r="C241" t="s">
+        <v>257</v>
+      </c>
+      <c r="D241" t="s">
+        <v>274</v>
+      </c>
+      <c r="E241">
+        <v>30457.27272727273</v>
+      </c>
+      <c r="F241">
+        <v>29530</v>
+      </c>
+      <c r="G241">
+        <v>-927.2727272727279</v>
+      </c>
+      <c r="H241">
+        <v>0.9695549652269946</v>
+      </c>
+      <c r="I241" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242">
+        <v>237671357520</v>
+      </c>
+      <c r="B242" t="s">
+        <v>249</v>
+      </c>
+      <c r="C242" t="s">
+        <v>252</v>
+      </c>
+      <c r="D242" t="s">
+        <v>274</v>
+      </c>
+      <c r="E242">
+        <v>16806.66666666667</v>
+      </c>
+      <c r="F242">
+        <v>28083</v>
+      </c>
+      <c r="G242">
+        <v>11276.33333333333</v>
+      </c>
+      <c r="H242">
+        <v>1.670944069813566</v>
+      </c>
+      <c r="I242" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243">
+        <v>237672587687</v>
+      </c>
+      <c r="B243" t="s">
+        <v>250</v>
+      </c>
+      <c r="C243" t="s">
+        <v>252</v>
+      </c>
+      <c r="D243" t="s">
+        <v>274</v>
+      </c>
+      <c r="E243">
+        <v>43904.9</v>
+      </c>
+      <c r="F243">
+        <v>196218</v>
+      </c>
+      <c r="G243">
+        <v>152313.1</v>
+      </c>
+      <c r="H243">
+        <v>4.46915947878255</v>
+      </c>
+      <c r="I243" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244">
+        <v>237674240552</v>
+      </c>
+      <c r="B244" t="s">
+        <v>251</v>
+      </c>
+      <c r="C244" t="s">
+        <v>257</v>
+      </c>
+      <c r="D244" t="s">
+        <v>274</v>
+      </c>
+      <c r="E244">
+        <v>20270</v>
+      </c>
+      <c r="F244">
+        <v>160642</v>
+      </c>
+      <c r="G244">
+        <v>140372</v>
+      </c>
+      <c r="H244">
+        <v>7.92511100148002</v>
+      </c>
+      <c r="I244" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="298">
   <si>
     <t>Numero</t>
   </si>
@@ -772,6 +772,66 @@
     <t>AUGUSTINE NGO BAYOI</t>
   </si>
   <si>
+    <t>EDITH LAURE MATCHINDA NGUEMETA</t>
+  </si>
+  <si>
+    <t>BENEDICTE CHANTAL MANTSANG</t>
+  </si>
+  <si>
+    <t>FLORENCE NGUEFACK</t>
+  </si>
+  <si>
+    <t>ETP109 ETP</t>
+  </si>
+  <si>
+    <t>MEDJOM TAGNE MICHELLE GUILENE LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>ELVIS FEUDJIO</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 42</t>
+  </si>
+  <si>
+    <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>charity aben awalah</t>
+  </si>
+  <si>
+    <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MFS SOCAVER</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 29</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R1 MEGNE JUDITH</t>
+  </si>
+  <si>
+    <t>TOUMEWO SAMUEL</t>
+  </si>
+  <si>
+    <t>SAHA NDESA JONAS LTDLA_POLAS_OTH_NDOGBONG SERIE</t>
+  </si>
+  <si>
+    <t>jean michel mba</t>
+  </si>
+  <si>
+    <t>MADELEINE NKOUADJIO</t>
+  </si>
+  <si>
+    <t>LUC BAYOMOCK</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL NYOUNG JOSEPH CLOTAIRE</t>
+  </si>
+  <si>
+    <t>GORBATCHEV NGUETSA KOUAKAM</t>
+  </si>
+  <si>
     <t>Rte_0</t>
   </si>
   <si>
@@ -842,6 +902,12 @@
   </si>
   <si>
     <t>Ndogbong</t>
+  </si>
+  <si>
+    <t>Socaver Ndongbong</t>
+  </si>
+  <si>
+    <t>Total Ndokotti</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E2">
         <v>19150</v>
@@ -1260,7 +1326,7 @@
         <v>1.415770234986945</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1271,10 +1337,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -1289,7 +1355,7 @@
         <v>3.0728</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1300,10 +1366,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E4">
         <v>84390</v>
@@ -1318,7 +1384,7 @@
         <v>0.1093731484773077</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1329,10 +1395,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E5">
         <v>260865</v>
@@ -1347,7 +1413,7 @@
         <v>2.685546163724532</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1358,10 +1424,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E6">
         <v>28141.53846153846</v>
@@ -1376,7 +1442,7 @@
         <v>1.233443581893724</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1387,10 +1453,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E7">
         <v>38670</v>
@@ -1405,7 +1471,7 @@
         <v>17.1059219032842</v>
       </c>
       <c r="I7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1416,10 +1482,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E8">
         <v>46826</v>
@@ -1434,7 +1500,7 @@
         <v>0.4723871353521548</v>
       </c>
       <c r="I8" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1445,10 +1511,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E9">
         <v>14676.42857142857</v>
@@ -1463,7 +1529,7 @@
         <v>5.942658295614932</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1474,10 +1540,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E10">
         <v>13250</v>
@@ -1492,7 +1558,7 @@
         <v>0.6353207547169811</v>
       </c>
       <c r="I10" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1503,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E11">
         <v>8935.719999999999</v>
@@ -1521,7 +1587,7 @@
         <v>1.570326733604007</v>
       </c>
       <c r="I11" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1532,10 +1598,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E12">
         <v>223404</v>
@@ -1550,7 +1616,7 @@
         <v>1.613655082272475</v>
       </c>
       <c r="I12" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1561,10 +1627,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E13">
         <v>5493.333333333333</v>
@@ -1579,7 +1645,7 @@
         <v>2.123118932038835</v>
       </c>
       <c r="I13" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1590,10 +1656,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E14">
         <v>284192.6444444444</v>
@@ -1608,7 +1674,7 @@
         <v>0.147498539527452</v>
       </c>
       <c r="I14" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1619,10 +1685,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E15">
         <v>7220</v>
@@ -1637,7 +1703,7 @@
         <v>3.068975069252077</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1648,10 +1714,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E16">
         <v>38878.39000000001</v>
@@ -1666,7 +1732,7 @@
         <v>1.854397777274213</v>
       </c>
       <c r="I16" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1677,10 +1743,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E17">
         <v>7380.523076923077</v>
@@ -1695,7 +1761,7 @@
         <v>0.5148686563804108</v>
       </c>
       <c r="I17" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1706,10 +1772,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E18">
         <v>26419.66666666666</v>
@@ -1724,7 +1790,7 @@
         <v>0.9661741884202428</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1735,10 +1801,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E19">
         <v>39192.5</v>
@@ -1753,7 +1819,7 @@
         <v>0.006174650762263188</v>
       </c>
       <c r="I19" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1764,10 +1830,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E20">
         <v>333240</v>
@@ -1782,7 +1848,7 @@
         <v>0.940406313767855</v>
       </c>
       <c r="I20" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1793,10 +1859,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E21">
         <v>62720</v>
@@ -1811,7 +1877,7 @@
         <v>4.549250637755102</v>
       </c>
       <c r="I21" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1822,10 +1888,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E22">
         <v>38170</v>
@@ -1840,7 +1906,7 @@
         <v>6.635472884464239</v>
       </c>
       <c r="I22" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1851,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E23">
         <v>172860</v>
@@ -1869,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1880,10 +1946,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E24">
         <v>53438.45714285715</v>
@@ -1898,7 +1964,7 @@
         <v>1.492913610636748</v>
       </c>
       <c r="I24" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1909,10 +1975,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E25">
         <v>55864.54545454546</v>
@@ -1927,7 +1993,7 @@
         <v>2.86292493205969</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1938,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E26">
         <v>18750</v>
@@ -1956,7 +2022,7 @@
         <v>0.8024</v>
       </c>
       <c r="I26" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1967,10 +2033,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E27">
         <v>14265</v>
@@ -1985,7 +2051,7 @@
         <v>2.024956186470382</v>
       </c>
       <c r="I27" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1996,10 +2062,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E28">
         <v>271168</v>
@@ -2014,7 +2080,7 @@
         <v>0.4647119129100779</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2025,10 +2091,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E29">
         <v>35537.4</v>
@@ -2043,7 +2109,7 @@
         <v>0.6158300832362524</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2054,10 +2120,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D30" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E30">
         <v>195936.25</v>
@@ -2072,7 +2138,7 @@
         <v>1.659478529368609</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2083,10 +2149,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E31">
         <v>136459.0909090909</v>
@@ -2101,7 +2167,7 @@
         <v>2.140524299656907</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2112,10 +2178,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E32">
         <v>159153.3333333333</v>
@@ -2130,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2141,10 +2207,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E33">
         <v>41870</v>
@@ -2159,7 +2225,7 @@
         <v>0.03694769524719369</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2170,10 +2236,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E34">
         <v>235988.3333333334</v>
@@ -2188,7 +2254,7 @@
         <v>0.1087935138036485</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2199,10 +2265,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E35">
         <v>39758.21666666667</v>
@@ -2217,7 +2283,7 @@
         <v>0.7710858929370156</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2228,10 +2294,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E36">
         <v>74657.14285714286</v>
@@ -2246,7 +2312,7 @@
         <v>4.457577497129736</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2257,10 +2323,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D37" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E37">
         <v>500000</v>
@@ -2275,7 +2341,7 @@
         <v>0.389164</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2286,10 +2352,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E38">
         <v>113235</v>
@@ -2304,7 +2370,7 @@
         <v>0.6954386894511414</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2315,10 +2381,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E39">
         <v>90695</v>
@@ -2333,7 +2399,7 @@
         <v>6.502001212856277</v>
       </c>
       <c r="I39" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2344,10 +2410,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E40">
         <v>176790</v>
@@ -2362,7 +2428,7 @@
         <v>0.06353300526047853</v>
       </c>
       <c r="I40" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2373,10 +2439,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E41">
         <v>15660</v>
@@ -2391,7 +2457,7 @@
         <v>8.755938697318008</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2402,10 +2468,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E42">
         <v>28554.8</v>
@@ -2420,7 +2486,7 @@
         <v>1.325241290431031</v>
       </c>
       <c r="I42" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2431,10 +2497,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D43" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E43">
         <v>34912.72727272727</v>
@@ -2449,7 +2515,7 @@
         <v>3.012798146026455</v>
       </c>
       <c r="I43" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2460,10 +2526,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E44">
         <v>96559.8</v>
@@ -2478,7 +2544,7 @@
         <v>6.712462121918231</v>
       </c>
       <c r="I44" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2489,10 +2555,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E45">
         <v>129030</v>
@@ -2507,7 +2573,7 @@
         <v>1.180477408354646</v>
       </c>
       <c r="I45" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2518,10 +2584,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D46" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E46">
         <v>145740</v>
@@ -2536,7 +2602,7 @@
         <v>1.070522848909016</v>
       </c>
       <c r="I46" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2547,10 +2613,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E47">
         <v>31576.24</v>
@@ -2565,7 +2631,7 @@
         <v>2.552647180284923</v>
       </c>
       <c r="I47" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2576,10 +2642,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E48">
         <v>54855.31111111111</v>
@@ -2594,7 +2660,7 @@
         <v>0.9403282736929353</v>
       </c>
       <c r="I48" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2605,10 +2671,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D49" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E49">
         <v>30030</v>
@@ -2623,7 +2689,7 @@
         <v>12.5002664002664</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2634,10 +2700,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E50">
         <v>18795</v>
@@ -2652,7 +2718,7 @@
         <v>14.79318967810588</v>
       </c>
       <c r="I50" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2663,10 +2729,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E51">
         <v>48162</v>
@@ -2681,7 +2747,7 @@
         <v>8.494165524687514</v>
       </c>
       <c r="I51" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2692,10 +2758,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E52">
         <v>41275.71428571428</v>
@@ -2710,7 +2776,7 @@
         <v>4.615232063129478</v>
       </c>
       <c r="I52" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2721,10 +2787,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E53">
         <v>30923.33333333334</v>
@@ -2739,7 +2805,7 @@
         <v>1.096388918831519</v>
       </c>
       <c r="I53" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2750,10 +2816,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E54">
         <v>86783.84615384616</v>
@@ -2768,7 +2834,7 @@
         <v>0.006579565498719187</v>
       </c>
       <c r="I54" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2779,10 +2845,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E55">
         <v>328228.8</v>
@@ -2797,7 +2863,7 @@
         <v>0.01132137094612051</v>
       </c>
       <c r="I55" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2808,10 +2874,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E56">
         <v>85360</v>
@@ -2826,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2837,10 +2903,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E57">
         <v>103179.8</v>
@@ -2855,7 +2921,7 @@
         <v>4.278831709307441</v>
       </c>
       <c r="I57" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2866,10 +2932,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E58">
         <v>178497.5</v>
@@ -2884,7 +2950,7 @@
         <v>3.279889074076668</v>
       </c>
       <c r="I58" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2895,10 +2961,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E59">
         <v>500000</v>
@@ -2913,7 +2979,7 @@
         <v>0.65001</v>
       </c>
       <c r="I59" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2924,10 +2990,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E60">
         <v>6183.636363636364</v>
@@ -2942,7 +3008,7 @@
         <v>0.5162011173184358</v>
       </c>
       <c r="I60" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2953,10 +3019,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D61" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E61">
         <v>114838.4615384615</v>
@@ -2971,7 +3037,7 @@
         <v>1.08703128139862</v>
       </c>
       <c r="I61" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2982,10 +3048,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E62">
         <v>29820</v>
@@ -3000,7 +3066,7 @@
         <v>12.70107310529846</v>
       </c>
       <c r="I62" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3011,10 +3077,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E63">
         <v>145105</v>
@@ -3029,7 +3095,7 @@
         <v>4.746397436339203</v>
       </c>
       <c r="I63" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3040,10 +3106,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E64">
         <v>242106.6666666666</v>
@@ -3058,7 +3124,7 @@
         <v>3.094706190109043</v>
       </c>
       <c r="I64" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3069,10 +3135,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E65">
         <v>23150</v>
@@ -3087,7 +3153,7 @@
         <v>6.186522678185745</v>
       </c>
       <c r="I65" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3098,10 +3164,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E66">
         <v>43130</v>
@@ -3116,7 +3182,7 @@
         <v>10.75998145142592</v>
       </c>
       <c r="I66" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3127,10 +3193,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E67">
         <v>7120</v>
@@ -3145,7 +3211,7 @@
         <v>6.41376404494382</v>
       </c>
       <c r="I67" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3156,10 +3222,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E68">
         <v>12128.57142857143</v>
@@ -3174,7 +3240,7 @@
         <v>5.23243816254417</v>
       </c>
       <c r="I68" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3185,10 +3251,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E69">
         <v>75599.88333333333</v>
@@ -3203,7 +3269,7 @@
         <v>2.552940447659421</v>
       </c>
       <c r="I69" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3214,10 +3280,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E70">
         <v>239424</v>
@@ -3232,7 +3298,7 @@
         <v>0.001791800320769848</v>
       </c>
       <c r="I70" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3243,10 +3309,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E71">
         <v>79250</v>
@@ -3261,7 +3327,7 @@
         <v>2.946965299684543</v>
       </c>
       <c r="I71" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3272,10 +3338,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E72">
         <v>118868</v>
@@ -3290,7 +3356,7 @@
         <v>0.9735000168253861</v>
       </c>
       <c r="I72" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3301,10 +3367,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E73">
         <v>137844.9629629629</v>
@@ -3319,7 +3385,7 @@
         <v>0.02645000529311782</v>
       </c>
       <c r="I73" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3330,10 +3396,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E74">
         <v>5000</v>
@@ -3348,7 +3414,7 @@
         <v>0.0008</v>
       </c>
       <c r="I74" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3359,10 +3425,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D75" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E75">
         <v>15997.69230769231</v>
@@ -3377,7 +3443,7 @@
         <v>6.787854017406357</v>
       </c>
       <c r="I75" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3388,10 +3454,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E76">
         <v>28041.81818181818</v>
@@ -3406,7 +3472,7 @@
         <v>4.932383453284056</v>
       </c>
       <c r="I76" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3417,10 +3483,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D77" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E77">
         <v>14380</v>
@@ -3435,7 +3501,7 @@
         <v>4.255146036161335</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3446,10 +3512,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E78">
         <v>12800</v>
@@ -3464,7 +3530,7 @@
         <v>1.9940625</v>
       </c>
       <c r="I78" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3475,10 +3541,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D79" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E79">
         <v>190430</v>
@@ -3493,7 +3559,7 @@
         <v>2.090999317334453</v>
       </c>
       <c r="I79" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3504,10 +3570,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E80">
         <v>5327.599999999999</v>
@@ -3522,7 +3588,7 @@
         <v>0.9644117426233202</v>
       </c>
       <c r="I80" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3533,10 +3599,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E81">
         <v>27650</v>
@@ -3551,7 +3617,7 @@
         <v>14.92723327305606</v>
       </c>
       <c r="I81" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3562,10 +3628,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E82">
         <v>112594</v>
@@ -3580,7 +3646,7 @@
         <v>1.871245359433007</v>
       </c>
       <c r="I82" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3591,10 +3657,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E83">
         <v>108762.35</v>
@@ -3609,7 +3675,7 @@
         <v>6.313370389661496</v>
       </c>
       <c r="I83" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3620,10 +3686,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E84">
         <v>20715.26153846153</v>
@@ -3638,7 +3704,7 @@
         <v>1.687644635096236</v>
       </c>
       <c r="I84" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3649,10 +3715,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E85">
         <v>34610</v>
@@ -3667,7 +3733,7 @@
         <v>5.895088124819416</v>
       </c>
       <c r="I85" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3678,10 +3744,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D86" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E86">
         <v>189785.8</v>
@@ -3696,7 +3762,7 @@
         <v>0.5829361311541749</v>
       </c>
       <c r="I86" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3707,10 +3773,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E87">
         <v>25030</v>
@@ -3725,7 +3791,7 @@
         <v>0.8982421094686376</v>
       </c>
       <c r="I87" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3736,10 +3802,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E88">
         <v>26250</v>
@@ -3754,7 +3820,7 @@
         <v>27.69318095238095</v>
       </c>
       <c r="I88" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3765,10 +3831,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E89">
         <v>182169.7</v>
@@ -3783,7 +3849,7 @@
         <v>0.7091684292173726</v>
       </c>
       <c r="I89" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3794,10 +3860,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E90">
         <v>5000</v>
@@ -3812,7 +3878,7 @@
         <v>3.021</v>
       </c>
       <c r="I90" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3823,10 +3889,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E91">
         <v>184162.0370370371</v>
@@ -3841,7 +3907,7 @@
         <v>0.1561613916890822</v>
       </c>
       <c r="I91" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3852,10 +3918,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E92">
         <v>61193.33333333334</v>
@@ -3870,7 +3936,7 @@
         <v>2.240080618803791</v>
       </c>
       <c r="I92" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3881,10 +3947,10 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E93">
         <v>16520</v>
@@ -3899,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3910,10 +3976,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E94">
         <v>100229.8</v>
@@ -3928,7 +3994,7 @@
         <v>2.388171980788149</v>
       </c>
       <c r="I94" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3939,10 +4005,10 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E95">
         <v>25619.09090909091</v>
@@ -3957,7 +4023,7 @@
         <v>3.703449132394166</v>
       </c>
       <c r="I95" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3968,10 +4034,10 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E96">
         <v>56220</v>
@@ -3986,7 +4052,7 @@
         <v>21.2746709356101</v>
       </c>
       <c r="I96" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3997,10 +4063,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E97">
         <v>59610</v>
@@ -4015,7 +4081,7 @@
         <v>1.111675893306492</v>
       </c>
       <c r="I97" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4026,10 +4092,10 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E98">
         <v>57805.71428571429</v>
@@ -4044,7 +4110,7 @@
         <v>2.296018683274021</v>
       </c>
       <c r="I98" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4055,10 +4121,10 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E99">
         <v>47813.75</v>
@@ -4073,7 +4139,7 @@
         <v>10.42812998352984</v>
       </c>
       <c r="I99" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4084,10 +4150,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E100">
         <v>7438.090909090909</v>
@@ -4102,7 +4168,7 @@
         <v>2.035871863503587</v>
       </c>
       <c r="I100" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4113,10 +4179,10 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D101" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E101">
         <v>123740</v>
@@ -4131,7 +4197,7 @@
         <v>2.202998222078552</v>
       </c>
       <c r="I101" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4142,10 +4208,10 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="E102">
         <v>7776.875</v>
@@ -4160,7 +4226,7 @@
         <v>5.046242867475689</v>
       </c>
       <c r="I102" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4171,10 +4237,10 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E103">
         <v>47969.93333333333</v>
@@ -4189,7 +4255,7 @@
         <v>6.458086940569719</v>
       </c>
       <c r="I103" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4200,10 +4266,10 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E104">
         <v>107070</v>
@@ -4218,7 +4284,7 @@
         <v>5.532614177640796</v>
       </c>
       <c r="I104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4229,10 +4295,10 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E105">
         <v>5000</v>
@@ -4247,7 +4313,7 @@
         <v>0.6798</v>
       </c>
       <c r="I105" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4258,10 +4324,10 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E106">
         <v>40660</v>
@@ -4276,7 +4342,7 @@
         <v>31.34419576979833</v>
       </c>
       <c r="I106" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4287,10 +4353,10 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E107">
         <v>26953.63636363636</v>
@@ -4305,7 +4371,7 @@
         <v>1.290920435765119</v>
       </c>
       <c r="I107" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4316,10 +4382,10 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E108">
         <v>45439.84</v>
@@ -4334,7 +4400,7 @@
         <v>0.1198947883619309</v>
       </c>
       <c r="I108" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4345,10 +4411,10 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E109">
         <v>54767.77777777778</v>
@@ -4363,7 +4429,7 @@
         <v>0.03613438558763263</v>
       </c>
       <c r="I109" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4374,10 +4440,10 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E110">
         <v>80918.93000000001</v>
@@ -4392,7 +4458,7 @@
         <v>6.77183942002199</v>
       </c>
       <c r="I110" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4403,10 +4469,10 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E111">
         <v>500000</v>
@@ -4421,7 +4487,7 @@
         <v>7.77873</v>
       </c>
       <c r="I111" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4432,10 +4498,10 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D112" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E112">
         <v>60430</v>
@@ -4450,7 +4516,7 @@
         <v>0.9120304484527553</v>
       </c>
       <c r="I112" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4461,10 +4527,10 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E113">
         <v>27020</v>
@@ -4479,7 +4545,7 @@
         <v>6.647964470762398</v>
       </c>
       <c r="I113" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4490,10 +4556,10 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D114" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E114">
         <v>5000</v>
@@ -4508,7 +4574,7 @@
         <v>4.0858</v>
       </c>
       <c r="I114" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4519,10 +4585,10 @@
         <v>122</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D115" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E115">
         <v>16698.33333333333</v>
@@ -4537,7 +4603,7 @@
         <v>2.710150713644076</v>
       </c>
       <c r="I115" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4548,10 +4614,10 @@
         <v>123</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D116" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E116">
         <v>25916.63076923077</v>
@@ -4566,7 +4632,7 @@
         <v>0.8909337099254948</v>
       </c>
       <c r="I116" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4577,10 +4643,10 @@
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D117" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E117">
         <v>8800</v>
@@ -4595,7 +4661,7 @@
         <v>2.306931818181818</v>
       </c>
       <c r="I117" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4606,10 +4672,10 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D118" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E118">
         <v>43870</v>
@@ -4624,7 +4690,7 @@
         <v>2.031000683838614</v>
       </c>
       <c r="I118" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4635,10 +4701,10 @@
         <v>126</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E119">
         <v>233104.6</v>
@@ -4653,7 +4719,7 @@
         <v>1.486843245478639</v>
       </c>
       <c r="I119" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4664,10 +4730,10 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D120" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E120">
         <v>149646.6666666667</v>
@@ -4682,7 +4748,7 @@
         <v>6.584991312870316</v>
       </c>
       <c r="I120" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4693,10 +4759,10 @@
         <v>128</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D121" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E121">
         <v>500000</v>
@@ -4711,7 +4777,7 @@
         <v>5.523966</v>
       </c>
       <c r="I121" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4722,10 +4788,10 @@
         <v>129</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D122" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E122">
         <v>12360.93333333334</v>
@@ -4740,7 +4806,7 @@
         <v>4.262865803013796</v>
       </c>
       <c r="I122" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4751,10 +4817,10 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E123">
         <v>94100</v>
@@ -4769,7 +4835,7 @@
         <v>5.242189160467587</v>
       </c>
       <c r="I123" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4780,10 +4846,10 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D124" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E124">
         <v>169880</v>
@@ -4798,7 +4864,7 @@
         <v>10.42050270779374</v>
       </c>
       <c r="I124" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4809,10 +4875,10 @@
         <v>132</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E125">
         <v>7700</v>
@@ -4827,7 +4893,7 @@
         <v>2.328831168831169</v>
       </c>
       <c r="I125" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4838,10 +4904,10 @@
         <v>133</v>
       </c>
       <c r="C126" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E126">
         <v>88440</v>
@@ -4856,7 +4922,7 @@
         <v>11.27762324739937</v>
       </c>
       <c r="I126" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4867,10 +4933,10 @@
         <v>134</v>
       </c>
       <c r="C127" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E127">
         <v>27588.26086956522</v>
@@ -4885,7 +4951,7 @@
         <v>1.166510645674751</v>
       </c>
       <c r="I127" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4896,10 +4962,10 @@
         <v>135</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="E128">
         <v>104380</v>
@@ -4914,7 +4980,7 @@
         <v>1.5195822954589</v>
       </c>
       <c r="I128" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4925,10 +4991,10 @@
         <v>136</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D129" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E129">
         <v>173354.6</v>
@@ -4943,7 +5009,7 @@
         <v>1.093423537650573</v>
       </c>
       <c r="I129" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4954,10 +5020,10 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E130">
         <v>112810</v>
@@ -4972,7 +5038,7 @@
         <v>0.2139172059214609</v>
       </c>
       <c r="I130" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4983,10 +5049,10 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E131">
         <v>140210</v>
@@ -5001,7 +5067,7 @@
         <v>2.473896298409529</v>
       </c>
       <c r="I131" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5012,10 +5078,10 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E132">
         <v>55020</v>
@@ -5030,7 +5096,7 @@
         <v>0.5756997455470738</v>
       </c>
       <c r="I132" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5041,10 +5107,10 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D133" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E133">
         <v>22670</v>
@@ -5059,7 +5125,7 @@
         <v>4.01005734450816</v>
       </c>
       <c r="I133" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5070,10 +5136,10 @@
         <v>141</v>
       </c>
       <c r="C134" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D134" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E134">
         <v>46742.5</v>
@@ -5088,7 +5154,7 @@
         <v>6.92119591378296</v>
       </c>
       <c r="I134" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5099,10 +5165,10 @@
         <v>142</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D135" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E135">
         <v>344672.7272727273</v>
@@ -5117,7 +5183,7 @@
         <v>0.389485414358812</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5128,10 +5194,10 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D136" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E136">
         <v>61570</v>
@@ -5146,7 +5212,7 @@
         <v>1.847425694331655</v>
       </c>
       <c r="I136" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5157,10 +5223,10 @@
         <v>144</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D137" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E137">
         <v>54420</v>
@@ -5175,7 +5241,7 @@
         <v>8.223171628077912</v>
       </c>
       <c r="I137" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5186,10 +5252,10 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E138">
         <v>67415</v>
@@ -5204,7 +5270,7 @@
         <v>1.898939405176889</v>
       </c>
       <c r="I138" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5215,10 +5281,10 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D139" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E139">
         <v>42281.82352941176</v>
@@ -5233,7 +5299,7 @@
         <v>1.034203266318026</v>
       </c>
       <c r="I139" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5244,10 +5310,10 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D140" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E140">
         <v>100666.6666666667</v>
@@ -5262,7 +5328,7 @@
         <v>1.986754966887417E-05</v>
       </c>
       <c r="I140" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5273,10 +5339,10 @@
         <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D141" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E141">
         <v>43450</v>
@@ -5291,7 +5357,7 @@
         <v>4.532681242807825</v>
       </c>
       <c r="I141" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5302,10 +5368,10 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D142" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E142">
         <v>35630</v>
@@ -5320,7 +5386,7 @@
         <v>1.507690148751053</v>
       </c>
       <c r="I142" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5331,10 +5397,10 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D143" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E143">
         <v>60745</v>
@@ -5349,7 +5415,7 @@
         <v>0.8843361593546794</v>
       </c>
       <c r="I143" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5360,10 +5426,10 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D144" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E144">
         <v>27325.5</v>
@@ -5378,7 +5444,7 @@
         <v>1.084591315803919</v>
       </c>
       <c r="I144" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5389,10 +5455,10 @@
         <v>152</v>
       </c>
       <c r="C145" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D145" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E145">
         <v>45105</v>
@@ -5407,7 +5473,7 @@
         <v>0.7998226360713889</v>
       </c>
       <c r="I145" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5418,10 +5484,10 @@
         <v>153</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E146">
         <v>424480</v>
@@ -5436,7 +5502,7 @@
         <v>0.4647851488880513</v>
       </c>
       <c r="I146" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5447,10 +5513,10 @@
         <v>154</v>
       </c>
       <c r="C147" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D147" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E147">
         <v>15610</v>
@@ -5465,7 +5531,7 @@
         <v>3.51947469570788</v>
       </c>
       <c r="I147" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5476,10 +5542,10 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D148" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E148">
         <v>18430</v>
@@ -5494,7 +5560,7 @@
         <v>3.958762886597938</v>
       </c>
       <c r="I148" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5505,10 +5571,10 @@
         <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E149">
         <v>48439.80000000001</v>
@@ -5523,7 +5589,7 @@
         <v>4.052576600233691</v>
       </c>
       <c r="I149" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5534,10 +5600,10 @@
         <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D150" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E150">
         <v>86620</v>
@@ -5552,7 +5618,7 @@
         <v>2.312918494574002</v>
       </c>
       <c r="I150" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5563,10 +5629,10 @@
         <v>158</v>
       </c>
       <c r="C151" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D151" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E151">
         <v>36730</v>
@@ -5581,7 +5647,7 @@
         <v>1.161557310100735</v>
       </c>
       <c r="I151" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5592,10 +5658,10 @@
         <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E152">
         <v>15280</v>
@@ -5610,7 +5676,7 @@
         <v>2.148821989528796</v>
       </c>
       <c r="I152" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5621,10 +5687,10 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D153" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E153">
         <v>63140</v>
@@ -5639,7 +5705,7 @@
         <v>1.49781438074121</v>
       </c>
       <c r="I153" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5650,10 +5716,10 @@
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E154">
         <v>53706.66666666666</v>
@@ -5668,7 +5734,7 @@
         <v>3.88421052631579</v>
       </c>
       <c r="I154" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5679,10 +5745,10 @@
         <v>162</v>
       </c>
       <c r="C155" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D155" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E155">
         <v>84169.8</v>
@@ -5697,7 +5763,7 @@
         <v>2.848907803036243</v>
       </c>
       <c r="I155" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5708,10 +5774,10 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D156" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E156">
         <v>219379.0363636363</v>
@@ -5726,7 +5792,7 @@
         <v>0.2116382712295291</v>
       </c>
       <c r="I156" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5737,10 +5803,10 @@
         <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D157" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="E157">
         <v>5000</v>
@@ -5755,7 +5821,7 @@
         <v>0.914</v>
       </c>
       <c r="I157" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5766,10 +5832,10 @@
         <v>165</v>
       </c>
       <c r="C158" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E158">
         <v>68881.36363636363</v>
@@ -5784,7 +5850,7 @@
         <v>6.753553870620765</v>
       </c>
       <c r="I158" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5795,10 +5861,10 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D159" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E159">
         <v>352072.5</v>
@@ -5813,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5824,10 +5890,10 @@
         <v>167</v>
       </c>
       <c r="C160" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D160" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E160">
         <v>112588.4615384615</v>
@@ -5842,7 +5908,7 @@
         <v>0.0004352133365217095</v>
       </c>
       <c r="I160" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5853,10 +5919,10 @@
         <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D161" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E161">
         <v>24826.15384615385</v>
@@ -5871,7 +5937,7 @@
         <v>7.837984135836896</v>
       </c>
       <c r="I161" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5882,10 +5948,10 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D162" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E162">
         <v>113740</v>
@@ -5900,7 +5966,7 @@
         <v>2.21310005275189</v>
       </c>
       <c r="I162" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5911,10 +5977,10 @@
         <v>170</v>
       </c>
       <c r="C163" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D163" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E163">
         <v>56545</v>
@@ -5929,7 +5995,7 @@
         <v>5.138827482536033</v>
       </c>
       <c r="I163" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5940,10 +6006,10 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D164" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E164">
         <v>150379.6</v>
@@ -5958,7 +6024,7 @@
         <v>5.257062793091616</v>
       </c>
       <c r="I164" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5969,10 +6035,10 @@
         <v>172</v>
       </c>
       <c r="C165" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D165" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E165">
         <v>159035.175</v>
@@ -5987,7 +6053,7 @@
         <v>3.191740443584258</v>
       </c>
       <c r="I165" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5998,10 +6064,10 @@
         <v>173</v>
       </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D166" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E166">
         <v>87377.35000000001</v>
@@ -6016,7 +6082,7 @@
         <v>0.1098339558249363</v>
       </c>
       <c r="I166" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6027,10 +6093,10 @@
         <v>174</v>
       </c>
       <c r="C167" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D167" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E167">
         <v>88445</v>
@@ -6045,7 +6111,7 @@
         <v>3.53365368307988</v>
       </c>
       <c r="I167" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6056,10 +6122,10 @@
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D168" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E168">
         <v>23439.6</v>
@@ -6074,7 +6140,7 @@
         <v>3.919990102220175</v>
       </c>
       <c r="I168" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6085,10 +6151,10 @@
         <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E169">
         <v>16950</v>
@@ -6103,7 +6169,7 @@
         <v>0.8463716814159292</v>
       </c>
       <c r="I169" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6114,10 +6180,10 @@
         <v>177</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D170" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E170">
         <v>101597.1428571429</v>
@@ -6132,7 +6198,7 @@
         <v>0.9842796479091088</v>
       </c>
       <c r="I170" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6143,10 +6209,10 @@
         <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D171" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E171">
         <v>59904.58333333334</v>
@@ -6161,7 +6227,7 @@
         <v>6.004265116052611</v>
       </c>
       <c r="I171" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6172,10 +6238,10 @@
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E172">
         <v>7797.028571428572</v>
@@ -6190,7 +6256,7 @@
         <v>0.03629587828330206</v>
       </c>
       <c r="I172" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6201,10 +6267,10 @@
         <v>180</v>
       </c>
       <c r="C173" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E173">
         <v>23610</v>
@@ -6219,7 +6285,7 @@
         <v>29.59678102498941</v>
       </c>
       <c r="I173" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6230,10 +6296,10 @@
         <v>181</v>
       </c>
       <c r="C174" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D174" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E174">
         <v>95869.86000000002</v>
@@ -6248,7 +6314,7 @@
         <v>2.035509387413312</v>
       </c>
       <c r="I174" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6259,10 +6325,10 @@
         <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E175">
         <v>54416.5</v>
@@ -6277,7 +6343,7 @@
         <v>0.6110830354763721</v>
       </c>
       <c r="I175" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6288,10 +6354,10 @@
         <v>183</v>
       </c>
       <c r="C176" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E176">
         <v>107695</v>
@@ -6306,7 +6372,7 @@
         <v>11.85364223037281</v>
       </c>
       <c r="I176" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6317,10 +6383,10 @@
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D177" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E177">
         <v>8701.666666666666</v>
@@ -6335,7 +6401,7 @@
         <v>0.5562152844282705</v>
       </c>
       <c r="I177" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6346,10 +6412,10 @@
         <v>185</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D178" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E178">
         <v>21375</v>
@@ -6364,7 +6430,7 @@
         <v>7.012538011695907</v>
       </c>
       <c r="I178" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6375,10 +6441,10 @@
         <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D179" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E179">
         <v>119626.6666666667</v>
@@ -6393,7 +6459,7 @@
         <v>3.713419527418635</v>
       </c>
       <c r="I179" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6404,10 +6470,10 @@
         <v>187</v>
       </c>
       <c r="C180" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D180" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E180">
         <v>5000</v>
@@ -6422,7 +6488,7 @@
         <v>0.8938</v>
       </c>
       <c r="I180" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6433,10 +6499,10 @@
         <v>188</v>
       </c>
       <c r="C181" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E181">
         <v>19527.86</v>
@@ -6451,7 +6517,7 @@
         <v>3.903960802668598</v>
       </c>
       <c r="I181" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6462,10 +6528,10 @@
         <v>189</v>
       </c>
       <c r="C182" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D182" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E182">
         <v>12322.60909090909</v>
@@ -6480,7 +6546,7 @@
         <v>1.332266558071011</v>
       </c>
       <c r="I182" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6491,10 +6557,10 @@
         <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D183" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E183">
         <v>64010</v>
@@ -6509,7 +6575,7 @@
         <v>8.83950945164818</v>
       </c>
       <c r="I183" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6520,10 +6586,10 @@
         <v>191</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D184" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E184">
         <v>67109.59999999999</v>
@@ -6538,7 +6604,7 @@
         <v>1.123490528925817</v>
       </c>
       <c r="I184" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6549,10 +6615,10 @@
         <v>192</v>
       </c>
       <c r="C185" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D185" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E185">
         <v>11484.78260869565</v>
@@ -6567,7 +6633,7 @@
         <v>0.02107136096914632</v>
       </c>
       <c r="I185" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6578,10 +6644,10 @@
         <v>193</v>
       </c>
       <c r="C186" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D186" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E186">
         <v>37403.93</v>
@@ -6596,7 +6662,7 @@
         <v>0.3480917646888977</v>
       </c>
       <c r="I186" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6607,10 +6673,10 @@
         <v>194</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D187" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E187">
         <v>56618.88</v>
@@ -6625,7 +6691,7 @@
         <v>4.782150406366215</v>
       </c>
       <c r="I187" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6636,10 +6702,10 @@
         <v>195</v>
       </c>
       <c r="C188" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D188" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E188">
         <v>36628.42105263158</v>
@@ -6654,7 +6720,7 @@
         <v>0.967882288703049</v>
       </c>
       <c r="I188" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6665,10 +6731,10 @@
         <v>196</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D189" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E189">
         <v>78170</v>
@@ -6683,7 +6749,7 @@
         <v>0.0002558526288857618</v>
       </c>
       <c r="I189" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6694,10 +6760,10 @@
         <v>197</v>
       </c>
       <c r="C190" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D190" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E190">
         <v>25853.33333333333</v>
@@ -6712,7 +6778,7 @@
         <v>0.06099793708096957</v>
       </c>
       <c r="I190" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6723,10 +6789,10 @@
         <v>198</v>
       </c>
       <c r="C191" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E191">
         <v>51040</v>
@@ -6741,7 +6807,7 @@
         <v>3.844710031347963</v>
       </c>
       <c r="I191" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6752,10 +6818,10 @@
         <v>199</v>
       </c>
       <c r="C192" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D192" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E192">
         <v>26740</v>
@@ -6770,7 +6836,7 @@
         <v>7.194727000747943</v>
       </c>
       <c r="I192" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6781,10 +6847,10 @@
         <v>200</v>
       </c>
       <c r="C193" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D193" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E193">
         <v>12728.89090909091</v>
@@ -6799,7 +6865,7 @@
         <v>3.925715159072631</v>
       </c>
       <c r="I193" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6810,10 +6876,10 @@
         <v>201</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D194" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E194">
         <v>56092.85714285714</v>
@@ -6828,7 +6894,7 @@
         <v>1.567864510378199</v>
       </c>
       <c r="I194" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6839,10 +6905,10 @@
         <v>202</v>
       </c>
       <c r="C195" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D195" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E195">
         <v>61570</v>
@@ -6857,7 +6923,7 @@
         <v>1.285106382978723</v>
       </c>
       <c r="I195" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6868,10 +6934,10 @@
         <v>203</v>
       </c>
       <c r="C196" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D196" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E196">
         <v>24830</v>
@@ -6886,7 +6952,7 @@
         <v>2.393677003624648</v>
       </c>
       <c r="I196" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6897,10 +6963,10 @@
         <v>204</v>
       </c>
       <c r="C197" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D197" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E197">
         <v>39103.33333333334</v>
@@ -6915,7 +6981,7 @@
         <v>11.58801466200665</v>
       </c>
       <c r="I197" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6926,10 +6992,10 @@
         <v>205</v>
       </c>
       <c r="C198" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D198" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E198">
         <v>15613.63636363636</v>
@@ -6944,7 +7010,7 @@
         <v>3.605181950509461</v>
       </c>
       <c r="I198" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6955,10 +7021,10 @@
         <v>206</v>
       </c>
       <c r="C199" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D199" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E199">
         <v>74960</v>
@@ -6973,7 +7039,7 @@
         <v>0.2808164354322305</v>
       </c>
       <c r="I199" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6984,10 +7050,10 @@
         <v>207</v>
       </c>
       <c r="C200" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D200" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E200">
         <v>10840</v>
@@ -7002,7 +7068,7 @@
         <v>1.981088560885609</v>
       </c>
       <c r="I200" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7013,10 +7079,10 @@
         <v>208</v>
       </c>
       <c r="C201" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D201" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E201">
         <v>88189.5</v>
@@ -7031,7 +7097,7 @@
         <v>1.313591754120389</v>
       </c>
       <c r="I201" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7042,10 +7108,10 @@
         <v>209</v>
       </c>
       <c r="C202" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D202" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E202">
         <v>21040</v>
@@ -7060,7 +7126,7 @@
         <v>0.7477661596958175</v>
       </c>
       <c r="I202" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7071,10 +7137,10 @@
         <v>210</v>
       </c>
       <c r="C203" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D203" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E203">
         <v>10265.55</v>
@@ -7089,7 +7155,7 @@
         <v>10.12093847869817</v>
       </c>
       <c r="I203" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7100,10 +7166,10 @@
         <v>211</v>
       </c>
       <c r="C204" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D204" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E204">
         <v>143623.8461538462</v>
@@ -7118,7 +7184,7 @@
         <v>0.05087595267552528</v>
       </c>
       <c r="I204" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7129,10 +7195,10 @@
         <v>212</v>
       </c>
       <c r="C205" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="D205" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E205">
         <v>21759.975</v>
@@ -7147,7 +7213,7 @@
         <v>10.87220918222562</v>
       </c>
       <c r="I205" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7158,10 +7224,10 @@
         <v>213</v>
       </c>
       <c r="C206" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D206" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E206">
         <v>169789.1333333333</v>
@@ -7176,7 +7242,7 @@
         <v>4.15326344010237</v>
       </c>
       <c r="I206" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7187,10 +7253,10 @@
         <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D207" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E207">
         <v>23040</v>
@@ -7205,7 +7271,7 @@
         <v>2.606684027777778</v>
       </c>
       <c r="I207" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7216,10 +7282,10 @@
         <v>215</v>
       </c>
       <c r="C208" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D208" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E208">
         <v>159090</v>
@@ -7234,7 +7300,7 @@
         <v>3.157175183858194</v>
       </c>
       <c r="I208" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7245,10 +7311,10 @@
         <v>216</v>
       </c>
       <c r="C209" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D209" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E209">
         <v>42678.57142857143</v>
@@ -7263,7 +7329,7 @@
         <v>0.7050142259414226</v>
       </c>
       <c r="I209" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7274,10 +7340,10 @@
         <v>217</v>
       </c>
       <c r="C210" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D210" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E210">
         <v>149630</v>
@@ -7292,7 +7358,7 @@
         <v>0.08798369310967052</v>
       </c>
       <c r="I210" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7303,10 +7369,10 @@
         <v>218</v>
       </c>
       <c r="C211" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D211" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E211">
         <v>209204</v>
@@ -7321,7 +7387,7 @@
         <v>1.665240626374257</v>
       </c>
       <c r="I211" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7332,10 +7398,10 @@
         <v>219</v>
       </c>
       <c r="C212" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D212" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E212">
         <v>99222</v>
@@ -7350,7 +7416,7 @@
         <v>1.399316683799964</v>
       </c>
       <c r="I212" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7361,10 +7427,10 @@
         <v>220</v>
       </c>
       <c r="C213" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D213" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E213">
         <v>37210</v>
@@ -7379,7 +7445,7 @@
         <v>4.73058317656544</v>
       </c>
       <c r="I213" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7390,10 +7456,10 @@
         <v>221</v>
       </c>
       <c r="C214" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D214" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E214">
         <v>25530.58181818182</v>
@@ -7408,7 +7474,7 @@
         <v>5.37798162916203</v>
       </c>
       <c r="I214" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7419,10 +7485,10 @@
         <v>222</v>
       </c>
       <c r="C215" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D215" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E215">
         <v>78364.4181818182</v>
@@ -7437,7 +7503,7 @@
         <v>4.529887520843759</v>
       </c>
       <c r="I215" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7448,10 +7514,10 @@
         <v>223</v>
       </c>
       <c r="C216" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D216" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E216">
         <v>135148.75</v>
@@ -7466,7 +7532,7 @@
         <v>3.321902718301131</v>
       </c>
       <c r="I216" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7477,10 +7543,10 @@
         <v>224</v>
       </c>
       <c r="C217" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D217" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E217">
         <v>53283.10769230768</v>
@@ -7495,7 +7561,7 @@
         <v>0.04359730692538724</v>
       </c>
       <c r="I217" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7506,10 +7572,10 @@
         <v>225</v>
       </c>
       <c r="C218" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D218" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E218">
         <v>12426.66666666667</v>
@@ -7524,7 +7590,7 @@
         <v>0.8069742489270386</v>
       </c>
       <c r="I218" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7535,10 +7601,10 @@
         <v>226</v>
       </c>
       <c r="C219" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D219" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E219">
         <v>80862.5</v>
@@ -7553,7 +7619,7 @@
         <v>0.1332014221672592</v>
       </c>
       <c r="I219" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7564,10 +7630,10 @@
         <v>227</v>
       </c>
       <c r="C220" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D220" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E220">
         <v>9787.859999999995</v>
@@ -7582,7 +7648,7 @@
         <v>0.1253593737548351</v>
       </c>
       <c r="I220" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7593,10 +7659,10 @@
         <v>228</v>
       </c>
       <c r="C221" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D221" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E221">
         <v>57131.66666666666</v>
@@ -7611,7 +7677,7 @@
         <v>0.1022900317978938</v>
       </c>
       <c r="I221" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7622,10 +7688,10 @@
         <v>229</v>
       </c>
       <c r="C222" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D222" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E222">
         <v>86929.8</v>
@@ -7640,7 +7706,7 @@
         <v>0.3630745728162264</v>
       </c>
       <c r="I222" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7651,10 +7717,10 @@
         <v>230</v>
       </c>
       <c r="C223" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D223" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E223">
         <v>110397.5</v>
@@ -7669,7 +7735,7 @@
         <v>0.6538100953373038</v>
       </c>
       <c r="I223" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7680,10 +7746,10 @@
         <v>231</v>
       </c>
       <c r="C224" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D224" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E224">
         <v>17929.8</v>
@@ -7698,7 +7764,7 @@
         <v>1.517473702997245</v>
       </c>
       <c r="I224" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7709,10 +7775,10 @@
         <v>232</v>
       </c>
       <c r="C225" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D225" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E225">
         <v>30203</v>
@@ -7727,7 +7793,7 @@
         <v>2.379266960235738</v>
       </c>
       <c r="I225" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7738,10 +7804,10 @@
         <v>233</v>
       </c>
       <c r="C226" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D226" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E226">
         <v>39160</v>
@@ -7756,7 +7822,7 @@
         <v>5.310750766087844</v>
       </c>
       <c r="I226" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7767,10 +7833,10 @@
         <v>234</v>
       </c>
       <c r="C227" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D227" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E227">
         <v>34730</v>
@@ -7785,7 +7851,7 @@
         <v>0.009156348977828967</v>
       </c>
       <c r="I227" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7796,10 +7862,10 @@
         <v>235</v>
       </c>
       <c r="C228" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D228" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E228">
         <v>46180</v>
@@ -7814,7 +7880,7 @@
         <v>2.606409701169337</v>
       </c>
       <c r="I228" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7825,10 +7891,10 @@
         <v>236</v>
       </c>
       <c r="C229" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D229" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="E229">
         <v>9780</v>
@@ -7843,7 +7909,7 @@
         <v>0.0287321063394683</v>
       </c>
       <c r="I229" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7854,10 +7920,10 @@
         <v>237</v>
       </c>
       <c r="C230" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D230" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E230">
         <v>51881.075</v>
@@ -7872,7 +7938,7 @@
         <v>8.849007080134712</v>
       </c>
       <c r="I230" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7883,10 +7949,10 @@
         <v>238</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D231" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E231">
         <v>5000</v>
@@ -7901,7 +7967,7 @@
         <v>4.2598</v>
       </c>
       <c r="I231" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7912,10 +7978,10 @@
         <v>239</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D232" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E232">
         <v>145306.5</v>
@@ -7930,7 +7996,7 @@
         <v>4.067932267310822</v>
       </c>
       <c r="I232" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7941,10 +8007,10 @@
         <v>240</v>
       </c>
       <c r="C233" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D233" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E233">
         <v>29860</v>
@@ -7959,7 +8025,7 @@
         <v>6.755224380442063</v>
       </c>
       <c r="I233" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7970,10 +8036,10 @@
         <v>241</v>
       </c>
       <c r="C234" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D234" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E234">
         <v>14649.6</v>
@@ -7988,7 +8054,7 @@
         <v>0.5759884228920926</v>
       </c>
       <c r="I234" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7999,10 +8065,10 @@
         <v>242</v>
       </c>
       <c r="C235" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D235" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E235">
         <v>10309.09090909091</v>
@@ -8017,7 +8083,7 @@
         <v>1.144329805996473</v>
       </c>
       <c r="I235" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8028,10 +8094,10 @@
         <v>243</v>
       </c>
       <c r="C236" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D236" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E236">
         <v>24760</v>
@@ -8046,7 +8112,7 @@
         <v>2.309814216478191</v>
       </c>
       <c r="I236" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8057,10 +8123,10 @@
         <v>244</v>
       </c>
       <c r="C237" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D237" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E237">
         <v>223294</v>
@@ -8075,7 +8141,7 @@
         <v>3.090409952797657</v>
       </c>
       <c r="I237" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8086,10 +8152,10 @@
         <v>245</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="D238" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="E238">
         <v>119280</v>
@@ -8104,7 +8170,7 @@
         <v>0.2931757209926224</v>
       </c>
       <c r="I238" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8115,10 +8181,10 @@
         <v>246</v>
       </c>
       <c r="C239" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D239" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E239">
         <v>189390.9090909091</v>
@@ -8133,7 +8199,7 @@
         <v>0.7538059808956945</v>
       </c>
       <c r="I239" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8144,10 +8210,10 @@
         <v>247</v>
       </c>
       <c r="C240" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D240" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E240">
         <v>18363.75</v>
@@ -8162,7 +8228,7 @@
         <v>0.1074943843169287</v>
       </c>
       <c r="I240" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8173,10 +8239,10 @@
         <v>248</v>
       </c>
       <c r="C241" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D241" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E241">
         <v>30457.27272727273</v>
@@ -8191,7 +8257,7 @@
         <v>0.9695549652269946</v>
       </c>
       <c r="I241" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8202,10 +8268,10 @@
         <v>249</v>
       </c>
       <c r="C242" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D242" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E242">
         <v>16806.66666666667</v>
@@ -8220,7 +8286,7 @@
         <v>1.670944069813566</v>
       </c>
       <c r="I242" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8231,10 +8297,10 @@
         <v>250</v>
       </c>
       <c r="C243" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D243" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E243">
         <v>43904.9</v>
@@ -8249,7 +8315,7 @@
         <v>4.46915947878255</v>
       </c>
       <c r="I243" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8260,10 +8326,10 @@
         <v>251</v>
       </c>
       <c r="C244" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="D244" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E244">
         <v>20270</v>
@@ -8278,7 +8344,587 @@
         <v>7.92511100148002</v>
       </c>
       <c r="I244" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245">
+        <v>237675239360</v>
+      </c>
+      <c r="B245" t="s">
+        <v>252</v>
+      </c>
+      <c r="C245" t="s">
+        <v>277</v>
+      </c>
+      <c r="D245" t="s">
+        <v>294</v>
+      </c>
+      <c r="E245">
+        <v>34469.9</v>
+      </c>
+      <c r="F245">
+        <v>201577</v>
+      </c>
+      <c r="G245">
+        <v>167107.1</v>
+      </c>
+      <c r="H245">
+        <v>5.847913687013887</v>
+      </c>
+      <c r="I245" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246">
+        <v>237675396752</v>
+      </c>
+      <c r="B246" t="s">
+        <v>253</v>
+      </c>
+      <c r="C246" t="s">
+        <v>277</v>
+      </c>
+      <c r="D246" t="s">
+        <v>295</v>
+      </c>
+      <c r="E246">
+        <v>34635</v>
+      </c>
+      <c r="F246">
+        <v>69826</v>
+      </c>
+      <c r="G246">
+        <v>35191</v>
+      </c>
+      <c r="H246">
+        <v>2.016053125451133</v>
+      </c>
+      <c r="I246" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247">
+        <v>237675626141</v>
+      </c>
+      <c r="B247" t="s">
+        <v>254</v>
+      </c>
+      <c r="C247" t="s">
+        <v>272</v>
+      </c>
+      <c r="D247" t="s">
+        <v>294</v>
+      </c>
+      <c r="E247">
+        <v>24500</v>
+      </c>
+      <c r="F247">
+        <v>15874</v>
+      </c>
+      <c r="G247">
+        <v>-8626</v>
+      </c>
+      <c r="H247">
+        <v>0.6479183673469388</v>
+      </c>
+      <c r="I247" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248">
+        <v>237676840777</v>
+      </c>
+      <c r="B248" t="s">
+        <v>255</v>
+      </c>
+      <c r="C248" t="s">
+        <v>272</v>
+      </c>
+      <c r="D248" t="s">
+        <v>294</v>
+      </c>
+      <c r="E248">
+        <v>471586.4666666666</v>
+      </c>
+      <c r="F248">
+        <v>1216408</v>
+      </c>
+      <c r="G248">
+        <v>744821.5333333334</v>
+      </c>
+      <c r="H248">
+        <v>2.579395478835483</v>
+      </c>
+      <c r="I248" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249">
+        <v>237677833877</v>
+      </c>
+      <c r="B249" t="s">
+        <v>256</v>
+      </c>
+      <c r="C249" t="s">
+        <v>277</v>
+      </c>
+      <c r="D249" t="s">
+        <v>294</v>
+      </c>
+      <c r="E249">
+        <v>38396.7</v>
+      </c>
+      <c r="F249">
+        <v>221</v>
+      </c>
+      <c r="G249">
+        <v>-38175.7</v>
+      </c>
+      <c r="H249">
+        <v>0.005755702964056807</v>
+      </c>
+      <c r="I249" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250">
+        <v>237678854978</v>
+      </c>
+      <c r="B250" t="s">
+        <v>257</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+      <c r="D250" t="s">
+        <v>294</v>
+      </c>
+      <c r="E250">
+        <v>40520</v>
+      </c>
+      <c r="F250">
+        <v>399496</v>
+      </c>
+      <c r="G250">
+        <v>358976</v>
+      </c>
+      <c r="H250">
+        <v>9.859230009871668</v>
+      </c>
+      <c r="I250" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251">
+        <v>237679422591</v>
+      </c>
+      <c r="B251" t="s">
+        <v>258</v>
+      </c>
+      <c r="C251" t="s">
+        <v>272</v>
+      </c>
+      <c r="D251" t="s">
+        <v>294</v>
+      </c>
+      <c r="E251">
+        <v>141149.8</v>
+      </c>
+      <c r="F251">
+        <v>403900</v>
+      </c>
+      <c r="G251">
+        <v>262750.2</v>
+      </c>
+      <c r="H251">
+        <v>2.861498918170625</v>
+      </c>
+      <c r="I251" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252">
+        <v>237650353920</v>
+      </c>
+      <c r="B252" t="s">
+        <v>259</v>
+      </c>
+      <c r="C252" t="s">
+        <v>277</v>
+      </c>
+      <c r="D252" t="s">
+        <v>296</v>
+      </c>
+      <c r="E252">
+        <v>218865</v>
+      </c>
+      <c r="F252">
+        <v>1201274</v>
+      </c>
+      <c r="G252">
+        <v>982409</v>
+      </c>
+      <c r="H252">
+        <v>5.488652822516163</v>
+      </c>
+      <c r="I252" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253">
+        <v>237651927448</v>
+      </c>
+      <c r="B253" t="s">
+        <v>260</v>
+      </c>
+      <c r="C253" t="s">
+        <v>277</v>
+      </c>
+      <c r="D253" t="s">
+        <v>296</v>
+      </c>
+      <c r="E253">
+        <v>128653.3333333333</v>
+      </c>
+      <c r="F253">
+        <v>306869</v>
+      </c>
+      <c r="G253">
+        <v>178215.6666666667</v>
+      </c>
+      <c r="H253">
+        <v>2.385239403046948</v>
+      </c>
+      <c r="I253" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254">
+        <v>237653294562</v>
+      </c>
+      <c r="B254" t="s">
+        <v>261</v>
+      </c>
+      <c r="C254" t="s">
+        <v>278</v>
+      </c>
+      <c r="D254" t="s">
+        <v>296</v>
+      </c>
+      <c r="E254">
+        <v>126220</v>
+      </c>
+      <c r="F254">
+        <v>1000736</v>
+      </c>
+      <c r="G254">
+        <v>874516</v>
+      </c>
+      <c r="H254">
+        <v>7.928505783552527</v>
+      </c>
+      <c r="I254" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255">
+        <v>237678046498</v>
+      </c>
+      <c r="B255" t="s">
+        <v>262</v>
+      </c>
+      <c r="C255" t="s">
+        <v>277</v>
+      </c>
+      <c r="D255" t="s">
+        <v>296</v>
+      </c>
+      <c r="E255">
+        <v>41943.17</v>
+      </c>
+      <c r="F255">
+        <v>50134</v>
+      </c>
+      <c r="G255">
+        <v>8190.830000000002</v>
+      </c>
+      <c r="H255">
+        <v>1.195283999754907</v>
+      </c>
+      <c r="I255" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256">
+        <v>237679428698</v>
+      </c>
+      <c r="B256" t="s">
+        <v>263</v>
+      </c>
+      <c r="C256" t="s">
         <v>275</v>
+      </c>
+      <c r="D256" t="s">
+        <v>296</v>
+      </c>
+      <c r="E256">
+        <v>161427.5</v>
+      </c>
+      <c r="F256">
+        <v>32</v>
+      </c>
+      <c r="G256">
+        <v>-161395.5</v>
+      </c>
+      <c r="H256">
+        <v>0.0001982314041907358</v>
+      </c>
+      <c r="I256" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257">
+        <v>237679551262</v>
+      </c>
+      <c r="B257" t="s">
+        <v>264</v>
+      </c>
+      <c r="C257" t="s">
+        <v>278</v>
+      </c>
+      <c r="D257" t="s">
+        <v>296</v>
+      </c>
+      <c r="E257">
+        <v>65595</v>
+      </c>
+      <c r="F257">
+        <v>67562</v>
+      </c>
+      <c r="G257">
+        <v>1967</v>
+      </c>
+      <c r="H257">
+        <v>1.029987041695251</v>
+      </c>
+      <c r="I257" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258">
+        <v>237680574202</v>
+      </c>
+      <c r="B258" t="s">
+        <v>265</v>
+      </c>
+      <c r="C258" t="s">
+        <v>280</v>
+      </c>
+      <c r="D258" t="s">
+        <v>296</v>
+      </c>
+      <c r="E258">
+        <v>86620</v>
+      </c>
+      <c r="F258">
+        <v>308260</v>
+      </c>
+      <c r="G258">
+        <v>221640</v>
+      </c>
+      <c r="H258">
+        <v>3.558762410528746</v>
+      </c>
+      <c r="I258" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259">
+        <v>237681118330</v>
+      </c>
+      <c r="B259" t="s">
+        <v>266</v>
+      </c>
+      <c r="C259" t="s">
+        <v>278</v>
+      </c>
+      <c r="D259" t="s">
+        <v>296</v>
+      </c>
+      <c r="E259">
+        <v>152199.5714285714</v>
+      </c>
+      <c r="F259">
+        <v>157629</v>
+      </c>
+      <c r="G259">
+        <v>5429.42857142858</v>
+      </c>
+      <c r="H259">
+        <v>1.035673087121514</v>
+      </c>
+      <c r="I259" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260">
+        <v>237674446293</v>
+      </c>
+      <c r="B260" t="s">
+        <v>267</v>
+      </c>
+      <c r="C260" t="s">
+        <v>272</v>
+      </c>
+      <c r="D260" t="s">
+        <v>297</v>
+      </c>
+      <c r="E260">
+        <v>5994.285714285715</v>
+      </c>
+      <c r="F260">
+        <v>31986</v>
+      </c>
+      <c r="G260">
+        <v>25991.71428571429</v>
+      </c>
+      <c r="H260">
+        <v>5.336081982840801</v>
+      </c>
+      <c r="I260" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261">
+        <v>237679085953</v>
+      </c>
+      <c r="B261" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261" t="s">
+        <v>272</v>
+      </c>
+      <c r="D261" t="s">
+        <v>297</v>
+      </c>
+      <c r="E261">
+        <v>8950</v>
+      </c>
+      <c r="F261">
+        <v>24046</v>
+      </c>
+      <c r="G261">
+        <v>15096</v>
+      </c>
+      <c r="H261">
+        <v>2.686703910614525</v>
+      </c>
+      <c r="I261" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262">
+        <v>237681662761</v>
+      </c>
+      <c r="B262" t="s">
+        <v>269</v>
+      </c>
+      <c r="C262" t="s">
+        <v>272</v>
+      </c>
+      <c r="D262" t="s">
+        <v>297</v>
+      </c>
+      <c r="E262">
+        <v>29783.82</v>
+      </c>
+      <c r="F262">
+        <v>67626</v>
+      </c>
+      <c r="G262">
+        <v>37842.18000000001</v>
+      </c>
+      <c r="H262">
+        <v>2.270561667375105</v>
+      </c>
+      <c r="I262" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263">
+        <v>237682975726</v>
+      </c>
+      <c r="B263" t="s">
+        <v>270</v>
+      </c>
+      <c r="C263" t="s">
+        <v>272</v>
+      </c>
+      <c r="D263" t="s">
+        <v>297</v>
+      </c>
+      <c r="E263">
+        <v>29809.16666666666</v>
+      </c>
+      <c r="F263">
+        <v>17785</v>
+      </c>
+      <c r="G263">
+        <v>-12024.16666666666</v>
+      </c>
+      <c r="H263">
+        <v>0.596628553856476</v>
+      </c>
+      <c r="I263" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264">
+        <v>237683075075</v>
+      </c>
+      <c r="B264" t="s">
+        <v>271</v>
+      </c>
+      <c r="C264" t="s">
+        <v>272</v>
+      </c>
+      <c r="D264" t="s">
+        <v>297</v>
+      </c>
+      <c r="E264">
+        <v>173418.2</v>
+      </c>
+      <c r="F264">
+        <v>13193</v>
+      </c>
+      <c r="G264">
+        <v>-160225.2</v>
+      </c>
+      <c r="H264">
+        <v>0.07607621345395121</v>
+      </c>
+      <c r="I264" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="219">
   <si>
     <t>Numero</t>
   </si>
@@ -301,6 +301,276 @@
     <t>LA NEGRESSE LTDLA CBOX R1 MEGNA ABDEL MOUTTALIB</t>
   </si>
   <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 GWET BAYIHA GILBERTE PAULINE</t>
+  </si>
+  <si>
+    <t>ONGOLA NGAH leontine CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>FOTSO RIGOBERT TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>RTS_Sarl Cite_Sic_Marche ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>KEUMATIO DJUFFO LOVELYNE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JEAN JACQUES NDAMDE KAMGA</t>
+  </si>
+  <si>
+    <t>HAPSATOU N A MINDEM SARL</t>
+  </si>
+  <si>
+    <t>ORINE LIRETTE TAJEUMI</t>
+  </si>
+  <si>
+    <t>MONGO JACQUES NEO STYLE. COM</t>
+  </si>
+  <si>
+    <t>DIEUDONNE BERNARD TENANTSOP</t>
+  </si>
+  <si>
+    <t>Adoum Ahmat Adoum ROYAL LOGISTICS</t>
+  </si>
+  <si>
+    <t>KEMAJOU ERNESTINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL FANBEU NGANGUEU IDELETTE LORE</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 216</t>
+  </si>
+  <si>
+    <t>ANDRE MAMBOU</t>
+  </si>
+  <si>
+    <t>NANHOU KEMAYOU AVIGAEL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SYLVIE DJIDJOU TEGUIA EPSE TOUKOU</t>
+  </si>
+  <si>
+    <t>ALAIN CHETEU KAMDEM</t>
+  </si>
+  <si>
+    <t>NADIENNE NTENNOU</t>
+  </si>
+  <si>
+    <t>WARAMMA NICOLAS</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 11</t>
+  </si>
+  <si>
+    <t>ERNESTINE DZOUDA LACMAGO</t>
+  </si>
+  <si>
+    <t>PAMBOUNDOM RABIATOU STYLE. COM</t>
+  </si>
+  <si>
+    <t>KUNPAN OLIVIER LE ROI ETS TIN-GLOBALCOMM _</t>
+  </si>
+  <si>
+    <t>TCHOTOU FANGANG MELYSA ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>NOUPA KAMGAING AGNES CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>FOKGO BRIGITTE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL FOKAM KOM DANICE KEVIN</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA CBOX R0 MALLA TALLA JACQUELINE</t>
+  </si>
+  <si>
+    <t>VAKENA SYLVIE YOK PASL (Pan African Saving and Loan)</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE LTDLA_CBOX_R1_MABAH DASSI FANNY BLANCHE</t>
+  </si>
+  <si>
+    <t>TCHEPGOUM NJIKE GAELLE MERLINE PLASTICO EXPRESS GROUP LTD</t>
+  </si>
+  <si>
+    <t>MFS TRIBUNAL NDOKOTI</t>
+  </si>
+  <si>
+    <t>JOSEPH DJIENTCHEU MOUNGOUE</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 26</t>
+  </si>
+  <si>
+    <t>JOSEPH SOREL MEKONDANE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MAFFO DALLY DIANE</t>
+  </si>
+  <si>
+    <t>MATAFOUO SILVANIE FLORE LENA GLOBAL</t>
+  </si>
+  <si>
+    <t>LEA STEPHANE KAMGA DJEUMBOU</t>
+  </si>
+  <si>
+    <t>DJUINE KANA ROPHINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>BAH BOUBACAR LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 MOUAFON MELA CHRISTELLE BERANGERE</t>
+  </si>
+  <si>
+    <t>HORTENSE ENDALE EKWELE</t>
+  </si>
+  <si>
+    <t>CHIMI CASTIEN HUGUES STYLE. COM</t>
+  </si>
+  <si>
+    <t>SAGNOU BRINDA JOSELINE _DIGITAL BUSINESS SARL</t>
+  </si>
+  <si>
+    <t>TOP DISTRIBUTION NWBDA-BRAND-MBERIFANG FABRICE NDANJI</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS MBOUYA CAROLINE THERESE</t>
+  </si>
+  <si>
+    <t>NDENGUE ELOKO SAMUEL HERVE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NICOLAS BIKECK</t>
+  </si>
+  <si>
+    <t>ETS LE CONTENT 67</t>
+  </si>
+  <si>
+    <t>FABRICE TCHACOUNA</t>
+  </si>
+  <si>
+    <t>nadege pifo</t>
+  </si>
+  <si>
+    <t>MINDEM SARL ymele voufoYMELE VOUFO VANESSA</t>
+  </si>
+  <si>
+    <t>PRINCESS ESINO HERMIA MOKANYA BERRITZ CAMEROUN SAS</t>
+  </si>
+  <si>
+    <t>MARTHUS ZONWU NKADNEWU</t>
+  </si>
+  <si>
+    <t>TAKU FORTUNE TSECBUM ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>YOUBISSI FONGUEM NAGUIN EMILIE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL YOUDOM NGOUNOU EPSE KAYOU MAMA CHRISTELLE</t>
+  </si>
+  <si>
+    <t>BLUSH COMMUNICATIONS CHA GENESIS TACHA</t>
+  </si>
+  <si>
+    <t>ATANSI CHIDOZIE SYLVAIN TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL DIALLO AMADOU OURY</t>
+  </si>
+  <si>
+    <t>SAMUEL TIOGANG NAYANG</t>
+  </si>
+  <si>
+    <t>TIPA CHRISTELLE NADIA LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MEKEUNG ANGELE FLORE</t>
+  </si>
+  <si>
+    <t>AXE KAP SARL</t>
+  </si>
+  <si>
+    <t>FAGHUIE ABIBA</t>
+  </si>
+  <si>
+    <t>NAABI FINANCE PIERRE</t>
+  </si>
+  <si>
+    <t>ALVINE CINDY DJOUM</t>
+  </si>
+  <si>
+    <t>KENGNE KUATE AUBIN ULRICH ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>JEROME ATANGANA ZIBI</t>
+  </si>
+  <si>
+    <t>KONNO FOSSO WILLY FRANLIN NWBDA_POLAS_BTQ_BAMBILI</t>
+  </si>
+  <si>
+    <t>BLANDINE PEYEMBOUO</t>
+  </si>
+  <si>
+    <t>NFONGANG NICHOLINE NUMBESI VISION TRADING COMPLEX AND TECHNOLOGIES SARL VISION TRADING COMPLEX</t>
+  </si>
+  <si>
+    <t>GWETIKWE YANICK BEMBEH BERRITZ CAMEROUN SAS</t>
+  </si>
+  <si>
+    <t>BILI SAMUEL TCHATAT KEZETA</t>
+  </si>
+  <si>
+    <t>WANDA MATANDELA</t>
+  </si>
+  <si>
+    <t>DONGMO RACHEL CHANTAL ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TAGNE FOM FRANCK ARNOLD ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NDZEMBARE CLINTON FUEREFUM N JAKASS DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>ROOSEVELT CHEKAM TITCHEU ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TETHA FRANCLIN GEORGES ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>RODES NGWEM KEMAYOU</t>
+  </si>
+  <si>
+    <t>NGUELAHA DIFFO THEODERE ETS REINE PHONE</t>
+  </si>
+  <si>
+    <t>KOUEMO MENOU CLOTILDE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>MARTHE KAPCHE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL JOSEPH MBANG</t>
+  </si>
+  <si>
+    <t>LE CONTENT 308</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL WAMENI CATHERINE</t>
+  </si>
+  <si>
+    <t>NFORMI ERNESTINE NGINJE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MANFO ROSINE BERLINE LA NEGRESSE</t>
+  </si>
+  <si>
     <t>Rte_1</t>
   </si>
   <si>
@@ -392,6 +662,15 @@
   </si>
   <si>
     <t>Mobil Guiness</t>
+  </si>
+  <si>
+    <t>New Ndogbong Plateau</t>
+  </si>
+  <si>
+    <t>Ndogbong Guiness</t>
+  </si>
+  <si>
+    <t>Bp Cite Ocm</t>
   </si>
 </sst>
 </file>
@@ -749,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,10 +1071,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E2">
         <v>363470.8</v>
@@ -810,7 +1089,7 @@
         <v>0.08279894836118885</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -824,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>26860</v>
@@ -839,7 +1118,7 @@
         <v>1.362434847356664</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -853,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E4">
         <v>70200</v>
@@ -868,7 +1147,7 @@
         <v>14.85115384615385</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -879,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E5">
         <v>12360</v>
@@ -897,7 +1176,7 @@
         <v>1.049595469255663</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -911,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -926,7 +1205,7 @@
         <v>0.0878</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -940,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -955,7 +1234,7 @@
         <v>0.0023</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -966,10 +1245,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -984,7 +1263,7 @@
         <v>21.5254</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -998,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E9">
         <v>15820</v>
@@ -1013,7 +1292,7 @@
         <v>12.01156763590392</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1027,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>10000</v>
@@ -1042,7 +1321,7 @@
         <v>0.6498</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1056,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E11">
         <v>10000</v>
@@ -1071,7 +1350,7 @@
         <v>9.884399999999999</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1082,10 +1361,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E12">
         <v>159420</v>
@@ -1100,7 +1379,7 @@
         <v>0.54294316898758</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1114,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E13">
         <v>10000</v>
@@ -1129,7 +1408,7 @@
         <v>0.0012</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1143,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E14">
         <v>10000</v>
@@ -1158,7 +1437,7 @@
         <v>0.9594</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1172,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -1187,7 +1466,7 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1198,10 +1477,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E16">
         <v>108940</v>
@@ -1216,7 +1495,7 @@
         <v>4.747273728657976</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1227,10 +1506,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E17">
         <v>103480</v>
@@ -1245,7 +1524,7 @@
         <v>0.9361035948975648</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1259,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E18">
         <v>13200</v>
@@ -1274,7 +1553,7 @@
         <v>8.294848484848485</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1288,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E19">
         <v>10000</v>
@@ -1303,7 +1582,7 @@
         <v>0.0231</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1317,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="E20">
         <v>10000</v>
@@ -1332,7 +1611,7 @@
         <v>4.4076</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1343,10 +1622,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>63060</v>
@@ -1361,7 +1640,7 @@
         <v>0.3330161750713606</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1375,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="E22">
         <v>22350.8</v>
@@ -1390,7 +1669,7 @@
         <v>4.230542083504841</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1401,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E23">
         <v>11220</v>
@@ -1419,7 +1698,7 @@
         <v>0.4763814616755793</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1433,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E24">
         <v>11400</v>
@@ -1448,7 +1727,7 @@
         <v>0.7770175438596492</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1459,10 +1738,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="E25">
         <v>161079.6</v>
@@ -1477,7 +1756,7 @@
         <v>1.639636552362931</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1491,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E26">
         <v>10000</v>
@@ -1506,7 +1785,7 @@
         <v>5.5699</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1520,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>173785</v>
@@ -1535,7 +1814,7 @@
         <v>0.3236470351296142</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1549,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="E28">
         <v>10000</v>
@@ -1564,7 +1843,7 @@
         <v>0.4751</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1578,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E29">
         <v>11270</v>
@@ -1593,7 +1872,7 @@
         <v>0.1661934338952973</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1607,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E30">
         <v>117000</v>
@@ -1622,7 +1901,7 @@
         <v>2.848017094017094</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1636,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E31">
         <v>91000</v>
@@ -1651,7 +1930,7 @@
         <v>70.16625274725274</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1665,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E32">
         <v>10000</v>
@@ -1680,7 +1959,7 @@
         <v>1.3377</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1694,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E33">
         <v>41120</v>
@@ -1709,7 +1988,7 @@
         <v>0.1636429961089494</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1720,10 +1999,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E34">
         <v>10000</v>
@@ -1738,7 +2017,7 @@
         <v>0.0864</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1749,10 +2028,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E35">
         <v>31560</v>
@@ -1767,7 +2046,7 @@
         <v>14.96682509505703</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1781,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>10000</v>
@@ -1796,7 +2075,7 @@
         <v>0.0023</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1810,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="E37">
         <v>10800</v>
@@ -1825,7 +2104,7 @@
         <v>2.257962962962963</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1839,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E38">
         <v>20000</v>
@@ -1854,7 +2133,7 @@
         <v>2.23</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1868,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="E39">
         <v>10000</v>
@@ -1883,7 +2162,7 @@
         <v>0.2042</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1897,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E40">
         <v>36040</v>
@@ -1912,7 +2191,7 @@
         <v>3.042702552719201</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1926,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E41">
         <v>10000</v>
@@ -1941,7 +2220,7 @@
         <v>0.2977</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1952,10 +2231,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="E42">
         <v>116869.8</v>
@@ -1970,7 +2249,7 @@
         <v>7.218177835505836</v>
       </c>
       <c r="I42" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1981,10 +2260,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="E43">
         <v>240300</v>
@@ -1999,7 +2278,7 @@
         <v>0.85923012900541</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2010,10 +2289,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>196</v>
       </c>
       <c r="E44">
         <v>10000</v>
@@ -2028,7 +2307,7 @@
         <v>1.3531</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2039,10 +2318,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="E45">
         <v>28830</v>
@@ -2057,7 +2336,7 @@
         <v>2.76576482830385</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2071,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E46">
         <v>10000</v>
@@ -2086,7 +2365,7 @@
         <v>1.1434</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2100,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E47">
         <v>10000</v>
@@ -2115,7 +2394,7 @@
         <v>0.0501</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2129,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E48">
         <v>10000</v>
@@ -2144,7 +2423,7 @@
         <v>0.038</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2155,10 +2434,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
       <c r="E49">
         <v>450080</v>
@@ -2173,7 +2452,7 @@
         <v>0.09634287237824386</v>
       </c>
       <c r="I49" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2187,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E50">
         <v>162880</v>
@@ -2202,7 +2481,7 @@
         <v>4.348845776031435</v>
       </c>
       <c r="I50" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2216,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E51">
         <v>10000</v>
@@ -2231,7 +2510,7 @@
         <v>0.3593</v>
       </c>
       <c r="I51" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2242,10 +2521,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E52">
         <v>92040</v>
@@ -2260,7 +2539,7 @@
         <v>20.42019774011299</v>
       </c>
       <c r="I52" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2274,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E53">
         <v>10000</v>
@@ -2289,7 +2568,7 @@
         <v>0.3784</v>
       </c>
       <c r="I53" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2303,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E54">
         <v>10000</v>
@@ -2318,7 +2597,7 @@
         <v>7.0172</v>
       </c>
       <c r="I54" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2332,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="E55">
         <v>10000</v>
@@ -2347,7 +2626,7 @@
         <v>0.0148</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2358,10 +2637,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E56">
         <v>500000</v>
@@ -2376,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2390,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E57">
         <v>20710</v>
@@ -2405,7 +2684,7 @@
         <v>4.707098020280058</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2419,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>10000</v>
@@ -2434,7 +2713,7 @@
         <v>0.7927</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2445,10 +2724,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E59">
         <v>78390</v>
@@ -2463,7 +2742,7 @@
         <v>0.7878811072840923</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2477,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E60">
         <v>10000</v>
@@ -2492,7 +2771,7 @@
         <v>0.025</v>
       </c>
       <c r="I60" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2506,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E61">
         <v>10000</v>
@@ -2521,7 +2800,7 @@
         <v>1.2292</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2532,10 +2811,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E62">
         <v>204889.8</v>
@@ -2550,7 +2829,7 @@
         <v>1.787453548200057</v>
       </c>
       <c r="I62" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2561,10 +2840,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="E63">
         <v>10000</v>
@@ -2579,7 +2858,7 @@
         <v>2.0358</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2590,10 +2869,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E64">
         <v>103850</v>
@@ -2608,7 +2887,7 @@
         <v>0.001463649494463168</v>
       </c>
       <c r="I64" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2622,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E65">
         <v>10000</v>
@@ -2637,7 +2916,7 @@
         <v>2.9507</v>
       </c>
       <c r="I65" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2648,10 +2927,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E66">
         <v>35000</v>
@@ -2666,7 +2945,7 @@
         <v>2.043942857142857</v>
       </c>
       <c r="I66" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2680,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E67">
         <v>44030</v>
@@ -2695,7 +2974,7 @@
         <v>9.96822620940268</v>
       </c>
       <c r="I67" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2709,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="E68">
         <v>10000</v>
@@ -2724,7 +3003,7 @@
         <v>1.5525</v>
       </c>
       <c r="I68" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2735,10 +3014,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="E69">
         <v>163510</v>
@@ -2753,7 +3032,7 @@
         <v>4.844547734083542</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2767,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E70">
         <v>128170</v>
@@ -2782,7 +3061,7 @@
         <v>4.092400717796676</v>
       </c>
       <c r="I70" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2796,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="E71">
         <v>16509.8</v>
@@ -2811,7 +3090,7 @@
         <v>0.05245369416952356</v>
       </c>
       <c r="I71" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2822,10 +3101,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E72">
         <v>112790</v>
@@ -2840,7 +3119,7 @@
         <v>0.9017732068445784</v>
       </c>
       <c r="I72" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2854,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E73">
         <v>10510</v>
@@ -2869,7 +3148,7 @@
         <v>0.5878211227402473</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2880,10 +3159,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E74">
         <v>344600</v>
@@ -2898,7 +3177,7 @@
         <v>3.683322692977365</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2912,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E75">
         <v>61380</v>
@@ -2927,7 +3206,7 @@
         <v>0.3367220593027045</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2941,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="E76">
         <v>18729.8</v>
@@ -2956,7 +3235,7 @@
         <v>2.170444959369561</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2967,10 +3246,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="E77">
         <v>14190</v>
@@ -2985,7 +3264,7 @@
         <v>1.51338971106413</v>
       </c>
       <c r="I77" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2999,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="E78">
         <v>53800</v>
@@ -3014,7 +3293,7 @@
         <v>93.22488847583644</v>
       </c>
       <c r="I78" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3028,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E79">
         <v>29259.8</v>
@@ -3043,7 +3322,7 @@
         <v>0.1452163035974272</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3057,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="E80">
         <v>10000</v>
@@ -3072,7 +3351,7 @@
         <v>0.0462</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3083,10 +3362,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="E81">
         <v>10000</v>
@@ -3101,7 +3380,7 @@
         <v>0.351</v>
       </c>
       <c r="I81" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3112,10 +3391,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="E82">
         <v>10000</v>
@@ -3130,7 +3409,7 @@
         <v>0.3076</v>
       </c>
       <c r="I82" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3141,10 +3420,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="E83">
         <v>200480</v>
@@ -3159,7 +3438,7 @@
         <v>0.02923483639265762</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3173,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="E84">
         <v>10000</v>
@@ -3188,7 +3467,7 @@
         <v>0.0221</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3202,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="E85">
         <v>14820</v>
@@ -3217,7 +3496,7 @@
         <v>4.30114709851552</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3231,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="E86">
         <v>200000</v>
@@ -3246,7 +3525,7 @@
         <v>5E-06</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3260,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E87">
         <v>27540</v>
@@ -3275,7 +3554,2617 @@
         <v>1.336710239651416</v>
       </c>
       <c r="I87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>237681677865</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>206</v>
+      </c>
+      <c r="E88">
+        <v>10000</v>
+      </c>
+      <c r="F88">
+        <v>513</v>
+      </c>
+      <c r="G88">
+        <v>-9487</v>
+      </c>
+      <c r="H88">
+        <v>0.0513</v>
+      </c>
+      <c r="I88" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>237675380474</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89">
+        <v>10000</v>
+      </c>
+      <c r="F89">
+        <v>80118</v>
+      </c>
+      <c r="G89">
+        <v>70118</v>
+      </c>
+      <c r="H89">
+        <v>8.011799999999999</v>
+      </c>
+      <c r="I89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>237652491926</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90">
+        <v>100000</v>
+      </c>
+      <c r="F90">
+        <v>2940201</v>
+      </c>
+      <c r="G90">
+        <v>2840201</v>
+      </c>
+      <c r="H90">
+        <v>29.40201</v>
+      </c>
+      <c r="I90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>237683424410</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91">
+        <v>10000</v>
+      </c>
+      <c r="F91">
+        <v>2339</v>
+      </c>
+      <c r="G91">
+        <v>-7661</v>
+      </c>
+      <c r="H91">
+        <v>0.2339</v>
+      </c>
+      <c r="I91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>237680518982</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92">
+        <v>15290</v>
+      </c>
+      <c r="F92">
+        <v>4075</v>
+      </c>
+      <c r="G92">
+        <v>-11215</v>
+      </c>
+      <c r="H92">
+        <v>0.2665140614780903</v>
+      </c>
+      <c r="I92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>237681892943</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E93">
+        <v>213000</v>
+      </c>
+      <c r="F93">
+        <v>1013</v>
+      </c>
+      <c r="G93">
+        <v>-211987</v>
+      </c>
+      <c r="H93">
+        <v>0.004755868544600939</v>
+      </c>
+      <c r="I93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>237675208505</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94">
+        <v>21690</v>
+      </c>
+      <c r="F94">
+        <v>68166</v>
+      </c>
+      <c r="G94">
+        <v>46476</v>
+      </c>
+      <c r="H94">
+        <v>3.142738589211618</v>
+      </c>
+      <c r="I94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>237653201663</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95">
+        <v>10000</v>
+      </c>
+      <c r="F95">
+        <v>1288</v>
+      </c>
+      <c r="G95">
+        <v>-8712</v>
+      </c>
+      <c r="H95">
+        <v>0.1288</v>
+      </c>
+      <c r="I95" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>237679397180</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E96">
+        <v>10000</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>-10000</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>237678836319</v>
+      </c>
+      <c r="B97" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97">
+        <v>52460</v>
+      </c>
+      <c r="F97">
+        <v>59398</v>
+      </c>
+      <c r="G97">
+        <v>6938</v>
+      </c>
+      <c r="H97">
+        <v>1.132253145253526</v>
+      </c>
+      <c r="I97" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>237653947806</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98">
+        <v>10000</v>
+      </c>
+      <c r="F98">
+        <v>7418</v>
+      </c>
+      <c r="G98">
+        <v>-2582</v>
+      </c>
+      <c r="H98">
+        <v>0.7418</v>
+      </c>
+      <c r="I98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>237679384220</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99">
+        <v>11100</v>
+      </c>
+      <c r="F99">
+        <v>38799</v>
+      </c>
+      <c r="G99">
+        <v>27699</v>
+      </c>
+      <c r="H99">
+        <v>3.495405405405406</v>
+      </c>
+      <c r="I99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>237682395491</v>
+      </c>
+      <c r="B100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100">
+        <v>338950</v>
+      </c>
+      <c r="F100">
+        <v>446015</v>
+      </c>
+      <c r="G100">
+        <v>107065</v>
+      </c>
+      <c r="H100">
+        <v>1.315872547573388</v>
+      </c>
+      <c r="I100" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>237671563443</v>
+      </c>
+      <c r="B101" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101">
+        <v>459900</v>
+      </c>
+      <c r="F101">
+        <v>32</v>
+      </c>
+      <c r="G101">
+        <v>-459868</v>
+      </c>
+      <c r="H101">
+        <v>6.95803435529463E-05</v>
+      </c>
+      <c r="I101" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>237674890585</v>
+      </c>
+      <c r="B102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102">
+        <v>10000</v>
+      </c>
+      <c r="F102">
+        <v>70556</v>
+      </c>
+      <c r="G102">
+        <v>60556</v>
+      </c>
+      <c r="H102">
+        <v>7.0556</v>
+      </c>
+      <c r="I102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>237653294562</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103">
+        <v>162167.4</v>
+      </c>
+      <c r="F103">
+        <v>290990</v>
+      </c>
+      <c r="G103">
+        <v>128822.6</v>
+      </c>
+      <c r="H103">
+        <v>1.794380374847226</v>
+      </c>
+      <c r="I103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>237681659043</v>
+      </c>
+      <c r="B104" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>195</v>
+      </c>
+      <c r="E104">
+        <v>10000</v>
+      </c>
+      <c r="F104">
+        <v>24133</v>
+      </c>
+      <c r="G104">
+        <v>14133</v>
+      </c>
+      <c r="H104">
+        <v>2.4133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>237679086144</v>
+      </c>
+      <c r="B105" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>196</v>
+      </c>
+      <c r="E105">
+        <v>10000</v>
+      </c>
+      <c r="F105">
+        <v>7991</v>
+      </c>
+      <c r="G105">
+        <v>-2009</v>
+      </c>
+      <c r="H105">
+        <v>0.7991</v>
+      </c>
+      <c r="I105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>237683998069</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>195</v>
+      </c>
+      <c r="E106">
+        <v>20800</v>
+      </c>
+      <c r="F106">
+        <v>54595</v>
+      </c>
+      <c r="G106">
+        <v>33795</v>
+      </c>
+      <c r="H106">
+        <v>2.624759615384615</v>
+      </c>
+      <c r="I106" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>237679252522</v>
+      </c>
+      <c r="B107" t="s">
         <v>114</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>196</v>
+      </c>
+      <c r="E107">
+        <v>10000</v>
+      </c>
+      <c r="F107">
+        <v>23</v>
+      </c>
+      <c r="G107">
+        <v>-9977</v>
+      </c>
+      <c r="H107">
+        <v>0.0023</v>
+      </c>
+      <c r="I107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>237679428660</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108">
+        <v>10000</v>
+      </c>
+      <c r="F108">
+        <v>6025929</v>
+      </c>
+      <c r="G108">
+        <v>6015929</v>
+      </c>
+      <c r="H108">
+        <v>602.5929</v>
+      </c>
+      <c r="I108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>237674456872</v>
+      </c>
+      <c r="B109" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>202</v>
+      </c>
+      <c r="E109">
+        <v>10000</v>
+      </c>
+      <c r="F109">
+        <v>17416</v>
+      </c>
+      <c r="G109">
+        <v>7416</v>
+      </c>
+      <c r="H109">
+        <v>1.7416</v>
+      </c>
+      <c r="I109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>237680145093</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>217</v>
+      </c>
+      <c r="E110">
+        <v>12300</v>
+      </c>
+      <c r="F110">
+        <v>59923</v>
+      </c>
+      <c r="G110">
+        <v>47623</v>
+      </c>
+      <c r="H110">
+        <v>4.871788617886179</v>
+      </c>
+      <c r="I110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>237677188989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>208</v>
+      </c>
+      <c r="E111">
+        <v>10000</v>
+      </c>
+      <c r="F111">
+        <v>9700</v>
+      </c>
+      <c r="G111">
+        <v>-300</v>
+      </c>
+      <c r="H111">
+        <v>0.97</v>
+      </c>
+      <c r="I111" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>237672773570</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112">
+        <v>125180</v>
+      </c>
+      <c r="F112">
+        <v>668234</v>
+      </c>
+      <c r="G112">
+        <v>543054</v>
+      </c>
+      <c r="H112">
+        <v>5.338185013580445</v>
+      </c>
+      <c r="I112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>237675678961</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113">
+        <v>10000</v>
+      </c>
+      <c r="F113">
+        <v>141</v>
+      </c>
+      <c r="G113">
+        <v>-9859</v>
+      </c>
+      <c r="H113">
+        <v>0.0141</v>
+      </c>
+      <c r="I113" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>237681678622</v>
+      </c>
+      <c r="B114" t="s">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114" t="s">
+        <v>195</v>
+      </c>
+      <c r="E114">
+        <v>44860</v>
+      </c>
+      <c r="F114">
+        <v>134935</v>
+      </c>
+      <c r="G114">
+        <v>90075</v>
+      </c>
+      <c r="H114">
+        <v>3.007913508693714</v>
+      </c>
+      <c r="I114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>237654041671</v>
+      </c>
+      <c r="B115" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115">
+        <v>10000</v>
+      </c>
+      <c r="F115">
+        <v>11600</v>
+      </c>
+      <c r="G115">
+        <v>1600</v>
+      </c>
+      <c r="H115">
+        <v>1.16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>237675629624</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>198</v>
+      </c>
+      <c r="E116">
+        <v>10000</v>
+      </c>
+      <c r="F116">
+        <v>14</v>
+      </c>
+      <c r="G116">
+        <v>-9986</v>
+      </c>
+      <c r="H116">
+        <v>0.0014</v>
+      </c>
+      <c r="I116" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>237683232376</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E117">
+        <v>10000</v>
+      </c>
+      <c r="F117">
+        <v>500214</v>
+      </c>
+      <c r="G117">
+        <v>490214</v>
+      </c>
+      <c r="H117">
+        <v>50.0214</v>
+      </c>
+      <c r="I117" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>237674895389</v>
+      </c>
+      <c r="B118" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118" t="s">
+        <v>205</v>
+      </c>
+      <c r="E118">
+        <v>248200</v>
+      </c>
+      <c r="F118">
+        <v>179255</v>
+      </c>
+      <c r="G118">
+        <v>-68945</v>
+      </c>
+      <c r="H118">
+        <v>0.7222199838839646</v>
+      </c>
+      <c r="I118" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>237682846850</v>
+      </c>
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119">
+        <v>27420</v>
+      </c>
+      <c r="F119">
+        <v>616178</v>
+      </c>
+      <c r="G119">
+        <v>588758</v>
+      </c>
+      <c r="H119">
+        <v>22.47184536834427</v>
+      </c>
+      <c r="I119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>237671823397</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" t="s">
+        <v>193</v>
+      </c>
+      <c r="D120" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120">
+        <v>10000</v>
+      </c>
+      <c r="F120">
+        <v>82</v>
+      </c>
+      <c r="G120">
+        <v>-9918</v>
+      </c>
+      <c r="H120">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="I120" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>237678391510</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121">
+        <v>59300</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>-59299</v>
+      </c>
+      <c r="H121">
+        <v>1.686340640809443E-05</v>
+      </c>
+      <c r="I121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>237679423897</v>
+      </c>
+      <c r="B122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>204</v>
+      </c>
+      <c r="E122">
+        <v>132820</v>
+      </c>
+      <c r="F122">
+        <v>948473</v>
+      </c>
+      <c r="G122">
+        <v>815653</v>
+      </c>
+      <c r="H122">
+        <v>7.1410405059479</v>
+      </c>
+      <c r="I122" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123">
+        <v>237679097685</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" t="s">
+        <v>217</v>
+      </c>
+      <c r="E123">
+        <v>12030</v>
+      </c>
+      <c r="F123">
+        <v>141336</v>
+      </c>
+      <c r="G123">
+        <v>129306</v>
+      </c>
+      <c r="H123">
+        <v>11.74862842892768</v>
+      </c>
+      <c r="I123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124">
+        <v>237683386020</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124">
+        <v>63470</v>
+      </c>
+      <c r="F124">
+        <v>31942</v>
+      </c>
+      <c r="G124">
+        <v>-31528</v>
+      </c>
+      <c r="H124">
+        <v>0.5032613833307075</v>
+      </c>
+      <c r="I124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125">
+        <v>237652294497</v>
+      </c>
+      <c r="B125" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>213</v>
+      </c>
+      <c r="E125">
+        <v>13400</v>
+      </c>
+      <c r="F125">
+        <v>126700</v>
+      </c>
+      <c r="G125">
+        <v>113300</v>
+      </c>
+      <c r="H125">
+        <v>9.455223880597014</v>
+      </c>
+      <c r="I125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126">
+        <v>237670705006</v>
+      </c>
+      <c r="B126" t="s">
+        <v>133</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>202</v>
+      </c>
+      <c r="E126">
+        <v>10530.8</v>
+      </c>
+      <c r="F126">
+        <v>7184</v>
+      </c>
+      <c r="G126">
+        <v>-3346.799999999999</v>
+      </c>
+      <c r="H126">
+        <v>0.6821893873210013</v>
+      </c>
+      <c r="I126" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127">
+        <v>237683314104</v>
+      </c>
+      <c r="B127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>210</v>
+      </c>
+      <c r="E127">
+        <v>18780</v>
+      </c>
+      <c r="F127">
+        <v>62509</v>
+      </c>
+      <c r="G127">
+        <v>43729</v>
+      </c>
+      <c r="H127">
+        <v>3.328487752928647</v>
+      </c>
+      <c r="I127" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128">
+        <v>237673185867</v>
+      </c>
+      <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128">
+        <v>10000</v>
+      </c>
+      <c r="F128">
+        <v>10441</v>
+      </c>
+      <c r="G128">
+        <v>441</v>
+      </c>
+      <c r="H128">
+        <v>1.0441</v>
+      </c>
+      <c r="I128" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129">
+        <v>237683729310</v>
+      </c>
+      <c r="B129" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>214</v>
+      </c>
+      <c r="E129">
+        <v>33220</v>
+      </c>
+      <c r="F129">
+        <v>2922</v>
+      </c>
+      <c r="G129">
+        <v>-30298</v>
+      </c>
+      <c r="H129">
+        <v>0.08795906080674293</v>
+      </c>
+      <c r="I129" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130">
+        <v>237679948645</v>
+      </c>
+      <c r="B130" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" t="s">
+        <v>192</v>
+      </c>
+      <c r="D130" t="s">
+        <v>197</v>
+      </c>
+      <c r="E130">
+        <v>185610</v>
+      </c>
+      <c r="F130">
+        <v>108036</v>
+      </c>
+      <c r="G130">
+        <v>-77574</v>
+      </c>
+      <c r="H130">
+        <v>0.5820591562954582</v>
+      </c>
+      <c r="I130" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131">
+        <v>237674183250</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>196</v>
+      </c>
+      <c r="E131">
+        <v>10000</v>
+      </c>
+      <c r="F131">
+        <v>14</v>
+      </c>
+      <c r="G131">
+        <v>-9986</v>
+      </c>
+      <c r="H131">
+        <v>0.0014</v>
+      </c>
+      <c r="I131" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132">
+        <v>237676439452</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" t="s">
+        <v>188</v>
+      </c>
+      <c r="D132" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132">
+        <v>195570</v>
+      </c>
+      <c r="F132">
+        <v>271853</v>
+      </c>
+      <c r="G132">
+        <v>76283</v>
+      </c>
+      <c r="H132">
+        <v>1.390054711867873</v>
+      </c>
+      <c r="I132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133">
+        <v>237672797234</v>
+      </c>
+      <c r="B133" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>195</v>
+      </c>
+      <c r="E133">
+        <v>10000</v>
+      </c>
+      <c r="F133">
+        <v>900184</v>
+      </c>
+      <c r="G133">
+        <v>890184</v>
+      </c>
+      <c r="H133">
+        <v>90.0184</v>
+      </c>
+      <c r="I133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134">
+        <v>237675454130</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>199</v>
+      </c>
+      <c r="E134">
+        <v>10000</v>
+      </c>
+      <c r="F134">
+        <v>6534</v>
+      </c>
+      <c r="G134">
+        <v>-3466</v>
+      </c>
+      <c r="H134">
+        <v>0.6534</v>
+      </c>
+      <c r="I134" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135">
+        <v>237676036914</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E135">
+        <v>47150</v>
+      </c>
+      <c r="F135">
+        <v>212127</v>
+      </c>
+      <c r="G135">
+        <v>164977</v>
+      </c>
+      <c r="H135">
+        <v>4.49898197242842</v>
+      </c>
+      <c r="I135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136">
+        <v>237680472978</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136">
+        <v>106120</v>
+      </c>
+      <c r="F136">
+        <v>20562</v>
+      </c>
+      <c r="G136">
+        <v>-85558</v>
+      </c>
+      <c r="H136">
+        <v>0.1937617791179796</v>
+      </c>
+      <c r="I136" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137">
+        <v>237679791269</v>
+      </c>
+      <c r="B137" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137">
+        <v>190480</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>-190480</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138">
+        <v>237651244832</v>
+      </c>
+      <c r="B138" t="s">
+        <v>145</v>
+      </c>
+      <c r="C138" t="s">
+        <v>191</v>
+      </c>
+      <c r="D138" t="s">
+        <v>199</v>
+      </c>
+      <c r="E138">
+        <v>25600</v>
+      </c>
+      <c r="F138">
+        <v>66242</v>
+      </c>
+      <c r="G138">
+        <v>40642</v>
+      </c>
+      <c r="H138">
+        <v>2.587578125</v>
+      </c>
+      <c r="I138" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139">
+        <v>237674736501</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139">
+        <v>51680</v>
+      </c>
+      <c r="F139">
+        <v>237616</v>
+      </c>
+      <c r="G139">
+        <v>185936</v>
+      </c>
+      <c r="H139">
+        <v>4.597832817337461</v>
+      </c>
+      <c r="I139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140">
+        <v>237681114247</v>
+      </c>
+      <c r="B140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" t="s">
+        <v>205</v>
+      </c>
+      <c r="E140">
+        <v>21790</v>
+      </c>
+      <c r="F140">
+        <v>986</v>
+      </c>
+      <c r="G140">
+        <v>-20804</v>
+      </c>
+      <c r="H140">
+        <v>0.04525011473152822</v>
+      </c>
+      <c r="I140" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141">
+        <v>237674458246</v>
+      </c>
+      <c r="B141" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>201</v>
+      </c>
+      <c r="E141">
+        <v>16000</v>
+      </c>
+      <c r="F141">
+        <v>525</v>
+      </c>
+      <c r="G141">
+        <v>-15475</v>
+      </c>
+      <c r="H141">
+        <v>0.0328125</v>
+      </c>
+      <c r="I141" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142">
+        <v>237679882190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>149</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>203</v>
+      </c>
+      <c r="E142">
+        <v>61030</v>
+      </c>
+      <c r="F142">
+        <v>192476</v>
+      </c>
+      <c r="G142">
+        <v>131446</v>
+      </c>
+      <c r="H142">
+        <v>3.153793216450926</v>
+      </c>
+      <c r="I142" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143">
+        <v>237682370358</v>
+      </c>
+      <c r="B143" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>188</v>
+      </c>
+      <c r="D143" t="s">
+        <v>216</v>
+      </c>
+      <c r="E143">
+        <v>19560</v>
+      </c>
+      <c r="F143">
+        <v>2179</v>
+      </c>
+      <c r="G143">
+        <v>-17381</v>
+      </c>
+      <c r="H143">
+        <v>0.11140081799591</v>
+      </c>
+      <c r="I143" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144">
+        <v>237681345006</v>
+      </c>
+      <c r="B144" t="s">
+        <v>151</v>
+      </c>
+      <c r="C144" t="s">
+        <v>185</v>
+      </c>
+      <c r="D144" t="s">
+        <v>200</v>
+      </c>
+      <c r="E144">
+        <v>175320</v>
+      </c>
+      <c r="F144">
+        <v>23601</v>
+      </c>
+      <c r="G144">
+        <v>-151719</v>
+      </c>
+      <c r="H144">
+        <v>0.1346167008898015</v>
+      </c>
+      <c r="I144" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145">
+        <v>237683395108</v>
+      </c>
+      <c r="B145" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145">
+        <v>10000</v>
+      </c>
+      <c r="F145">
+        <v>2279</v>
+      </c>
+      <c r="G145">
+        <v>-7721</v>
+      </c>
+      <c r="H145">
+        <v>0.2279</v>
+      </c>
+      <c r="I145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146">
+        <v>237672081940</v>
+      </c>
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>197</v>
+      </c>
+      <c r="E146">
+        <v>10000</v>
+      </c>
+      <c r="F146">
+        <v>35332</v>
+      </c>
+      <c r="G146">
+        <v>25332</v>
+      </c>
+      <c r="H146">
+        <v>3.5332</v>
+      </c>
+      <c r="I146" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147">
+        <v>237681468132</v>
+      </c>
+      <c r="B147" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>196</v>
+      </c>
+      <c r="E147">
+        <v>19400</v>
+      </c>
+      <c r="F147">
+        <v>224</v>
+      </c>
+      <c r="G147">
+        <v>-19176</v>
+      </c>
+      <c r="H147">
+        <v>0.01154639175257732</v>
+      </c>
+      <c r="I147" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148">
+        <v>237681679310</v>
+      </c>
+      <c r="B148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" t="s">
+        <v>204</v>
+      </c>
+      <c r="E148">
+        <v>45670</v>
+      </c>
+      <c r="F148">
+        <v>135162</v>
+      </c>
+      <c r="G148">
+        <v>89492</v>
+      </c>
+      <c r="H148">
+        <v>2.959535800306547</v>
+      </c>
+      <c r="I148" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149">
+        <v>237683730106</v>
+      </c>
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>208</v>
+      </c>
+      <c r="E149">
+        <v>10000</v>
+      </c>
+      <c r="F149">
+        <v>2818</v>
+      </c>
+      <c r="G149">
+        <v>-7182</v>
+      </c>
+      <c r="H149">
+        <v>0.2818</v>
+      </c>
+      <c r="I149" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150">
+        <v>237680415220</v>
+      </c>
+      <c r="B150" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>197</v>
+      </c>
+      <c r="E150">
+        <v>10000</v>
+      </c>
+      <c r="F150">
+        <v>6792</v>
+      </c>
+      <c r="G150">
+        <v>-3208</v>
+      </c>
+      <c r="H150">
+        <v>0.6792</v>
+      </c>
+      <c r="I150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151">
+        <v>237683405593</v>
+      </c>
+      <c r="B151" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>204</v>
+      </c>
+      <c r="E151">
+        <v>10000</v>
+      </c>
+      <c r="F151">
+        <v>23538</v>
+      </c>
+      <c r="G151">
+        <v>13538</v>
+      </c>
+      <c r="H151">
+        <v>2.3538</v>
+      </c>
+      <c r="I151" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152">
+        <v>237654117826</v>
+      </c>
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>196</v>
+      </c>
+      <c r="E152">
+        <v>98640</v>
+      </c>
+      <c r="F152">
+        <v>2635</v>
+      </c>
+      <c r="G152">
+        <v>-96005</v>
+      </c>
+      <c r="H152">
+        <v>0.02671330089213301</v>
+      </c>
+      <c r="I152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153">
+        <v>237683023087</v>
+      </c>
+      <c r="B153" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>188</v>
+      </c>
+      <c r="D153" t="s">
+        <v>216</v>
+      </c>
+      <c r="E153">
+        <v>141480</v>
+      </c>
+      <c r="F153">
+        <v>3020</v>
+      </c>
+      <c r="G153">
+        <v>-138460</v>
+      </c>
+      <c r="H153">
+        <v>0.0213457732541702</v>
+      </c>
+      <c r="I153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154">
+        <v>237670709824</v>
+      </c>
+      <c r="B154" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>203</v>
+      </c>
+      <c r="E154">
+        <v>30430</v>
+      </c>
+      <c r="F154">
+        <v>85937</v>
+      </c>
+      <c r="G154">
+        <v>55507</v>
+      </c>
+      <c r="H154">
+        <v>2.824088070982583</v>
+      </c>
+      <c r="I154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155">
+        <v>237654437449</v>
+      </c>
+      <c r="B155" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>213</v>
+      </c>
+      <c r="E155">
+        <v>10000</v>
+      </c>
+      <c r="F155">
+        <v>1106</v>
+      </c>
+      <c r="G155">
+        <v>-8894</v>
+      </c>
+      <c r="H155">
+        <v>0.1106</v>
+      </c>
+      <c r="I155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156">
+        <v>237653430377</v>
+      </c>
+      <c r="B156" t="s">
+        <v>163</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156" t="s">
+        <v>203</v>
+      </c>
+      <c r="E156">
+        <v>166120</v>
+      </c>
+      <c r="F156">
+        <v>288689</v>
+      </c>
+      <c r="G156">
+        <v>122569</v>
+      </c>
+      <c r="H156">
+        <v>1.737834095834337</v>
+      </c>
+      <c r="I156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157">
+        <v>237671563291</v>
+      </c>
+      <c r="B157" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>196</v>
+      </c>
+      <c r="E157">
+        <v>21629.8</v>
+      </c>
+      <c r="F157">
+        <v>23936</v>
+      </c>
+      <c r="G157">
+        <v>2306.200000000001</v>
+      </c>
+      <c r="H157">
+        <v>1.106621420447716</v>
+      </c>
+      <c r="I157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158">
+        <v>237650352979</v>
+      </c>
+      <c r="B158" t="s">
+        <v>165</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>215</v>
+      </c>
+      <c r="E158">
+        <v>146000</v>
+      </c>
+      <c r="F158">
+        <v>7901748</v>
+      </c>
+      <c r="G158">
+        <v>7755748</v>
+      </c>
+      <c r="H158">
+        <v>54.12156164383562</v>
+      </c>
+      <c r="I158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159">
+        <v>237681657562</v>
+      </c>
+      <c r="B159" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>203</v>
+      </c>
+      <c r="E159">
+        <v>202089.8</v>
+      </c>
+      <c r="F159">
+        <v>4701</v>
+      </c>
+      <c r="G159">
+        <v>-197388.8</v>
+      </c>
+      <c r="H159">
+        <v>0.02326193603041816</v>
+      </c>
+      <c r="I159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160">
+        <v>237678336720</v>
+      </c>
+      <c r="B160" t="s">
+        <v>167</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>205</v>
+      </c>
+      <c r="E160">
+        <v>10000</v>
+      </c>
+      <c r="F160">
+        <v>63814</v>
+      </c>
+      <c r="G160">
+        <v>53814</v>
+      </c>
+      <c r="H160">
+        <v>6.3814</v>
+      </c>
+      <c r="I160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161">
+        <v>237672795112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161">
+        <v>42780</v>
+      </c>
+      <c r="F161">
+        <v>432</v>
+      </c>
+      <c r="G161">
+        <v>-42348</v>
+      </c>
+      <c r="H161">
+        <v>0.01009817671809257</v>
+      </c>
+      <c r="I161" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162">
+        <v>237674936735</v>
+      </c>
+      <c r="B162" t="s">
+        <v>169</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+      <c r="D162" t="s">
+        <v>210</v>
+      </c>
+      <c r="E162">
+        <v>86810</v>
+      </c>
+      <c r="F162">
+        <v>335842</v>
+      </c>
+      <c r="G162">
+        <v>249032</v>
+      </c>
+      <c r="H162">
+        <v>3.868701762469762</v>
+      </c>
+      <c r="I162" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163">
+        <v>237670996430</v>
+      </c>
+      <c r="B163" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>197</v>
+      </c>
+      <c r="E163">
+        <v>10000</v>
+      </c>
+      <c r="F163">
+        <v>14511</v>
+      </c>
+      <c r="G163">
+        <v>4511</v>
+      </c>
+      <c r="H163">
+        <v>1.4511</v>
+      </c>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>237678636838</v>
+      </c>
+      <c r="B164" t="s">
+        <v>171</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" t="s">
+        <v>205</v>
+      </c>
+      <c r="E164">
+        <v>13500</v>
+      </c>
+      <c r="F164">
+        <v>29941</v>
+      </c>
+      <c r="G164">
+        <v>16441</v>
+      </c>
+      <c r="H164">
+        <v>2.217851851851852</v>
+      </c>
+      <c r="I164" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>237678586922</v>
+      </c>
+      <c r="B165" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>198</v>
+      </c>
+      <c r="E165">
+        <v>100100</v>
+      </c>
+      <c r="F165">
+        <v>4082</v>
+      </c>
+      <c r="G165">
+        <v>-96018</v>
+      </c>
+      <c r="H165">
+        <v>0.04077922077922078</v>
+      </c>
+      <c r="I165" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>237681408162</v>
+      </c>
+      <c r="B166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>218</v>
+      </c>
+      <c r="E166">
+        <v>10000</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>-10000</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>237672760396</v>
+      </c>
+      <c r="B167" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>209</v>
+      </c>
+      <c r="E167">
+        <v>10000</v>
+      </c>
+      <c r="F167">
+        <v>540</v>
+      </c>
+      <c r="G167">
+        <v>-9460</v>
+      </c>
+      <c r="H167">
+        <v>0.054</v>
+      </c>
+      <c r="I167" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>237651533411</v>
+      </c>
+      <c r="B168" t="s">
+        <v>175</v>
+      </c>
+      <c r="C168" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168">
+        <v>87740</v>
+      </c>
+      <c r="F168">
+        <v>43657</v>
+      </c>
+      <c r="G168">
+        <v>-44083</v>
+      </c>
+      <c r="H168">
+        <v>0.4975723729199909</v>
+      </c>
+      <c r="I168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>237675779272</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>185</v>
+      </c>
+      <c r="D169" t="s">
+        <v>196</v>
+      </c>
+      <c r="E169">
+        <v>235410</v>
+      </c>
+      <c r="F169">
+        <v>105101</v>
+      </c>
+      <c r="G169">
+        <v>-130309</v>
+      </c>
+      <c r="H169">
+        <v>0.4464593687608853</v>
+      </c>
+      <c r="I169" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>237673749692</v>
+      </c>
+      <c r="B170" t="s">
+        <v>177</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>212</v>
+      </c>
+      <c r="E170">
+        <v>13240</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>-13240</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>237651648280</v>
+      </c>
+      <c r="B171" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>202</v>
+      </c>
+      <c r="E171">
+        <v>48140</v>
+      </c>
+      <c r="F171">
+        <v>808</v>
+      </c>
+      <c r="G171">
+        <v>-47332</v>
+      </c>
+      <c r="H171">
+        <v>0.0167843788948899</v>
+      </c>
+      <c r="I171" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>237681666568</v>
+      </c>
+      <c r="B172" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>192</v>
+      </c>
+      <c r="D172" t="s">
+        <v>204</v>
+      </c>
+      <c r="E172">
+        <v>89460</v>
+      </c>
+      <c r="F172">
+        <v>84819</v>
+      </c>
+      <c r="G172">
+        <v>-4641</v>
+      </c>
+      <c r="H172">
+        <v>0.9481220657276995</v>
+      </c>
+      <c r="I172" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>237675889982</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>197</v>
+      </c>
+      <c r="E173">
+        <v>37379.8</v>
+      </c>
+      <c r="F173">
+        <v>186101</v>
+      </c>
+      <c r="G173">
+        <v>148721.2</v>
+      </c>
+      <c r="H173">
+        <v>4.978651571169455</v>
+      </c>
+      <c r="I173" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>237671563342</v>
+      </c>
+      <c r="B174" t="s">
+        <v>181</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>214</v>
+      </c>
+      <c r="E174">
+        <v>10000</v>
+      </c>
+      <c r="F174">
+        <v>87</v>
+      </c>
+      <c r="G174">
+        <v>-9913</v>
+      </c>
+      <c r="H174">
+        <v>0.008699999999999999</v>
+      </c>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>237681656233</v>
+      </c>
+      <c r="B175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>205</v>
+      </c>
+      <c r="E175">
+        <v>10000</v>
+      </c>
+      <c r="F175">
+        <v>45444</v>
+      </c>
+      <c r="G175">
+        <v>35444</v>
+      </c>
+      <c r="H175">
+        <v>4.5444</v>
+      </c>
+      <c r="I175" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>237683784011</v>
+      </c>
+      <c r="B176" t="s">
+        <v>183</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>214</v>
+      </c>
+      <c r="E176">
+        <v>10090</v>
+      </c>
+      <c r="F176">
+        <v>14176</v>
+      </c>
+      <c r="G176">
+        <v>4086</v>
+      </c>
+      <c r="H176">
+        <v>1.404955401387512</v>
+      </c>
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>237679059594</v>
+      </c>
+      <c r="B177" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177" t="s">
+        <v>210</v>
+      </c>
+      <c r="E177">
+        <v>73720</v>
+      </c>
+      <c r="F177">
+        <v>317960</v>
+      </c>
+      <c r="G177">
+        <v>244240</v>
+      </c>
+      <c r="H177">
+        <v>4.313076505697233</v>
+      </c>
+      <c r="I177" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="230">
   <si>
     <t>Numero</t>
   </si>
@@ -569,6 +569,39 @@
   </si>
   <si>
     <t>MANFO ROSINE BERLINE LA NEGRESSE</t>
+  </si>
+  <si>
+    <t>PIERRE MARIVOT TEMEZEU</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL MBONE NDEMOU EPSE KAMSU ROSINE</t>
+  </si>
+  <si>
+    <t>NDAMI EPSE NONGA ROSALIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TOUGOUA PAYOU JULIO OMER ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>YASSI A BAA BELMOND CHIC MOBILE</t>
+  </si>
+  <si>
+    <t>N A SOKOUDJOU DZOKOU</t>
+  </si>
+  <si>
+    <t>DEUGOUE TOKO EPSE DIBANGUE LOISE LAURE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>Sandrine Nkendji</t>
+  </si>
+  <si>
+    <t>JUDITH AIMEE JOELEFACK JAZET EPSE NGUMATIO</t>
+  </si>
+  <si>
+    <t>CHIREL DELRICH TCHAPDA</t>
+  </si>
+  <si>
+    <t>DYLAN KEPSEU SIME</t>
   </si>
   <si>
     <t>Rte_1</t>
@@ -1028,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,10 +1104,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>363470.8</v>
@@ -1089,7 +1122,7 @@
         <v>0.08279894836118885</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1103,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E3">
         <v>26860</v>
@@ -1118,7 +1151,7 @@
         <v>1.362434847356664</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1132,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E4">
         <v>70200</v>
@@ -1147,7 +1180,7 @@
         <v>14.85115384615385</v>
       </c>
       <c r="I4" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1158,10 +1191,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>12360</v>
@@ -1176,7 +1209,7 @@
         <v>1.049595469255663</v>
       </c>
       <c r="I5" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1190,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -1205,7 +1238,7 @@
         <v>0.0878</v>
       </c>
       <c r="I6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1219,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -1234,7 +1267,7 @@
         <v>0.0023</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1245,10 +1278,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -1263,7 +1296,7 @@
         <v>21.5254</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1277,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>15820</v>
@@ -1292,7 +1325,7 @@
         <v>12.01156763590392</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1306,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>10000</v>
@@ -1321,7 +1354,7 @@
         <v>0.6498</v>
       </c>
       <c r="I10" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1335,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E11">
         <v>10000</v>
@@ -1350,7 +1383,7 @@
         <v>9.884399999999999</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1361,10 +1394,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E12">
         <v>159420</v>
@@ -1379,7 +1412,7 @@
         <v>0.54294316898758</v>
       </c>
       <c r="I12" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1393,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E13">
         <v>10000</v>
@@ -1408,7 +1441,7 @@
         <v>0.0012</v>
       </c>
       <c r="I13" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1422,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>10000</v>
@@ -1437,7 +1470,7 @@
         <v>0.9594</v>
       </c>
       <c r="I14" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1451,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -1466,7 +1499,7 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1477,10 +1510,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E16">
         <v>108940</v>
@@ -1495,7 +1528,7 @@
         <v>4.747273728657976</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1506,10 +1539,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E17">
         <v>103480</v>
@@ -1524,7 +1557,7 @@
         <v>0.9361035948975648</v>
       </c>
       <c r="I17" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1538,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E18">
         <v>13200</v>
@@ -1553,7 +1586,7 @@
         <v>8.294848484848485</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1567,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E19">
         <v>10000</v>
@@ -1582,7 +1615,7 @@
         <v>0.0231</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1596,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E20">
         <v>10000</v>
@@ -1611,7 +1644,7 @@
         <v>4.4076</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1622,10 +1655,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E21">
         <v>63060</v>
@@ -1640,7 +1673,7 @@
         <v>0.3330161750713606</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1654,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E22">
         <v>22350.8</v>
@@ -1669,7 +1702,7 @@
         <v>4.230542083504841</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1680,10 +1713,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E23">
         <v>11220</v>
@@ -1698,7 +1731,7 @@
         <v>0.4763814616755793</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1712,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E24">
         <v>11400</v>
@@ -1727,7 +1760,7 @@
         <v>0.7770175438596492</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1738,10 +1771,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E25">
         <v>161079.6</v>
@@ -1756,7 +1789,7 @@
         <v>1.639636552362931</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1770,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>10000</v>
@@ -1785,7 +1818,7 @@
         <v>5.5699</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1799,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E27">
         <v>173785</v>
@@ -1814,7 +1847,7 @@
         <v>0.3236470351296142</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1828,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E28">
         <v>10000</v>
@@ -1843,7 +1876,7 @@
         <v>0.4751</v>
       </c>
       <c r="I28" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1857,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E29">
         <v>11270</v>
@@ -1872,7 +1905,7 @@
         <v>0.1661934338952973</v>
       </c>
       <c r="I29" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1886,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E30">
         <v>117000</v>
@@ -1901,7 +1934,7 @@
         <v>2.848017094017094</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1915,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E31">
         <v>91000</v>
@@ -1930,7 +1963,7 @@
         <v>70.16625274725274</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1944,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E32">
         <v>10000</v>
@@ -1959,7 +1992,7 @@
         <v>1.3377</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1973,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E33">
         <v>41120</v>
@@ -1988,7 +2021,7 @@
         <v>0.1636429961089494</v>
       </c>
       <c r="I33" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1999,10 +2032,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E34">
         <v>10000</v>
@@ -2017,7 +2050,7 @@
         <v>0.0864</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2028,10 +2061,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E35">
         <v>31560</v>
@@ -2046,7 +2079,7 @@
         <v>14.96682509505703</v>
       </c>
       <c r="I35" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2060,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E36">
         <v>10000</v>
@@ -2075,7 +2108,7 @@
         <v>0.0023</v>
       </c>
       <c r="I36" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2089,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E37">
         <v>10800</v>
@@ -2104,7 +2137,7 @@
         <v>2.257962962962963</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2118,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E38">
         <v>20000</v>
@@ -2133,7 +2166,7 @@
         <v>2.23</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2147,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E39">
         <v>10000</v>
@@ -2162,7 +2195,7 @@
         <v>0.2042</v>
       </c>
       <c r="I39" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2176,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E40">
         <v>36040</v>
@@ -2191,7 +2224,7 @@
         <v>3.042702552719201</v>
       </c>
       <c r="I40" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2205,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E41">
         <v>10000</v>
@@ -2220,7 +2253,7 @@
         <v>0.2977</v>
       </c>
       <c r="I41" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2231,10 +2264,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E42">
         <v>116869.8</v>
@@ -2249,7 +2282,7 @@
         <v>7.218177835505836</v>
       </c>
       <c r="I42" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2260,10 +2293,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E43">
         <v>240300</v>
@@ -2278,7 +2311,7 @@
         <v>0.85923012900541</v>
       </c>
       <c r="I43" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2289,10 +2322,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E44">
         <v>10000</v>
@@ -2307,7 +2340,7 @@
         <v>1.3531</v>
       </c>
       <c r="I44" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2318,10 +2351,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E45">
         <v>28830</v>
@@ -2336,7 +2369,7 @@
         <v>2.76576482830385</v>
       </c>
       <c r="I45" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2350,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E46">
         <v>10000</v>
@@ -2365,7 +2398,7 @@
         <v>1.1434</v>
       </c>
       <c r="I46" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2379,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E47">
         <v>10000</v>
@@ -2394,7 +2427,7 @@
         <v>0.0501</v>
       </c>
       <c r="I47" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2408,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E48">
         <v>10000</v>
@@ -2423,7 +2456,7 @@
         <v>0.038</v>
       </c>
       <c r="I48" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2434,10 +2467,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E49">
         <v>450080</v>
@@ -2452,7 +2485,7 @@
         <v>0.09634287237824386</v>
       </c>
       <c r="I49" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2466,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E50">
         <v>162880</v>
@@ -2481,7 +2514,7 @@
         <v>4.348845776031435</v>
       </c>
       <c r="I50" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2495,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E51">
         <v>10000</v>
@@ -2510,7 +2543,7 @@
         <v>0.3593</v>
       </c>
       <c r="I51" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2521,10 +2554,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E52">
         <v>92040</v>
@@ -2539,7 +2572,7 @@
         <v>20.42019774011299</v>
       </c>
       <c r="I52" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2553,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E53">
         <v>10000</v>
@@ -2568,7 +2601,7 @@
         <v>0.3784</v>
       </c>
       <c r="I53" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2582,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E54">
         <v>10000</v>
@@ -2597,7 +2630,7 @@
         <v>7.0172</v>
       </c>
       <c r="I54" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2611,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E55">
         <v>10000</v>
@@ -2626,7 +2659,7 @@
         <v>0.0148</v>
       </c>
       <c r="I55" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2637,10 +2670,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E56">
         <v>500000</v>
@@ -2655,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2669,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E57">
         <v>20710</v>
@@ -2684,7 +2717,7 @@
         <v>4.707098020280058</v>
       </c>
       <c r="I57" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2698,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E58">
         <v>10000</v>
@@ -2713,7 +2746,7 @@
         <v>0.7927</v>
       </c>
       <c r="I58" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2724,10 +2757,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E59">
         <v>78390</v>
@@ -2742,7 +2775,7 @@
         <v>0.7878811072840923</v>
       </c>
       <c r="I59" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2756,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E60">
         <v>10000</v>
@@ -2771,7 +2804,7 @@
         <v>0.025</v>
       </c>
       <c r="I60" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2785,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E61">
         <v>10000</v>
@@ -2800,7 +2833,7 @@
         <v>1.2292</v>
       </c>
       <c r="I61" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2811,10 +2844,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E62">
         <v>204889.8</v>
@@ -2829,7 +2862,7 @@
         <v>1.787453548200057</v>
       </c>
       <c r="I62" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2840,10 +2873,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E63">
         <v>10000</v>
@@ -2858,7 +2891,7 @@
         <v>2.0358</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2869,10 +2902,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E64">
         <v>103850</v>
@@ -2887,7 +2920,7 @@
         <v>0.001463649494463168</v>
       </c>
       <c r="I64" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2901,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E65">
         <v>10000</v>
@@ -2916,7 +2949,7 @@
         <v>2.9507</v>
       </c>
       <c r="I65" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2927,10 +2960,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E66">
         <v>35000</v>
@@ -2945,7 +2978,7 @@
         <v>2.043942857142857</v>
       </c>
       <c r="I66" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2959,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E67">
         <v>44030</v>
@@ -2974,7 +3007,7 @@
         <v>9.96822620940268</v>
       </c>
       <c r="I67" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2988,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E68">
         <v>10000</v>
@@ -3003,7 +3036,7 @@
         <v>1.5525</v>
       </c>
       <c r="I68" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3014,10 +3047,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D69" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E69">
         <v>163510</v>
@@ -3032,7 +3065,7 @@
         <v>4.844547734083542</v>
       </c>
       <c r="I69" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3046,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E70">
         <v>128170</v>
@@ -3061,7 +3094,7 @@
         <v>4.092400717796676</v>
       </c>
       <c r="I70" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3075,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E71">
         <v>16509.8</v>
@@ -3090,7 +3123,7 @@
         <v>0.05245369416952356</v>
       </c>
       <c r="I71" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3101,10 +3134,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E72">
         <v>112790</v>
@@ -3119,7 +3152,7 @@
         <v>0.9017732068445784</v>
       </c>
       <c r="I72" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3133,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E73">
         <v>10510</v>
@@ -3148,7 +3181,7 @@
         <v>0.5878211227402473</v>
       </c>
       <c r="I73" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3159,10 +3192,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E74">
         <v>344600</v>
@@ -3177,7 +3210,7 @@
         <v>3.683322692977365</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3191,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E75">
         <v>61380</v>
@@ -3206,7 +3239,7 @@
         <v>0.3367220593027045</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3220,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E76">
         <v>18729.8</v>
@@ -3235,7 +3268,7 @@
         <v>2.170444959369561</v>
       </c>
       <c r="I76" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3246,10 +3279,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E77">
         <v>14190</v>
@@ -3264,7 +3297,7 @@
         <v>1.51338971106413</v>
       </c>
       <c r="I77" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3278,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E78">
         <v>53800</v>
@@ -3293,7 +3326,7 @@
         <v>93.22488847583644</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3307,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E79">
         <v>29259.8</v>
@@ -3322,7 +3355,7 @@
         <v>0.1452163035974272</v>
       </c>
       <c r="I79" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3336,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E80">
         <v>10000</v>
@@ -3351,7 +3384,7 @@
         <v>0.0462</v>
       </c>
       <c r="I80" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3362,10 +3395,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E81">
         <v>10000</v>
@@ -3380,7 +3413,7 @@
         <v>0.351</v>
       </c>
       <c r="I81" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3391,10 +3424,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E82">
         <v>10000</v>
@@ -3409,7 +3442,7 @@
         <v>0.3076</v>
       </c>
       <c r="I82" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3420,10 +3453,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E83">
         <v>200480</v>
@@ -3438,7 +3471,7 @@
         <v>0.02923483639265762</v>
       </c>
       <c r="I83" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3452,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E84">
         <v>10000</v>
@@ -3467,7 +3500,7 @@
         <v>0.0221</v>
       </c>
       <c r="I84" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3481,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E85">
         <v>14820</v>
@@ -3496,7 +3529,7 @@
         <v>4.30114709851552</v>
       </c>
       <c r="I85" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3510,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E86">
         <v>200000</v>
@@ -3525,7 +3558,7 @@
         <v>5E-06</v>
       </c>
       <c r="I86" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3539,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E87">
         <v>27540</v>
@@ -3554,7 +3587,7 @@
         <v>1.336710239651416</v>
       </c>
       <c r="I87" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3568,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E88">
         <v>10000</v>
@@ -3583,7 +3616,7 @@
         <v>0.0513</v>
       </c>
       <c r="I88" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3597,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E89">
         <v>10000</v>
@@ -3612,7 +3645,7 @@
         <v>8.011799999999999</v>
       </c>
       <c r="I89" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3626,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E90">
         <v>100000</v>
@@ -3641,7 +3674,7 @@
         <v>29.40201</v>
       </c>
       <c r="I90" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3652,10 +3685,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E91">
         <v>10000</v>
@@ -3670,7 +3703,7 @@
         <v>0.2339</v>
       </c>
       <c r="I91" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3681,10 +3714,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E92">
         <v>15290</v>
@@ -3699,7 +3732,7 @@
         <v>0.2665140614780903</v>
       </c>
       <c r="I92" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3713,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E93">
         <v>213000</v>
@@ -3728,7 +3761,7 @@
         <v>0.004755868544600939</v>
       </c>
       <c r="I93" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3742,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E94">
         <v>21690</v>
@@ -3757,7 +3790,7 @@
         <v>3.142738589211618</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3771,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E95">
         <v>10000</v>
@@ -3786,7 +3819,7 @@
         <v>0.1288</v>
       </c>
       <c r="I95" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3800,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E96">
         <v>10000</v>
@@ -3815,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3826,10 +3859,10 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E97">
         <v>52460</v>
@@ -3844,7 +3877,7 @@
         <v>1.132253145253526</v>
       </c>
       <c r="I97" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3858,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E98">
         <v>10000</v>
@@ -3873,7 +3906,7 @@
         <v>0.7418</v>
       </c>
       <c r="I98" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3887,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E99">
         <v>11100</v>
@@ -3902,7 +3935,7 @@
         <v>3.495405405405406</v>
       </c>
       <c r="I99" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3913,10 +3946,10 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E100">
         <v>338950</v>
@@ -3931,7 +3964,7 @@
         <v>1.315872547573388</v>
       </c>
       <c r="I100" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3945,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="D101" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E101">
         <v>459900</v>
@@ -3960,7 +3993,7 @@
         <v>6.95803435529463E-05</v>
       </c>
       <c r="I101" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3974,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E102">
         <v>10000</v>
@@ -3989,7 +4022,7 @@
         <v>7.0556</v>
       </c>
       <c r="I102" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4000,10 +4033,10 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E103">
         <v>162167.4</v>
@@ -4018,7 +4051,7 @@
         <v>1.794380374847226</v>
       </c>
       <c r="I103" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4032,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E104">
         <v>10000</v>
@@ -4047,7 +4080,7 @@
         <v>2.4133</v>
       </c>
       <c r="I104" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4061,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E105">
         <v>10000</v>
@@ -4076,7 +4109,7 @@
         <v>0.7991</v>
       </c>
       <c r="I105" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4090,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E106">
         <v>20800</v>
@@ -4105,7 +4138,7 @@
         <v>2.624759615384615</v>
       </c>
       <c r="I106" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4119,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E107">
         <v>10000</v>
@@ -4134,7 +4167,7 @@
         <v>0.0023</v>
       </c>
       <c r="I107" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4148,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E108">
         <v>10000</v>
@@ -4163,7 +4196,7 @@
         <v>602.5929</v>
       </c>
       <c r="I108" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4177,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E109">
         <v>10000</v>
@@ -4192,7 +4225,7 @@
         <v>1.7416</v>
       </c>
       <c r="I109" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4206,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E110">
         <v>12300</v>
@@ -4221,7 +4254,7 @@
         <v>4.871788617886179</v>
       </c>
       <c r="I110" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4235,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E111">
         <v>10000</v>
@@ -4250,7 +4283,7 @@
         <v>0.97</v>
       </c>
       <c r="I111" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4261,10 +4294,10 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D112" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E112">
         <v>125180</v>
@@ -4279,7 +4312,7 @@
         <v>5.338185013580445</v>
       </c>
       <c r="I112" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4293,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E113">
         <v>10000</v>
@@ -4308,7 +4341,7 @@
         <v>0.0141</v>
       </c>
       <c r="I113" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4319,10 +4352,10 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E114">
         <v>44860</v>
@@ -4337,7 +4370,7 @@
         <v>3.007913508693714</v>
       </c>
       <c r="I114" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4351,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E115">
         <v>10000</v>
@@ -4366,7 +4399,7 @@
         <v>1.16</v>
       </c>
       <c r="I115" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4380,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E116">
         <v>10000</v>
@@ -4395,7 +4428,7 @@
         <v>0.0014</v>
       </c>
       <c r="I116" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4409,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E117">
         <v>10000</v>
@@ -4424,7 +4457,7 @@
         <v>50.0214</v>
       </c>
       <c r="I117" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4435,10 +4468,10 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D118" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E118">
         <v>248200</v>
@@ -4453,7 +4486,7 @@
         <v>0.7222199838839646</v>
       </c>
       <c r="I118" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4467,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="D119" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E119">
         <v>27420</v>
@@ -4482,7 +4515,7 @@
         <v>22.47184536834427</v>
       </c>
       <c r="I119" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4493,10 +4526,10 @@
         <v>127</v>
       </c>
       <c r="C120" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D120" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E120">
         <v>10000</v>
@@ -4511,7 +4544,7 @@
         <v>0.008200000000000001</v>
       </c>
       <c r="I120" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4525,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E121">
         <v>59300</v>
@@ -4540,7 +4573,7 @@
         <v>1.686340640809443E-05</v>
       </c>
       <c r="I121" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4554,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E122">
         <v>132820</v>
@@ -4569,7 +4602,7 @@
         <v>7.1410405059479</v>
       </c>
       <c r="I122" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4580,10 +4613,10 @@
         <v>130</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D123" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E123">
         <v>12030</v>
@@ -4598,7 +4631,7 @@
         <v>11.74862842892768</v>
       </c>
       <c r="I123" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4609,10 +4642,10 @@
         <v>131</v>
       </c>
       <c r="C124" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D124" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E124">
         <v>63470</v>
@@ -4627,7 +4660,7 @@
         <v>0.5032613833307075</v>
       </c>
       <c r="I124" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4641,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E125">
         <v>13400</v>
@@ -4656,7 +4689,7 @@
         <v>9.455223880597014</v>
       </c>
       <c r="I125" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4670,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E126">
         <v>10530.8</v>
@@ -4685,7 +4718,7 @@
         <v>0.6821893873210013</v>
       </c>
       <c r="I126" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4699,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E127">
         <v>18780</v>
@@ -4714,7 +4747,7 @@
         <v>3.328487752928647</v>
       </c>
       <c r="I127" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4728,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E128">
         <v>10000</v>
@@ -4743,7 +4776,7 @@
         <v>1.0441</v>
       </c>
       <c r="I128" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4757,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="D129" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E129">
         <v>33220</v>
@@ -4772,7 +4805,7 @@
         <v>0.08795906080674293</v>
       </c>
       <c r="I129" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4783,10 +4816,10 @@
         <v>137</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D130" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E130">
         <v>185610</v>
@@ -4801,7 +4834,7 @@
         <v>0.5820591562954582</v>
       </c>
       <c r="I130" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4815,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E131">
         <v>10000</v>
@@ -4830,7 +4863,7 @@
         <v>0.0014</v>
       </c>
       <c r="I131" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4841,10 +4874,10 @@
         <v>139</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D132" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="E132">
         <v>195570</v>
@@ -4859,7 +4892,7 @@
         <v>1.390054711867873</v>
       </c>
       <c r="I132" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4873,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E133">
         <v>10000</v>
@@ -4888,7 +4921,7 @@
         <v>90.0184</v>
       </c>
       <c r="I133" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4902,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E134">
         <v>10000</v>
@@ -4917,7 +4950,7 @@
         <v>0.6534</v>
       </c>
       <c r="I134" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4931,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="D135" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E135">
         <v>47150</v>
@@ -4946,7 +4979,7 @@
         <v>4.49898197242842</v>
       </c>
       <c r="I135" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4957,10 +4990,10 @@
         <v>143</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D136" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E136">
         <v>106120</v>
@@ -4975,7 +5008,7 @@
         <v>0.1937617791179796</v>
       </c>
       <c r="I136" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4989,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E137">
         <v>190480</v>
@@ -5004,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5015,10 +5048,10 @@
         <v>145</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D138" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E138">
         <v>25600</v>
@@ -5033,7 +5066,7 @@
         <v>2.587578125</v>
       </c>
       <c r="I138" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5044,10 +5077,10 @@
         <v>146</v>
       </c>
       <c r="C139" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D139" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E139">
         <v>51680</v>
@@ -5062,7 +5095,7 @@
         <v>4.597832817337461</v>
       </c>
       <c r="I139" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5073,10 +5106,10 @@
         <v>147</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D140" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E140">
         <v>21790</v>
@@ -5091,7 +5124,7 @@
         <v>0.04525011473152822</v>
       </c>
       <c r="I140" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5105,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E141">
         <v>16000</v>
@@ -5120,7 +5153,7 @@
         <v>0.0328125</v>
       </c>
       <c r="I141" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5131,10 +5164,10 @@
         <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D142" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E142">
         <v>61030</v>
@@ -5149,7 +5182,7 @@
         <v>3.153793216450926</v>
       </c>
       <c r="I142" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5160,10 +5193,10 @@
         <v>150</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D143" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E143">
         <v>19560</v>
@@ -5178,7 +5211,7 @@
         <v>0.11140081799591</v>
       </c>
       <c r="I143" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5189,10 +5222,10 @@
         <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E144">
         <v>175320</v>
@@ -5207,7 +5240,7 @@
         <v>0.1346167008898015</v>
       </c>
       <c r="I144" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5221,7 +5254,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E145">
         <v>10000</v>
@@ -5236,7 +5269,7 @@
         <v>0.2279</v>
       </c>
       <c r="I145" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5250,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E146">
         <v>10000</v>
@@ -5265,7 +5298,7 @@
         <v>3.5332</v>
       </c>
       <c r="I146" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5279,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="D147" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E147">
         <v>19400</v>
@@ -5294,7 +5327,7 @@
         <v>0.01154639175257732</v>
       </c>
       <c r="I147" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5305,10 +5338,10 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D148" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E148">
         <v>45670</v>
@@ -5323,7 +5356,7 @@
         <v>2.959535800306547</v>
       </c>
       <c r="I148" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5337,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="D149" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="E149">
         <v>10000</v>
@@ -5352,7 +5385,7 @@
         <v>0.2818</v>
       </c>
       <c r="I149" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5366,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E150">
         <v>10000</v>
@@ -5381,7 +5414,7 @@
         <v>0.6792</v>
       </c>
       <c r="I150" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5395,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E151">
         <v>10000</v>
@@ -5410,7 +5443,7 @@
         <v>2.3538</v>
       </c>
       <c r="I151" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5424,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="D152" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E152">
         <v>98640</v>
@@ -5439,7 +5472,7 @@
         <v>0.02671330089213301</v>
       </c>
       <c r="I152" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5450,10 +5483,10 @@
         <v>160</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D153" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E153">
         <v>141480</v>
@@ -5468,7 +5501,7 @@
         <v>0.0213457732541702</v>
       </c>
       <c r="I153" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5482,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E154">
         <v>30430</v>
@@ -5497,7 +5530,7 @@
         <v>2.824088070982583</v>
       </c>
       <c r="I154" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5511,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="D155" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E155">
         <v>10000</v>
@@ -5526,7 +5559,7 @@
         <v>0.1106</v>
       </c>
       <c r="I155" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5537,10 +5570,10 @@
         <v>163</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D156" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E156">
         <v>166120</v>
@@ -5555,7 +5588,7 @@
         <v>1.737834095834337</v>
       </c>
       <c r="I156" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5569,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="D157" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E157">
         <v>21629.8</v>
@@ -5584,7 +5617,7 @@
         <v>1.106621420447716</v>
       </c>
       <c r="I157" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5598,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="D158" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E158">
         <v>146000</v>
@@ -5613,7 +5646,7 @@
         <v>54.12156164383562</v>
       </c>
       <c r="I158" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5624,10 +5657,10 @@
         <v>166</v>
       </c>
       <c r="C159" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D159" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="E159">
         <v>202089.8</v>
@@ -5642,7 +5675,7 @@
         <v>0.02326193603041816</v>
       </c>
       <c r="I159" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5656,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E160">
         <v>10000</v>
@@ -5671,7 +5704,7 @@
         <v>6.3814</v>
       </c>
       <c r="I160" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5685,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="D161" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E161">
         <v>42780</v>
@@ -5700,7 +5733,7 @@
         <v>0.01009817671809257</v>
       </c>
       <c r="I161" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5711,10 +5744,10 @@
         <v>169</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D162" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E162">
         <v>86810</v>
@@ -5729,7 +5762,7 @@
         <v>3.868701762469762</v>
       </c>
       <c r="I162" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5743,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="D163" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E163">
         <v>10000</v>
@@ -5758,7 +5791,7 @@
         <v>1.4511</v>
       </c>
       <c r="I163" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5769,10 +5802,10 @@
         <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="D164" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E164">
         <v>13500</v>
@@ -5787,7 +5820,7 @@
         <v>2.217851851851852</v>
       </c>
       <c r="I164" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5801,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="E165">
         <v>100100</v>
@@ -5816,7 +5849,7 @@
         <v>0.04077922077922078</v>
       </c>
       <c r="I165" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5830,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="D166" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E166">
         <v>10000</v>
@@ -5845,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5859,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="D167" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E167">
         <v>10000</v>
@@ -5874,7 +5907,7 @@
         <v>0.054</v>
       </c>
       <c r="I167" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5885,10 +5918,10 @@
         <v>175</v>
       </c>
       <c r="C168" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E168">
         <v>87740</v>
@@ -5903,7 +5936,7 @@
         <v>0.4975723729199909</v>
       </c>
       <c r="I168" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5914,10 +5947,10 @@
         <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="D169" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E169">
         <v>235410</v>
@@ -5932,7 +5965,7 @@
         <v>0.4464593687608853</v>
       </c>
       <c r="I169" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5946,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="D170" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E170">
         <v>13240</v>
@@ -5961,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5975,7 +6008,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E171">
         <v>48140</v>
@@ -5990,7 +6023,7 @@
         <v>0.0167843788948899</v>
       </c>
       <c r="I171" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6001,10 +6034,10 @@
         <v>179</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="D172" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E172">
         <v>89460</v>
@@ -6019,7 +6052,7 @@
         <v>0.9481220657276995</v>
       </c>
       <c r="I172" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6033,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E173">
         <v>37379.8</v>
@@ -6048,7 +6081,7 @@
         <v>4.978651571169455</v>
       </c>
       <c r="I173" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6062,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E174">
         <v>10000</v>
@@ -6077,7 +6110,7 @@
         <v>0.008699999999999999</v>
       </c>
       <c r="I174" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6091,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E175">
         <v>10000</v>
@@ -6106,7 +6139,7 @@
         <v>4.5444</v>
       </c>
       <c r="I175" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6120,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E176">
         <v>10090</v>
@@ -6135,7 +6168,7 @@
         <v>1.404955401387512</v>
       </c>
       <c r="I176" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6146,10 +6179,10 @@
         <v>184</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D177" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E177">
         <v>73720</v>
@@ -6164,7 +6197,326 @@
         <v>4.313076505697233</v>
       </c>
       <c r="I177" t="s">
-        <v>204</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>237679041654</v>
+      </c>
+      <c r="B178" t="s">
+        <v>185</v>
+      </c>
+      <c r="C178" t="s">
+        <v>200</v>
+      </c>
+      <c r="D178" t="s">
+        <v>216</v>
+      </c>
+      <c r="E178">
+        <v>10285</v>
+      </c>
+      <c r="F178">
+        <v>6876</v>
+      </c>
+      <c r="G178">
+        <v>-3409</v>
+      </c>
+      <c r="H178">
+        <v>0.6685464268351969</v>
+      </c>
+      <c r="I178" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>237673671238</v>
+      </c>
+      <c r="B179" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>208</v>
+      </c>
+      <c r="E179">
+        <v>21090</v>
+      </c>
+      <c r="F179">
+        <v>4750</v>
+      </c>
+      <c r="G179">
+        <v>-16340</v>
+      </c>
+      <c r="H179">
+        <v>0.2252252252252252</v>
+      </c>
+      <c r="I179" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>237652275301</v>
+      </c>
+      <c r="B180" t="s">
+        <v>187</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>221</v>
+      </c>
+      <c r="E180">
+        <v>10000</v>
+      </c>
+      <c r="F180">
+        <v>7688</v>
+      </c>
+      <c r="G180">
+        <v>-2312</v>
+      </c>
+      <c r="H180">
+        <v>0.7688</v>
+      </c>
+      <c r="I180" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>237681662701</v>
+      </c>
+      <c r="B181" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>229</v>
+      </c>
+      <c r="E181">
+        <v>15300</v>
+      </c>
+      <c r="F181">
+        <v>17160</v>
+      </c>
+      <c r="G181">
+        <v>1860</v>
+      </c>
+      <c r="H181">
+        <v>1.12156862745098</v>
+      </c>
+      <c r="I181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>237654349065</v>
+      </c>
+      <c r="B182" t="s">
+        <v>189</v>
+      </c>
+      <c r="C182" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" t="s">
+        <v>208</v>
+      </c>
+      <c r="E182">
+        <v>100420</v>
+      </c>
+      <c r="F182">
+        <v>360662</v>
+      </c>
+      <c r="G182">
+        <v>260242</v>
+      </c>
+      <c r="H182">
+        <v>3.591535550687114</v>
+      </c>
+      <c r="I182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>237675637054</v>
+      </c>
+      <c r="B183" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>199</v>
+      </c>
+      <c r="D183" t="s">
+        <v>215</v>
+      </c>
+      <c r="E183">
+        <v>10000</v>
+      </c>
+      <c r="F183">
+        <v>6316</v>
+      </c>
+      <c r="G183">
+        <v>-3684</v>
+      </c>
+      <c r="H183">
+        <v>0.6316000000000001</v>
+      </c>
+      <c r="I183" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>237671262234</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="C184" t="s">
+        <v>202</v>
+      </c>
+      <c r="D184" t="s">
+        <v>220</v>
+      </c>
+      <c r="E184">
+        <v>14940</v>
+      </c>
+      <c r="F184">
+        <v>70</v>
+      </c>
+      <c r="G184">
+        <v>-14870</v>
+      </c>
+      <c r="H184">
+        <v>0.004685408299866131</v>
+      </c>
+      <c r="I184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>237674890488</v>
+      </c>
+      <c r="B185" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185">
+        <v>137280</v>
+      </c>
+      <c r="F185">
+        <v>253822</v>
+      </c>
+      <c r="G185">
+        <v>116542</v>
+      </c>
+      <c r="H185">
+        <v>1.84893648018648</v>
+      </c>
+      <c r="I185" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>237654079053</v>
+      </c>
+      <c r="B186" t="s">
+        <v>193</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>208</v>
+      </c>
+      <c r="E186">
+        <v>13100</v>
+      </c>
+      <c r="F186">
+        <v>216137</v>
+      </c>
+      <c r="G186">
+        <v>203037</v>
+      </c>
+      <c r="H186">
+        <v>16.49900763358779</v>
+      </c>
+      <c r="I186" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>237652643069</v>
+      </c>
+      <c r="B187" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>223</v>
+      </c>
+      <c r="E187">
+        <v>10000</v>
+      </c>
+      <c r="F187">
+        <v>6503</v>
+      </c>
+      <c r="G187">
+        <v>-3497</v>
+      </c>
+      <c r="H187">
+        <v>0.6503</v>
+      </c>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>237673041651</v>
+      </c>
+      <c r="B188" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" t="s">
+        <v>196</v>
+      </c>
+      <c r="D188" t="s">
+        <v>208</v>
+      </c>
+      <c r="E188">
+        <v>39400</v>
+      </c>
+      <c r="F188">
+        <v>817810</v>
+      </c>
+      <c r="G188">
+        <v>778410</v>
+      </c>
+      <c r="H188">
+        <v>20.75659898477157</v>
+      </c>
+      <c r="I188" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/reconciliation.xlsx
+++ b/reconciliation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="309">
   <si>
     <t>Numero</t>
   </si>
@@ -602,6 +602,243 @@
   </si>
   <si>
     <t>DYLAN KEPSEU SIME</t>
+  </si>
+  <si>
+    <t>AUGUSTINE NGO BAYOI</t>
+  </si>
+  <si>
+    <t>YOUNGESTGEXCHANGE LTD 2</t>
+  </si>
+  <si>
+    <t>SALES BIADI</t>
+  </si>
+  <si>
+    <t>BIANCA YONGYEH WIRMVEM</t>
+  </si>
+  <si>
+    <t>LOVELINE BENUE</t>
+  </si>
+  <si>
+    <t>NGASSA EPSE TAYO MAJOLIE FLORE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 NDOUNG GUY PATRICK</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL ESSOMBA ESSOMBA ANATOLE</t>
+  </si>
+  <si>
+    <t>MFS SIM PROVISOIRE 42</t>
+  </si>
+  <si>
+    <t>SOCIETE SYSTEME DES TECHNOLOGIES AVANCEES SARL</t>
+  </si>
+  <si>
+    <t>YEMELI FOPA UBREL SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>MEZADIE MEDONGUEU TENANDJIO EPSE NGUEDIA DIANE FLORE CHIC MOBILE SARL</t>
+  </si>
+  <si>
+    <t>SIMON PIERRE SAMINGUE MABVAA</t>
+  </si>
+  <si>
+    <t>ZACK DANIEL HOUNDJA NOUNDOU</t>
+  </si>
+  <si>
+    <t>LYSETTE LEONELLE  S NGUENA</t>
+  </si>
+  <si>
+    <t>CHAKOUNTE JUNIE CARELLE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MALAMA SIMON ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NJANPO FONE EPS YIMCHE EULALIE ETS REINE PHONE</t>
+  </si>
+  <si>
+    <t>maga josephine therese ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL TCHATCHOUANG BRICE DUPLEX</t>
+  </si>
+  <si>
+    <t>SPECTRUM LTDLA_CBOX_R9_TCHITGNIA CLARISSE</t>
+  </si>
+  <si>
+    <t>NONGMEGNI EPSE JONGO DOROTHEE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>ENONGENE MBULLE TRINEY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>TOP MOBIL TELECOM DIALLO MAMADOU CHERIF</t>
+  </si>
+  <si>
+    <t>AROLD TAFAM TCHINDA</t>
+  </si>
+  <si>
+    <t>CLINTON CHO</t>
+  </si>
+  <si>
+    <t>THERESE GERALDINE BALOUEK</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS SIMO NUEME</t>
+  </si>
+  <si>
+    <t>FOUEJIO GOUFAK EPOUSE KENNE ABIGAIL SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>SOCIETE 2CKA SARL</t>
+  </si>
+  <si>
+    <t>JEAN MARIUS NGOUEM</t>
+  </si>
+  <si>
+    <t>MFS AGENCE NDOGBONG 2</t>
+  </si>
+  <si>
+    <t>TEGUEM KENMEUGNE LACAINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MARIA NGO KAMEN</t>
+  </si>
+  <si>
+    <t>MAPI TAKIAN LIVINE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MENIAPI HELENE EDOSSINE TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE PK8 LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>BLANCHE HELENE SIEWEN TCHUITCHEU EPSE TCHIEUMENI</t>
+  </si>
+  <si>
+    <t>AUGUSTIN FOGANG NEGOU</t>
+  </si>
+  <si>
+    <t>GLORY SHIMINYI</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 NGNIPAHO MARIE CHANTAL</t>
+  </si>
+  <si>
+    <t>MALON DILLAH TINODJIEL</t>
+  </si>
+  <si>
+    <t>MARIE MICHELLE KOUNDEM</t>
+  </si>
+  <si>
+    <t>YVELINE DJIATSA EPSE NANFAH</t>
+  </si>
+  <si>
+    <t>TEM MABEL NNAM SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>MFS  AM FACE HÔPITAL GÉNÉRAL</t>
+  </si>
+  <si>
+    <t>FOTOU TAFADJI FRANCOIS ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>MATHURIN TCHUMTCHOUA</t>
+  </si>
+  <si>
+    <t>MFS KENFACK HOSTANTINE</t>
+  </si>
+  <si>
+    <t>DIVINE VENYURES FOMONYUY LTD</t>
+  </si>
+  <si>
+    <t>ROSE CARINE MISSOUA EPSE DOUMBE</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL YOUMOUNPAYI FADILETOU</t>
+  </si>
+  <si>
+    <t>Tchotchedjo Talla Mathieu Clovis LA NEGRESSE SARL</t>
+  </si>
+  <si>
+    <t>SUZANNE NGO MANDENG</t>
+  </si>
+  <si>
+    <t>APPOLINE CLAUDE ANGOTCHOU</t>
+  </si>
+  <si>
+    <t>BIYOKONG NGOLLONG ALEXANDRE STYLE. COM</t>
+  </si>
+  <si>
+    <t>ETS MOBILE FINANCIAL SERVICES MFS LTDLA CBOX R1 DJUIDJE JUDITH</t>
+  </si>
+  <si>
+    <t>SINTIA MARQUISE TCHIEGOM TCHIAPI</t>
+  </si>
+  <si>
+    <t>SEARCH NCHUMENU TOP MOBIL TELECOM</t>
+  </si>
+  <si>
+    <t>EDITH FLORE TCHOUGUEU SEUGA EPSE KAMTCHOUM</t>
+  </si>
+  <si>
+    <t>EMMACULATE EZINWANNE AGWUNEDU SPECTRUM SPECTRUM</t>
+  </si>
+  <si>
+    <t>NEGRESSE DAKAR 1</t>
+  </si>
+  <si>
+    <t>elodie tchinda douanla</t>
+  </si>
+  <si>
+    <t>LESLINE SELATSA GOUEMETA</t>
+  </si>
+  <si>
+    <t>MARIE MADELEINE YANKOUA</t>
+  </si>
+  <si>
+    <t>ENOW BRIAN ESSIME ALBARKA GN SARL</t>
+  </si>
+  <si>
+    <t>MFS LTDLA-BRAND-NDAH NDEKOU IDE</t>
+  </si>
+  <si>
+    <t>KWAMEGNE LANGO ANNE MARIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>SORELLE DOUANLA KENNE</t>
+  </si>
+  <si>
+    <t>TCHOUMI PELAGIE ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL LTDLA CBOX R1 NOUMBISSI MARINA CAROLE</t>
+  </si>
+  <si>
+    <t>MFS TONNANG DONFACK SYLVIE MIMIE</t>
+  </si>
+  <si>
+    <t>YATTARA BOUCARY ETS MOBILE FINANCIAL SERVICES MFS</t>
+  </si>
+  <si>
+    <t>NOUMEDEM NGUELEFACK CARINE ETS LE CONTENT</t>
+  </si>
+  <si>
+    <t>LA NEGRESSE SARL DIALLO MAMADOU LAMARANA</t>
+  </si>
+  <si>
+    <t>VICTORINE KAGMENI</t>
+  </si>
+  <si>
+    <t>CAROLINE TSOPOU KOUCHE</t>
+  </si>
+  <si>
+    <t>KAMILAH CONNECTION COMPANY 2616</t>
+  </si>
+  <si>
+    <t>GIRESSE THIBAUT MASSONG</t>
   </si>
   <si>
     <t>Rte_1</t>
@@ -1061,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,10 +1341,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="E2">
         <v>363470.8</v>
@@ -1122,7 +1359,7 @@
         <v>0.08279894836118885</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1136,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E3">
         <v>26860</v>
@@ -1151,7 +1388,7 @@
         <v>1.362434847356664</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1165,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E4">
         <v>70200</v>
@@ -1180,7 +1417,7 @@
         <v>14.85115384615385</v>
       </c>
       <c r="I4" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1191,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E5">
         <v>12360</v>
@@ -1209,7 +1446,7 @@
         <v>1.049595469255663</v>
       </c>
       <c r="I5" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1223,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E6">
         <v>10000</v>
@@ -1238,7 +1475,7 @@
         <v>0.0878</v>
       </c>
       <c r="I6" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1252,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="E7">
         <v>10000</v>
@@ -1267,7 +1504,7 @@
         <v>0.0023</v>
       </c>
       <c r="I7" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1278,10 +1515,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E8">
         <v>10000</v>
@@ -1296,7 +1533,7 @@
         <v>21.5254</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1310,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E9">
         <v>15820</v>
@@ -1325,7 +1562,7 @@
         <v>12.01156763590392</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1339,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="E10">
         <v>10000</v>
@@ -1354,7 +1591,7 @@
         <v>0.6498</v>
       </c>
       <c r="I10" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1368,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="E11">
         <v>10000</v>
@@ -1383,7 +1620,7 @@
         <v>9.884399999999999</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1394,10 +1631,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E12">
         <v>159420</v>
@@ -1412,7 +1649,7 @@
         <v>0.54294316898758</v>
       </c>
       <c r="I12" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1426,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E13">
         <v>10000</v>
@@ -1441,7 +1678,7 @@
         <v>0.0012</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1455,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E14">
         <v>10000</v>
@@ -1470,7 +1707,7 @@
         <v>0.9594</v>
       </c>
       <c r="I14" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1484,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="E15">
         <v>10000</v>
@@ -1499,7 +1736,7 @@
         <v>0.0262</v>
       </c>
       <c r="I15" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1510,10 +1747,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E16">
         <v>108940</v>
@@ -1528,7 +1765,7 @@
         <v>4.747273728657976</v>
       </c>
       <c r="I16" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1539,10 +1776,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E17">
         <v>103480</v>
@@ -1557,7 +1794,7 @@
         <v>0.9361035948975648</v>
       </c>
       <c r="I17" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1571,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="E18">
         <v>13200</v>
@@ -1586,7 +1823,7 @@
         <v>8.294848484848485</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1600,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="E19">
         <v>10000</v>
@@ -1615,7 +1852,7 @@
         <v>0.0231</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1629,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="E20">
         <v>10000</v>
@@ -1644,7 +1881,7 @@
         <v>4.4076</v>
       </c>
       <c r="I20" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1655,10 +1892,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="E21">
         <v>63060</v>
@@ -1673,7 +1910,7 @@
         <v>0.3330161750713606</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1687,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>296</v>
       </c>
       <c r="E22">
         <v>22350.8</v>
@@ -1702,7 +1939,7 @@
         <v>4.230542083504841</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1713,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="E23">
         <v>11220</v>
@@ -1731,7 +1968,7 @@
         <v>0.4763814616755793</v>
       </c>
       <c r="I23" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1745,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="E24">
         <v>11400</v>
@@ -1760,7 +1997,7 @@
         <v>0.7770175438596492</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1771,10 +2008,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="E25">
         <v>161079.6</v>
@@ -1789,7 +2026,7 @@
         <v>1.639636552362931</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1803,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="E26">
         <v>10000</v>
@@ -1818,7 +2055,7 @@
         <v>5.5699</v>
       </c>
       <c r="I26" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1832,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="E27">
         <v>173785</v>
@@ -1847,7 +2084,7 @@
         <v>0.3236470351296142</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1861,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="E28">
         <v>10000</v>
@@ -1876,7 +2113,7 @@
         <v>0.4751</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1890,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E29">
         <v>11270</v>
@@ -1905,7 +2142,7 @@
         <v>0.1661934338952973</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1919,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E30">
         <v>117000</v>
@@ -1934,7 +2171,7 @@
         <v>2.848017094017094</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1948,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="E31">
         <v>91000</v>
@@ -1963,7 +2200,7 @@
         <v>70.16625274725274</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1977,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E32">
         <v>10000</v>
@@ -1992,7 +2229,7 @@
         <v>1.3377</v>
       </c>
       <c r="I32" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2006,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="E33">
         <v>41120</v>
@@ -2021,7 +2258,7 @@
         <v>0.1636429961089494</v>
       </c>
       <c r="I33" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2032,10 +2269,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="E34">
         <v>10000</v>
@@ -2050,7 +2287,7 @@
         <v>0.0864</v>
       </c>
       <c r="I34" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2061,10 +2298,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="E35">
         <v>31560</v>
@@ -2079,7 +2316,7 @@
         <v>14.96682509505703</v>
       </c>
       <c r="I35" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2093,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="E36">
         <v>10000</v>
@@ -2108,7 +2345,7 @@
         <v>0.0023</v>
       </c>
       <c r="I36" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2122,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="E37">
         <v>10800</v>
@@ -2137,7 +2374,7 @@
         <v>2.257962962962963</v>
       </c>
       <c r="I37" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2151,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="E38">
         <v>20000</v>
@@ -2166,7 +2403,7 @@
         <v>2.23</v>
       </c>
       <c r="I38" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2180,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="E39">
         <v>10000</v>
@@ -2195,7 +2432,7 @@
         <v>0.2042</v>
       </c>
       <c r="I39" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2209,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="E40">
         <v>36040</v>
@@ -2224,7 +2461,7 @@
         <v>3.042702552719201</v>
       </c>
       <c r="I40" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2238,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="E41">
         <v>10000</v>
@@ -2253,7 +2490,7 @@
         <v>0.2977</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2264,10 +2501,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="E42">
         <v>116869.8</v>
@@ -2282,7 +2519,7 @@
         <v>7.218177835505836</v>
       </c>
       <c r="I42" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2293,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="E43">
         <v>240300</v>
@@ -2311,7 +2548,7 @@
         <v>0.85923012900541</v>
       </c>
       <c r="I43" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2322,10 +2559,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="E44">
         <v>10000</v>
@@ -2340,7 +2577,7 @@
         <v>1.3531</v>
       </c>
       <c r="I44" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2351,10 +2588,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="E45">
         <v>28830</v>
@@ -2369,7 +2606,7 @@
         <v>2.76576482830385</v>
       </c>
       <c r="I45" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2383,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="E46">
         <v>10000</v>
@@ -2398,7 +2635,7 @@
         <v>1.1434</v>
       </c>
       <c r="I46" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2412,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E47">
         <v>10000</v>
@@ -2427,7 +2664,7 @@
         <v>0.0501</v>
       </c>
       <c r="I47" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2441,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E48">
         <v>10000</v>
@@ -2456,7 +2693,7 @@
         <v>0.038</v>
       </c>
       <c r="I48" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2467,10 +2704,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="E49">
         <v>450080</v>
@@ -2485,7 +2722,7 @@
         <v>0.09634287237824386</v>
       </c>
       <c r="I49" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2499,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="E50">
         <v>162880</v>
@@ -2514,7 +2751,7 @@
         <v>4.348845776031435</v>
       </c>
       <c r="I50" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2528,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E51">
         <v>10000</v>
@@ -2543,7 +2780,7 @@
         <v>0.3593</v>
       </c>
       <c r="I51" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2554,10 +2791,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E52">
         <v>92040</v>
@@ -2572,7 +2809,7 @@
         <v>20.42019774011299</v>
       </c>
       <c r="I52" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2586,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="E53">
         <v>10000</v>
@@ -2601,7 +2838,7 @@
         <v>0.3784</v>
       </c>
       <c r="I53" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2615,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E54">
         <v>10000</v>
@@ -2630,7 +2867,7 @@
         <v>7.0172</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2644,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="E55">
         <v>10000</v>
@@ -2659,7 +2896,7 @@
         <v>0.0148</v>
       </c>
       <c r="I55" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2670,10 +2907,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>278</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E56">
         <v>500000</v>
@@ -2688,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2702,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>288</v>
       </c>
       <c r="E57">
         <v>20710</v>
@@ -2717,7 +2954,7 @@
         <v>4.707098020280058</v>
       </c>
       <c r="I57" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2731,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="E58">
         <v>10000</v>
@@ -2746,7 +2983,7 @@
         <v>0.7927</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2757,10 +2994,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="E59">
         <v>78390</v>
@@ -2775,7 +3012,7 @@
         <v>0.7878811072840923</v>
       </c>
       <c r="I59" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2789,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E60">
         <v>10000</v>
@@ -2804,7 +3041,7 @@
         <v>0.025</v>
       </c>
       <c r="I60" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2818,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="E61">
         <v>10000</v>
@@ -2833,7 +3070,7 @@
         <v>1.2292</v>
       </c>
       <c r="I61" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2844,10 +3081,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E62">
         <v>204889.8</v>
@@ -2862,7 +3099,7 @@
         <v>1.787453548200057</v>
       </c>
       <c r="I62" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2873,10 +3110,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="E63">
         <v>10000</v>
@@ -2891,7 +3128,7 @@
         <v>2.0358</v>
       </c>
       <c r="I63" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2902,10 +3139,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="E64">
         <v>103850</v>
@@ -2920,7 +3157,7 @@
         <v>0.001463649494463168</v>
       </c>
       <c r="I64" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2934,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="E65">
         <v>10000</v>
@@ -2949,7 +3186,7 @@
         <v>2.9507</v>
       </c>
       <c r="I65" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2960,10 +3197,10 @@
         <v>73</v>
